--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB7A09-66B4-4497-B446-D153C7BD59A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE928E-E2E4-47D9-8850-2806A2C0E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
     <t>Unnamed: 25</t>
   </si>
   <si>
-    <t>Electricity Trade Data (TWh)</t>
+    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
   </si>
   <si>
     <t>ISO</t>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE928E-E2E4-47D9-8850-2806A2C0E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA99054-9414-48C5-9E69-5AE356524079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="77">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Import</t>
+  </si>
+  <si>
+    <t>EMBER Utilization Factors</t>
   </si>
 </sst>
 </file>
@@ -3478,7 +3481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -3958,6 +3961,659 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>2001</v>
+      </c>
+      <c r="D17">
+        <v>2002</v>
+      </c>
+      <c r="E17">
+        <v>2003</v>
+      </c>
+      <c r="F17">
+        <v>2004</v>
+      </c>
+      <c r="G17">
+        <v>2005</v>
+      </c>
+      <c r="H17">
+        <v>2006</v>
+      </c>
+      <c r="I17">
+        <v>2007</v>
+      </c>
+      <c r="J17">
+        <v>2008</v>
+      </c>
+      <c r="K17">
+        <v>2009</v>
+      </c>
+      <c r="L17">
+        <v>2010</v>
+      </c>
+      <c r="M17">
+        <v>2011</v>
+      </c>
+      <c r="N17">
+        <v>2012</v>
+      </c>
+      <c r="O17">
+        <v>2013</v>
+      </c>
+      <c r="P17">
+        <v>2014</v>
+      </c>
+      <c r="Q17">
+        <v>2015</v>
+      </c>
+      <c r="R17">
+        <v>2016</v>
+      </c>
+      <c r="S17">
+        <v>2017</v>
+      </c>
+      <c r="T17">
+        <v>2018</v>
+      </c>
+      <c r="U17">
+        <v>2019</v>
+      </c>
+      <c r="V17">
+        <v>2020</v>
+      </c>
+      <c r="W17">
+        <v>2021</v>
+      </c>
+      <c r="X17">
+        <v>2022</v>
+      </c>
+      <c r="Y17">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="K18">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="L18">
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="M18">
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="N18">
+        <v>0.7990867579908677</v>
+      </c>
+      <c r="O18">
+        <v>0.41856925418569257</v>
+      </c>
+      <c r="P18">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="Q18">
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="R18">
+        <v>0.66590563165905636</v>
+      </c>
+      <c r="S18">
+        <v>0.91324200913242015</v>
+      </c>
+      <c r="T18">
+        <v>2.5603392041748205</v>
+      </c>
+      <c r="U18">
+        <v>3.4627092846270933</v>
+      </c>
+      <c r="V18">
+        <v>3.8812785388127851</v>
+      </c>
+      <c r="W18">
+        <v>5.9132420091324196</v>
+      </c>
+      <c r="X18">
+        <v>5.1141552511415531</v>
+      </c>
+      <c r="Y18">
+        <v>4.9771689497716896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0.34409073920603195</v>
+      </c>
+      <c r="C19">
+        <v>0.39609028421001313</v>
+      </c>
+      <c r="D19">
+        <v>0.34896569655015519</v>
+      </c>
+      <c r="E19">
+        <v>0.3908090804205463</v>
+      </c>
+      <c r="F19">
+        <v>0.3922789539227895</v>
+      </c>
+      <c r="G19">
+        <v>0.38314653383146535</v>
+      </c>
+      <c r="H19">
+        <v>0.396222498962225</v>
+      </c>
+      <c r="I19">
+        <v>0.46430053964300544</v>
+      </c>
+      <c r="J19">
+        <v>0.48111249481112495</v>
+      </c>
+      <c r="K19">
+        <v>0.42782873873654675</v>
+      </c>
+      <c r="L19">
+        <v>0.45844586648499153</v>
+      </c>
+      <c r="M19">
+        <v>0.49726171897578175</v>
+      </c>
+      <c r="N19">
+        <v>0.41309028379862439</v>
+      </c>
+      <c r="O19">
+        <v>0.36227010141320837</v>
+      </c>
+      <c r="P19">
+        <v>0.41231328844516674</v>
+      </c>
+      <c r="Q19">
+        <v>0.50828415182197206</v>
+      </c>
+      <c r="R19">
+        <v>0.4369935206742831</v>
+      </c>
+      <c r="S19">
+        <v>0.46734400271649285</v>
+      </c>
+      <c r="T19">
+        <v>0.41685655309224456</v>
+      </c>
+      <c r="U19">
+        <v>0.38424076705180099</v>
+      </c>
+      <c r="V19">
+        <v>0.30180771877150181</v>
+      </c>
+      <c r="W19">
+        <v>0.38178341330902782</v>
+      </c>
+      <c r="X19">
+        <v>0.48677943686388042</v>
+      </c>
+      <c r="Y19">
+        <v>0.25824553878597789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0.19642930601834707</v>
+      </c>
+      <c r="C20">
+        <v>0.19642930601834707</v>
+      </c>
+      <c r="D20">
+        <v>0.1583775556378296</v>
+      </c>
+      <c r="E20">
+        <v>0.18100292072894811</v>
+      </c>
+      <c r="F20">
+        <v>0.15323542720802993</v>
+      </c>
+      <c r="G20">
+        <v>0.1779176436710683</v>
+      </c>
+      <c r="H20">
+        <v>0.22213994816734542</v>
+      </c>
+      <c r="I20">
+        <v>0.23228111971411552</v>
+      </c>
+      <c r="J20">
+        <v>0.23426642842962081</v>
+      </c>
+      <c r="K20">
+        <v>0.19456025411951558</v>
+      </c>
+      <c r="L20">
+        <v>0.19555290847726822</v>
+      </c>
+      <c r="M20">
+        <v>0.19786910197869106</v>
+      </c>
+      <c r="N20">
+        <v>0.22450532724505329</v>
+      </c>
+      <c r="O20">
+        <v>0.2226027397260274</v>
+      </c>
+      <c r="P20">
+        <v>0.20357686453576868</v>
+      </c>
+      <c r="Q20">
+        <v>0.17694063926940642</v>
+      </c>
+      <c r="R20">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="S20">
+        <v>0.18359969558599698</v>
+      </c>
+      <c r="T20">
+        <v>0.19216133942161343</v>
+      </c>
+      <c r="U20">
+        <v>0.20452815829528159</v>
+      </c>
+      <c r="V20">
+        <v>0.21784627092846273</v>
+      </c>
+      <c r="W20">
+        <v>0.29014459665144599</v>
+      </c>
+      <c r="X20">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="Y20">
+        <v>0.14840182648401828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>0.29434148088459128</v>
+      </c>
+      <c r="C21">
+        <v>0.22423352902804958</v>
+      </c>
+      <c r="D21">
+        <v>0.22408253001860307</v>
+      </c>
+      <c r="E21">
+        <v>0.20686315206863154</v>
+      </c>
+      <c r="F21">
+        <v>0.18103408514367419</v>
+      </c>
+      <c r="G21">
+        <v>0.24791291914579586</v>
+      </c>
+      <c r="H21">
+        <v>0.2427240440939071</v>
+      </c>
+      <c r="I21">
+        <v>0.16072605011472321</v>
+      </c>
+      <c r="J21">
+        <v>0.1502326182476092</v>
+      </c>
+      <c r="K21">
+        <v>0.18296846327828276</v>
+      </c>
+      <c r="L21">
+        <v>0.26339491433119683</v>
+      </c>
+      <c r="M21">
+        <v>0.14626141552511415</v>
+      </c>
+      <c r="N21">
+        <v>0.15647142182333496</v>
+      </c>
+      <c r="O21">
+        <v>0.19708855325293684</v>
+      </c>
+      <c r="P21">
+        <v>0.22250599798777185</v>
+      </c>
+      <c r="Q21">
+        <v>0.27329541057193724</v>
+      </c>
+      <c r="R21">
+        <v>0.18767897221577279</v>
+      </c>
+      <c r="S21">
+        <v>0.12870890865760704</v>
+      </c>
+      <c r="T21">
+        <v>0.23422292564900221</v>
+      </c>
+      <c r="U21">
+        <v>0.13325692663137406</v>
+      </c>
+      <c r="V21">
+        <v>0.12825410686023031</v>
+      </c>
+      <c r="W21">
+        <v>0.21921446633557101</v>
+      </c>
+      <c r="X21">
+        <v>0.17145847997545438</v>
+      </c>
+      <c r="Y21">
+        <v>0.14032522966412186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>0.58791571267802401</v>
+      </c>
+      <c r="C22">
+        <v>0.632219592016247</v>
+      </c>
+      <c r="D22">
+        <v>0.84860999194198217</v>
+      </c>
+      <c r="E22">
+        <v>0.72522159548751008</v>
+      </c>
+      <c r="F22">
+        <v>0.70591592801504166</v>
+      </c>
+      <c r="G22">
+        <v>0.78271890948160072</v>
+      </c>
+      <c r="H22">
+        <v>0.81797273704002138</v>
+      </c>
+      <c r="I22">
+        <v>0.88425019931869253</v>
+      </c>
+      <c r="J22">
+        <v>0.95250175158850958</v>
+      </c>
+      <c r="K22">
+        <v>0.92169795366142393</v>
+      </c>
+      <c r="L22">
+        <v>0.92109395762363799</v>
+      </c>
+      <c r="M22">
+        <v>0.98511753762895304</v>
+      </c>
+      <c r="N22">
+        <v>0.94312558272968505</v>
+      </c>
+      <c r="O22">
+        <v>0.81695954983626218</v>
+      </c>
+      <c r="P22">
+        <v>0.91497163414971638</v>
+      </c>
+      <c r="Q22">
+        <v>0.88672109220054429</v>
+      </c>
+      <c r="R22">
+        <v>0.91440094569223274</v>
+      </c>
+      <c r="S22">
+        <v>0.90107317525438657</v>
+      </c>
+      <c r="T22">
+        <v>0.91608169199663791</v>
+      </c>
+      <c r="U22">
+        <v>0.94050296462891025</v>
+      </c>
+      <c r="V22">
+        <v>0.9444785206388151</v>
+      </c>
+      <c r="W22">
+        <v>0.93652740861900541</v>
+      </c>
+      <c r="X22">
+        <v>0.93482359890047495</v>
+      </c>
+      <c r="Y22">
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>65535</v>
+      </c>
+      <c r="C23">
+        <v>65535</v>
+      </c>
+      <c r="D23">
+        <v>65535</v>
+      </c>
+      <c r="E23">
+        <v>65535</v>
+      </c>
+      <c r="F23">
+        <v>65535</v>
+      </c>
+      <c r="G23">
+        <v>65535</v>
+      </c>
+      <c r="H23">
+        <v>65535</v>
+      </c>
+      <c r="I23">
+        <v>65535</v>
+      </c>
+      <c r="J23">
+        <v>65535</v>
+      </c>
+      <c r="K23">
+        <v>65535</v>
+      </c>
+      <c r="L23">
+        <v>65535</v>
+      </c>
+      <c r="M23">
+        <v>65535</v>
+      </c>
+      <c r="N23">
+        <v>65535</v>
+      </c>
+      <c r="O23">
+        <v>65535</v>
+      </c>
+      <c r="P23">
+        <v>65535</v>
+      </c>
+      <c r="Q23">
+        <v>65535</v>
+      </c>
+      <c r="R23">
+        <v>65535</v>
+      </c>
+      <c r="S23">
+        <v>65535</v>
+      </c>
+      <c r="T23">
+        <v>65535</v>
+      </c>
+      <c r="U23">
+        <v>65535</v>
+      </c>
+      <c r="V23">
+        <v>65535</v>
+      </c>
+      <c r="W23">
+        <v>65535</v>
+      </c>
+      <c r="X23">
+        <v>65535</v>
+      </c>
+      <c r="Y23">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="M24">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="N24">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="P24">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="Q24">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="R24">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="S24">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="T24">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="U24">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="V24">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="W24">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="X24">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="Y24">
+        <v>0.13667567483614451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="J25">
+        <v>0.12453300124533001</v>
+      </c>
+      <c r="K25">
+        <v>8.3022000830220002E-2</v>
+      </c>
+      <c r="L25">
+        <v>0.15841953219644023</v>
+      </c>
+      <c r="M25">
+        <v>0.18180280737358362</v>
+      </c>
+      <c r="N25">
+        <v>0.20480795057749127</v>
+      </c>
+      <c r="O25">
+        <v>0.22998925597636316</v>
+      </c>
+      <c r="P25">
+        <v>0.21689497716894979</v>
+      </c>
+      <c r="Q25">
+        <v>0.23646444879321593</v>
+      </c>
+      <c r="R25">
+        <v>0.23157208088714937</v>
+      </c>
+      <c r="S25">
+        <v>0.24461839530332682</v>
+      </c>
+      <c r="T25">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="U25">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="V25">
+        <v>0.24135681669928247</v>
+      </c>
+      <c r="W25">
+        <v>0.23320287018917157</v>
+      </c>
+      <c r="X25">
+        <v>0.23483365949119375</v>
+      </c>
+      <c r="Y25">
+        <v>0.25277234181343772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA99054-9414-48C5-9E69-5AE356524079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE50CF0-6118-48A7-8DD6-DA65DD2ED668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="79">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
+  </si>
+  <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>EMBER Generation (TWh)</t>
   </si>
 </sst>
 </file>
@@ -3481,7 +3487,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -4614,6 +4620,1402 @@
         <v>0.25277234181343772</v>
       </c>
     </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>2000</v>
+      </c>
+      <c r="C29">
+        <v>2001</v>
+      </c>
+      <c r="D29">
+        <v>2002</v>
+      </c>
+      <c r="E29">
+        <v>2003</v>
+      </c>
+      <c r="F29">
+        <v>2004</v>
+      </c>
+      <c r="G29">
+        <v>2005</v>
+      </c>
+      <c r="H29">
+        <v>2006</v>
+      </c>
+      <c r="I29">
+        <v>2007</v>
+      </c>
+      <c r="J29">
+        <v>2008</v>
+      </c>
+      <c r="K29">
+        <v>2009</v>
+      </c>
+      <c r="L29">
+        <v>2010</v>
+      </c>
+      <c r="M29">
+        <v>2011</v>
+      </c>
+      <c r="N29">
+        <v>2012</v>
+      </c>
+      <c r="O29">
+        <v>2013</v>
+      </c>
+      <c r="P29">
+        <v>2014</v>
+      </c>
+      <c r="Q29">
+        <v>2015</v>
+      </c>
+      <c r="R29">
+        <v>2016</v>
+      </c>
+      <c r="S29">
+        <v>2017</v>
+      </c>
+      <c r="T29">
+        <v>2018</v>
+      </c>
+      <c r="U29">
+        <v>2019</v>
+      </c>
+      <c r="V29">
+        <v>2020</v>
+      </c>
+      <c r="W29">
+        <v>2021</v>
+      </c>
+      <c r="X29">
+        <v>2022</v>
+      </c>
+      <c r="Y29">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.05</v>
+      </c>
+      <c r="C30">
+        <v>0.05</v>
+      </c>
+      <c r="D30">
+        <v>0.05</v>
+      </c>
+      <c r="E30">
+        <v>0.01</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="G30">
+        <v>0.01</v>
+      </c>
+      <c r="H30">
+        <v>0.01</v>
+      </c>
+      <c r="I30">
+        <v>0.01</v>
+      </c>
+      <c r="J30">
+        <v>0.01</v>
+      </c>
+      <c r="K30">
+        <v>0.01</v>
+      </c>
+      <c r="L30">
+        <v>0.01</v>
+      </c>
+      <c r="M30">
+        <v>0.01</v>
+      </c>
+      <c r="N30">
+        <v>0.01</v>
+      </c>
+      <c r="O30">
+        <v>0.03</v>
+      </c>
+      <c r="P30">
+        <v>0.04</v>
+      </c>
+      <c r="Q30">
+        <v>0.05</v>
+      </c>
+      <c r="R30">
+        <v>0.06</v>
+      </c>
+      <c r="S30">
+        <v>0.05</v>
+      </c>
+      <c r="T30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U30">
+        <v>0.06</v>
+      </c>
+      <c r="V30">
+        <v>0.05</v>
+      </c>
+      <c r="W30">
+        <v>0.05</v>
+      </c>
+      <c r="X30">
+        <v>0.05</v>
+      </c>
+      <c r="Y30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>5.62</v>
+      </c>
+      <c r="C31">
+        <v>5.62</v>
+      </c>
+      <c r="D31">
+        <v>5.62</v>
+      </c>
+      <c r="E31">
+        <v>5.62</v>
+      </c>
+      <c r="F31">
+        <v>5.5</v>
+      </c>
+      <c r="G31">
+        <v>5.5</v>
+      </c>
+      <c r="H31">
+        <v>5.5</v>
+      </c>
+      <c r="I31">
+        <v>5.5</v>
+      </c>
+      <c r="J31">
+        <v>5.5</v>
+      </c>
+      <c r="K31">
+        <v>5.63</v>
+      </c>
+      <c r="L31">
+        <v>5.63</v>
+      </c>
+      <c r="M31">
+        <v>6.32</v>
+      </c>
+      <c r="N31">
+        <v>6.32</v>
+      </c>
+      <c r="O31">
+        <v>6.11</v>
+      </c>
+      <c r="P31">
+        <v>5.9</v>
+      </c>
+      <c r="Q31">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R31">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="T31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="V31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="W31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="X31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Y31">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M32">
+        <v>1.2</v>
+      </c>
+      <c r="N32">
+        <v>1.2</v>
+      </c>
+      <c r="O32">
+        <v>1.2</v>
+      </c>
+      <c r="P32">
+        <v>1.2</v>
+      </c>
+      <c r="Q32">
+        <v>1.2</v>
+      </c>
+      <c r="R32">
+        <v>1.2</v>
+      </c>
+      <c r="S32">
+        <v>1.2</v>
+      </c>
+      <c r="T32">
+        <v>1.2</v>
+      </c>
+      <c r="U32">
+        <v>1.2</v>
+      </c>
+      <c r="V32">
+        <v>1.2</v>
+      </c>
+      <c r="W32">
+        <v>1.2</v>
+      </c>
+      <c r="X32">
+        <v>1.2</v>
+      </c>
+      <c r="Y32">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>1.02</v>
+      </c>
+      <c r="C33">
+        <v>0.84</v>
+      </c>
+      <c r="D33">
+        <v>1.08</v>
+      </c>
+      <c r="E33">
+        <v>1.65</v>
+      </c>
+      <c r="F33">
+        <v>1.98</v>
+      </c>
+      <c r="G33">
+        <v>1.98</v>
+      </c>
+      <c r="H33">
+        <v>1.98</v>
+      </c>
+      <c r="I33">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J33">
+        <v>2.12</v>
+      </c>
+      <c r="K33">
+        <v>2.14</v>
+      </c>
+      <c r="L33">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M33">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N33">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O33">
+        <v>2.34</v>
+      </c>
+      <c r="P33">
+        <v>2.36</v>
+      </c>
+      <c r="Q33">
+        <v>2.36</v>
+      </c>
+      <c r="R33">
+        <v>2.36</v>
+      </c>
+      <c r="S33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="T33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="U33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="V33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="W33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="X33">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Y33">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>3.53</v>
+      </c>
+      <c r="C34">
+        <v>3.53</v>
+      </c>
+      <c r="D34">
+        <v>2.72</v>
+      </c>
+      <c r="E34">
+        <v>2.72</v>
+      </c>
+      <c r="F34">
+        <v>2.72</v>
+      </c>
+      <c r="G34">
+        <v>2.72</v>
+      </c>
+      <c r="H34">
+        <v>2.72</v>
+      </c>
+      <c r="I34">
+        <v>1.89</v>
+      </c>
+      <c r="J34">
+        <v>1.89</v>
+      </c>
+      <c r="K34">
+        <v>1.89</v>
+      </c>
+      <c r="L34">
+        <v>1.89</v>
+      </c>
+      <c r="M34">
+        <v>1.89</v>
+      </c>
+      <c r="N34">
+        <v>1.91</v>
+      </c>
+      <c r="O34">
+        <v>1.98</v>
+      </c>
+      <c r="P34">
+        <v>1.98</v>
+      </c>
+      <c r="Q34">
+        <v>1.98</v>
+      </c>
+      <c r="R34">
+        <v>1.97</v>
+      </c>
+      <c r="S34">
+        <v>1.97</v>
+      </c>
+      <c r="T34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="W34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="X34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y34">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0.03</v>
+      </c>
+      <c r="M36">
+        <v>0.15</v>
+      </c>
+      <c r="N36">
+        <v>0.92</v>
+      </c>
+      <c r="O36">
+        <v>1.04</v>
+      </c>
+      <c r="P36">
+        <v>1.03</v>
+      </c>
+      <c r="Q36">
+        <v>1.03</v>
+      </c>
+      <c r="R36">
+        <v>1.03</v>
+      </c>
+      <c r="S36">
+        <v>1.03</v>
+      </c>
+      <c r="T36">
+        <v>1.03</v>
+      </c>
+      <c r="U36">
+        <v>1.04</v>
+      </c>
+      <c r="V36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W36">
+        <v>1.27</v>
+      </c>
+      <c r="X36">
+        <v>1.74</v>
+      </c>
+      <c r="Y36">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.01</v>
+      </c>
+      <c r="H37">
+        <v>0.03</v>
+      </c>
+      <c r="I37">
+        <v>0.03</v>
+      </c>
+      <c r="J37">
+        <v>0.11</v>
+      </c>
+      <c r="K37">
+        <v>0.33</v>
+      </c>
+      <c r="L37">
+        <v>0.49</v>
+      </c>
+      <c r="M37">
+        <v>0.54</v>
+      </c>
+      <c r="N37">
+        <v>0.68</v>
+      </c>
+      <c r="O37">
+        <v>0.68</v>
+      </c>
+      <c r="P37">
+        <v>0.7</v>
+      </c>
+      <c r="Q37">
+        <v>0.7</v>
+      </c>
+      <c r="R37">
+        <v>0.7</v>
+      </c>
+      <c r="S37">
+        <v>0.7</v>
+      </c>
+      <c r="T37">
+        <v>0.7</v>
+      </c>
+      <c r="U37">
+        <v>0.7</v>
+      </c>
+      <c r="V37">
+        <v>0.7</v>
+      </c>
+      <c r="W37">
+        <v>0.7</v>
+      </c>
+      <c r="X37">
+        <v>0.7</v>
+      </c>
+      <c r="Y37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2000</v>
+      </c>
+      <c r="C41">
+        <v>2001</v>
+      </c>
+      <c r="D41">
+        <v>2002</v>
+      </c>
+      <c r="E41">
+        <v>2003</v>
+      </c>
+      <c r="F41">
+        <v>2004</v>
+      </c>
+      <c r="G41">
+        <v>2005</v>
+      </c>
+      <c r="H41">
+        <v>2006</v>
+      </c>
+      <c r="I41">
+        <v>2007</v>
+      </c>
+      <c r="J41">
+        <v>2008</v>
+      </c>
+      <c r="K41">
+        <v>2009</v>
+      </c>
+      <c r="L41">
+        <v>2010</v>
+      </c>
+      <c r="M41">
+        <v>2011</v>
+      </c>
+      <c r="N41">
+        <v>2012</v>
+      </c>
+      <c r="O41">
+        <v>2013</v>
+      </c>
+      <c r="P41">
+        <v>2014</v>
+      </c>
+      <c r="Q41">
+        <v>2015</v>
+      </c>
+      <c r="R41">
+        <v>2016</v>
+      </c>
+      <c r="S41">
+        <v>2017</v>
+      </c>
+      <c r="T41">
+        <v>2018</v>
+      </c>
+      <c r="U41">
+        <v>2019</v>
+      </c>
+      <c r="V41">
+        <v>2020</v>
+      </c>
+      <c r="W41">
+        <v>2021</v>
+      </c>
+      <c r="X41">
+        <v>2022</v>
+      </c>
+      <c r="Y41">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.02</v>
+      </c>
+      <c r="K42">
+        <v>0.01</v>
+      </c>
+      <c r="L42">
+        <v>0.04</v>
+      </c>
+      <c r="M42">
+        <v>0.06</v>
+      </c>
+      <c r="N42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O42">
+        <v>0.11</v>
+      </c>
+      <c r="P42">
+        <v>0.2</v>
+      </c>
+      <c r="Q42">
+        <v>0.27</v>
+      </c>
+      <c r="R42">
+        <v>0.35</v>
+      </c>
+      <c r="S42">
+        <v>0.4</v>
+      </c>
+      <c r="T42">
+        <v>1.57</v>
+      </c>
+      <c r="U42">
+        <v>1.82</v>
+      </c>
+      <c r="V42">
+        <v>1.7</v>
+      </c>
+      <c r="W42">
+        <v>2.59</v>
+      </c>
+      <c r="X42">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="C43">
+        <v>19.5</v>
+      </c>
+      <c r="D43">
+        <v>17.18</v>
+      </c>
+      <c r="E43">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="F43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G43">
+        <v>18.46</v>
+      </c>
+      <c r="H43">
+        <v>19.09</v>
+      </c>
+      <c r="I43">
+        <v>22.37</v>
+      </c>
+      <c r="J43">
+        <v>23.18</v>
+      </c>
+      <c r="K43">
+        <v>21.1</v>
+      </c>
+      <c r="L43">
+        <v>22.61</v>
+      </c>
+      <c r="M43">
+        <v>27.53</v>
+      </c>
+      <c r="N43">
+        <v>22.87</v>
+      </c>
+      <c r="O43">
+        <v>19.39</v>
+      </c>
+      <c r="P43">
+        <v>21.31</v>
+      </c>
+      <c r="Q43">
+        <v>22.53</v>
+      </c>
+      <c r="R43">
+        <v>19.37</v>
+      </c>
+      <c r="S43">
+        <v>20.92</v>
+      </c>
+      <c r="T43">
+        <v>18.66</v>
+      </c>
+      <c r="U43">
+        <v>17.2</v>
+      </c>
+      <c r="V43">
+        <v>13.51</v>
+      </c>
+      <c r="W43">
+        <v>17.09</v>
+      </c>
+      <c r="X43">
+        <v>21.79</v>
+      </c>
+      <c r="Y43">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>1.91</v>
+      </c>
+      <c r="C44">
+        <v>1.91</v>
+      </c>
+      <c r="D44">
+        <v>1.54</v>
+      </c>
+      <c r="E44">
+        <v>1.76</v>
+      </c>
+      <c r="F44">
+        <v>1.49</v>
+      </c>
+      <c r="G44">
+        <v>1.73</v>
+      </c>
+      <c r="H44">
+        <v>2.16</v>
+      </c>
+      <c r="I44">
+        <v>2.34</v>
+      </c>
+      <c r="J44">
+        <v>2.36</v>
+      </c>
+      <c r="K44">
+        <v>1.96</v>
+      </c>
+      <c r="L44">
+        <v>1.97</v>
+      </c>
+      <c r="M44">
+        <v>2.08</v>
+      </c>
+      <c r="N44">
+        <v>2.36</v>
+      </c>
+      <c r="O44">
+        <v>2.34</v>
+      </c>
+      <c r="P44">
+        <v>2.14</v>
+      </c>
+      <c r="Q44">
+        <v>1.86</v>
+      </c>
+      <c r="R44">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S44">
+        <v>1.93</v>
+      </c>
+      <c r="T44">
+        <v>2.02</v>
+      </c>
+      <c r="U44">
+        <v>2.15</v>
+      </c>
+      <c r="V44">
+        <v>2.29</v>
+      </c>
+      <c r="W44">
+        <v>3.05</v>
+      </c>
+      <c r="X44">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>2.63</v>
+      </c>
+      <c r="C45">
+        <v>1.65</v>
+      </c>
+      <c r="D45">
+        <v>2.12</v>
+      </c>
+      <c r="E45">
+        <v>2.99</v>
+      </c>
+      <c r="F45">
+        <v>3.14</v>
+      </c>
+      <c r="G45">
+        <v>4.3</v>
+      </c>
+      <c r="H45">
+        <v>4.21</v>
+      </c>
+      <c r="I45">
+        <v>2.83</v>
+      </c>
+      <c r="J45">
+        <v>2.79</v>
+      </c>
+      <c r="K45">
+        <v>3.43</v>
+      </c>
+      <c r="L45">
+        <v>5.03</v>
+      </c>
+      <c r="M45">
+        <v>2.87</v>
+      </c>
+      <c r="N45">
+        <v>3.18</v>
+      </c>
+      <c r="O45">
+        <v>4.04</v>
+      </c>
+      <c r="P45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q45">
+        <v>5.65</v>
+      </c>
+      <c r="R45">
+        <v>3.88</v>
+      </c>
+      <c r="S45">
+        <v>2.83</v>
+      </c>
+      <c r="T45">
+        <v>5.15</v>
+      </c>
+      <c r="U45">
+        <v>2.93</v>
+      </c>
+      <c r="V45">
+        <v>2.82</v>
+      </c>
+      <c r="W45">
+        <v>4.82</v>
+      </c>
+      <c r="X45">
+        <v>3.8</v>
+      </c>
+      <c r="Y45">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>18.18</v>
+      </c>
+      <c r="C46">
+        <v>19.55</v>
+      </c>
+      <c r="D46">
+        <v>20.22</v>
+      </c>
+      <c r="E46">
+        <v>17.28</v>
+      </c>
+      <c r="F46">
+        <v>16.82</v>
+      </c>
+      <c r="G46">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H46">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I46">
+        <v>14.64</v>
+      </c>
+      <c r="J46">
+        <v>15.77</v>
+      </c>
+      <c r="K46">
+        <v>15.26</v>
+      </c>
+      <c r="L46">
+        <v>15.25</v>
+      </c>
+      <c r="M46">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N46">
+        <v>15.78</v>
+      </c>
+      <c r="O46">
+        <v>14.17</v>
+      </c>
+      <c r="P46">
+        <v>15.87</v>
+      </c>
+      <c r="Q46">
+        <v>15.38</v>
+      </c>
+      <c r="R46">
+        <v>15.78</v>
+      </c>
+      <c r="S46">
+        <v>15.55</v>
+      </c>
+      <c r="T46">
+        <v>16.13</v>
+      </c>
+      <c r="U46">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V46">
+        <v>16.63</v>
+      </c>
+      <c r="W46">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X46">
+        <v>16.46</v>
+      </c>
+      <c r="Y46">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>0.93</v>
+      </c>
+      <c r="C47">
+        <v>0.83</v>
+      </c>
+      <c r="D47">
+        <v>1.02</v>
+      </c>
+      <c r="E47">
+        <v>1.01</v>
+      </c>
+      <c r="F47">
+        <v>1.01</v>
+      </c>
+      <c r="G47">
+        <v>0.75</v>
+      </c>
+      <c r="H47">
+        <v>0.47</v>
+      </c>
+      <c r="I47">
+        <v>0.59</v>
+      </c>
+      <c r="J47">
+        <v>0.25</v>
+      </c>
+      <c r="K47">
+        <v>0.31</v>
+      </c>
+      <c r="L47">
+        <v>0.34</v>
+      </c>
+      <c r="M47">
+        <v>0.15</v>
+      </c>
+      <c r="N47">
+        <v>0.2</v>
+      </c>
+      <c r="O47">
+        <v>0.21</v>
+      </c>
+      <c r="P47">
+        <v>0.21</v>
+      </c>
+      <c r="Q47">
+        <v>0.19</v>
+      </c>
+      <c r="R47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S47">
+        <v>0.31</v>
+      </c>
+      <c r="T47">
+        <v>0.32</v>
+      </c>
+      <c r="U47">
+        <v>0.32</v>
+      </c>
+      <c r="V47">
+        <v>0.24</v>
+      </c>
+      <c r="W47">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X47">
+        <v>0.35</v>
+      </c>
+      <c r="Y47">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0.01</v>
+      </c>
+      <c r="M48">
+        <v>0.1</v>
+      </c>
+      <c r="N48">
+        <v>0.78</v>
+      </c>
+      <c r="O48">
+        <v>1.39</v>
+      </c>
+      <c r="P48">
+        <v>1.26</v>
+      </c>
+      <c r="Q48">
+        <v>1.38</v>
+      </c>
+      <c r="R48">
+        <v>1.39</v>
+      </c>
+      <c r="S48">
+        <v>1.4</v>
+      </c>
+      <c r="T48">
+        <v>1.34</v>
+      </c>
+      <c r="U48">
+        <v>1.42</v>
+      </c>
+      <c r="V48">
+        <v>1.47</v>
+      </c>
+      <c r="W48">
+        <v>1.47</v>
+      </c>
+      <c r="X48">
+        <v>2.09</v>
+      </c>
+      <c r="Y48">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.02</v>
+      </c>
+      <c r="I49">
+        <v>0.05</v>
+      </c>
+      <c r="J49">
+        <v>0.12</v>
+      </c>
+      <c r="K49">
+        <v>0.24</v>
+      </c>
+      <c r="L49">
+        <v>0.68</v>
+      </c>
+      <c r="M49">
+        <v>0.86</v>
+      </c>
+      <c r="N49">
+        <v>1.22</v>
+      </c>
+      <c r="O49">
+        <v>1.37</v>
+      </c>
+      <c r="P49">
+        <v>1.33</v>
+      </c>
+      <c r="Q49">
+        <v>1.45</v>
+      </c>
+      <c r="R49">
+        <v>1.42</v>
+      </c>
+      <c r="S49">
+        <v>1.5</v>
+      </c>
+      <c r="T49">
+        <v>1.32</v>
+      </c>
+      <c r="U49">
+        <v>1.32</v>
+      </c>
+      <c r="V49">
+        <v>1.48</v>
+      </c>
+      <c r="W49">
+        <v>1.43</v>
+      </c>
+      <c r="X49">
+        <v>1.44</v>
+      </c>
+      <c r="Y49">
+        <v>1.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE50CF0-6118-48A7-8DD6-DA65DD2ED668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB3D78-ADA8-4152-9194-FBE7B46D68A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="82">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -151,30 +151,9 @@
     <t>oil</t>
   </si>
   <si>
-    <t>iso_code</t>
-  </si>
-  <si>
     <t>model_fuel</t>
   </si>
   <si>
-    <t>generation_twh_gem_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_ember</t>
-  </si>
-  <si>
-    <t>generation_twh_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_ember</t>
-  </si>
-  <si>
-    <t>utilization_factor_irena</t>
-  </si>
-  <si>
-    <t>utilization_factor_ember</t>
-  </si>
-  <si>
     <t>hydro</t>
   </si>
   <si>
@@ -199,6 +178,30 @@
     <t>BGR</t>
   </si>
   <si>
+    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
+  </si>
+  <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
     <t>Unnamed: 8</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
     <t>Unnamed: 25</t>
   </si>
   <si>
-    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
-  </si>
-  <si>
     <t>ISO</t>
   </si>
   <si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>EMBER Generation (TWh)</t>
+  </si>
+  <si>
+    <t>IRENA Utilization Factors</t>
+  </si>
+  <si>
+    <t>IRENA Capacity (GW)</t>
+  </si>
+  <si>
+    <t>IRENA Generation (TWh)</t>
   </si>
 </sst>
 </file>
@@ -794,10 +803,10 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(historical_data!F2:F16)</f>
-        <v>2058.8000000000002</v>
+        <v>69551.532464394288</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -920,37 +929,37 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>53.505536723163843</v>
+        <v>1807.553951052055</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>53.505536723163843</v>
+        <v>1807.553951052055</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>53.505536723163843</v>
+        <v>1807.553951052055</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>53.505536723163843</v>
+        <v>1807.553951052055</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>53.505536723163843</v>
+        <v>1807.553951052055</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>53.505536723163843</v>
+        <v>1807.553951052055</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>53.505536723163843</v>
+        <v>1807.553951052055</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="7:25" x14ac:dyDescent="0.45">
@@ -987,31 +996,31 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>1412.0809039548024</v>
+        <v>47703.706447330318</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>1533.049943502825</v>
+        <v>51790.350162752358</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>1647.0400000000002</v>
+        <v>55641.225971515429</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>1723.8088135593223</v>
+        <v>58234.672944764025</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>1658.6716384180795</v>
+        <v>56034.172482613692</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>1665.6506214689268</v>
+        <v>56269.940389272655</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>1723.8088135593223</v>
+        <v>58234.672944764025</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1051,31 +1060,31 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>593.21355932203392</v>
+        <v>20040.272066011916</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>544.36067796610178</v>
+        <v>18389.89671939917</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>542.03435028248589</v>
+        <v>18311.307417179516</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>525.75005649717502</v>
+        <v>17761.182301641929</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>523.42372881355914</v>
+        <v>17682.592999422275</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>530.40271186440668</v>
+        <v>17918.360906081238</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>460.61288135593219</v>
+        <v>15560.681839491603</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
@@ -1083,7 +1092,7 @@
     </row>
     <row r="19" spans="7:25" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R19" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
@@ -1091,27 +1100,27 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-13.957966101694915</v>
+        <v>-471.53581331792748</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>9.3053107344632835</v>
+        <v>314.35720887861839</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>51.179209039548027</v>
+        <v>1728.9646488324004</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>148.88497175141248</v>
+        <v>5029.7153420578916</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>295.44361581920907</v>
+        <v>9980.841381896129</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>479.22350282485883</v>
+        <v>16189.39625724884</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
@@ -1185,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1232,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1279,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1326,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1373,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1420,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1467,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1514,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1561,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1608,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1655,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1702,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1749,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1796,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1843,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1890,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1937,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1984,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2031,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -2078,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2125,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -2172,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2219,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -2266,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -2313,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
@@ -2360,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -2407,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -2454,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -2501,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -2548,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -2595,7 +2604,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -2642,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -2689,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -2736,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -2783,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
@@ -2830,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -2877,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -2924,7 +2933,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -2971,7 +2980,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -3018,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -3065,7 +3074,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
@@ -3112,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -3159,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>32</v>
@@ -3206,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -3253,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -3300,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -3347,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
@@ -3394,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -3441,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
         <v>36</v>
@@ -3487,7 +3496,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -3506,2283 +3515,2648 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
       </c>
       <c r="D2">
-        <v>21.8</v>
+        <v>2001</v>
+      </c>
+      <c r="E2">
+        <v>2002</v>
       </c>
       <c r="F2">
-        <v>21.8</v>
+        <v>2003</v>
+      </c>
+      <c r="G2">
+        <v>2004</v>
       </c>
       <c r="H2">
-        <v>0.49</v>
+        <v>2005</v>
+      </c>
+      <c r="I2">
+        <v>2006</v>
+      </c>
+      <c r="J2">
+        <v>2007</v>
+      </c>
+      <c r="K2">
+        <v>2008</v>
+      </c>
+      <c r="L2">
+        <v>2009</v>
+      </c>
+      <c r="M2">
+        <v>2010</v>
+      </c>
+      <c r="N2">
+        <v>2011</v>
+      </c>
+      <c r="O2">
+        <v>2012</v>
+      </c>
+      <c r="P2">
+        <v>2013</v>
+      </c>
+      <c r="Q2">
+        <v>2014</v>
+      </c>
+      <c r="R2">
+        <v>2015</v>
+      </c>
+      <c r="S2">
+        <v>2016</v>
+      </c>
+      <c r="T2">
+        <v>2017</v>
+      </c>
+      <c r="U2">
+        <v>2018</v>
+      </c>
+      <c r="V2">
+        <v>2019</v>
+      </c>
+      <c r="W2">
+        <v>2020</v>
+      </c>
+      <c r="X2">
+        <v>2021</v>
+      </c>
+      <c r="Y2">
+        <v>2022</v>
+      </c>
+      <c r="Z2">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>5.6</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8.3000000000000007</v>
       </c>
       <c r="F3">
-        <v>2.1</v>
+        <v>6.8</v>
+      </c>
+      <c r="G3">
+        <v>6.6</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="I3">
+        <v>8.9</v>
+      </c>
+      <c r="J3">
+        <v>7.5</v>
+      </c>
+      <c r="K3">
+        <v>8.4</v>
+      </c>
+      <c r="L3">
+        <v>7.7</v>
+      </c>
+      <c r="M3">
+        <v>9.6</v>
+      </c>
+      <c r="N3">
+        <v>12.1</v>
+      </c>
+      <c r="O3">
+        <v>10.7</v>
+      </c>
+      <c r="P3">
+        <v>9.5</v>
+      </c>
+      <c r="Q3">
+        <v>13.8</v>
+      </c>
+      <c r="R3">
+        <v>14.8</v>
+      </c>
+      <c r="S3">
+        <v>10.9</v>
+      </c>
+      <c r="T3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>8.9</v>
+      </c>
+      <c r="W3">
+        <v>7.1</v>
+      </c>
+      <c r="X3">
+        <v>10.6</v>
+      </c>
+      <c r="Y3">
+        <v>13.7</v>
+      </c>
+      <c r="Z3">
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1.3</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J4">
+        <v>3.1</v>
+      </c>
+      <c r="K4">
+        <v>3.1</v>
+      </c>
+      <c r="L4">
+        <v>2.7</v>
+      </c>
+      <c r="M4">
+        <v>1.2</v>
+      </c>
+      <c r="N4">
+        <v>1.4</v>
+      </c>
+      <c r="O4">
+        <v>2.4</v>
+      </c>
+      <c r="P4">
+        <v>3.4</v>
+      </c>
+      <c r="Q4">
+        <v>4.3</v>
+      </c>
+      <c r="R4">
+        <v>4.3</v>
+      </c>
+      <c r="S4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T4">
+        <v>3.7</v>
+      </c>
+      <c r="U4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>3.9</v>
-      </c>
-      <c r="E4">
-        <v>3.8</v>
-      </c>
-      <c r="F4">
-        <v>3.8</v>
-      </c>
-      <c r="G4">
-        <v>0.13</v>
-      </c>
-      <c r="H4">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>16.5</v>
-      </c>
-      <c r="F5">
-        <v>16.5</v>
-      </c>
-      <c r="G5">
-        <v>0.94</v>
-      </c>
-      <c r="H5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
+      <c r="W4">
+        <v>3.7</v>
+      </c>
+      <c r="X4">
         <v>1.9</v>
       </c>
-      <c r="D6">
-        <v>1.9</v>
-      </c>
-      <c r="E6">
-        <v>2.1</v>
-      </c>
-      <c r="F6">
-        <v>2.1</v>
-      </c>
-      <c r="G6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.14000000000000001</v>
+      <c r="Y4">
+        <v>1.5</v>
+      </c>
+      <c r="Z4">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>1.3</v>
-      </c>
-      <c r="D7">
-        <v>1.3</v>
-      </c>
-      <c r="E7">
-        <v>1.5</v>
-      </c>
-      <c r="F7">
-        <v>1.4</v>
-      </c>
-      <c r="G7">
-        <v>0.24</v>
-      </c>
-      <c r="H7">
-        <v>0.23</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8">
+        <v>2003</v>
+      </c>
+      <c r="F8">
+        <v>2004</v>
+      </c>
+      <c r="G8">
+        <v>2005</v>
+      </c>
+      <c r="H8">
+        <v>2006</v>
+      </c>
+      <c r="I8">
+        <v>2007</v>
+      </c>
+      <c r="J8">
+        <v>2008</v>
+      </c>
+      <c r="K8">
+        <v>2009</v>
+      </c>
+      <c r="L8">
+        <v>2010</v>
+      </c>
+      <c r="M8">
+        <v>2011</v>
+      </c>
+      <c r="N8">
+        <v>2012</v>
+      </c>
+      <c r="O8">
+        <v>2013</v>
+      </c>
+      <c r="P8">
+        <v>2014</v>
+      </c>
+      <c r="Q8">
+        <v>2015</v>
+      </c>
+      <c r="R8">
+        <v>2016</v>
+      </c>
+      <c r="S8">
+        <v>2017</v>
+      </c>
+      <c r="T8">
+        <v>2018</v>
+      </c>
+      <c r="U8">
+        <v>2019</v>
+      </c>
+      <c r="V8">
+        <v>2020</v>
+      </c>
+      <c r="W8">
+        <v>2021</v>
+      </c>
+      <c r="X8">
+        <v>2022</v>
+      </c>
+      <c r="Y8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="K9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="L9">
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="M9">
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="N9">
+        <v>0.7990867579908677</v>
+      </c>
+      <c r="O9">
+        <v>0.41856925418569257</v>
+      </c>
+      <c r="P9">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="Q9">
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="R9">
+        <v>0.66590563165905636</v>
+      </c>
+      <c r="S9">
+        <v>0.91324200913242015</v>
+      </c>
+      <c r="T9">
+        <v>2.5603392041748205</v>
+      </c>
+      <c r="U9">
+        <v>3.4627092846270933</v>
+      </c>
+      <c r="V9">
+        <v>3.8812785388127851</v>
+      </c>
+      <c r="W9">
+        <v>5.9132420091324196</v>
+      </c>
+      <c r="X9">
+        <v>5.1141552511415531</v>
+      </c>
+      <c r="Y9">
+        <v>4.9771689497716896</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0.34409073920603195</v>
+      </c>
+      <c r="C10">
+        <v>0.39609028421001313</v>
+      </c>
+      <c r="D10">
+        <v>0.34896569655015519</v>
+      </c>
+      <c r="E10">
+        <v>0.3908090804205463</v>
+      </c>
+      <c r="F10">
+        <v>0.3922789539227895</v>
+      </c>
+      <c r="G10">
+        <v>0.38314653383146535</v>
+      </c>
+      <c r="H10">
+        <v>0.396222498962225</v>
+      </c>
+      <c r="I10">
+        <v>0.46430053964300544</v>
+      </c>
+      <c r="J10">
+        <v>0.48111249481112495</v>
+      </c>
+      <c r="K10">
+        <v>0.42782873873654675</v>
+      </c>
+      <c r="L10">
+        <v>0.45844586648499153</v>
+      </c>
+      <c r="M10">
+        <v>0.49726171897578175</v>
+      </c>
+      <c r="N10">
+        <v>0.41309028379862439</v>
+      </c>
+      <c r="O10">
+        <v>0.36227010141320837</v>
+      </c>
+      <c r="P10">
+        <v>0.41231328844516674</v>
+      </c>
+      <c r="Q10">
+        <v>0.50828415182197206</v>
+      </c>
+      <c r="R10">
+        <v>0.4369935206742831</v>
+      </c>
+      <c r="S10">
+        <v>0.46734400271649285</v>
+      </c>
+      <c r="T10">
+        <v>0.41685655309224456</v>
+      </c>
+      <c r="U10">
+        <v>0.38424076705180099</v>
+      </c>
+      <c r="V10">
+        <v>0.30180771877150181</v>
+      </c>
+      <c r="W10">
+        <v>0.38178341330902782</v>
+      </c>
+      <c r="X10">
+        <v>0.48677943686388042</v>
+      </c>
+      <c r="Y10">
+        <v>0.25824553878597789</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>0.19642930601834707</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>0.19642930601834707</v>
       </c>
       <c r="D11">
-        <v>2001</v>
+        <v>0.1583775556378296</v>
       </c>
       <c r="E11">
-        <v>2002</v>
+        <v>0.18100292072894811</v>
       </c>
       <c r="F11">
-        <v>2003</v>
+        <v>0.15323542720802993</v>
       </c>
       <c r="G11">
-        <v>2004</v>
+        <v>0.1779176436710683</v>
       </c>
       <c r="H11">
-        <v>2005</v>
+        <v>0.22213994816734542</v>
       </c>
       <c r="I11">
-        <v>2006</v>
+        <v>0.23228111971411552</v>
       </c>
       <c r="J11">
-        <v>2007</v>
+        <v>0.23426642842962081</v>
       </c>
       <c r="K11">
-        <v>2008</v>
+        <v>0.19456025411951558</v>
       </c>
       <c r="L11">
-        <v>2009</v>
+        <v>0.19555290847726822</v>
       </c>
       <c r="M11">
-        <v>2010</v>
+        <v>0.19786910197869106</v>
       </c>
       <c r="N11">
-        <v>2011</v>
+        <v>0.22450532724505329</v>
       </c>
       <c r="O11">
-        <v>2012</v>
+        <v>0.2226027397260274</v>
       </c>
       <c r="P11">
-        <v>2013</v>
+        <v>0.20357686453576868</v>
       </c>
       <c r="Q11">
-        <v>2014</v>
+        <v>0.17694063926940642</v>
       </c>
       <c r="R11">
-        <v>2015</v>
+        <v>0.1950152207001522</v>
       </c>
       <c r="S11">
-        <v>2016</v>
+        <v>0.18359969558599698</v>
       </c>
       <c r="T11">
-        <v>2017</v>
+        <v>0.19216133942161343</v>
       </c>
       <c r="U11">
-        <v>2018</v>
+        <v>0.20452815829528159</v>
       </c>
       <c r="V11">
-        <v>2019</v>
+        <v>0.21784627092846273</v>
       </c>
       <c r="W11">
-        <v>2020</v>
+        <v>0.29014459665144599</v>
       </c>
       <c r="X11">
-        <v>2021</v>
+        <v>0.1950152207001522</v>
       </c>
       <c r="Y11">
-        <v>2022</v>
-      </c>
-      <c r="Z11">
-        <v>2023</v>
+        <v>0.14840182648401828</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>0.29434148088459128</v>
       </c>
       <c r="C12">
-        <v>5.6</v>
+        <v>0.22423352902804958</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>0.22408253001860307</v>
       </c>
       <c r="E12">
-        <v>8.3000000000000007</v>
+        <v>0.20686315206863154</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>0.18103408514367419</v>
       </c>
       <c r="G12">
-        <v>6.6</v>
+        <v>0.24791291914579586</v>
       </c>
       <c r="H12">
-        <v>8.4</v>
+        <v>0.2427240440939071</v>
       </c>
       <c r="I12">
-        <v>8.9</v>
+        <v>0.16072605011472321</v>
       </c>
       <c r="J12">
-        <v>7.5</v>
+        <v>0.1502326182476092</v>
       </c>
       <c r="K12">
-        <v>8.4</v>
+        <v>0.18296846327828276</v>
       </c>
       <c r="L12">
-        <v>7.7</v>
+        <v>0.26339491433119683</v>
       </c>
       <c r="M12">
-        <v>9.6</v>
+        <v>0.14626141552511415</v>
       </c>
       <c r="N12">
-        <v>12.1</v>
+        <v>0.15647142182333496</v>
       </c>
       <c r="O12">
-        <v>10.7</v>
+        <v>0.19708855325293684</v>
       </c>
       <c r="P12">
-        <v>9.5</v>
+        <v>0.22250599798777185</v>
       </c>
       <c r="Q12">
-        <v>13.8</v>
+        <v>0.27329541057193724</v>
       </c>
       <c r="R12">
-        <v>14.8</v>
+        <v>0.18767897221577279</v>
       </c>
       <c r="S12">
-        <v>10.9</v>
+        <v>0.12870890865760704</v>
       </c>
       <c r="T12">
-        <v>9.1999999999999993</v>
+        <v>0.23422292564900221</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>0.13325692663137406</v>
       </c>
       <c r="V12">
-        <v>8.9</v>
+        <v>0.12825410686023031</v>
       </c>
       <c r="W12">
-        <v>7.1</v>
+        <v>0.21921446633557101</v>
       </c>
       <c r="X12">
-        <v>10.6</v>
+        <v>0.17145847997545438</v>
       </c>
       <c r="Y12">
-        <v>13.7</v>
-      </c>
-      <c r="Z12">
-        <v>7.7</v>
+        <v>0.14032522966412186</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>0.58791571267802401</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.632219592016247</v>
       </c>
       <c r="D13">
-        <v>1.1000000000000001</v>
+        <v>0.84860999194198217</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0.72522159548751008</v>
       </c>
       <c r="F13">
-        <v>1.3</v>
+        <v>0.70591592801504166</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.78271890948160072</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.81797273704002138</v>
       </c>
       <c r="I13">
-        <v>1.1000000000000001</v>
+        <v>0.88425019931869253</v>
       </c>
       <c r="J13">
-        <v>3.1</v>
+        <v>0.95250175158850958</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>0.92169795366142393</v>
       </c>
       <c r="L13">
-        <v>2.7</v>
+        <v>0.92109395762363799</v>
       </c>
       <c r="M13">
-        <v>1.2</v>
+        <v>0.98511753762895304</v>
       </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>0.94312558272968505</v>
       </c>
       <c r="O13">
-        <v>2.4</v>
+        <v>0.81695954983626218</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>0.91497163414971638</v>
       </c>
       <c r="Q13">
-        <v>4.3</v>
+        <v>0.88672109220054429</v>
       </c>
       <c r="R13">
-        <v>4.3</v>
+        <v>0.91440094569223274</v>
       </c>
       <c r="S13">
-        <v>4.5999999999999996</v>
+        <v>0.90107317525438657</v>
       </c>
       <c r="T13">
-        <v>3.7</v>
+        <v>0.91608169199663791</v>
       </c>
       <c r="U13">
-        <v>2.2000000000000002</v>
+        <v>0.94050296462891025</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>0.9444785206388151</v>
       </c>
       <c r="W13">
-        <v>3.7</v>
+        <v>0.93652740861900541</v>
       </c>
       <c r="X13">
-        <v>1.9</v>
+        <v>0.93482359890047495</v>
       </c>
       <c r="Y13">
-        <v>1.5</v>
-      </c>
-      <c r="Z13">
-        <v>4.4000000000000004</v>
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>65535</v>
+      </c>
+      <c r="C14">
+        <v>65535</v>
+      </c>
+      <c r="D14">
+        <v>65535</v>
+      </c>
+      <c r="E14">
+        <v>65535</v>
+      </c>
+      <c r="F14">
+        <v>65535</v>
+      </c>
+      <c r="G14">
+        <v>65535</v>
+      </c>
+      <c r="H14">
+        <v>65535</v>
+      </c>
+      <c r="I14">
+        <v>65535</v>
+      </c>
+      <c r="J14">
+        <v>65535</v>
+      </c>
+      <c r="K14">
+        <v>65535</v>
+      </c>
+      <c r="L14">
+        <v>65535</v>
+      </c>
+      <c r="M14">
+        <v>65535</v>
+      </c>
+      <c r="N14">
+        <v>65535</v>
+      </c>
+      <c r="O14">
+        <v>65535</v>
+      </c>
+      <c r="P14">
+        <v>65535</v>
+      </c>
+      <c r="Q14">
+        <v>65535</v>
+      </c>
+      <c r="R14">
+        <v>65535</v>
+      </c>
+      <c r="S14">
+        <v>65535</v>
+      </c>
+      <c r="T14">
+        <v>65535</v>
+      </c>
+      <c r="U14">
+        <v>65535</v>
+      </c>
+      <c r="V14">
+        <v>65535</v>
+      </c>
+      <c r="W14">
+        <v>65535</v>
+      </c>
+      <c r="X14">
+        <v>65535</v>
+      </c>
+      <c r="Y14">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="M15">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="N15">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="O15">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="P15">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="Q15">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="R15">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="S15">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="T15">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="U15">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="V15">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="W15">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="X15">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="Y15">
+        <v>0.13667567483614451</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>2000</v>
-      </c>
-      <c r="C17">
-        <v>2001</v>
-      </c>
-      <c r="D17">
-        <v>2002</v>
-      </c>
-      <c r="E17">
-        <v>2003</v>
-      </c>
-      <c r="F17">
-        <v>2004</v>
-      </c>
-      <c r="G17">
-        <v>2005</v>
-      </c>
-      <c r="H17">
-        <v>2006</v>
-      </c>
-      <c r="I17">
-        <v>2007</v>
-      </c>
-      <c r="J17">
-        <v>2008</v>
-      </c>
-      <c r="K17">
-        <v>2009</v>
-      </c>
-      <c r="L17">
-        <v>2010</v>
-      </c>
-      <c r="M17">
-        <v>2011</v>
-      </c>
-      <c r="N17">
-        <v>2012</v>
-      </c>
-      <c r="O17">
-        <v>2013</v>
-      </c>
-      <c r="P17">
-        <v>2014</v>
-      </c>
-      <c r="Q17">
-        <v>2015</v>
-      </c>
-      <c r="R17">
-        <v>2016</v>
-      </c>
-      <c r="S17">
-        <v>2017</v>
-      </c>
-      <c r="T17">
-        <v>2018</v>
-      </c>
-      <c r="U17">
-        <v>2019</v>
-      </c>
-      <c r="V17">
-        <v>2020</v>
-      </c>
-      <c r="W17">
-        <v>2021</v>
-      </c>
-      <c r="X17">
-        <v>2022</v>
-      </c>
-      <c r="Y17">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
+        <v>42</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="K18">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="L18">
-        <v>0.45662100456621008</v>
-      </c>
-      <c r="M18">
-        <v>0.68493150684931503</v>
-      </c>
-      <c r="N18">
-        <v>0.7990867579908677</v>
-      </c>
-      <c r="O18">
-        <v>0.41856925418569257</v>
-      </c>
-      <c r="P18">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q18">
-        <v>0.61643835616438358</v>
-      </c>
-      <c r="R18">
-        <v>0.66590563165905636</v>
-      </c>
-      <c r="S18">
-        <v>0.91324200913242015</v>
-      </c>
-      <c r="T18">
-        <v>2.5603392041748205</v>
-      </c>
-      <c r="U18">
-        <v>3.4627092846270933</v>
-      </c>
-      <c r="V18">
-        <v>3.8812785388127851</v>
-      </c>
-      <c r="W18">
-        <v>5.9132420091324196</v>
-      </c>
-      <c r="X18">
-        <v>5.1141552511415531</v>
-      </c>
-      <c r="Y18">
-        <v>4.9771689497716896</v>
+      <c r="H16">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="J16">
+        <v>0.12453300124533001</v>
+      </c>
+      <c r="K16">
+        <v>8.3022000830220002E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.15841953219644023</v>
+      </c>
+      <c r="M16">
+        <v>0.18180280737358362</v>
+      </c>
+      <c r="N16">
+        <v>0.20480795057749127</v>
+      </c>
+      <c r="O16">
+        <v>0.22998925597636316</v>
+      </c>
+      <c r="P16">
+        <v>0.21689497716894979</v>
+      </c>
+      <c r="Q16">
+        <v>0.23646444879321593</v>
+      </c>
+      <c r="R16">
+        <v>0.23157208088714937</v>
+      </c>
+      <c r="S16">
+        <v>0.24461839530332682</v>
+      </c>
+      <c r="T16">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="U16">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="V16">
+        <v>0.24135681669928247</v>
+      </c>
+      <c r="W16">
+        <v>0.23320287018917157</v>
+      </c>
+      <c r="X16">
+        <v>0.23483365949119375</v>
+      </c>
+      <c r="Y16">
+        <v>0.25277234181343772</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>0.34409073920603195</v>
-      </c>
-      <c r="C19">
-        <v>0.39609028421001313</v>
-      </c>
-      <c r="D19">
-        <v>0.34896569655015519</v>
-      </c>
-      <c r="E19">
-        <v>0.3908090804205463</v>
-      </c>
-      <c r="F19">
-        <v>0.3922789539227895</v>
-      </c>
-      <c r="G19">
-        <v>0.38314653383146535</v>
-      </c>
-      <c r="H19">
-        <v>0.396222498962225</v>
-      </c>
-      <c r="I19">
-        <v>0.46430053964300544</v>
-      </c>
-      <c r="J19">
-        <v>0.48111249481112495</v>
-      </c>
-      <c r="K19">
-        <v>0.42782873873654675</v>
-      </c>
-      <c r="L19">
-        <v>0.45844586648499153</v>
-      </c>
-      <c r="M19">
-        <v>0.49726171897578175</v>
-      </c>
-      <c r="N19">
-        <v>0.41309028379862439</v>
-      </c>
-      <c r="O19">
-        <v>0.36227010141320837</v>
-      </c>
-      <c r="P19">
-        <v>0.41231328844516674</v>
-      </c>
-      <c r="Q19">
-        <v>0.50828415182197206</v>
-      </c>
-      <c r="R19">
-        <v>0.4369935206742831</v>
-      </c>
-      <c r="S19">
-        <v>0.46734400271649285</v>
-      </c>
-      <c r="T19">
-        <v>0.41685655309224456</v>
-      </c>
-      <c r="U19">
-        <v>0.38424076705180099</v>
-      </c>
-      <c r="V19">
-        <v>0.30180771877150181</v>
-      </c>
-      <c r="W19">
-        <v>0.38178341330902782</v>
-      </c>
-      <c r="X19">
-        <v>0.48677943686388042</v>
-      </c>
-      <c r="Y19">
-        <v>0.25824553878597789</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20">
-        <v>0.19642930601834707</v>
+        <v>2000</v>
       </c>
       <c r="C20">
-        <v>0.19642930601834707</v>
+        <v>2001</v>
       </c>
       <c r="D20">
-        <v>0.1583775556378296</v>
+        <v>2002</v>
       </c>
       <c r="E20">
-        <v>0.18100292072894811</v>
+        <v>2003</v>
       </c>
       <c r="F20">
-        <v>0.15323542720802993</v>
+        <v>2004</v>
       </c>
       <c r="G20">
-        <v>0.1779176436710683</v>
+        <v>2005</v>
       </c>
       <c r="H20">
-        <v>0.22213994816734542</v>
+        <v>2006</v>
       </c>
       <c r="I20">
-        <v>0.23228111971411552</v>
+        <v>2007</v>
       </c>
       <c r="J20">
-        <v>0.23426642842962081</v>
+        <v>2008</v>
       </c>
       <c r="K20">
-        <v>0.19456025411951558</v>
+        <v>2009</v>
       </c>
       <c r="L20">
-        <v>0.19555290847726822</v>
+        <v>2010</v>
       </c>
       <c r="M20">
-        <v>0.19786910197869106</v>
+        <v>2011</v>
       </c>
       <c r="N20">
-        <v>0.22450532724505329</v>
+        <v>2012</v>
       </c>
       <c r="O20">
-        <v>0.2226027397260274</v>
+        <v>2013</v>
       </c>
       <c r="P20">
-        <v>0.20357686453576868</v>
+        <v>2014</v>
       </c>
       <c r="Q20">
-        <v>0.17694063926940642</v>
+        <v>2015</v>
       </c>
       <c r="R20">
-        <v>0.1950152207001522</v>
+        <v>2016</v>
       </c>
       <c r="S20">
-        <v>0.18359969558599698</v>
+        <v>2017</v>
       </c>
       <c r="T20">
-        <v>0.19216133942161343</v>
+        <v>2018</v>
       </c>
       <c r="U20">
-        <v>0.20452815829528159</v>
+        <v>2019</v>
       </c>
       <c r="V20">
-        <v>0.21784627092846273</v>
+        <v>2020</v>
       </c>
       <c r="W20">
-        <v>0.29014459665144599</v>
+        <v>2021</v>
       </c>
       <c r="X20">
-        <v>0.1950152207001522</v>
+        <v>2022</v>
       </c>
       <c r="Y20">
-        <v>0.14840182648401828</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.29434148088459128</v>
+        <v>0.05</v>
       </c>
       <c r="C21">
-        <v>0.22423352902804958</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
-        <v>0.22408253001860307</v>
+        <v>0.05</v>
       </c>
       <c r="E21">
-        <v>0.20686315206863154</v>
+        <v>0.01</v>
       </c>
       <c r="F21">
-        <v>0.18103408514367419</v>
+        <v>0.01</v>
       </c>
       <c r="G21">
-        <v>0.24791291914579586</v>
+        <v>0.01</v>
       </c>
       <c r="H21">
-        <v>0.2427240440939071</v>
+        <v>0.01</v>
       </c>
       <c r="I21">
-        <v>0.16072605011472321</v>
+        <v>0.01</v>
       </c>
       <c r="J21">
-        <v>0.1502326182476092</v>
+        <v>0.01</v>
       </c>
       <c r="K21">
-        <v>0.18296846327828276</v>
+        <v>0.01</v>
       </c>
       <c r="L21">
-        <v>0.26339491433119683</v>
+        <v>0.01</v>
       </c>
       <c r="M21">
-        <v>0.14626141552511415</v>
+        <v>0.01</v>
       </c>
       <c r="N21">
-        <v>0.15647142182333496</v>
+        <v>0.01</v>
       </c>
       <c r="O21">
-        <v>0.19708855325293684</v>
+        <v>0.03</v>
       </c>
       <c r="P21">
-        <v>0.22250599798777185</v>
+        <v>0.04</v>
       </c>
       <c r="Q21">
-        <v>0.27329541057193724</v>
+        <v>0.05</v>
       </c>
       <c r="R21">
-        <v>0.18767897221577279</v>
+        <v>0.06</v>
       </c>
       <c r="S21">
-        <v>0.12870890865760704</v>
+        <v>0.05</v>
       </c>
       <c r="T21">
-        <v>0.23422292564900221</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U21">
-        <v>0.13325692663137406</v>
+        <v>0.06</v>
       </c>
       <c r="V21">
-        <v>0.12825410686023031</v>
+        <v>0.05</v>
       </c>
       <c r="W21">
-        <v>0.21921446633557101</v>
+        <v>0.05</v>
       </c>
       <c r="X21">
-        <v>0.17145847997545438</v>
+        <v>0.05</v>
       </c>
       <c r="Y21">
-        <v>0.14032522966412186</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>0.58791571267802401</v>
+        <v>5.62</v>
       </c>
       <c r="C22">
-        <v>0.632219592016247</v>
+        <v>5.62</v>
       </c>
       <c r="D22">
-        <v>0.84860999194198217</v>
+        <v>5.62</v>
       </c>
       <c r="E22">
-        <v>0.72522159548751008</v>
+        <v>5.62</v>
       </c>
       <c r="F22">
-        <v>0.70591592801504166</v>
+        <v>5.5</v>
       </c>
       <c r="G22">
-        <v>0.78271890948160072</v>
+        <v>5.5</v>
       </c>
       <c r="H22">
-        <v>0.81797273704002138</v>
+        <v>5.5</v>
       </c>
       <c r="I22">
-        <v>0.88425019931869253</v>
+        <v>5.5</v>
       </c>
       <c r="J22">
-        <v>0.95250175158850958</v>
+        <v>5.5</v>
       </c>
       <c r="K22">
-        <v>0.92169795366142393</v>
+        <v>5.63</v>
       </c>
       <c r="L22">
-        <v>0.92109395762363799</v>
+        <v>5.63</v>
       </c>
       <c r="M22">
-        <v>0.98511753762895304</v>
+        <v>6.32</v>
       </c>
       <c r="N22">
-        <v>0.94312558272968505</v>
+        <v>6.32</v>
       </c>
       <c r="O22">
-        <v>0.81695954983626218</v>
+        <v>6.11</v>
       </c>
       <c r="P22">
-        <v>0.91497163414971638</v>
+        <v>5.9</v>
       </c>
       <c r="Q22">
-        <v>0.88672109220054429</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R22">
-        <v>0.91440094569223274</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="S22">
-        <v>0.90107317525438657</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="T22">
-        <v>0.91608169199663791</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="U22">
-        <v>0.94050296462891025</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V22">
-        <v>0.9444785206388151</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W22">
-        <v>0.93652740861900541</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="X22">
-        <v>0.93482359890047495</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Y22">
-        <v>0.91778550171516859</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I23">
-        <v>65535</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J23">
-        <v>65535</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K23">
-        <v>65535</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L23">
-        <v>65535</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="N23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="O23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="P23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="Q23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="R23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="S23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="T23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="U23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="V23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="W23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="Y23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>0.84</v>
+      </c>
+      <c r="D24">
+        <v>1.08</v>
+      </c>
+      <c r="E24">
+        <v>1.65</v>
+      </c>
+      <c r="F24">
+        <v>1.98</v>
+      </c>
+      <c r="G24">
+        <v>1.98</v>
+      </c>
+      <c r="H24">
+        <v>1.98</v>
+      </c>
+      <c r="I24">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J24">
+        <v>2.12</v>
+      </c>
+      <c r="K24">
+        <v>2.14</v>
       </c>
       <c r="L24">
-        <v>3.8051750380517509E-2</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M24">
-        <v>7.6103500761035017E-2</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N24">
-        <v>9.6783799880881469E-2</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="O24">
-        <v>0.1525728837372673</v>
+        <v>2.34</v>
       </c>
       <c r="P24">
-        <v>0.13964622955180209</v>
+        <v>2.36</v>
       </c>
       <c r="Q24">
-        <v>0.15294587046149752</v>
+        <v>2.36</v>
       </c>
       <c r="R24">
-        <v>0.1540541738706388</v>
+        <v>2.36</v>
       </c>
       <c r="S24">
-        <v>0.15516247727978011</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="T24">
-        <v>0.14851265682493239</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="U24">
-        <v>0.15586582367404284</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="V24">
-        <v>0.15255292652552924</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="W24">
-        <v>0.13213245604573401</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="X24">
-        <v>0.13711751430220961</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Y24">
-        <v>0.13667567483614451</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>3.53</v>
+      </c>
+      <c r="C25">
+        <v>3.53</v>
+      </c>
+      <c r="D25">
+        <v>2.72</v>
+      </c>
+      <c r="E25">
+        <v>2.72</v>
+      </c>
+      <c r="F25">
+        <v>2.72</v>
       </c>
       <c r="G25">
+        <v>2.72</v>
+      </c>
+      <c r="H25">
+        <v>2.72</v>
+      </c>
+      <c r="I25">
+        <v>1.89</v>
+      </c>
+      <c r="J25">
+        <v>1.89</v>
+      </c>
+      <c r="K25">
+        <v>1.89</v>
+      </c>
+      <c r="L25">
+        <v>1.89</v>
+      </c>
+      <c r="M25">
+        <v>1.89</v>
+      </c>
+      <c r="N25">
+        <v>1.91</v>
+      </c>
+      <c r="O25">
+        <v>1.98</v>
+      </c>
+      <c r="P25">
+        <v>1.98</v>
+      </c>
+      <c r="Q25">
+        <v>1.98</v>
+      </c>
+      <c r="R25">
+        <v>1.97</v>
+      </c>
+      <c r="S25">
+        <v>1.97</v>
+      </c>
+      <c r="T25">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U25">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V25">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="W25">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="X25">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y25">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>7.6103500761035017E-2</v>
-      </c>
-      <c r="I25">
-        <v>0.19025875190258754</v>
-      </c>
-      <c r="J25">
-        <v>0.12453300124533001</v>
-      </c>
-      <c r="K25">
-        <v>8.3022000830220002E-2</v>
-      </c>
-      <c r="L25">
-        <v>0.15841953219644023</v>
-      </c>
-      <c r="M25">
-        <v>0.18180280737358362</v>
-      </c>
-      <c r="N25">
-        <v>0.20480795057749127</v>
-      </c>
-      <c r="O25">
-        <v>0.22998925597636316</v>
-      </c>
-      <c r="P25">
-        <v>0.21689497716894979</v>
-      </c>
-      <c r="Q25">
-        <v>0.23646444879321593</v>
-      </c>
-      <c r="R25">
-        <v>0.23157208088714937</v>
-      </c>
-      <c r="S25">
-        <v>0.24461839530332682</v>
-      </c>
-      <c r="T25">
-        <v>0.21526418786692761</v>
-      </c>
-      <c r="U25">
-        <v>0.21526418786692761</v>
-      </c>
-      <c r="V25">
-        <v>0.24135681669928247</v>
-      </c>
-      <c r="W25">
-        <v>0.23320287018917157</v>
-      </c>
-      <c r="X25">
-        <v>0.23483365949119375</v>
-      </c>
-      <c r="Y25">
-        <v>0.25277234181343772</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.03</v>
+      </c>
+      <c r="M27">
+        <v>0.15</v>
+      </c>
+      <c r="N27">
+        <v>0.92</v>
+      </c>
+      <c r="O27">
+        <v>1.04</v>
+      </c>
+      <c r="P27">
+        <v>1.03</v>
+      </c>
+      <c r="Q27">
+        <v>1.03</v>
+      </c>
+      <c r="R27">
+        <v>1.03</v>
+      </c>
+      <c r="S27">
+        <v>1.03</v>
+      </c>
+      <c r="T27">
+        <v>1.03</v>
+      </c>
+      <c r="U27">
+        <v>1.04</v>
+      </c>
+      <c r="V27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W27">
+        <v>1.27</v>
+      </c>
+      <c r="X27">
+        <v>1.74</v>
+      </c>
+      <c r="Y27">
+        <v>2.94</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29">
-        <v>2000</v>
-      </c>
-      <c r="C29">
-        <v>2001</v>
-      </c>
-      <c r="D29">
-        <v>2002</v>
-      </c>
-      <c r="E29">
-        <v>2003</v>
-      </c>
-      <c r="F29">
-        <v>2004</v>
-      </c>
-      <c r="G29">
-        <v>2005</v>
-      </c>
-      <c r="H29">
-        <v>2006</v>
-      </c>
-      <c r="I29">
-        <v>2007</v>
-      </c>
-      <c r="J29">
-        <v>2008</v>
-      </c>
-      <c r="K29">
-        <v>2009</v>
-      </c>
-      <c r="L29">
-        <v>2010</v>
-      </c>
-      <c r="M29">
-        <v>2011</v>
-      </c>
-      <c r="N29">
-        <v>2012</v>
-      </c>
-      <c r="O29">
-        <v>2013</v>
-      </c>
-      <c r="P29">
-        <v>2014</v>
-      </c>
-      <c r="Q29">
-        <v>2015</v>
-      </c>
-      <c r="R29">
-        <v>2016</v>
-      </c>
-      <c r="S29">
-        <v>2017</v>
-      </c>
-      <c r="T29">
-        <v>2018</v>
-      </c>
-      <c r="U29">
-        <v>2019</v>
-      </c>
-      <c r="V29">
-        <v>2020</v>
-      </c>
-      <c r="W29">
-        <v>2021</v>
-      </c>
-      <c r="X29">
-        <v>2022</v>
-      </c>
-      <c r="Y29">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0.05</v>
-      </c>
-      <c r="C30">
-        <v>0.05</v>
-      </c>
-      <c r="D30">
-        <v>0.05</v>
-      </c>
-      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0.01</v>
       </c>
-      <c r="F30">
-        <v>0.01</v>
-      </c>
-      <c r="G30">
-        <v>0.01</v>
-      </c>
-      <c r="H30">
-        <v>0.01</v>
-      </c>
-      <c r="I30">
-        <v>0.01</v>
-      </c>
-      <c r="J30">
-        <v>0.01</v>
-      </c>
-      <c r="K30">
-        <v>0.01</v>
-      </c>
-      <c r="L30">
-        <v>0.01</v>
-      </c>
-      <c r="M30">
-        <v>0.01</v>
-      </c>
-      <c r="N30">
-        <v>0.01</v>
-      </c>
-      <c r="O30">
+      <c r="H28">
         <v>0.03</v>
       </c>
-      <c r="P30">
-        <v>0.04</v>
-      </c>
-      <c r="Q30">
-        <v>0.05</v>
-      </c>
-      <c r="R30">
-        <v>0.06</v>
-      </c>
-      <c r="S30">
-        <v>0.05</v>
-      </c>
-      <c r="T30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U30">
-        <v>0.06</v>
-      </c>
-      <c r="V30">
-        <v>0.05</v>
-      </c>
-      <c r="W30">
-        <v>0.05</v>
-      </c>
-      <c r="X30">
-        <v>0.05</v>
-      </c>
-      <c r="Y30">
-        <v>0.05</v>
+      <c r="I28">
+        <v>0.03</v>
+      </c>
+      <c r="J28">
+        <v>0.11</v>
+      </c>
+      <c r="K28">
+        <v>0.33</v>
+      </c>
+      <c r="L28">
+        <v>0.49</v>
+      </c>
+      <c r="M28">
+        <v>0.54</v>
+      </c>
+      <c r="N28">
+        <v>0.68</v>
+      </c>
+      <c r="O28">
+        <v>0.68</v>
+      </c>
+      <c r="P28">
+        <v>0.7</v>
+      </c>
+      <c r="Q28">
+        <v>0.7</v>
+      </c>
+      <c r="R28">
+        <v>0.7</v>
+      </c>
+      <c r="S28">
+        <v>0.7</v>
+      </c>
+      <c r="T28">
+        <v>0.7</v>
+      </c>
+      <c r="U28">
+        <v>0.7</v>
+      </c>
+      <c r="V28">
+        <v>0.7</v>
+      </c>
+      <c r="W28">
+        <v>0.7</v>
+      </c>
+      <c r="X28">
+        <v>0.7</v>
+      </c>
+      <c r="Y28">
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>5.62</v>
-      </c>
-      <c r="C31">
-        <v>5.62</v>
-      </c>
-      <c r="D31">
-        <v>5.62</v>
-      </c>
-      <c r="E31">
-        <v>5.62</v>
-      </c>
-      <c r="F31">
-        <v>5.5</v>
-      </c>
-      <c r="G31">
-        <v>5.5</v>
-      </c>
-      <c r="H31">
-        <v>5.5</v>
-      </c>
-      <c r="I31">
-        <v>5.5</v>
-      </c>
-      <c r="J31">
-        <v>5.5</v>
-      </c>
-      <c r="K31">
-        <v>5.63</v>
-      </c>
-      <c r="L31">
-        <v>5.63</v>
-      </c>
-      <c r="M31">
-        <v>6.32</v>
-      </c>
-      <c r="N31">
-        <v>6.32</v>
-      </c>
-      <c r="O31">
-        <v>6.11</v>
-      </c>
-      <c r="P31">
-        <v>5.9</v>
-      </c>
-      <c r="Q31">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="R31">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="S31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="T31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="U31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="V31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="W31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="X31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="Y31">
-        <v>5.1100000000000003</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>1.1100000000000001</v>
+        <v>2000</v>
       </c>
       <c r="C32">
-        <v>1.1100000000000001</v>
+        <v>2001</v>
       </c>
       <c r="D32">
-        <v>1.1100000000000001</v>
+        <v>2002</v>
       </c>
       <c r="E32">
-        <v>1.1100000000000001</v>
+        <v>2003</v>
       </c>
       <c r="F32">
-        <v>1.1100000000000001</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>1.1100000000000001</v>
+        <v>2005</v>
       </c>
       <c r="H32">
-        <v>1.1100000000000001</v>
+        <v>2006</v>
       </c>
       <c r="I32">
-        <v>1.1499999999999999</v>
+        <v>2007</v>
       </c>
       <c r="J32">
-        <v>1.1499999999999999</v>
+        <v>2008</v>
       </c>
       <c r="K32">
-        <v>1.1499999999999999</v>
+        <v>2009</v>
       </c>
       <c r="L32">
-        <v>1.1499999999999999</v>
+        <v>2010</v>
       </c>
       <c r="M32">
-        <v>1.2</v>
+        <v>2011</v>
       </c>
       <c r="N32">
-        <v>1.2</v>
+        <v>2012</v>
       </c>
       <c r="O32">
-        <v>1.2</v>
+        <v>2013</v>
       </c>
       <c r="P32">
-        <v>1.2</v>
+        <v>2014</v>
       </c>
       <c r="Q32">
-        <v>1.2</v>
+        <v>2015</v>
       </c>
       <c r="R32">
-        <v>1.2</v>
+        <v>2016</v>
       </c>
       <c r="S32">
-        <v>1.2</v>
+        <v>2017</v>
       </c>
       <c r="T32">
-        <v>1.2</v>
+        <v>2018</v>
       </c>
       <c r="U32">
-        <v>1.2</v>
+        <v>2019</v>
       </c>
       <c r="V32">
-        <v>1.2</v>
+        <v>2020</v>
       </c>
       <c r="W32">
-        <v>1.2</v>
+        <v>2021</v>
       </c>
       <c r="X32">
-        <v>1.2</v>
+        <v>2022</v>
       </c>
       <c r="Y32">
-        <v>1.2</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2.12</v>
+        <v>0.02</v>
       </c>
       <c r="K33">
-        <v>2.14</v>
+        <v>0.01</v>
       </c>
       <c r="L33">
+        <v>0.04</v>
+      </c>
+      <c r="M33">
+        <v>0.06</v>
+      </c>
+      <c r="N33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O33">
+        <v>0.11</v>
+      </c>
+      <c r="P33">
+        <v>0.2</v>
+      </c>
+      <c r="Q33">
+        <v>0.27</v>
+      </c>
+      <c r="R33">
+        <v>0.35</v>
+      </c>
+      <c r="S33">
+        <v>0.4</v>
+      </c>
+      <c r="T33">
+        <v>1.57</v>
+      </c>
+      <c r="U33">
+        <v>1.82</v>
+      </c>
+      <c r="V33">
+        <v>1.7</v>
+      </c>
+      <c r="W33">
+        <v>2.59</v>
+      </c>
+      <c r="X33">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y33">
         <v>2.1800000000000002</v>
-      </c>
-      <c r="M33">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="N33">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="O33">
-        <v>2.34</v>
-      </c>
-      <c r="P33">
-        <v>2.36</v>
-      </c>
-      <c r="Q33">
-        <v>2.36</v>
-      </c>
-      <c r="R33">
-        <v>2.36</v>
-      </c>
-      <c r="S33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="T33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="U33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="V33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="W33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="X33">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="Y33">
-        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>3.53</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C34">
-        <v>3.53</v>
+        <v>19.5</v>
       </c>
       <c r="D34">
-        <v>2.72</v>
+        <v>17.18</v>
       </c>
       <c r="E34">
-        <v>2.72</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="F34">
-        <v>2.72</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G34">
-        <v>2.72</v>
+        <v>18.46</v>
       </c>
       <c r="H34">
-        <v>2.72</v>
+        <v>19.09</v>
       </c>
       <c r="I34">
-        <v>1.89</v>
+        <v>22.37</v>
       </c>
       <c r="J34">
-        <v>1.89</v>
+        <v>23.18</v>
       </c>
       <c r="K34">
-        <v>1.89</v>
+        <v>21.1</v>
       </c>
       <c r="L34">
-        <v>1.89</v>
+        <v>22.61</v>
       </c>
       <c r="M34">
-        <v>1.89</v>
+        <v>27.53</v>
       </c>
       <c r="N34">
-        <v>1.91</v>
+        <v>22.87</v>
       </c>
       <c r="O34">
-        <v>1.98</v>
+        <v>19.39</v>
       </c>
       <c r="P34">
-        <v>1.98</v>
+        <v>21.31</v>
       </c>
       <c r="Q34">
-        <v>1.98</v>
+        <v>22.53</v>
       </c>
       <c r="R34">
-        <v>1.97</v>
+        <v>19.37</v>
       </c>
       <c r="S34">
-        <v>1.97</v>
+        <v>20.92</v>
       </c>
       <c r="T34">
-        <v>2.0099999999999998</v>
+        <v>18.66</v>
       </c>
       <c r="U34">
-        <v>2.0099999999999998</v>
+        <v>17.2</v>
       </c>
       <c r="V34">
-        <v>2.0099999999999998</v>
+        <v>13.51</v>
       </c>
       <c r="W34">
-        <v>2.0099999999999998</v>
+        <v>17.09</v>
       </c>
       <c r="X34">
-        <v>2.0099999999999998</v>
+        <v>21.79</v>
       </c>
       <c r="Y34">
-        <v>2.0099999999999998</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="L36">
-        <v>0.03</v>
+        <v>5.03</v>
       </c>
       <c r="M36">
-        <v>0.15</v>
+        <v>2.87</v>
       </c>
       <c r="N36">
-        <v>0.92</v>
+        <v>3.18</v>
       </c>
       <c r="O36">
-        <v>1.04</v>
+        <v>4.04</v>
       </c>
       <c r="P36">
-        <v>1.03</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q36">
-        <v>1.03</v>
+        <v>5.65</v>
       </c>
       <c r="R36">
-        <v>1.03</v>
+        <v>3.88</v>
       </c>
       <c r="S36">
-        <v>1.03</v>
+        <v>2.83</v>
       </c>
       <c r="T36">
-        <v>1.03</v>
+        <v>5.15</v>
       </c>
       <c r="U36">
-        <v>1.04</v>
+        <v>2.93</v>
       </c>
       <c r="V36">
-        <v>1.1000000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="W36">
-        <v>1.27</v>
+        <v>4.82</v>
       </c>
       <c r="X36">
-        <v>1.74</v>
+        <v>3.8</v>
       </c>
       <c r="Y36">
-        <v>2.94</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B37">
+        <v>18.18</v>
+      </c>
+      <c r="C37">
+        <v>19.55</v>
+      </c>
+      <c r="D37">
+        <v>20.22</v>
+      </c>
+      <c r="E37">
+        <v>17.28</v>
+      </c>
+      <c r="F37">
+        <v>16.82</v>
+      </c>
+      <c r="G37">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H37">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I37">
+        <v>14.64</v>
+      </c>
+      <c r="J37">
+        <v>15.77</v>
+      </c>
+      <c r="K37">
+        <v>15.26</v>
+      </c>
+      <c r="L37">
+        <v>15.25</v>
+      </c>
+      <c r="M37">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N37">
+        <v>15.78</v>
+      </c>
+      <c r="O37">
+        <v>14.17</v>
+      </c>
+      <c r="P37">
+        <v>15.87</v>
+      </c>
+      <c r="Q37">
+        <v>15.38</v>
+      </c>
+      <c r="R37">
+        <v>15.78</v>
+      </c>
+      <c r="S37">
+        <v>15.55</v>
+      </c>
+      <c r="T37">
+        <v>16.13</v>
+      </c>
+      <c r="U37">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V37">
+        <v>16.63</v>
+      </c>
+      <c r="W37">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X37">
+        <v>16.46</v>
+      </c>
+      <c r="Y37">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.93</v>
+      </c>
+      <c r="C38">
+        <v>0.83</v>
+      </c>
+      <c r="D38">
+        <v>1.02</v>
+      </c>
+      <c r="E38">
+        <v>1.01</v>
+      </c>
+      <c r="F38">
+        <v>1.01</v>
+      </c>
+      <c r="G38">
+        <v>0.75</v>
+      </c>
+      <c r="H38">
+        <v>0.47</v>
+      </c>
+      <c r="I38">
+        <v>0.59</v>
+      </c>
+      <c r="J38">
+        <v>0.25</v>
+      </c>
+      <c r="K38">
+        <v>0.31</v>
+      </c>
+      <c r="L38">
+        <v>0.34</v>
+      </c>
+      <c r="M38">
+        <v>0.15</v>
+      </c>
+      <c r="N38">
+        <v>0.2</v>
+      </c>
+      <c r="O38">
+        <v>0.21</v>
+      </c>
+      <c r="P38">
+        <v>0.21</v>
+      </c>
+      <c r="Q38">
+        <v>0.19</v>
+      </c>
+      <c r="R38">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S38">
+        <v>0.31</v>
+      </c>
+      <c r="T38">
+        <v>0.32</v>
+      </c>
+      <c r="U38">
+        <v>0.32</v>
+      </c>
+      <c r="V38">
+        <v>0.24</v>
+      </c>
+      <c r="W38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X38">
+        <v>0.35</v>
+      </c>
+      <c r="Y38">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>0.01</v>
       </c>
-      <c r="H37">
-        <v>0.03</v>
-      </c>
-      <c r="I37">
-        <v>0.03</v>
-      </c>
-      <c r="J37">
-        <v>0.11</v>
-      </c>
-      <c r="K37">
-        <v>0.33</v>
-      </c>
-      <c r="L37">
-        <v>0.49</v>
-      </c>
-      <c r="M37">
-        <v>0.54</v>
-      </c>
-      <c r="N37">
-        <v>0.68</v>
-      </c>
-      <c r="O37">
-        <v>0.68</v>
-      </c>
-      <c r="P37">
-        <v>0.7</v>
-      </c>
-      <c r="Q37">
-        <v>0.7</v>
-      </c>
-      <c r="R37">
-        <v>0.7</v>
-      </c>
-      <c r="S37">
-        <v>0.7</v>
-      </c>
-      <c r="T37">
-        <v>0.7</v>
-      </c>
-      <c r="U37">
-        <v>0.7</v>
-      </c>
-      <c r="V37">
-        <v>0.7</v>
-      </c>
-      <c r="W37">
-        <v>0.7</v>
-      </c>
-      <c r="X37">
-        <v>0.7</v>
-      </c>
-      <c r="Y37">
-        <v>0.7</v>
+      <c r="M39">
+        <v>0.1</v>
+      </c>
+      <c r="N39">
+        <v>0.78</v>
+      </c>
+      <c r="O39">
+        <v>1.39</v>
+      </c>
+      <c r="P39">
+        <v>1.26</v>
+      </c>
+      <c r="Q39">
+        <v>1.38</v>
+      </c>
+      <c r="R39">
+        <v>1.39</v>
+      </c>
+      <c r="S39">
+        <v>1.4</v>
+      </c>
+      <c r="T39">
+        <v>1.34</v>
+      </c>
+      <c r="U39">
+        <v>1.42</v>
+      </c>
+      <c r="V39">
+        <v>1.47</v>
+      </c>
+      <c r="W39">
+        <v>1.47</v>
+      </c>
+      <c r="X39">
+        <v>2.09</v>
+      </c>
+      <c r="Y39">
+        <v>3.52</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>2000</v>
-      </c>
-      <c r="C41">
-        <v>2001</v>
-      </c>
-      <c r="D41">
-        <v>2002</v>
-      </c>
-      <c r="E41">
-        <v>2003</v>
-      </c>
-      <c r="F41">
-        <v>2004</v>
-      </c>
-      <c r="G41">
-        <v>2005</v>
-      </c>
-      <c r="H41">
-        <v>2006</v>
-      </c>
-      <c r="I41">
-        <v>2007</v>
-      </c>
-      <c r="J41">
-        <v>2008</v>
-      </c>
-      <c r="K41">
-        <v>2009</v>
-      </c>
-      <c r="L41">
-        <v>2010</v>
-      </c>
-      <c r="M41">
-        <v>2011</v>
-      </c>
-      <c r="N41">
-        <v>2012</v>
-      </c>
-      <c r="O41">
-        <v>2013</v>
-      </c>
-      <c r="P41">
-        <v>2014</v>
-      </c>
-      <c r="Q41">
-        <v>2015</v>
-      </c>
-      <c r="R41">
-        <v>2016</v>
-      </c>
-      <c r="S41">
-        <v>2017</v>
-      </c>
-      <c r="T41">
-        <v>2018</v>
-      </c>
-      <c r="U41">
-        <v>2019</v>
-      </c>
-      <c r="V41">
-        <v>2020</v>
-      </c>
-      <c r="W41">
-        <v>2021</v>
-      </c>
-      <c r="X41">
-        <v>2022</v>
-      </c>
-      <c r="Y41">
-        <v>2023</v>
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.02</v>
+      </c>
+      <c r="I40">
+        <v>0.05</v>
+      </c>
+      <c r="J40">
+        <v>0.12</v>
+      </c>
+      <c r="K40">
+        <v>0.24</v>
+      </c>
+      <c r="L40">
+        <v>0.68</v>
+      </c>
+      <c r="M40">
+        <v>0.86</v>
+      </c>
+      <c r="N40">
+        <v>1.22</v>
+      </c>
+      <c r="O40">
+        <v>1.37</v>
+      </c>
+      <c r="P40">
+        <v>1.33</v>
+      </c>
+      <c r="Q40">
+        <v>1.45</v>
+      </c>
+      <c r="R40">
+        <v>1.42</v>
+      </c>
+      <c r="S40">
+        <v>1.5</v>
+      </c>
+      <c r="T40">
+        <v>1.32</v>
+      </c>
+      <c r="U40">
+        <v>1.32</v>
+      </c>
+      <c r="V40">
+        <v>1.48</v>
+      </c>
+      <c r="W40">
+        <v>1.43</v>
+      </c>
+      <c r="X40">
+        <v>1.44</v>
+      </c>
+      <c r="Y40">
+        <v>1.55</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0.02</v>
-      </c>
-      <c r="K42">
-        <v>0.01</v>
-      </c>
-      <c r="L42">
-        <v>0.04</v>
-      </c>
-      <c r="M42">
-        <v>0.06</v>
-      </c>
-      <c r="N42">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O42">
-        <v>0.11</v>
-      </c>
-      <c r="P42">
-        <v>0.2</v>
-      </c>
-      <c r="Q42">
-        <v>0.27</v>
-      </c>
-      <c r="R42">
-        <v>0.35</v>
-      </c>
-      <c r="S42">
-        <v>0.4</v>
-      </c>
-      <c r="T42">
-        <v>1.57</v>
-      </c>
-      <c r="U42">
-        <v>1.82</v>
-      </c>
-      <c r="V42">
-        <v>1.7</v>
-      </c>
-      <c r="W42">
-        <v>2.59</v>
-      </c>
-      <c r="X42">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="Y42">
-        <v>2.1800000000000002</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>16.940000000000001</v>
+        <v>2000</v>
       </c>
       <c r="C43">
-        <v>19.5</v>
+        <v>2001</v>
       </c>
       <c r="D43">
-        <v>17.18</v>
+        <v>2002</v>
       </c>
       <c r="E43">
-        <v>19.239999999999998</v>
+        <v>2003</v>
       </c>
       <c r="F43">
-        <v>18.899999999999999</v>
+        <v>2004</v>
       </c>
       <c r="G43">
-        <v>18.46</v>
+        <v>2005</v>
       </c>
       <c r="H43">
-        <v>19.09</v>
+        <v>2006</v>
       </c>
       <c r="I43">
-        <v>22.37</v>
+        <v>2007</v>
       </c>
       <c r="J43">
-        <v>23.18</v>
+        <v>2008</v>
       </c>
       <c r="K43">
-        <v>21.1</v>
+        <v>2009</v>
       </c>
       <c r="L43">
-        <v>22.61</v>
+        <v>2010</v>
       </c>
       <c r="M43">
-        <v>27.53</v>
+        <v>2011</v>
       </c>
       <c r="N43">
-        <v>22.87</v>
+        <v>2012</v>
       </c>
       <c r="O43">
-        <v>19.39</v>
+        <v>2013</v>
       </c>
       <c r="P43">
-        <v>21.31</v>
+        <v>2014</v>
       </c>
       <c r="Q43">
-        <v>22.53</v>
+        <v>2015</v>
       </c>
       <c r="R43">
-        <v>19.37</v>
+        <v>2016</v>
       </c>
       <c r="S43">
-        <v>20.92</v>
+        <v>2017</v>
       </c>
       <c r="T43">
-        <v>18.66</v>
+        <v>2018</v>
       </c>
       <c r="U43">
-        <v>17.2</v>
+        <v>2019</v>
       </c>
       <c r="V43">
-        <v>13.51</v>
+        <v>2020</v>
       </c>
       <c r="W43">
-        <v>17.09</v>
+        <v>2021</v>
       </c>
       <c r="X43">
-        <v>21.79</v>
-      </c>
-      <c r="Y43">
-        <v>11.56</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44">
-        <v>1.91</v>
-      </c>
-      <c r="C44">
-        <v>1.91</v>
-      </c>
-      <c r="D44">
-        <v>1.54</v>
-      </c>
-      <c r="E44">
-        <v>1.76</v>
-      </c>
-      <c r="F44">
-        <v>1.49</v>
-      </c>
-      <c r="G44">
-        <v>1.73</v>
-      </c>
-      <c r="H44">
-        <v>2.16</v>
-      </c>
-      <c r="I44">
-        <v>2.34</v>
+        <v>31</v>
       </c>
       <c r="J44">
-        <v>2.36</v>
+        <v>0.30441400304414001</v>
       </c>
       <c r="K44">
-        <v>1.96</v>
+        <v>0.10147133434804669</v>
       </c>
       <c r="L44">
-        <v>1.97</v>
+        <v>0.40447488584474894</v>
       </c>
       <c r="M44">
-        <v>2.08</v>
+        <v>0.5811540058115402</v>
       </c>
       <c r="N44">
-        <v>2.36</v>
+        <v>0.53816046966731901</v>
       </c>
       <c r="O44">
-        <v>2.34</v>
+        <v>0.37067553048616708</v>
       </c>
       <c r="P44">
-        <v>2.14</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q44">
-        <v>1.86</v>
+        <v>0.57500422797226458</v>
       </c>
       <c r="R44">
-        <v>2.0499999999999998</v>
+        <v>0.70696146759593048</v>
       </c>
       <c r="S44">
-        <v>1.93</v>
+        <v>0.86924428402751963</v>
       </c>
       <c r="T44">
-        <v>2.02</v>
+        <v>2.5863099724480505</v>
       </c>
       <c r="U44">
-        <v>2.15</v>
+        <v>3.6549813955986812</v>
       </c>
       <c r="V44">
-        <v>2.29</v>
+        <v>4.036889720525596</v>
       </c>
       <c r="W44">
-        <v>3.05</v>
+        <v>6.2453375126974553</v>
       </c>
       <c r="X44">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="Y44">
-        <v>1.56</v>
+        <v>3.2548137163984849</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>2.63</v>
+        <v>0.17918731176527739</v>
       </c>
       <c r="C45">
-        <v>1.65</v>
+        <v>0.14535545467936098</v>
       </c>
       <c r="D45">
-        <v>2.12</v>
+        <v>0.15845780240593327</v>
       </c>
       <c r="E45">
-        <v>2.99</v>
+        <v>0.1498316039834055</v>
       </c>
       <c r="F45">
-        <v>3.14</v>
+        <v>0.1347902156764661</v>
       </c>
       <c r="G45">
-        <v>4.3</v>
+        <v>0.18958653994151151</v>
       </c>
       <c r="H45">
-        <v>4.21</v>
+        <v>0.18353719344825822</v>
       </c>
       <c r="I45">
-        <v>2.83</v>
+        <v>0.12836507928947488</v>
       </c>
       <c r="J45">
-        <v>2.79</v>
+        <v>0.12535509016122517</v>
       </c>
       <c r="K45">
-        <v>3.43</v>
+        <v>0.15416139825537606</v>
       </c>
       <c r="L45">
-        <v>5.03</v>
+        <v>0.21319901365069094</v>
       </c>
       <c r="M45">
-        <v>2.87</v>
+        <v>0.13556538436675425</v>
       </c>
       <c r="N45">
-        <v>3.18</v>
+        <v>0.1426745416205524</v>
       </c>
       <c r="O45">
-        <v>4.04</v>
+        <v>0.17089921406444017</v>
       </c>
       <c r="P45">
-        <v>4.5999999999999996</v>
+        <v>0.18308207829936693</v>
       </c>
       <c r="Q45">
-        <v>5.65</v>
+        <v>0.21797454043557021</v>
       </c>
       <c r="R45">
-        <v>3.88</v>
+        <v>0.16178813238750592</v>
       </c>
       <c r="S45">
-        <v>2.83</v>
+        <v>0.11826549026371555</v>
       </c>
       <c r="T45">
-        <v>5.15</v>
+        <v>0.18320015783762453</v>
       </c>
       <c r="U45">
-        <v>2.93</v>
+        <v>0.11430375923833559</v>
       </c>
       <c r="V45">
-        <v>2.82</v>
+        <v>0.11225524213694742</v>
       </c>
       <c r="W45">
-        <v>4.82</v>
+        <v>0.1716829439171017</v>
       </c>
       <c r="X45">
-        <v>3.8</v>
-      </c>
-      <c r="Y45">
-        <v>3.11</v>
+        <v>0.13069358514235713</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>18.18</v>
+        <v>0.58751816400088952</v>
       </c>
       <c r="C46">
-        <v>19.55</v>
+        <v>0.63195855763612019</v>
       </c>
       <c r="D46">
-        <v>20.22</v>
+        <v>0.84807034848805107</v>
       </c>
       <c r="E46">
-        <v>17.28</v>
+        <v>0.72468873612271401</v>
       </c>
       <c r="F46">
-        <v>16.82</v>
+        <v>0.70518756353607848</v>
       </c>
       <c r="G46">
-        <v>18.649999999999999</v>
+        <v>0.78226961776024206</v>
       </c>
       <c r="H46">
-        <v>19.489999999999998</v>
+        <v>0.81749754243287398</v>
       </c>
       <c r="I46">
-        <v>14.64</v>
+        <v>0.88349648121868596</v>
       </c>
       <c r="J46">
-        <v>15.77</v>
+        <v>0.95119319991890894</v>
       </c>
       <c r="K46">
-        <v>15.26</v>
+        <v>0.92048229990249752</v>
       </c>
       <c r="L46">
-        <v>15.25</v>
+        <v>0.92005994960757642</v>
       </c>
       <c r="M46">
-        <v>16.309999999999999</v>
+        <v>0.98431753019201262</v>
       </c>
       <c r="N46">
-        <v>15.78</v>
+        <v>0.94540432280661413</v>
       </c>
       <c r="O46">
-        <v>14.17</v>
+        <v>0.81619276686525755</v>
       </c>
       <c r="P46">
-        <v>15.87</v>
+        <v>0.91711461765215874</v>
       </c>
       <c r="Q46">
-        <v>15.38</v>
+        <v>0.88913935610658323</v>
       </c>
       <c r="R46">
-        <v>15.78</v>
+        <v>0.91556341739152636</v>
       </c>
       <c r="S46">
-        <v>15.55</v>
+        <v>0.90218624426321981</v>
       </c>
       <c r="T46">
-        <v>16.13</v>
+        <v>0.91672584775055033</v>
       </c>
       <c r="U46">
-        <v>16.559999999999999</v>
+        <v>0.942110199083116</v>
       </c>
       <c r="V46">
-        <v>16.63</v>
+        <v>0.94612082701666678</v>
       </c>
       <c r="W46">
-        <v>16.489999999999998</v>
+        <v>0.9382181082323805</v>
       </c>
       <c r="X46">
-        <v>16.46</v>
-      </c>
-      <c r="Y46">
-        <v>16.16</v>
+        <v>0.93680249206717758</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
@@ -5790,230 +6164,1334 @@
         <v>37</v>
       </c>
       <c r="B47">
-        <v>0.93</v>
+        <v>1.3728687025740881E-2</v>
       </c>
       <c r="C47">
-        <v>0.83</v>
+        <v>8.9246408872480296E-3</v>
       </c>
       <c r="D47">
-        <v>1.02</v>
+        <v>1.4064542368890371E-2</v>
       </c>
       <c r="E47">
-        <v>1.01</v>
+        <v>1.3440969291696423E-2</v>
       </c>
       <c r="F47">
-        <v>1.01</v>
+        <v>1.4367639360976603E-2</v>
       </c>
       <c r="G47">
-        <v>0.75</v>
+        <v>1.06544901065449E-2</v>
       </c>
       <c r="H47">
-        <v>0.47</v>
+        <v>6.8721033906174785E-3</v>
       </c>
       <c r="I47">
-        <v>0.59</v>
+        <v>1.3383397499030053E-2</v>
       </c>
       <c r="J47">
-        <v>0.25</v>
+        <v>6.8134032678754683E-3</v>
       </c>
       <c r="K47">
-        <v>0.31</v>
+        <v>8.974387151398696E-3</v>
       </c>
       <c r="L47">
-        <v>0.34</v>
+        <v>1.0171012962918537E-2</v>
       </c>
       <c r="M47">
-        <v>0.15</v>
+        <v>4.0275281549390085E-3</v>
       </c>
       <c r="N47">
-        <v>0.2</v>
+        <v>5.4770281784942507E-3</v>
       </c>
       <c r="O47">
-        <v>0.21</v>
+        <v>5.9193423561722108E-3</v>
       </c>
       <c r="P47">
-        <v>0.21</v>
+        <v>5.7979529360833674E-3</v>
       </c>
       <c r="Q47">
-        <v>0.19</v>
+        <v>5.9440758150922698E-3</v>
       </c>
       <c r="R47">
-        <v>0.28999999999999998</v>
+        <v>1.0672682178439969E-2</v>
       </c>
       <c r="S47">
-        <v>0.31</v>
+        <v>1.3166338195431674E-2</v>
       </c>
       <c r="T47">
-        <v>0.32</v>
+        <v>1.0273264456408587E-2</v>
       </c>
       <c r="U47">
-        <v>0.32</v>
+        <v>1.1459284473580975E-2</v>
       </c>
       <c r="V47">
-        <v>0.24</v>
+        <v>1.0273784895450284E-2</v>
       </c>
       <c r="W47">
-        <v>0.28000000000000003</v>
+        <v>1.1799059936493149E-2</v>
       </c>
       <c r="X47">
-        <v>0.35</v>
-      </c>
-      <c r="Y47">
-        <v>0.35</v>
+        <v>1.5180712412366853E-2</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.22831050228310501</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.1906392694063927</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.18647260273972602</v>
       </c>
       <c r="L48">
+        <v>6.7876712328767116E-2</v>
+      </c>
+      <c r="M48">
+        <v>7.476575935480044E-2</v>
+      </c>
+      <c r="N48">
+        <v>9.6412405035707568E-2</v>
+      </c>
+      <c r="O48">
+        <v>0.15293804193529958</v>
+      </c>
+      <c r="P48">
+        <v>0.13941040865139273</v>
+      </c>
+      <c r="Q48">
+        <v>0.1534278778672068</v>
+      </c>
+      <c r="R48">
+        <v>0.15383140488540142</v>
+      </c>
+      <c r="S48">
+        <v>0.15538589047072227</v>
+      </c>
+      <c r="T48">
+        <v>0.14838111835914639</v>
+      </c>
+      <c r="U48">
+        <v>0.15491400651998427</v>
+      </c>
+      <c r="V48">
+        <v>0.15239085998651261</v>
+      </c>
+      <c r="W48">
+        <v>0.13133926069138591</v>
+      </c>
+      <c r="X48">
+        <v>0.13764325363624622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="G49">
+        <v>6.5453767123287668E-2</v>
+      </c>
+      <c r="H49">
+        <v>8.4758159986470502E-2</v>
+      </c>
+      <c r="I49">
+        <v>0.17808980213089803</v>
+      </c>
+      <c r="J49">
+        <v>0.12192381639029079</v>
+      </c>
+      <c r="K49">
+        <v>8.1248714467892558E-2</v>
+      </c>
+      <c r="L49">
+        <v>0.15938903548169775</v>
+      </c>
+      <c r="M49">
+        <v>0.18169781142649755</v>
+      </c>
+      <c r="N49">
+        <v>0.2058669391554197</v>
+      </c>
+      <c r="O49">
+        <v>0.22956604290766625</v>
+      </c>
+      <c r="P49">
+        <v>0.2172995015710637</v>
+      </c>
+      <c r="Q49">
+        <v>0.23704950320418605</v>
+      </c>
+      <c r="R49">
+        <v>0.23271503321770831</v>
+      </c>
+      <c r="S49">
+        <v>0.24584659524473154</v>
+      </c>
+      <c r="T49">
+        <v>0.21529025081619735</v>
+      </c>
+      <c r="U49">
+        <v>0.21381996798613462</v>
+      </c>
+      <c r="V49">
+        <v>0.23992922634315969</v>
+      </c>
+      <c r="W49">
+        <v>0.2323315222455867</v>
+      </c>
+      <c r="X49">
+        <v>0.24297964087912982</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53">
+        <v>2000</v>
+      </c>
+      <c r="C53">
+        <v>2001</v>
+      </c>
+      <c r="D53">
+        <v>2002</v>
+      </c>
+      <c r="E53">
+        <v>2003</v>
+      </c>
+      <c r="F53">
+        <v>2004</v>
+      </c>
+      <c r="G53">
+        <v>2005</v>
+      </c>
+      <c r="H53">
+        <v>2006</v>
+      </c>
+      <c r="I53">
+        <v>2007</v>
+      </c>
+      <c r="J53">
+        <v>2008</v>
+      </c>
+      <c r="K53">
+        <v>2009</v>
+      </c>
+      <c r="L53">
+        <v>2010</v>
+      </c>
+      <c r="M53">
+        <v>2011</v>
+      </c>
+      <c r="N53">
+        <v>2012</v>
+      </c>
+      <c r="O53">
+        <v>2013</v>
+      </c>
+      <c r="P53">
+        <v>2014</v>
+      </c>
+      <c r="Q53">
+        <v>2015</v>
+      </c>
+      <c r="R53">
+        <v>2016</v>
+      </c>
+      <c r="S53">
+        <v>2017</v>
+      </c>
+      <c r="T53">
+        <v>2018</v>
+      </c>
+      <c r="U53">
+        <v>2019</v>
+      </c>
+      <c r="V53">
+        <v>2020</v>
+      </c>
+      <c r="W53">
+        <v>2021</v>
+      </c>
+      <c r="X53">
+        <v>2022</v>
+      </c>
+      <c r="Y53">
+        <v>2023</v>
+      </c>
+      <c r="Z53">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C54">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D54">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E54">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F54">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G54">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K54">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="L54">
         <v>0.01</v>
       </c>
-      <c r="M48">
-        <v>0.1</v>
-      </c>
-      <c r="N48">
-        <v>0.78</v>
-      </c>
-      <c r="O48">
-        <v>1.39</v>
-      </c>
-      <c r="P48">
-        <v>1.26</v>
-      </c>
-      <c r="Q48">
-        <v>1.38</v>
-      </c>
-      <c r="R48">
-        <v>1.39</v>
-      </c>
-      <c r="S48">
-        <v>1.4</v>
-      </c>
-      <c r="T48">
-        <v>1.34</v>
-      </c>
-      <c r="U48">
-        <v>1.42</v>
-      </c>
-      <c r="V48">
-        <v>1.47</v>
-      </c>
-      <c r="W48">
-        <v>1.47</v>
-      </c>
-      <c r="X48">
-        <v>2.09</v>
-      </c>
-      <c r="Y48">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0.02</v>
-      </c>
-      <c r="I49">
-        <v>0.05</v>
-      </c>
-      <c r="J49">
-        <v>0.12</v>
-      </c>
-      <c r="K49">
-        <v>0.24</v>
-      </c>
-      <c r="L49">
-        <v>0.68</v>
-      </c>
-      <c r="M49">
-        <v>0.86</v>
-      </c>
-      <c r="N49">
-        <v>1.22</v>
-      </c>
-      <c r="O49">
-        <v>1.37</v>
-      </c>
-      <c r="P49">
-        <v>1.33</v>
-      </c>
-      <c r="Q49">
-        <v>1.45</v>
-      </c>
-      <c r="R49">
-        <v>1.42</v>
-      </c>
-      <c r="S49">
-        <v>1.5</v>
-      </c>
-      <c r="T49">
-        <v>1.32</v>
-      </c>
-      <c r="U49">
-        <v>1.32</v>
-      </c>
-      <c r="V49">
-        <v>1.48</v>
-      </c>
-      <c r="W49">
-        <v>1.43</v>
-      </c>
-      <c r="X49">
-        <v>1.44</v>
-      </c>
-      <c r="Y49">
-        <v>1.55</v>
+      <c r="M54">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N54">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O54">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.04</v>
+      </c>
+      <c r="Q54">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="R54">
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="S54">
+        <v>5.2003000000000001E-2</v>
+      </c>
+      <c r="T54">
+        <v>6.942799999999999E-2</v>
+      </c>
+      <c r="U54">
+        <v>5.6869000000000003E-2</v>
+      </c>
+      <c r="V54">
+        <v>4.8054000000000006E-2</v>
+      </c>
+      <c r="W54">
+        <v>4.7321000000000002E-2</v>
+      </c>
+      <c r="X54">
+        <v>7.8688999999999995E-2</v>
+      </c>
+      <c r="Y54">
+        <v>7.8688999999999995E-2</v>
+      </c>
+      <c r="Z54">
+        <v>7.8688999999999995E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55">
+        <v>1.88</v>
+      </c>
+      <c r="C55">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="D55">
+        <v>1.948</v>
+      </c>
+      <c r="E55">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="F55">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="G55">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="H55">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="I55">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="J55">
+        <v>2.984</v>
+      </c>
+      <c r="K55">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="L55">
+        <v>3.048</v>
+      </c>
+      <c r="M55">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="N55">
+        <v>3.181</v>
+      </c>
+      <c r="O55">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="P55">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="R55">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="S55">
+        <v>3.37155</v>
+      </c>
+      <c r="T55">
+        <v>3.379</v>
+      </c>
+      <c r="U55">
+        <v>3.3783499999999997</v>
+      </c>
+      <c r="V55">
+        <v>3.3764560000000001</v>
+      </c>
+      <c r="W55">
+        <v>3.3692329999999999</v>
+      </c>
+      <c r="X55">
+        <v>3.348185</v>
+      </c>
+      <c r="Y55">
+        <v>3.3502800000000001</v>
+      </c>
+      <c r="Z55">
+        <v>3.3502800000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56">
+        <v>3.532</v>
+      </c>
+      <c r="C56">
+        <v>3.532</v>
+      </c>
+      <c r="D56">
+        <v>2.722</v>
+      </c>
+      <c r="E56">
+        <v>2.722</v>
+      </c>
+      <c r="F56">
+        <v>2.722</v>
+      </c>
+      <c r="G56">
+        <v>2.722</v>
+      </c>
+      <c r="H56">
+        <v>2.722</v>
+      </c>
+      <c r="I56">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="J56">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="K56">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="L56">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="M56">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="N56">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="O56">
+        <v>1.982</v>
+      </c>
+      <c r="P56">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="Q56">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="R56">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="S56">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="T56">
+        <v>2.008</v>
+      </c>
+      <c r="U56">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="V56">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="W56">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="X56">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Z56">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C57">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="D57">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="E57">
+        <v>6.7519999999999998</v>
+      </c>
+      <c r="F57">
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="G57">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H57">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="I57">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="J57">
+        <v>4.641</v>
+      </c>
+      <c r="K57">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="L57">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="M57">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="N57">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="O57">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="P57">
+        <v>4.43</v>
+      </c>
+      <c r="Q57">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="R57">
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="S57">
+        <v>3.7333600000000002</v>
+      </c>
+      <c r="T57">
+        <v>4.1509750000000007</v>
+      </c>
+      <c r="U57">
+        <v>4.040362</v>
+      </c>
+      <c r="V57">
+        <v>3.7584020000000002</v>
+      </c>
+      <c r="W57">
+        <v>3.8066649999999997</v>
+      </c>
+      <c r="X57">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Y57">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Z57">
+        <v>3.9745819999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="J58">
+        <v>1E-4</v>
+      </c>
+      <c r="K58">
+        <v>2E-3</v>
+      </c>
+      <c r="L58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M58">
+        <v>0.154</v>
+      </c>
+      <c r="N58">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O58">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="P58">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q58">
+        <v>1.028</v>
+      </c>
+      <c r="R58">
+        <v>1.03</v>
+      </c>
+      <c r="S58">
+        <v>1.0307010000000001</v>
+      </c>
+      <c r="T58">
+        <v>1.033058</v>
+      </c>
+      <c r="U58">
+        <v>1.0443900000000002</v>
+      </c>
+      <c r="V58">
+        <v>1.1002110000000001</v>
+      </c>
+      <c r="W58">
+        <v>1.274713</v>
+      </c>
+      <c r="X58">
+        <v>1.736537</v>
+      </c>
+      <c r="Y58">
+        <v>2.9081269999999999</v>
+      </c>
+      <c r="Z58">
+        <v>3.9081269999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59">
+        <v>1E-3</v>
+      </c>
+      <c r="G59">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H59">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.03</v>
+      </c>
+      <c r="J59">
+        <v>0.114</v>
+      </c>
+      <c r="K59">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="M59">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N59">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="O59">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="P59">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Q59">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="R59">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="S59">
+        <v>0.69838999999999996</v>
+      </c>
+      <c r="T59">
+        <v>0.69891999999999999</v>
+      </c>
+      <c r="U59">
+        <v>0.70311999999999997</v>
+      </c>
+      <c r="V59">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="W59">
+        <v>0.70437499999999997</v>
+      </c>
+      <c r="X59">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>0.70430999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63">
+        <v>2000</v>
+      </c>
+      <c r="C63">
+        <v>2001</v>
+      </c>
+      <c r="D63">
+        <v>2002</v>
+      </c>
+      <c r="E63">
+        <v>2003</v>
+      </c>
+      <c r="F63">
+        <v>2004</v>
+      </c>
+      <c r="G63">
+        <v>2005</v>
+      </c>
+      <c r="H63">
+        <v>2006</v>
+      </c>
+      <c r="I63">
+        <v>2007</v>
+      </c>
+      <c r="J63">
+        <v>2008</v>
+      </c>
+      <c r="K63">
+        <v>2009</v>
+      </c>
+      <c r="L63">
+        <v>2010</v>
+      </c>
+      <c r="M63">
+        <v>2011</v>
+      </c>
+      <c r="N63">
+        <v>2012</v>
+      </c>
+      <c r="O63">
+        <v>2013</v>
+      </c>
+      <c r="P63">
+        <v>2014</v>
+      </c>
+      <c r="Q63">
+        <v>2015</v>
+      </c>
+      <c r="R63">
+        <v>2016</v>
+      </c>
+      <c r="S63">
+        <v>2017</v>
+      </c>
+      <c r="T63">
+        <v>2018</v>
+      </c>
+      <c r="U63">
+        <v>2019</v>
+      </c>
+      <c r="V63">
+        <v>2020</v>
+      </c>
+      <c r="W63">
+        <v>2021</v>
+      </c>
+      <c r="X63">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L64">
+        <v>3.5431999999999998E-2</v>
+      </c>
+      <c r="M64">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="N64">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="O64">
+        <v>0.110402</v>
+      </c>
+      <c r="P64">
+        <v>0.2</v>
+      </c>
+      <c r="Q64">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="R64">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S64">
+        <v>0.39598100000000003</v>
+      </c>
+      <c r="T64">
+        <v>1.5729660000000001</v>
+      </c>
+      <c r="U64">
+        <v>1.820811</v>
+      </c>
+      <c r="V64">
+        <v>1.699341</v>
+      </c>
+      <c r="W64">
+        <v>2.5888920000000004</v>
+      </c>
+      <c r="X64">
+        <v>2.2435940000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65">
+        <v>17.207000000000001</v>
+      </c>
+      <c r="C65">
+        <v>19.757000000000001</v>
+      </c>
+      <c r="D65">
+        <v>17.373000000000001</v>
+      </c>
+      <c r="E65">
+        <v>19.462</v>
+      </c>
+      <c r="F65">
+        <v>19.106999999999999</v>
+      </c>
+      <c r="G65">
+        <v>18.625</v>
+      </c>
+      <c r="H65">
+        <v>19.206</v>
+      </c>
+      <c r="I65">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J65">
+        <v>23.22</v>
+      </c>
+      <c r="K65">
+        <v>21.103000000000002</v>
+      </c>
+      <c r="L65">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="M65">
+        <v>27.536999999999999</v>
+      </c>
+      <c r="N65">
+        <v>22.876000000000001</v>
+      </c>
+      <c r="O65">
+        <v>19.391598000000002</v>
+      </c>
+      <c r="P65">
+        <v>21.305</v>
+      </c>
+      <c r="Q65">
+        <v>22.521999999999998</v>
+      </c>
+      <c r="R65">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="S65">
+        <v>20.914090999999999</v>
+      </c>
+      <c r="T65">
+        <v>18.659473000000002</v>
+      </c>
+      <c r="U65">
+        <v>17.224985</v>
+      </c>
+      <c r="V65">
+        <v>13.53266</v>
+      </c>
+      <c r="W65">
+        <v>17.085889999999999</v>
+      </c>
+      <c r="X65">
+        <v>21.785509999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="C66">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="D66">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="E66">
+        <v>1.762</v>
+      </c>
+      <c r="F66">
+        <v>1.494</v>
+      </c>
+      <c r="G66">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="H66">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="I66">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="J66">
+        <v>2.36</v>
+      </c>
+      <c r="K66">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="L66">
+        <v>1.9665680000000001</v>
+      </c>
+      <c r="M66">
+        <v>2.077</v>
+      </c>
+      <c r="N66">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="O66">
+        <v>2.339</v>
+      </c>
+      <c r="P66">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="Q66">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="R66">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="S66">
+        <v>1.9266459999999999</v>
+      </c>
+      <c r="T66">
+        <v>2.0227580000000001</v>
+      </c>
+      <c r="U66">
+        <v>2.1529029999999998</v>
+      </c>
+      <c r="V66">
+        <v>2.292316</v>
+      </c>
+      <c r="W66">
+        <v>3.0456720000000002</v>
+      </c>
+      <c r="X66">
+        <v>2.0534110000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67">
+        <v>2.9509999999999996</v>
+      </c>
+      <c r="C67">
+        <v>2.1710000000000003</v>
+      </c>
+      <c r="D67">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="E67">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="F67">
+        <v>3.3628110000000002</v>
+      </c>
+      <c r="G67">
+        <v>4.7298960000000001</v>
+      </c>
+      <c r="H67">
+        <v>4.5789740000000005</v>
+      </c>
+      <c r="I67">
+        <v>3.2339989999999998</v>
+      </c>
+      <c r="J67">
+        <v>3.2767620000000002</v>
+      </c>
+      <c r="K67">
+        <v>4.0527119999999996</v>
+      </c>
+      <c r="L67">
+        <v>5.6925160000000004</v>
+      </c>
+      <c r="M67">
+        <v>3.6909139999999998</v>
+      </c>
+      <c r="N67">
+        <v>3.9757060000000002</v>
+      </c>
+      <c r="O67">
+        <v>4.7951379999999997</v>
+      </c>
+      <c r="P67">
+        <v>5.1626289999999999</v>
+      </c>
+      <c r="Q67">
+        <v>6.1465419999999993</v>
+      </c>
+      <c r="R67">
+        <v>4.5678419999999997</v>
+      </c>
+      <c r="S67">
+        <v>3.4929449999999997</v>
+      </c>
+      <c r="T67">
+        <v>5.4227320000000008</v>
+      </c>
+      <c r="U67">
+        <v>3.3827449999999999</v>
+      </c>
+      <c r="V67">
+        <v>3.3202579999999999</v>
+      </c>
+      <c r="W67">
+        <v>5.0671330000000001</v>
+      </c>
+      <c r="X67">
+        <v>3.833256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="C68">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="D68">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="E68">
+        <v>17.28</v>
+      </c>
+      <c r="F68">
+        <v>16.815000000000001</v>
+      </c>
+      <c r="G68">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="H68">
+        <v>19.492999999999999</v>
+      </c>
+      <c r="I68">
+        <v>14.643000000000001</v>
+      </c>
+      <c r="J68">
+        <v>15.765000000000001</v>
+      </c>
+      <c r="K68">
+        <v>15.256</v>
+      </c>
+      <c r="L68">
+        <v>15.249000000000001</v>
+      </c>
+      <c r="M68">
+        <v>16.314</v>
+      </c>
+      <c r="N68">
+        <v>15.785</v>
+      </c>
+      <c r="O68">
+        <v>14.170999999999999</v>
+      </c>
+      <c r="P68">
+        <v>15.867000000000001</v>
+      </c>
+      <c r="Q68">
+        <v>15.382999999999999</v>
+      </c>
+      <c r="R68">
+        <v>15.776</v>
+      </c>
+      <c r="S68">
+        <v>15.545499</v>
+      </c>
+      <c r="T68">
+        <v>16.125281000000001</v>
+      </c>
+      <c r="U68">
+        <v>16.555288000000001</v>
+      </c>
+      <c r="V68">
+        <v>16.625764999999998</v>
+      </c>
+      <c r="W68">
+        <v>16.486893999999999</v>
+      </c>
+      <c r="X68">
+        <v>16.462018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C69">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D69">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E69">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F69">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G69">
+        <v>0.623</v>
+      </c>
+      <c r="H69">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I69">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J69">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K69">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L69">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="M69">
+        <v>0.16</v>
+      </c>
+      <c r="N69">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O69">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P69">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q69">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R69">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S69">
+        <v>0.43059500000000001</v>
+      </c>
+      <c r="T69">
+        <v>0.37356200000000001</v>
+      </c>
+      <c r="U69">
+        <v>0.40558499999999997</v>
+      </c>
+      <c r="V69">
+        <v>0.33825000000000005</v>
+      </c>
+      <c r="W69">
+        <v>0.39345599999999997</v>
+      </c>
+      <c r="X69">
+        <v>0.52855200000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J70">
+        <v>1.6700000000000002E-4</v>
+      </c>
+      <c r="K70">
+        <v>3.2669999999999999E-3</v>
+      </c>
+      <c r="L70">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="M70">
+        <v>0.10086199999999999</v>
+      </c>
+      <c r="N70">
+        <v>0.77869600000000005</v>
+      </c>
+      <c r="O70">
+        <v>1.3919870000000001</v>
+      </c>
+      <c r="P70">
+        <v>1.256651</v>
+      </c>
+      <c r="Q70">
+        <v>1.381661</v>
+      </c>
+      <c r="R70">
+        <v>1.3879900000000001</v>
+      </c>
+      <c r="S70">
+        <v>1.4029700000000001</v>
+      </c>
+      <c r="T70">
+        <v>1.3427880000000001</v>
+      </c>
+      <c r="U70">
+        <v>1.417286</v>
+      </c>
+      <c r="V70">
+        <v>1.46872</v>
+      </c>
+      <c r="W70">
+        <v>1.4665979999999998</v>
+      </c>
+      <c r="X70">
+        <v>2.0938380000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71">
+        <v>1E-3</v>
+      </c>
+      <c r="G71">
+        <v>4.5869999999999999E-3</v>
+      </c>
+      <c r="H71">
+        <v>2.0047000000000002E-2</v>
+      </c>
+      <c r="I71">
+        <v>4.6801999999999996E-2</v>
+      </c>
+      <c r="J71">
+        <v>0.12175799999999999</v>
+      </c>
+      <c r="K71">
+        <v>0.237009</v>
+      </c>
+      <c r="L71">
+        <v>0.681369</v>
+      </c>
+      <c r="M71">
+        <v>0.86109500000000005</v>
+      </c>
+      <c r="N71">
+        <v>1.2208979999999998</v>
+      </c>
+      <c r="O71">
+        <v>1.3735119999999998</v>
+      </c>
+      <c r="P71">
+        <v>1.3305769999999999</v>
+      </c>
+      <c r="Q71">
+        <v>1.451511</v>
+      </c>
+      <c r="R71">
+        <v>1.4249700000000001</v>
+      </c>
+      <c r="S71">
+        <v>1.5040640000000001</v>
+      </c>
+      <c r="T71">
+        <v>1.3181230000000002</v>
+      </c>
+      <c r="U71">
+        <v>1.316988</v>
+      </c>
+      <c r="V71">
+        <v>1.4771310000000002</v>
+      </c>
+      <c r="W71">
+        <v>1.4335609999999999</v>
+      </c>
+      <c r="X71">
+        <v>1.499125</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB3D78-ADA8-4152-9194-FBE7B46D68A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F8513-34B6-4AEA-8207-D13764F057C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F8513-34B6-4AEA-8207-D13764F057C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B20A50-CEE9-4353-8BC9-0770CC050C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="82">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -151,9 +151,30 @@
     <t>oil</t>
   </si>
   <si>
+    <t>iso_code</t>
+  </si>
+  <si>
     <t>model_fuel</t>
   </si>
   <si>
+    <t>generation_twh_gem_irena</t>
+  </si>
+  <si>
+    <t>generation_twh_gem_ember</t>
+  </si>
+  <si>
+    <t>generation_twh_irena</t>
+  </si>
+  <si>
+    <t>generation_twh_ember</t>
+  </si>
+  <si>
+    <t>utilization_factor_irena</t>
+  </si>
+  <si>
+    <t>utilization_factor_ember</t>
+  </si>
+  <si>
     <t>hydro</t>
   </si>
   <si>
@@ -178,84 +199,81 @@
     <t>BGR</t>
   </si>
   <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>Unnamed: 14</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+  </si>
+  <si>
+    <t>Unnamed: 16</t>
+  </si>
+  <si>
+    <t>Unnamed: 17</t>
+  </si>
+  <si>
+    <t>Unnamed: 18</t>
+  </si>
+  <si>
+    <t>Unnamed: 19</t>
+  </si>
+  <si>
+    <t>Unnamed: 20</t>
+  </si>
+  <si>
+    <t>Unnamed: 21</t>
+  </si>
+  <si>
+    <t>Unnamed: 22</t>
+  </si>
+  <si>
+    <t>Unnamed: 23</t>
+  </si>
+  <si>
+    <t>Unnamed: 24</t>
+  </si>
+  <si>
+    <t>Unnamed: 25</t>
+  </si>
+  <si>
+    <t>EMBER Utilization Factors</t>
+  </si>
+  <si>
+    <t>IRENA Utilization Factors</t>
+  </si>
+  <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>EMBER Generation (TWh)</t>
+  </si>
+  <si>
+    <t>IRENA Capacity (GW)</t>
+  </si>
+  <si>
+    <t>IRENA Generation (TWh)</t>
+  </si>
+  <si>
     <t>Electricity Trade Data (TWh) - Source: UNSD</t>
   </si>
   <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
-  </si>
-  <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
-  </si>
-  <si>
-    <t>Unnamed: 15</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>Unnamed: 17</t>
-  </si>
-  <si>
-    <t>Unnamed: 18</t>
-  </si>
-  <si>
-    <t>Unnamed: 19</t>
-  </si>
-  <si>
-    <t>Unnamed: 20</t>
-  </si>
-  <si>
-    <t>Unnamed: 21</t>
-  </si>
-  <si>
-    <t>Unnamed: 22</t>
-  </si>
-  <si>
-    <t>Unnamed: 23</t>
-  </si>
-  <si>
-    <t>Unnamed: 24</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
-  </si>
-  <si>
     <t>ISO</t>
   </si>
   <si>
@@ -263,24 +281,6 @@
   </si>
   <si>
     <t>Import</t>
-  </si>
-  <si>
-    <t>EMBER Utilization Factors</t>
-  </si>
-  <si>
-    <t>EMBER Capacity (GW)</t>
-  </si>
-  <si>
-    <t>EMBER Generation (TWh)</t>
-  </si>
-  <si>
-    <t>IRENA Utilization Factors</t>
-  </si>
-  <si>
-    <t>IRENA Capacity (GW)</t>
-  </si>
-  <si>
-    <t>IRENA Generation (TWh)</t>
   </si>
 </sst>
 </file>
@@ -803,10 +803,10 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(historical_data!F2:F16)</f>
-        <v>69551.532464394288</v>
+        <v>2053.1324643942899</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -929,37 +929,37 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>1807.553951052055</v>
+        <v>53.358244837365724</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>1807.553951052055</v>
+        <v>53.358244837365724</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>1807.553951052055</v>
+        <v>53.358244837365724</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>1807.553951052055</v>
+        <v>53.358244837365724</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>1807.553951052055</v>
+        <v>53.358244837365724</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>1807.553951052055</v>
+        <v>53.358244837365724</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>1807.553951052055</v>
+        <v>53.358244837365724</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="7:25" x14ac:dyDescent="0.45">
@@ -996,31 +996,31 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>47703.706447330318</v>
+        <v>1408.1936789687388</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>51790.350162752358</v>
+        <v>1528.829710774957</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>55641.225971515429</v>
+        <v>1642.5059715154318</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>58234.672944764025</v>
+        <v>1719.0634532386086</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>56034.172482613692</v>
+        <v>1654.1055899583373</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>56269.940389272655</v>
+        <v>1661.0653610240806</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>58234.672944764025</v>
+        <v>1719.0634532386086</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1060,31 +1060,31 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>20040.272066011916</v>
+        <v>591.58054058818516</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>18389.89671939917</v>
+        <v>542.86214312798177</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>18311.307417179516</v>
+        <v>540.54221943940058</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>17761.182301641929</v>
+        <v>524.30275361933263</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>17682.592999422275</v>
+        <v>521.98282993075156</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>17918.360906081238</v>
+        <v>528.942600996495</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>15560.681839491603</v>
+        <v>459.34489033906146</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="19" spans="7:25" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R19" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
@@ -1100,27 +1100,27 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-471.53581331792748</v>
+        <v>-13.919542131486708</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>314.35720887861839</v>
+        <v>9.2796947543244812</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>1728.9646488324004</v>
+        <v>51.038321148784597</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>5029.7153420578916</v>
+        <v>148.47511606919159</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>9980.841381896129</v>
+        <v>294.63030844980204</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>16189.39625724884</v>
+        <v>477.90427984771048</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1288,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1570,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1758,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1993,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2040,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -2087,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -2181,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2228,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -2275,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -2322,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
@@ -2369,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -2416,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -2510,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -2604,7 +2604,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -2651,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -2698,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -2933,7 +2933,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -2980,7 +2980,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -3027,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -3074,7 +3074,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -3168,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
         <v>32</v>
@@ -3215,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -3262,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -3309,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -3356,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
@@ -3403,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -3450,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
         <v>36</v>
@@ -3496,7 +3496,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -3515,2222 +3515,1811 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>71</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>2000</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>2001</v>
-      </c>
-      <c r="E2">
-        <v>2002</v>
+        <v>21.8</v>
       </c>
       <c r="F2">
-        <v>2003</v>
-      </c>
-      <c r="G2">
-        <v>2004</v>
+        <v>21.8</v>
       </c>
       <c r="H2">
-        <v>2005</v>
-      </c>
-      <c r="I2">
-        <v>2006</v>
-      </c>
-      <c r="J2">
-        <v>2007</v>
-      </c>
-      <c r="K2">
-        <v>2008</v>
-      </c>
-      <c r="L2">
-        <v>2009</v>
-      </c>
-      <c r="M2">
-        <v>2010</v>
-      </c>
-      <c r="N2">
-        <v>2011</v>
-      </c>
-      <c r="O2">
-        <v>2012</v>
-      </c>
-      <c r="P2">
-        <v>2013</v>
-      </c>
-      <c r="Q2">
-        <v>2014</v>
-      </c>
-      <c r="R2">
-        <v>2015</v>
-      </c>
-      <c r="S2">
-        <v>2016</v>
-      </c>
-      <c r="T2">
-        <v>2017</v>
-      </c>
-      <c r="U2">
-        <v>2018</v>
-      </c>
-      <c r="V2">
-        <v>2019</v>
-      </c>
-      <c r="W2">
-        <v>2020</v>
-      </c>
-      <c r="X2">
-        <v>2021</v>
-      </c>
-      <c r="Y2">
-        <v>2022</v>
-      </c>
-      <c r="Z2">
-        <v>2023</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3">
-        <v>5.6</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>8.3000000000000007</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>6.8</v>
-      </c>
-      <c r="G3">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
-      </c>
-      <c r="I3">
-        <v>8.9</v>
-      </c>
-      <c r="J3">
-        <v>7.5</v>
-      </c>
-      <c r="K3">
-        <v>8.4</v>
-      </c>
-      <c r="L3">
-        <v>7.7</v>
-      </c>
-      <c r="M3">
-        <v>9.6</v>
-      </c>
-      <c r="N3">
-        <v>12.1</v>
-      </c>
-      <c r="O3">
-        <v>10.7</v>
-      </c>
-      <c r="P3">
-        <v>9.5</v>
-      </c>
-      <c r="Q3">
-        <v>13.8</v>
-      </c>
-      <c r="R3">
-        <v>14.8</v>
-      </c>
-      <c r="S3">
-        <v>10.9</v>
-      </c>
-      <c r="T3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="U3">
-        <v>10</v>
-      </c>
-      <c r="V3">
-        <v>8.9</v>
-      </c>
-      <c r="W3">
-        <v>7.1</v>
-      </c>
-      <c r="X3">
-        <v>10.6</v>
-      </c>
-      <c r="Y3">
-        <v>13.7</v>
-      </c>
-      <c r="Z3">
-        <v>7.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1.1000000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="F4">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="G4">
-        <v>0.7</v>
+        <v>0.13</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
-      </c>
-      <c r="I4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J4">
-        <v>3.1</v>
-      </c>
-      <c r="K4">
-        <v>3.1</v>
-      </c>
-      <c r="L4">
-        <v>2.7</v>
-      </c>
-      <c r="M4">
-        <v>1.2</v>
-      </c>
-      <c r="N4">
-        <v>1.4</v>
-      </c>
-      <c r="O4">
-        <v>2.4</v>
-      </c>
-      <c r="P4">
-        <v>3.4</v>
-      </c>
-      <c r="Q4">
-        <v>4.3</v>
-      </c>
-      <c r="R4">
-        <v>4.3</v>
-      </c>
-      <c r="S4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T4">
-        <v>3.7</v>
-      </c>
-      <c r="U4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>3.7</v>
-      </c>
-      <c r="X4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>16.5</v>
+      </c>
+      <c r="F5">
+        <v>16.5</v>
+      </c>
+      <c r="G5">
+        <v>0.94</v>
+      </c>
+      <c r="H5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
         <v>1.9</v>
       </c>
-      <c r="Y4">
-        <v>1.5</v>
-      </c>
-      <c r="Z4">
-        <v>4.4000000000000004</v>
+      <c r="D6">
+        <v>1.9</v>
+      </c>
+      <c r="E6">
+        <v>2.1</v>
+      </c>
+      <c r="F6">
+        <v>2.1</v>
+      </c>
+      <c r="G6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8">
-        <v>2001</v>
-      </c>
-      <c r="D8">
-        <v>2002</v>
-      </c>
-      <c r="E8">
-        <v>2003</v>
-      </c>
-      <c r="F8">
-        <v>2004</v>
-      </c>
-      <c r="G8">
-        <v>2005</v>
-      </c>
-      <c r="H8">
-        <v>2006</v>
-      </c>
-      <c r="I8">
-        <v>2007</v>
-      </c>
-      <c r="J8">
-        <v>2008</v>
-      </c>
-      <c r="K8">
-        <v>2009</v>
-      </c>
-      <c r="L8">
-        <v>2010</v>
-      </c>
-      <c r="M8">
-        <v>2011</v>
-      </c>
-      <c r="N8">
-        <v>2012</v>
-      </c>
-      <c r="O8">
-        <v>2013</v>
-      </c>
-      <c r="P8">
-        <v>2014</v>
-      </c>
-      <c r="Q8">
-        <v>2015</v>
-      </c>
-      <c r="R8">
-        <v>2016</v>
-      </c>
-      <c r="S8">
-        <v>2017</v>
-      </c>
-      <c r="T8">
-        <v>2018</v>
-      </c>
-      <c r="U8">
-        <v>2019</v>
-      </c>
-      <c r="V8">
-        <v>2020</v>
-      </c>
-      <c r="W8">
-        <v>2021</v>
-      </c>
-      <c r="X8">
-        <v>2022</v>
-      </c>
-      <c r="Y8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="K9">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="L9">
-        <v>0.45662100456621008</v>
-      </c>
-      <c r="M9">
-        <v>0.68493150684931503</v>
-      </c>
-      <c r="N9">
-        <v>0.7990867579908677</v>
-      </c>
-      <c r="O9">
-        <v>0.41856925418569257</v>
-      </c>
-      <c r="P9">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q9">
-        <v>0.61643835616438358</v>
-      </c>
-      <c r="R9">
-        <v>0.66590563165905636</v>
-      </c>
-      <c r="S9">
-        <v>0.91324200913242015</v>
-      </c>
-      <c r="T9">
-        <v>2.5603392041748205</v>
-      </c>
-      <c r="U9">
-        <v>3.4627092846270933</v>
-      </c>
-      <c r="V9">
-        <v>3.8812785388127851</v>
-      </c>
-      <c r="W9">
-        <v>5.9132420091324196</v>
-      </c>
-      <c r="X9">
-        <v>5.1141552511415531</v>
-      </c>
-      <c r="Y9">
-        <v>4.9771689497716896</v>
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="D7">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>1.4</v>
+      </c>
+      <c r="G7">
+        <v>0.24</v>
+      </c>
+      <c r="H7">
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>0.34409073920603195</v>
-      </c>
-      <c r="C10">
-        <v>0.39609028421001313</v>
-      </c>
-      <c r="D10">
-        <v>0.34896569655015519</v>
-      </c>
-      <c r="E10">
-        <v>0.3908090804205463</v>
-      </c>
-      <c r="F10">
-        <v>0.3922789539227895</v>
-      </c>
-      <c r="G10">
-        <v>0.38314653383146535</v>
-      </c>
-      <c r="H10">
-        <v>0.396222498962225</v>
-      </c>
-      <c r="I10">
-        <v>0.46430053964300544</v>
-      </c>
-      <c r="J10">
-        <v>0.48111249481112495</v>
-      </c>
-      <c r="K10">
-        <v>0.42782873873654675</v>
-      </c>
-      <c r="L10">
-        <v>0.45844586648499153</v>
-      </c>
-      <c r="M10">
-        <v>0.49726171897578175</v>
-      </c>
-      <c r="N10">
-        <v>0.41309028379862439</v>
-      </c>
-      <c r="O10">
-        <v>0.36227010141320837</v>
-      </c>
-      <c r="P10">
-        <v>0.41231328844516674</v>
-      </c>
-      <c r="Q10">
-        <v>0.50828415182197206</v>
-      </c>
-      <c r="R10">
-        <v>0.4369935206742831</v>
-      </c>
-      <c r="S10">
-        <v>0.46734400271649285</v>
-      </c>
-      <c r="T10">
-        <v>0.41685655309224456</v>
-      </c>
-      <c r="U10">
-        <v>0.38424076705180099</v>
-      </c>
-      <c r="V10">
-        <v>0.30180771877150181</v>
-      </c>
-      <c r="W10">
-        <v>0.38178341330902782</v>
-      </c>
-      <c r="X10">
-        <v>0.48677943686388042</v>
-      </c>
-      <c r="Y10">
-        <v>0.25824553878597789</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>0.19642930601834707</v>
+        <v>2000</v>
       </c>
       <c r="C11">
-        <v>0.19642930601834707</v>
+        <v>2001</v>
       </c>
       <c r="D11">
-        <v>0.1583775556378296</v>
+        <v>2002</v>
       </c>
       <c r="E11">
-        <v>0.18100292072894811</v>
+        <v>2003</v>
       </c>
       <c r="F11">
-        <v>0.15323542720802993</v>
+        <v>2004</v>
       </c>
       <c r="G11">
-        <v>0.1779176436710683</v>
+        <v>2005</v>
       </c>
       <c r="H11">
-        <v>0.22213994816734542</v>
+        <v>2006</v>
       </c>
       <c r="I11">
-        <v>0.23228111971411552</v>
+        <v>2007</v>
       </c>
       <c r="J11">
-        <v>0.23426642842962081</v>
+        <v>2008</v>
       </c>
       <c r="K11">
-        <v>0.19456025411951558</v>
+        <v>2009</v>
       </c>
       <c r="L11">
-        <v>0.19555290847726822</v>
+        <v>2010</v>
       </c>
       <c r="M11">
-        <v>0.19786910197869106</v>
+        <v>2011</v>
       </c>
       <c r="N11">
-        <v>0.22450532724505329</v>
+        <v>2012</v>
       </c>
       <c r="O11">
-        <v>0.2226027397260274</v>
+        <v>2013</v>
       </c>
       <c r="P11">
-        <v>0.20357686453576868</v>
+        <v>2014</v>
       </c>
       <c r="Q11">
-        <v>0.17694063926940642</v>
+        <v>2015</v>
       </c>
       <c r="R11">
-        <v>0.1950152207001522</v>
+        <v>2016</v>
       </c>
       <c r="S11">
-        <v>0.18359969558599698</v>
+        <v>2017</v>
       </c>
       <c r="T11">
-        <v>0.19216133942161343</v>
+        <v>2018</v>
       </c>
       <c r="U11">
-        <v>0.20452815829528159</v>
+        <v>2019</v>
       </c>
       <c r="V11">
-        <v>0.21784627092846273</v>
+        <v>2020</v>
       </c>
       <c r="W11">
-        <v>0.29014459665144599</v>
+        <v>2021</v>
       </c>
       <c r="X11">
-        <v>0.1950152207001522</v>
+        <v>2022</v>
       </c>
       <c r="Y11">
-        <v>0.14840182648401828</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>0.29434148088459128</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.22423352902804958</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.22408253001860307</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.20686315206863154</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.18103408514367419</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.24791291914579586</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.2427240440939071</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.16072605011472321</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1502326182476092</v>
+        <v>0.22831050228310504</v>
       </c>
       <c r="K12">
-        <v>0.18296846327828276</v>
+        <v>0.11415525114155252</v>
       </c>
       <c r="L12">
-        <v>0.26339491433119683</v>
+        <v>0.45662100456621008</v>
       </c>
       <c r="M12">
-        <v>0.14626141552511415</v>
+        <v>0.68493150684931503</v>
       </c>
       <c r="N12">
-        <v>0.15647142182333496</v>
+        <v>0.7990867579908677</v>
       </c>
       <c r="O12">
-        <v>0.19708855325293684</v>
+        <v>0.41856925418569257</v>
       </c>
       <c r="P12">
-        <v>0.22250599798777185</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q12">
-        <v>0.27329541057193724</v>
+        <v>0.61643835616438358</v>
       </c>
       <c r="R12">
-        <v>0.18767897221577279</v>
+        <v>0.66590563165905636</v>
       </c>
       <c r="S12">
-        <v>0.12870890865760704</v>
+        <v>0.91324200913242015</v>
       </c>
       <c r="T12">
-        <v>0.23422292564900221</v>
+        <v>2.5603392041748205</v>
       </c>
       <c r="U12">
-        <v>0.13325692663137406</v>
+        <v>3.4627092846270933</v>
       </c>
       <c r="V12">
-        <v>0.12825410686023031</v>
+        <v>3.8812785388127851</v>
       </c>
       <c r="W12">
-        <v>0.21921446633557101</v>
+        <v>5.9132420091324196</v>
       </c>
       <c r="X12">
-        <v>0.17145847997545438</v>
+        <v>5.1141552511415531</v>
       </c>
       <c r="Y12">
-        <v>0.14032522966412186</v>
+        <v>4.9771689497716896</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>0.58791571267802401</v>
+        <v>0.34409073920603195</v>
       </c>
       <c r="C13">
-        <v>0.632219592016247</v>
+        <v>0.39609028421001313</v>
       </c>
       <c r="D13">
-        <v>0.84860999194198217</v>
+        <v>0.34896569655015519</v>
       </c>
       <c r="E13">
-        <v>0.72522159548751008</v>
+        <v>0.3908090804205463</v>
       </c>
       <c r="F13">
-        <v>0.70591592801504166</v>
+        <v>0.3922789539227895</v>
       </c>
       <c r="G13">
-        <v>0.78271890948160072</v>
+        <v>0.38314653383146535</v>
       </c>
       <c r="H13">
-        <v>0.81797273704002138</v>
+        <v>0.396222498962225</v>
       </c>
       <c r="I13">
-        <v>0.88425019931869253</v>
+        <v>0.46430053964300544</v>
       </c>
       <c r="J13">
-        <v>0.95250175158850958</v>
+        <v>0.48111249481112495</v>
       </c>
       <c r="K13">
-        <v>0.92169795366142393</v>
+        <v>0.42782873873654675</v>
       </c>
       <c r="L13">
-        <v>0.92109395762363799</v>
+        <v>0.45844586648499153</v>
       </c>
       <c r="M13">
-        <v>0.98511753762895304</v>
+        <v>0.49726171897578175</v>
       </c>
       <c r="N13">
-        <v>0.94312558272968505</v>
+        <v>0.41309028379862439</v>
       </c>
       <c r="O13">
-        <v>0.81695954983626218</v>
+        <v>0.36227010141320837</v>
       </c>
       <c r="P13">
-        <v>0.91497163414971638</v>
+        <v>0.41231328844516674</v>
       </c>
       <c r="Q13">
-        <v>0.88672109220054429</v>
+        <v>0.50828415182197206</v>
       </c>
       <c r="R13">
-        <v>0.91440094569223274</v>
+        <v>0.4369935206742831</v>
       </c>
       <c r="S13">
-        <v>0.90107317525438657</v>
+        <v>0.46734400271649285</v>
       </c>
       <c r="T13">
-        <v>0.91608169199663791</v>
+        <v>0.41685655309224456</v>
       </c>
       <c r="U13">
-        <v>0.94050296462891025</v>
+        <v>0.38424076705180099</v>
       </c>
       <c r="V13">
-        <v>0.9444785206388151</v>
+        <v>0.30180771877150181</v>
       </c>
       <c r="W13">
-        <v>0.93652740861900541</v>
+        <v>0.38178341330902782</v>
       </c>
       <c r="X13">
-        <v>0.93482359890047495</v>
+        <v>0.48677943686388042</v>
       </c>
       <c r="Y13">
-        <v>0.91778550171516859</v>
+        <v>0.25824553878597789</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>65535</v>
+        <v>0.19642930601834707</v>
       </c>
       <c r="C14">
-        <v>65535</v>
+        <v>0.19642930601834707</v>
       </c>
       <c r="D14">
-        <v>65535</v>
+        <v>0.1583775556378296</v>
       </c>
       <c r="E14">
-        <v>65535</v>
+        <v>0.18100292072894811</v>
       </c>
       <c r="F14">
-        <v>65535</v>
+        <v>0.15323542720802993</v>
       </c>
       <c r="G14">
-        <v>65535</v>
+        <v>0.1779176436710683</v>
       </c>
       <c r="H14">
-        <v>65535</v>
+        <v>0.22213994816734542</v>
       </c>
       <c r="I14">
-        <v>65535</v>
+        <v>0.23228111971411552</v>
       </c>
       <c r="J14">
-        <v>65535</v>
+        <v>0.23426642842962081</v>
       </c>
       <c r="K14">
-        <v>65535</v>
+        <v>0.19456025411951558</v>
       </c>
       <c r="L14">
-        <v>65535</v>
+        <v>0.19555290847726822</v>
       </c>
       <c r="M14">
-        <v>65535</v>
+        <v>0.19786910197869106</v>
       </c>
       <c r="N14">
-        <v>65535</v>
+        <v>0.22450532724505329</v>
       </c>
       <c r="O14">
-        <v>65535</v>
+        <v>0.2226027397260274</v>
       </c>
       <c r="P14">
-        <v>65535</v>
+        <v>0.20357686453576868</v>
       </c>
       <c r="Q14">
-        <v>65535</v>
+        <v>0.17694063926940642</v>
       </c>
       <c r="R14">
-        <v>65535</v>
+        <v>0.1950152207001522</v>
       </c>
       <c r="S14">
-        <v>65535</v>
+        <v>0.18359969558599698</v>
       </c>
       <c r="T14">
-        <v>65535</v>
+        <v>0.19216133942161343</v>
       </c>
       <c r="U14">
-        <v>65535</v>
+        <v>0.20452815829528159</v>
       </c>
       <c r="V14">
-        <v>65535</v>
+        <v>0.21784627092846273</v>
       </c>
       <c r="W14">
-        <v>65535</v>
+        <v>0.29014459665144599</v>
       </c>
       <c r="X14">
-        <v>65535</v>
+        <v>0.1950152207001522</v>
       </c>
       <c r="Y14">
-        <v>65535</v>
+        <v>0.14840182648401828</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0.29434148088459128</v>
+      </c>
+      <c r="C15">
+        <v>0.22423352902804958</v>
+      </c>
+      <c r="D15">
+        <v>0.22408253001860307</v>
+      </c>
+      <c r="E15">
+        <v>0.20686315206863154</v>
+      </c>
+      <c r="F15">
+        <v>0.18103408514367419</v>
+      </c>
+      <c r="G15">
+        <v>0.24791291914579586</v>
+      </c>
+      <c r="H15">
+        <v>0.2427240440939071</v>
+      </c>
+      <c r="I15">
+        <v>0.16072605011472321</v>
+      </c>
+      <c r="J15">
+        <v>0.1502326182476092</v>
+      </c>
+      <c r="K15">
+        <v>0.18296846327828276</v>
       </c>
       <c r="L15">
-        <v>3.8051750380517509E-2</v>
+        <v>0.26339491433119683</v>
       </c>
       <c r="M15">
-        <v>7.6103500761035017E-2</v>
+        <v>0.14626141552511415</v>
       </c>
       <c r="N15">
-        <v>9.6783799880881469E-2</v>
+        <v>0.15647142182333496</v>
       </c>
       <c r="O15">
-        <v>0.1525728837372673</v>
+        <v>0.19708855325293684</v>
       </c>
       <c r="P15">
-        <v>0.13964622955180209</v>
+        <v>0.22250599798777185</v>
       </c>
       <c r="Q15">
-        <v>0.15294587046149752</v>
+        <v>0.27329541057193724</v>
       </c>
       <c r="R15">
-        <v>0.1540541738706388</v>
+        <v>0.18767897221577279</v>
       </c>
       <c r="S15">
-        <v>0.15516247727978011</v>
+        <v>0.12870890865760704</v>
       </c>
       <c r="T15">
-        <v>0.14851265682493239</v>
+        <v>0.23422292564900221</v>
       </c>
       <c r="U15">
-        <v>0.15586582367404284</v>
+        <v>0.13325692663137406</v>
       </c>
       <c r="V15">
-        <v>0.15255292652552924</v>
+        <v>0.12825410686023031</v>
       </c>
       <c r="W15">
-        <v>0.13213245604573401</v>
+        <v>0.21921446633557101</v>
       </c>
       <c r="X15">
-        <v>0.13711751430220961</v>
+        <v>0.17145847997545438</v>
       </c>
       <c r="Y15">
-        <v>0.13667567483614451</v>
+        <v>0.14032522966412186</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>0.58791571267802401</v>
+      </c>
+      <c r="C16">
+        <v>0.632219592016247</v>
+      </c>
+      <c r="D16">
+        <v>0.84860999194198217</v>
+      </c>
+      <c r="E16">
+        <v>0.72522159548751008</v>
+      </c>
+      <c r="F16">
+        <v>0.70591592801504166</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.78271890948160072</v>
       </c>
       <c r="H16">
+        <v>0.81797273704002138</v>
+      </c>
+      <c r="I16">
+        <v>0.88425019931869253</v>
+      </c>
+      <c r="J16">
+        <v>0.95250175158850958</v>
+      </c>
+      <c r="K16">
+        <v>0.92169795366142393</v>
+      </c>
+      <c r="L16">
+        <v>0.92109395762363799</v>
+      </c>
+      <c r="M16">
+        <v>0.98511753762895304</v>
+      </c>
+      <c r="N16">
+        <v>0.94312558272968505</v>
+      </c>
+      <c r="O16">
+        <v>0.81695954983626218</v>
+      </c>
+      <c r="P16">
+        <v>0.91497163414971638</v>
+      </c>
+      <c r="Q16">
+        <v>0.88672109220054429</v>
+      </c>
+      <c r="R16">
+        <v>0.91440094569223274</v>
+      </c>
+      <c r="S16">
+        <v>0.90107317525438657</v>
+      </c>
+      <c r="T16">
+        <v>0.91608169199663791</v>
+      </c>
+      <c r="U16">
+        <v>0.94050296462891025</v>
+      </c>
+      <c r="V16">
+        <v>0.9444785206388151</v>
+      </c>
+      <c r="W16">
+        <v>0.93652740861900541</v>
+      </c>
+      <c r="X16">
+        <v>0.93482359890047495</v>
+      </c>
+      <c r="Y16">
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>65535</v>
+      </c>
+      <c r="C17">
+        <v>65535</v>
+      </c>
+      <c r="D17">
+        <v>65535</v>
+      </c>
+      <c r="E17">
+        <v>65535</v>
+      </c>
+      <c r="F17">
+        <v>65535</v>
+      </c>
+      <c r="G17">
+        <v>65535</v>
+      </c>
+      <c r="H17">
+        <v>65535</v>
+      </c>
+      <c r="I17">
+        <v>65535</v>
+      </c>
+      <c r="J17">
+        <v>65535</v>
+      </c>
+      <c r="K17">
+        <v>65535</v>
+      </c>
+      <c r="L17">
+        <v>65535</v>
+      </c>
+      <c r="M17">
+        <v>65535</v>
+      </c>
+      <c r="N17">
+        <v>65535</v>
+      </c>
+      <c r="O17">
+        <v>65535</v>
+      </c>
+      <c r="P17">
+        <v>65535</v>
+      </c>
+      <c r="Q17">
+        <v>65535</v>
+      </c>
+      <c r="R17">
+        <v>65535</v>
+      </c>
+      <c r="S17">
+        <v>65535</v>
+      </c>
+      <c r="T17">
+        <v>65535</v>
+      </c>
+      <c r="U17">
+        <v>65535</v>
+      </c>
+      <c r="V17">
+        <v>65535</v>
+      </c>
+      <c r="W17">
+        <v>65535</v>
+      </c>
+      <c r="X17">
+        <v>65535</v>
+      </c>
+      <c r="Y17">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="M18">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="I16">
-        <v>0.19025875190258754</v>
-      </c>
-      <c r="J16">
-        <v>0.12453300124533001</v>
-      </c>
-      <c r="K16">
-        <v>8.3022000830220002E-2</v>
-      </c>
-      <c r="L16">
-        <v>0.15841953219644023</v>
-      </c>
-      <c r="M16">
-        <v>0.18180280737358362</v>
-      </c>
-      <c r="N16">
-        <v>0.20480795057749127</v>
-      </c>
-      <c r="O16">
-        <v>0.22998925597636316</v>
-      </c>
-      <c r="P16">
-        <v>0.21689497716894979</v>
-      </c>
-      <c r="Q16">
-        <v>0.23646444879321593</v>
-      </c>
-      <c r="R16">
-        <v>0.23157208088714937</v>
-      </c>
-      <c r="S16">
-        <v>0.24461839530332682</v>
-      </c>
-      <c r="T16">
-        <v>0.21526418786692761</v>
-      </c>
-      <c r="U16">
-        <v>0.21526418786692761</v>
-      </c>
-      <c r="V16">
-        <v>0.24135681669928247</v>
-      </c>
-      <c r="W16">
-        <v>0.23320287018917157</v>
-      </c>
-      <c r="X16">
-        <v>0.23483365949119375</v>
-      </c>
-      <c r="Y16">
-        <v>0.25277234181343772</v>
+      <c r="N18">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="P18">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="Q18">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="R18">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="S18">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="T18">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="U18">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="V18">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="W18">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="X18">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="Y18">
+        <v>0.13667567483614451</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>2000</v>
-      </c>
-      <c r="C20">
-        <v>2001</v>
-      </c>
-      <c r="D20">
-        <v>2002</v>
-      </c>
-      <c r="E20">
-        <v>2003</v>
-      </c>
-      <c r="F20">
-        <v>2004</v>
-      </c>
-      <c r="G20">
-        <v>2005</v>
-      </c>
-      <c r="H20">
-        <v>2006</v>
-      </c>
-      <c r="I20">
-        <v>2007</v>
-      </c>
-      <c r="J20">
-        <v>2008</v>
-      </c>
-      <c r="K20">
-        <v>2009</v>
-      </c>
-      <c r="L20">
-        <v>2010</v>
-      </c>
-      <c r="M20">
-        <v>2011</v>
-      </c>
-      <c r="N20">
-        <v>2012</v>
-      </c>
-      <c r="O20">
-        <v>2013</v>
-      </c>
-      <c r="P20">
-        <v>2014</v>
-      </c>
-      <c r="Q20">
-        <v>2015</v>
-      </c>
-      <c r="R20">
-        <v>2016</v>
-      </c>
-      <c r="S20">
-        <v>2017</v>
-      </c>
-      <c r="T20">
-        <v>2018</v>
-      </c>
-      <c r="U20">
-        <v>2019</v>
-      </c>
-      <c r="V20">
-        <v>2020</v>
-      </c>
-      <c r="W20">
-        <v>2021</v>
-      </c>
-      <c r="X20">
-        <v>2022</v>
-      </c>
-      <c r="Y20">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>0.05</v>
-      </c>
-      <c r="C21">
-        <v>0.05</v>
-      </c>
-      <c r="D21">
-        <v>0.05</v>
-      </c>
-      <c r="E21">
-        <v>0.01</v>
-      </c>
-      <c r="F21">
-        <v>0.01</v>
-      </c>
-      <c r="G21">
-        <v>0.01</v>
-      </c>
-      <c r="H21">
-        <v>0.01</v>
-      </c>
-      <c r="I21">
-        <v>0.01</v>
-      </c>
-      <c r="J21">
-        <v>0.01</v>
-      </c>
-      <c r="K21">
-        <v>0.01</v>
-      </c>
-      <c r="L21">
-        <v>0.01</v>
-      </c>
-      <c r="M21">
-        <v>0.01</v>
-      </c>
-      <c r="N21">
-        <v>0.01</v>
-      </c>
-      <c r="O21">
-        <v>0.03</v>
-      </c>
-      <c r="P21">
-        <v>0.04</v>
-      </c>
-      <c r="Q21">
-        <v>0.05</v>
-      </c>
-      <c r="R21">
-        <v>0.06</v>
-      </c>
-      <c r="S21">
-        <v>0.05</v>
-      </c>
-      <c r="T21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U21">
-        <v>0.06</v>
-      </c>
-      <c r="V21">
-        <v>0.05</v>
-      </c>
-      <c r="W21">
-        <v>0.05</v>
-      </c>
-      <c r="X21">
-        <v>0.05</v>
-      </c>
-      <c r="Y21">
-        <v>0.05</v>
+        <v>49</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="J19">
+        <v>0.12453300124533001</v>
+      </c>
+      <c r="K19">
+        <v>8.3022000830220002E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.15841953219644023</v>
+      </c>
+      <c r="M19">
+        <v>0.18180280737358362</v>
+      </c>
+      <c r="N19">
+        <v>0.20480795057749127</v>
+      </c>
+      <c r="O19">
+        <v>0.22998925597636316</v>
+      </c>
+      <c r="P19">
+        <v>0.21689497716894979</v>
+      </c>
+      <c r="Q19">
+        <v>0.23646444879321593</v>
+      </c>
+      <c r="R19">
+        <v>0.23157208088714937</v>
+      </c>
+      <c r="S19">
+        <v>0.24461839530332682</v>
+      </c>
+      <c r="T19">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="U19">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="V19">
+        <v>0.24135681669928247</v>
+      </c>
+      <c r="W19">
+        <v>0.23320287018917157</v>
+      </c>
+      <c r="X19">
+        <v>0.23483365949119375</v>
+      </c>
+      <c r="Y19">
+        <v>0.25277234181343772</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>5.62</v>
-      </c>
-      <c r="C22">
-        <v>5.62</v>
-      </c>
-      <c r="D22">
-        <v>5.62</v>
-      </c>
-      <c r="E22">
-        <v>5.62</v>
-      </c>
-      <c r="F22">
-        <v>5.5</v>
-      </c>
-      <c r="G22">
-        <v>5.5</v>
-      </c>
-      <c r="H22">
-        <v>5.5</v>
-      </c>
-      <c r="I22">
-        <v>5.5</v>
-      </c>
-      <c r="J22">
-        <v>5.5</v>
-      </c>
-      <c r="K22">
-        <v>5.63</v>
-      </c>
-      <c r="L22">
-        <v>5.63</v>
-      </c>
-      <c r="M22">
-        <v>6.32</v>
-      </c>
-      <c r="N22">
-        <v>6.32</v>
-      </c>
-      <c r="O22">
-        <v>6.11</v>
-      </c>
-      <c r="P22">
-        <v>5.9</v>
-      </c>
-      <c r="Q22">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="R22">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="S22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="T22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="U22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="V22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="W22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="X22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="Y22">
-        <v>5.1100000000000003</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>1.1100000000000001</v>
+        <v>2000</v>
       </c>
       <c r="C23">
-        <v>1.1100000000000001</v>
+        <v>2001</v>
       </c>
       <c r="D23">
-        <v>1.1100000000000001</v>
+        <v>2002</v>
       </c>
       <c r="E23">
-        <v>1.1100000000000001</v>
+        <v>2003</v>
       </c>
       <c r="F23">
-        <v>1.1100000000000001</v>
+        <v>2004</v>
       </c>
       <c r="G23">
-        <v>1.1100000000000001</v>
+        <v>2005</v>
       </c>
       <c r="H23">
-        <v>1.1100000000000001</v>
+        <v>2006</v>
       </c>
       <c r="I23">
-        <v>1.1499999999999999</v>
+        <v>2007</v>
       </c>
       <c r="J23">
-        <v>1.1499999999999999</v>
+        <v>2008</v>
       </c>
       <c r="K23">
-        <v>1.1499999999999999</v>
+        <v>2009</v>
       </c>
       <c r="L23">
-        <v>1.1499999999999999</v>
+        <v>2010</v>
       </c>
       <c r="M23">
-        <v>1.2</v>
+        <v>2011</v>
       </c>
       <c r="N23">
-        <v>1.2</v>
+        <v>2012</v>
       </c>
       <c r="O23">
-        <v>1.2</v>
+        <v>2013</v>
       </c>
       <c r="P23">
-        <v>1.2</v>
+        <v>2014</v>
       </c>
       <c r="Q23">
-        <v>1.2</v>
+        <v>2015</v>
       </c>
       <c r="R23">
-        <v>1.2</v>
+        <v>2016</v>
       </c>
       <c r="S23">
-        <v>1.2</v>
+        <v>2017</v>
       </c>
       <c r="T23">
-        <v>1.2</v>
+        <v>2018</v>
       </c>
       <c r="U23">
-        <v>1.2</v>
+        <v>2019</v>
       </c>
       <c r="V23">
-        <v>1.2</v>
+        <v>2020</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>2021</v>
       </c>
       <c r="X23">
-        <v>1.2</v>
-      </c>
-      <c r="Y23">
-        <v>1.2</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24">
-        <v>1.02</v>
-      </c>
-      <c r="C24">
-        <v>0.84</v>
-      </c>
-      <c r="D24">
-        <v>1.08</v>
-      </c>
-      <c r="E24">
-        <v>1.65</v>
-      </c>
-      <c r="F24">
-        <v>1.98</v>
-      </c>
-      <c r="G24">
-        <v>1.98</v>
-      </c>
-      <c r="H24">
-        <v>1.98</v>
-      </c>
-      <c r="I24">
-        <v>2.0099999999999998</v>
+        <v>31</v>
       </c>
       <c r="J24">
-        <v>2.12</v>
+        <v>0.30441400304414001</v>
       </c>
       <c r="K24">
-        <v>2.14</v>
+        <v>0.10147133434804669</v>
       </c>
       <c r="L24">
-        <v>2.1800000000000002</v>
+        <v>0.40447488584474894</v>
       </c>
       <c r="M24">
-        <v>2.2400000000000002</v>
+        <v>0.5811540058115402</v>
       </c>
       <c r="N24">
-        <v>2.3199999999999998</v>
+        <v>0.53816046966731901</v>
       </c>
       <c r="O24">
-        <v>2.34</v>
+        <v>0.37067553048616708</v>
       </c>
       <c r="P24">
-        <v>2.36</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q24">
-        <v>2.36</v>
+        <v>0.57500422797226458</v>
       </c>
       <c r="R24">
-        <v>2.36</v>
+        <v>0.70696146759593048</v>
       </c>
       <c r="S24">
-        <v>2.5099999999999998</v>
+        <v>0.86924428402751963</v>
       </c>
       <c r="T24">
-        <v>2.5099999999999998</v>
+        <v>2.5863099724480505</v>
       </c>
       <c r="U24">
-        <v>2.5099999999999998</v>
+        <v>3.6549813955986812</v>
       </c>
       <c r="V24">
-        <v>2.5099999999999998</v>
+        <v>4.036889720525596</v>
       </c>
       <c r="W24">
-        <v>2.5099999999999998</v>
+        <v>6.2453375126974553</v>
       </c>
       <c r="X24">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="Y24">
-        <v>2.5299999999999998</v>
+        <v>3.2548137163984849</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>3.53</v>
+        <v>0.17918731176527739</v>
       </c>
       <c r="C25">
-        <v>3.53</v>
+        <v>0.14535545467936098</v>
       </c>
       <c r="D25">
-        <v>2.72</v>
+        <v>0.15845780240593327</v>
       </c>
       <c r="E25">
-        <v>2.72</v>
+        <v>0.1498316039834055</v>
       </c>
       <c r="F25">
-        <v>2.72</v>
+        <v>0.1347902156764661</v>
       </c>
       <c r="G25">
-        <v>2.72</v>
+        <v>0.18958653994151151</v>
       </c>
       <c r="H25">
-        <v>2.72</v>
+        <v>0.18353719344825822</v>
       </c>
       <c r="I25">
-        <v>1.89</v>
+        <v>0.12836507928947488</v>
       </c>
       <c r="J25">
-        <v>1.89</v>
+        <v>0.12535509016122517</v>
       </c>
       <c r="K25">
-        <v>1.89</v>
+        <v>0.15416139825537606</v>
       </c>
       <c r="L25">
-        <v>1.89</v>
+        <v>0.21319901365069094</v>
       </c>
       <c r="M25">
-        <v>1.89</v>
+        <v>0.13556538436675425</v>
       </c>
       <c r="N25">
-        <v>1.91</v>
+        <v>0.1426745416205524</v>
       </c>
       <c r="O25">
-        <v>1.98</v>
+        <v>0.17089921406444017</v>
       </c>
       <c r="P25">
-        <v>1.98</v>
+        <v>0.18308207829936693</v>
       </c>
       <c r="Q25">
-        <v>1.98</v>
+        <v>0.21797454043557021</v>
       </c>
       <c r="R25">
-        <v>1.97</v>
+        <v>0.16178813238750592</v>
       </c>
       <c r="S25">
-        <v>1.97</v>
+        <v>0.11826549026371555</v>
       </c>
       <c r="T25">
-        <v>2.0099999999999998</v>
+        <v>0.18320015783762453</v>
       </c>
       <c r="U25">
-        <v>2.0099999999999998</v>
+        <v>0.11430375923833559</v>
       </c>
       <c r="V25">
-        <v>2.0099999999999998</v>
+        <v>0.11225524213694742</v>
       </c>
       <c r="W25">
-        <v>2.0099999999999998</v>
+        <v>0.1716829439171017</v>
       </c>
       <c r="X25">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="Y25">
-        <v>2.0099999999999998</v>
+        <v>0.13069358514235713</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.58751816400088952</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.63195855763612019</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.84807034848805107</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.72468873612271401</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.70518756353607848</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.78226961776024206</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.81749754243287398</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.88349648121868596</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.95119319991890894</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.92048229990249752</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.92005994960757642</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.98431753019201262</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.94540432280661413</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.81619276686525755</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.91711461765215874</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.88913935610658323</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.91556341739152636</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.90218624426321981</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.91672584775055033</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.942110199083116</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>0.94612082701666678</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.9382181082323805</v>
       </c>
       <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
+        <v>0.93680249206717758</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1.3728687025740881E-2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>8.9246408872480296E-3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1.4064542368890371E-2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1.3440969291696423E-2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.4367639360976603E-2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1.06544901065449E-2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>6.8721033906174785E-3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.3383397499030053E-2</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>6.8134032678754683E-3</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>8.974387151398696E-3</v>
       </c>
       <c r="L27">
-        <v>0.03</v>
+        <v>1.0171012962918537E-2</v>
       </c>
       <c r="M27">
-        <v>0.15</v>
+        <v>4.0275281549390085E-3</v>
       </c>
       <c r="N27">
-        <v>0.92</v>
+        <v>5.4770281784942507E-3</v>
       </c>
       <c r="O27">
-        <v>1.04</v>
+        <v>5.9193423561722108E-3</v>
       </c>
       <c r="P27">
-        <v>1.03</v>
+        <v>5.7979529360833674E-3</v>
       </c>
       <c r="Q27">
-        <v>1.03</v>
+        <v>5.9440758150922698E-3</v>
       </c>
       <c r="R27">
-        <v>1.03</v>
+        <v>1.0672682178439969E-2</v>
       </c>
       <c r="S27">
-        <v>1.03</v>
+        <v>1.3166338195431674E-2</v>
       </c>
       <c r="T27">
-        <v>1.03</v>
+        <v>1.0273264456408587E-2</v>
       </c>
       <c r="U27">
-        <v>1.04</v>
+        <v>1.1459284473580975E-2</v>
       </c>
       <c r="V27">
-        <v>1.1000000000000001</v>
+        <v>1.0273784895450284E-2</v>
       </c>
       <c r="W27">
-        <v>1.27</v>
+        <v>1.1799059936493149E-2</v>
       </c>
       <c r="X27">
-        <v>1.74</v>
-      </c>
-      <c r="Y27">
-        <v>2.94</v>
+        <v>1.5180712412366853E-2</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0.01</v>
-      </c>
-      <c r="H28">
-        <v>0.03</v>
+        <v>48</v>
       </c>
       <c r="I28">
-        <v>0.03</v>
+        <v>0.22831050228310501</v>
       </c>
       <c r="J28">
-        <v>0.11</v>
+        <v>0.1906392694063927</v>
       </c>
       <c r="K28">
-        <v>0.33</v>
+        <v>0.18647260273972602</v>
       </c>
       <c r="L28">
-        <v>0.49</v>
+        <v>6.7876712328767116E-2</v>
       </c>
       <c r="M28">
-        <v>0.54</v>
+        <v>7.476575935480044E-2</v>
       </c>
       <c r="N28">
-        <v>0.68</v>
+        <v>9.6412405035707568E-2</v>
       </c>
       <c r="O28">
-        <v>0.68</v>
+        <v>0.15293804193529958</v>
       </c>
       <c r="P28">
-        <v>0.7</v>
+        <v>0.13941040865139273</v>
       </c>
       <c r="Q28">
-        <v>0.7</v>
+        <v>0.1534278778672068</v>
       </c>
       <c r="R28">
-        <v>0.7</v>
+        <v>0.15383140488540142</v>
       </c>
       <c r="S28">
-        <v>0.7</v>
+        <v>0.15538589047072227</v>
       </c>
       <c r="T28">
-        <v>0.7</v>
+        <v>0.14838111835914639</v>
       </c>
       <c r="U28">
-        <v>0.7</v>
+        <v>0.15491400651998427</v>
       </c>
       <c r="V28">
-        <v>0.7</v>
+        <v>0.15239085998651261</v>
       </c>
       <c r="W28">
-        <v>0.7</v>
+        <v>0.13133926069138591</v>
       </c>
       <c r="X28">
-        <v>0.7</v>
-      </c>
-      <c r="Y28">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>78</v>
+        <v>0.13764325363624622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="G29">
+        <v>6.5453767123287668E-2</v>
+      </c>
+      <c r="H29">
+        <v>8.4758159986470502E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.17808980213089803</v>
+      </c>
+      <c r="J29">
+        <v>0.12192381639029079</v>
+      </c>
+      <c r="K29">
+        <v>8.1248714467892558E-2</v>
+      </c>
+      <c r="L29">
+        <v>0.15938903548169775</v>
+      </c>
+      <c r="M29">
+        <v>0.18169781142649755</v>
+      </c>
+      <c r="N29">
+        <v>0.2058669391554197</v>
+      </c>
+      <c r="O29">
+        <v>0.22956604290766625</v>
+      </c>
+      <c r="P29">
+        <v>0.2172995015710637</v>
+      </c>
+      <c r="Q29">
+        <v>0.23704950320418605</v>
+      </c>
+      <c r="R29">
+        <v>0.23271503321770831</v>
+      </c>
+      <c r="S29">
+        <v>0.24584659524473154</v>
+      </c>
+      <c r="T29">
+        <v>0.21529025081619735</v>
+      </c>
+      <c r="U29">
+        <v>0.21381996798613462</v>
+      </c>
+      <c r="V29">
+        <v>0.23992922634315969</v>
+      </c>
+      <c r="W29">
+        <v>0.2323315222455867</v>
+      </c>
+      <c r="X29">
+        <v>0.24297964087912982</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>2000</v>
-      </c>
-      <c r="C32">
-        <v>2001</v>
-      </c>
-      <c r="D32">
-        <v>2002</v>
-      </c>
-      <c r="E32">
-        <v>2003</v>
-      </c>
-      <c r="F32">
-        <v>2004</v>
-      </c>
-      <c r="G32">
-        <v>2005</v>
-      </c>
-      <c r="H32">
-        <v>2006</v>
-      </c>
-      <c r="I32">
-        <v>2007</v>
-      </c>
-      <c r="J32">
-        <v>2008</v>
-      </c>
-      <c r="K32">
-        <v>2009</v>
-      </c>
-      <c r="L32">
-        <v>2010</v>
-      </c>
-      <c r="M32">
-        <v>2011</v>
-      </c>
-      <c r="N32">
-        <v>2012</v>
-      </c>
-      <c r="O32">
-        <v>2013</v>
-      </c>
-      <c r="P32">
-        <v>2014</v>
-      </c>
-      <c r="Q32">
-        <v>2015</v>
-      </c>
-      <c r="R32">
-        <v>2016</v>
-      </c>
-      <c r="S32">
-        <v>2017</v>
-      </c>
-      <c r="T32">
-        <v>2018</v>
-      </c>
-      <c r="U32">
-        <v>2019</v>
-      </c>
-      <c r="V32">
-        <v>2020</v>
-      </c>
-      <c r="W32">
-        <v>2021</v>
-      </c>
-      <c r="X32">
-        <v>2022</v>
-      </c>
-      <c r="Y32">
-        <v>2023</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2002</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2004</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="J33">
-        <v>0.02</v>
+        <v>2008</v>
       </c>
       <c r="K33">
-        <v>0.01</v>
+        <v>2009</v>
       </c>
       <c r="L33">
-        <v>0.04</v>
+        <v>2010</v>
       </c>
       <c r="M33">
-        <v>0.06</v>
+        <v>2011</v>
       </c>
       <c r="N33">
-        <v>7.0000000000000007E-2</v>
+        <v>2012</v>
       </c>
       <c r="O33">
-        <v>0.11</v>
+        <v>2013</v>
       </c>
       <c r="P33">
-        <v>0.2</v>
+        <v>2014</v>
       </c>
       <c r="Q33">
-        <v>0.27</v>
+        <v>2015</v>
       </c>
       <c r="R33">
-        <v>0.35</v>
+        <v>2016</v>
       </c>
       <c r="S33">
-        <v>0.4</v>
+        <v>2017</v>
       </c>
       <c r="T33">
-        <v>1.57</v>
+        <v>2018</v>
       </c>
       <c r="U33">
-        <v>1.82</v>
+        <v>2019</v>
       </c>
       <c r="V33">
-        <v>1.7</v>
+        <v>2020</v>
       </c>
       <c r="W33">
-        <v>2.59</v>
+        <v>2021</v>
       </c>
       <c r="X33">
-        <v>2.2400000000000002</v>
+        <v>2022</v>
       </c>
       <c r="Y33">
-        <v>2.1800000000000002</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>16.940000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C34">
-        <v>19.5</v>
+        <v>0.05</v>
       </c>
       <c r="D34">
-        <v>17.18</v>
+        <v>0.05</v>
       </c>
       <c r="E34">
-        <v>19.239999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>18.899999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="G34">
-        <v>18.46</v>
+        <v>0.01</v>
       </c>
       <c r="H34">
-        <v>19.09</v>
+        <v>0.01</v>
       </c>
       <c r="I34">
-        <v>22.37</v>
+        <v>0.01</v>
       </c>
       <c r="J34">
-        <v>23.18</v>
+        <v>0.01</v>
       </c>
       <c r="K34">
-        <v>21.1</v>
+        <v>0.01</v>
       </c>
       <c r="L34">
-        <v>22.61</v>
+        <v>0.01</v>
       </c>
       <c r="M34">
-        <v>27.53</v>
+        <v>0.01</v>
       </c>
       <c r="N34">
-        <v>22.87</v>
+        <v>0.01</v>
       </c>
       <c r="O34">
-        <v>19.39</v>
+        <v>0.03</v>
       </c>
       <c r="P34">
-        <v>21.31</v>
+        <v>0.04</v>
       </c>
       <c r="Q34">
-        <v>22.53</v>
+        <v>0.05</v>
       </c>
       <c r="R34">
-        <v>19.37</v>
+        <v>0.06</v>
       </c>
       <c r="S34">
-        <v>20.92</v>
+        <v>0.05</v>
       </c>
       <c r="T34">
-        <v>18.66</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U34">
-        <v>17.2</v>
+        <v>0.06</v>
       </c>
       <c r="V34">
-        <v>13.51</v>
+        <v>0.05</v>
       </c>
       <c r="W34">
-        <v>17.09</v>
+        <v>0.05</v>
       </c>
       <c r="X34">
-        <v>21.79</v>
+        <v>0.05</v>
       </c>
       <c r="Y34">
-        <v>11.56</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>1.91</v>
+        <v>5.62</v>
       </c>
       <c r="C35">
-        <v>1.91</v>
+        <v>5.62</v>
       </c>
       <c r="D35">
-        <v>1.54</v>
+        <v>5.62</v>
       </c>
       <c r="E35">
-        <v>1.76</v>
+        <v>5.62</v>
       </c>
       <c r="F35">
-        <v>1.49</v>
+        <v>5.5</v>
       </c>
       <c r="G35">
-        <v>1.73</v>
+        <v>5.5</v>
       </c>
       <c r="H35">
-        <v>2.16</v>
+        <v>5.5</v>
       </c>
       <c r="I35">
-        <v>2.34</v>
+        <v>5.5</v>
       </c>
       <c r="J35">
-        <v>2.36</v>
+        <v>5.5</v>
       </c>
       <c r="K35">
-        <v>1.96</v>
+        <v>5.63</v>
       </c>
       <c r="L35">
-        <v>1.97</v>
+        <v>5.63</v>
       </c>
       <c r="M35">
-        <v>2.08</v>
+        <v>6.32</v>
       </c>
       <c r="N35">
-        <v>2.36</v>
+        <v>6.32</v>
       </c>
       <c r="O35">
-        <v>2.34</v>
+        <v>6.11</v>
       </c>
       <c r="P35">
-        <v>2.14</v>
+        <v>5.9</v>
       </c>
       <c r="Q35">
-        <v>1.86</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R35">
-        <v>2.0499999999999998</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="S35">
-        <v>1.93</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="T35">
-        <v>2.02</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="U35">
-        <v>2.15</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V35">
-        <v>2.29</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W35">
-        <v>3.05</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="X35">
-        <v>2.0499999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Y35">
-        <v>1.56</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>2.63</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C36">
-        <v>1.65</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D36">
-        <v>2.12</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E36">
-        <v>2.99</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F36">
-        <v>3.14</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G36">
-        <v>4.3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H36">
-        <v>4.21</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I36">
-        <v>2.83</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J36">
-        <v>2.79</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K36">
-        <v>3.43</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L36">
-        <v>5.03</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M36">
-        <v>2.87</v>
+        <v>1.2</v>
       </c>
       <c r="N36">
-        <v>3.18</v>
+        <v>1.2</v>
       </c>
       <c r="O36">
-        <v>4.04</v>
+        <v>1.2</v>
       </c>
       <c r="P36">
-        <v>4.5999999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="Q36">
-        <v>5.65</v>
+        <v>1.2</v>
       </c>
       <c r="R36">
-        <v>3.88</v>
+        <v>1.2</v>
       </c>
       <c r="S36">
-        <v>2.83</v>
+        <v>1.2</v>
       </c>
       <c r="T36">
-        <v>5.15</v>
+        <v>1.2</v>
       </c>
       <c r="U36">
-        <v>2.93</v>
+        <v>1.2</v>
       </c>
       <c r="V36">
-        <v>2.82</v>
+        <v>1.2</v>
       </c>
       <c r="W36">
-        <v>4.82</v>
+        <v>1.2</v>
       </c>
       <c r="X36">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y36">
-        <v>3.11</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>18.18</v>
+        <v>1.02</v>
       </c>
       <c r="C37">
-        <v>19.55</v>
+        <v>0.84</v>
       </c>
       <c r="D37">
-        <v>20.22</v>
+        <v>1.08</v>
       </c>
       <c r="E37">
-        <v>17.28</v>
+        <v>1.65</v>
       </c>
       <c r="F37">
-        <v>16.82</v>
+        <v>1.98</v>
       </c>
       <c r="G37">
-        <v>18.649999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="H37">
-        <v>19.489999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="I37">
-        <v>14.64</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J37">
-        <v>15.77</v>
+        <v>2.12</v>
       </c>
       <c r="K37">
-        <v>15.26</v>
+        <v>2.14</v>
       </c>
       <c r="L37">
-        <v>15.25</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M37">
-        <v>16.309999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N37">
-        <v>15.78</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="O37">
-        <v>14.17</v>
+        <v>2.34</v>
       </c>
       <c r="P37">
-        <v>15.87</v>
+        <v>2.36</v>
       </c>
       <c r="Q37">
-        <v>15.38</v>
+        <v>2.36</v>
       </c>
       <c r="R37">
-        <v>15.78</v>
+        <v>2.36</v>
       </c>
       <c r="S37">
-        <v>15.55</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="T37">
-        <v>16.13</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="U37">
-        <v>16.559999999999999</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="V37">
-        <v>16.63</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="W37">
-        <v>16.489999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="X37">
-        <v>16.46</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Y37">
-        <v>16.16</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.93</v>
+        <v>3.53</v>
       </c>
       <c r="C38">
-        <v>0.83</v>
+        <v>3.53</v>
       </c>
       <c r="D38">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
       <c r="E38">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="F38">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="G38">
-        <v>0.75</v>
+        <v>2.72</v>
       </c>
       <c r="H38">
-        <v>0.47</v>
+        <v>2.72</v>
       </c>
       <c r="I38">
-        <v>0.59</v>
+        <v>1.89</v>
       </c>
       <c r="J38">
-        <v>0.25</v>
+        <v>1.89</v>
       </c>
       <c r="K38">
-        <v>0.31</v>
+        <v>1.89</v>
       </c>
       <c r="L38">
-        <v>0.34</v>
+        <v>1.89</v>
       </c>
       <c r="M38">
-        <v>0.15</v>
+        <v>1.89</v>
       </c>
       <c r="N38">
-        <v>0.2</v>
+        <v>1.91</v>
       </c>
       <c r="O38">
-        <v>0.21</v>
+        <v>1.98</v>
       </c>
       <c r="P38">
-        <v>0.21</v>
+        <v>1.98</v>
       </c>
       <c r="Q38">
-        <v>0.19</v>
+        <v>1.98</v>
       </c>
       <c r="R38">
-        <v>0.28999999999999998</v>
+        <v>1.97</v>
       </c>
       <c r="S38">
-        <v>0.31</v>
+        <v>1.97</v>
       </c>
       <c r="T38">
-        <v>0.32</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="U38">
-        <v>0.32</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V38">
-        <v>0.24</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="W38">
-        <v>0.28000000000000003</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="X38">
-        <v>0.35</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Y38">
-        <v>0.35</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5763,51 +5352,51 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>3.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5828,187 +5417,140 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L40">
+        <v>0.03</v>
+      </c>
+      <c r="M40">
+        <v>0.15</v>
+      </c>
+      <c r="N40">
+        <v>0.92</v>
+      </c>
+      <c r="O40">
+        <v>1.04</v>
+      </c>
+      <c r="P40">
+        <v>1.03</v>
+      </c>
+      <c r="Q40">
+        <v>1.03</v>
+      </c>
+      <c r="R40">
+        <v>1.03</v>
+      </c>
+      <c r="S40">
+        <v>1.03</v>
+      </c>
+      <c r="T40">
+        <v>1.03</v>
+      </c>
+      <c r="U40">
+        <v>1.04</v>
+      </c>
+      <c r="V40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W40">
+        <v>1.27</v>
+      </c>
+      <c r="X40">
+        <v>1.74</v>
+      </c>
+      <c r="Y40">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.01</v>
+      </c>
+      <c r="H41">
+        <v>0.03</v>
+      </c>
+      <c r="I41">
+        <v>0.03</v>
+      </c>
+      <c r="J41">
+        <v>0.11</v>
+      </c>
+      <c r="K41">
+        <v>0.33</v>
+      </c>
+      <c r="L41">
+        <v>0.49</v>
+      </c>
+      <c r="M41">
+        <v>0.54</v>
+      </c>
+      <c r="N41">
         <v>0.68</v>
       </c>
-      <c r="M40">
-        <v>0.86</v>
-      </c>
-      <c r="N40">
-        <v>1.22</v>
-      </c>
-      <c r="O40">
-        <v>1.37</v>
-      </c>
-      <c r="P40">
-        <v>1.33</v>
-      </c>
-      <c r="Q40">
-        <v>1.45</v>
-      </c>
-      <c r="R40">
-        <v>1.42</v>
-      </c>
-      <c r="S40">
-        <v>1.5</v>
-      </c>
-      <c r="T40">
-        <v>1.32</v>
-      </c>
-      <c r="U40">
-        <v>1.32</v>
-      </c>
-      <c r="V40">
-        <v>1.48</v>
-      </c>
-      <c r="W40">
-        <v>1.43</v>
-      </c>
-      <c r="X40">
-        <v>1.44</v>
-      </c>
-      <c r="Y40">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43">
-        <v>2000</v>
-      </c>
-      <c r="C43">
-        <v>2001</v>
-      </c>
-      <c r="D43">
-        <v>2002</v>
-      </c>
-      <c r="E43">
-        <v>2003</v>
-      </c>
-      <c r="F43">
-        <v>2004</v>
-      </c>
-      <c r="G43">
-        <v>2005</v>
-      </c>
-      <c r="H43">
-        <v>2006</v>
-      </c>
-      <c r="I43">
-        <v>2007</v>
-      </c>
-      <c r="J43">
-        <v>2008</v>
-      </c>
-      <c r="K43">
-        <v>2009</v>
-      </c>
-      <c r="L43">
-        <v>2010</v>
-      </c>
-      <c r="M43">
-        <v>2011</v>
-      </c>
-      <c r="N43">
-        <v>2012</v>
-      </c>
-      <c r="O43">
-        <v>2013</v>
-      </c>
-      <c r="P43">
-        <v>2014</v>
-      </c>
-      <c r="Q43">
-        <v>2015</v>
-      </c>
-      <c r="R43">
-        <v>2016</v>
-      </c>
-      <c r="S43">
-        <v>2017</v>
-      </c>
-      <c r="T43">
-        <v>2018</v>
-      </c>
-      <c r="U43">
-        <v>2019</v>
-      </c>
-      <c r="V43">
-        <v>2020</v>
-      </c>
-      <c r="W43">
-        <v>2021</v>
-      </c>
-      <c r="X43">
-        <v>2022</v>
+      <c r="O41">
+        <v>0.68</v>
+      </c>
+      <c r="P41">
+        <v>0.7</v>
+      </c>
+      <c r="Q41">
+        <v>0.7</v>
+      </c>
+      <c r="R41">
+        <v>0.7</v>
+      </c>
+      <c r="S41">
+        <v>0.7</v>
+      </c>
+      <c r="T41">
+        <v>0.7</v>
+      </c>
+      <c r="U41">
+        <v>0.7</v>
+      </c>
+      <c r="V41">
+        <v>0.7</v>
+      </c>
+      <c r="W41">
+        <v>0.7</v>
+      </c>
+      <c r="X41">
+        <v>0.7</v>
+      </c>
+      <c r="Y41">
+        <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44">
-        <v>0.30441400304414001</v>
-      </c>
-      <c r="K44">
-        <v>0.10147133434804669</v>
-      </c>
-      <c r="L44">
-        <v>0.40447488584474894</v>
-      </c>
-      <c r="M44">
-        <v>0.5811540058115402</v>
-      </c>
-      <c r="N44">
-        <v>0.53816046966731901</v>
-      </c>
-      <c r="O44">
-        <v>0.37067553048616708</v>
-      </c>
-      <c r="P44">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q44">
-        <v>0.57500422797226458</v>
-      </c>
-      <c r="R44">
-        <v>0.70696146759593048</v>
-      </c>
-      <c r="S44">
-        <v>0.86924428402751963</v>
-      </c>
-      <c r="T44">
-        <v>2.5863099724480505</v>
-      </c>
-      <c r="U44">
-        <v>3.6549813955986812</v>
-      </c>
-      <c r="V44">
-        <v>4.036889720525596</v>
-      </c>
-      <c r="W44">
-        <v>6.2453375126974553</v>
-      </c>
-      <c r="X44">
-        <v>3.2548137163984849</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
@@ -6016,1482 +5558,2083 @@
         <v>39</v>
       </c>
       <c r="B45">
-        <v>0.17918731176527739</v>
+        <v>2000</v>
       </c>
       <c r="C45">
-        <v>0.14535545467936098</v>
+        <v>2001</v>
       </c>
       <c r="D45">
-        <v>0.15845780240593327</v>
+        <v>2002</v>
       </c>
       <c r="E45">
-        <v>0.1498316039834055</v>
+        <v>2003</v>
       </c>
       <c r="F45">
-        <v>0.1347902156764661</v>
+        <v>2004</v>
       </c>
       <c r="G45">
-        <v>0.18958653994151151</v>
+        <v>2005</v>
       </c>
       <c r="H45">
-        <v>0.18353719344825822</v>
+        <v>2006</v>
       </c>
       <c r="I45">
-        <v>0.12836507928947488</v>
+        <v>2007</v>
       </c>
       <c r="J45">
-        <v>0.12535509016122517</v>
+        <v>2008</v>
       </c>
       <c r="K45">
-        <v>0.15416139825537606</v>
+        <v>2009</v>
       </c>
       <c r="L45">
-        <v>0.21319901365069094</v>
+        <v>2010</v>
       </c>
       <c r="M45">
-        <v>0.13556538436675425</v>
+        <v>2011</v>
       </c>
       <c r="N45">
-        <v>0.1426745416205524</v>
+        <v>2012</v>
       </c>
       <c r="O45">
-        <v>0.17089921406444017</v>
+        <v>2013</v>
       </c>
       <c r="P45">
-        <v>0.18308207829936693</v>
+        <v>2014</v>
       </c>
       <c r="Q45">
-        <v>0.21797454043557021</v>
+        <v>2015</v>
       </c>
       <c r="R45">
-        <v>0.16178813238750592</v>
+        <v>2016</v>
       </c>
       <c r="S45">
-        <v>0.11826549026371555</v>
+        <v>2017</v>
       </c>
       <c r="T45">
-        <v>0.18320015783762453</v>
+        <v>2018</v>
       </c>
       <c r="U45">
-        <v>0.11430375923833559</v>
+        <v>2019</v>
       </c>
       <c r="V45">
-        <v>0.11225524213694742</v>
+        <v>2020</v>
       </c>
       <c r="W45">
-        <v>0.1716829439171017</v>
+        <v>2021</v>
       </c>
       <c r="X45">
-        <v>0.13069358514235713</v>
+        <v>2022</v>
+      </c>
+      <c r="Y45">
+        <v>2023</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>0.58751816400088952</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.63195855763612019</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.84807034848805107</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.72468873612271401</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.70518756353607848</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.78226961776024206</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.81749754243287398</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0.88349648121868596</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.95119319991890894</v>
+        <v>0.02</v>
       </c>
       <c r="K46">
-        <v>0.92048229990249752</v>
+        <v>0.01</v>
       </c>
       <c r="L46">
-        <v>0.92005994960757642</v>
+        <v>0.04</v>
       </c>
       <c r="M46">
-        <v>0.98431753019201262</v>
+        <v>0.06</v>
       </c>
       <c r="N46">
-        <v>0.94540432280661413</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O46">
-        <v>0.81619276686525755</v>
+        <v>0.11</v>
       </c>
       <c r="P46">
-        <v>0.91711461765215874</v>
+        <v>0.2</v>
       </c>
       <c r="Q46">
-        <v>0.88913935610658323</v>
+        <v>0.27</v>
       </c>
       <c r="R46">
-        <v>0.91556341739152636</v>
+        <v>0.35</v>
       </c>
       <c r="S46">
-        <v>0.90218624426321981</v>
+        <v>0.4</v>
       </c>
       <c r="T46">
-        <v>0.91672584775055033</v>
+        <v>1.57</v>
       </c>
       <c r="U46">
-        <v>0.942110199083116</v>
+        <v>1.82</v>
       </c>
       <c r="V46">
-        <v>0.94612082701666678</v>
+        <v>1.7</v>
       </c>
       <c r="W46">
-        <v>0.9382181082323805</v>
+        <v>2.59</v>
       </c>
       <c r="X46">
-        <v>0.93680249206717758</v>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B47">
-        <v>1.3728687025740881E-2</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C47">
-        <v>8.9246408872480296E-3</v>
+        <v>19.5</v>
       </c>
       <c r="D47">
-        <v>1.4064542368890371E-2</v>
+        <v>17.18</v>
       </c>
       <c r="E47">
-        <v>1.3440969291696423E-2</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="F47">
-        <v>1.4367639360976603E-2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G47">
-        <v>1.06544901065449E-2</v>
+        <v>18.46</v>
       </c>
       <c r="H47">
-        <v>6.8721033906174785E-3</v>
+        <v>19.09</v>
       </c>
       <c r="I47">
-        <v>1.3383397499030053E-2</v>
+        <v>22.37</v>
       </c>
       <c r="J47">
-        <v>6.8134032678754683E-3</v>
+        <v>23.18</v>
       </c>
       <c r="K47">
-        <v>8.974387151398696E-3</v>
+        <v>21.1</v>
       </c>
       <c r="L47">
-        <v>1.0171012962918537E-2</v>
+        <v>22.61</v>
       </c>
       <c r="M47">
-        <v>4.0275281549390085E-3</v>
+        <v>27.53</v>
       </c>
       <c r="N47">
-        <v>5.4770281784942507E-3</v>
+        <v>22.87</v>
       </c>
       <c r="O47">
-        <v>5.9193423561722108E-3</v>
+        <v>19.39</v>
       </c>
       <c r="P47">
-        <v>5.7979529360833674E-3</v>
+        <v>21.31</v>
       </c>
       <c r="Q47">
-        <v>5.9440758150922698E-3</v>
+        <v>22.53</v>
       </c>
       <c r="R47">
-        <v>1.0672682178439969E-2</v>
+        <v>19.37</v>
       </c>
       <c r="S47">
-        <v>1.3166338195431674E-2</v>
+        <v>20.92</v>
       </c>
       <c r="T47">
-        <v>1.0273264456408587E-2</v>
+        <v>18.66</v>
       </c>
       <c r="U47">
-        <v>1.1459284473580975E-2</v>
+        <v>17.2</v>
       </c>
       <c r="V47">
-        <v>1.0273784895450284E-2</v>
+        <v>13.51</v>
       </c>
       <c r="W47">
-        <v>1.1799059936493149E-2</v>
+        <v>17.09</v>
       </c>
       <c r="X47">
-        <v>1.5180712412366853E-2</v>
+        <v>21.79</v>
+      </c>
+      <c r="Y47">
+        <v>11.56</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>1.91</v>
+      </c>
+      <c r="C48">
+        <v>1.91</v>
+      </c>
+      <c r="D48">
+        <v>1.54</v>
+      </c>
+      <c r="E48">
+        <v>1.76</v>
+      </c>
+      <c r="F48">
+        <v>1.49</v>
+      </c>
+      <c r="G48">
+        <v>1.73</v>
+      </c>
+      <c r="H48">
+        <v>2.16</v>
       </c>
       <c r="I48">
-        <v>0.22831050228310501</v>
+        <v>2.34</v>
       </c>
       <c r="J48">
-        <v>0.1906392694063927</v>
+        <v>2.36</v>
       </c>
       <c r="K48">
-        <v>0.18647260273972602</v>
+        <v>1.96</v>
       </c>
       <c r="L48">
-        <v>6.7876712328767116E-2</v>
+        <v>1.97</v>
       </c>
       <c r="M48">
-        <v>7.476575935480044E-2</v>
+        <v>2.08</v>
       </c>
       <c r="N48">
-        <v>9.6412405035707568E-2</v>
+        <v>2.36</v>
       </c>
       <c r="O48">
-        <v>0.15293804193529958</v>
+        <v>2.34</v>
       </c>
       <c r="P48">
-        <v>0.13941040865139273</v>
+        <v>2.14</v>
       </c>
       <c r="Q48">
-        <v>0.1534278778672068</v>
+        <v>1.86</v>
       </c>
       <c r="R48">
-        <v>0.15383140488540142</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="S48">
-        <v>0.15538589047072227</v>
+        <v>1.93</v>
       </c>
       <c r="T48">
-        <v>0.14838111835914639</v>
+        <v>2.02</v>
       </c>
       <c r="U48">
-        <v>0.15491400651998427</v>
+        <v>2.15</v>
       </c>
       <c r="V48">
-        <v>0.15239085998651261</v>
+        <v>2.29</v>
       </c>
       <c r="W48">
-        <v>0.13133926069138591</v>
+        <v>3.05</v>
       </c>
       <c r="X48">
-        <v>0.13764325363624622</v>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>1.56</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>2.63</v>
+      </c>
+      <c r="C49">
+        <v>1.65</v>
+      </c>
+      <c r="D49">
+        <v>2.12</v>
+      </c>
+      <c r="E49">
+        <v>2.99</v>
       </c>
       <c r="F49">
-        <v>0.11415525114155251</v>
+        <v>3.14</v>
       </c>
       <c r="G49">
-        <v>6.5453767123287668E-2</v>
+        <v>4.3</v>
       </c>
       <c r="H49">
-        <v>8.4758159986470502E-2</v>
+        <v>4.21</v>
       </c>
       <c r="I49">
-        <v>0.17808980213089803</v>
+        <v>2.83</v>
       </c>
       <c r="J49">
-        <v>0.12192381639029079</v>
+        <v>2.79</v>
       </c>
       <c r="K49">
-        <v>8.1248714467892558E-2</v>
+        <v>3.43</v>
       </c>
       <c r="L49">
-        <v>0.15938903548169775</v>
+        <v>5.03</v>
       </c>
       <c r="M49">
-        <v>0.18169781142649755</v>
+        <v>2.87</v>
       </c>
       <c r="N49">
-        <v>0.2058669391554197</v>
+        <v>3.18</v>
       </c>
       <c r="O49">
-        <v>0.22956604290766625</v>
+        <v>4.04</v>
       </c>
       <c r="P49">
-        <v>0.2172995015710637</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q49">
-        <v>0.23704950320418605</v>
+        <v>5.65</v>
       </c>
       <c r="R49">
-        <v>0.23271503321770831</v>
+        <v>3.88</v>
       </c>
       <c r="S49">
-        <v>0.24584659524473154</v>
+        <v>2.83</v>
       </c>
       <c r="T49">
-        <v>0.21529025081619735</v>
+        <v>5.15</v>
       </c>
       <c r="U49">
-        <v>0.21381996798613462</v>
+        <v>2.93</v>
       </c>
       <c r="V49">
-        <v>0.23992922634315969</v>
+        <v>2.82</v>
       </c>
       <c r="W49">
-        <v>0.2323315222455867</v>
+        <v>4.82</v>
       </c>
       <c r="X49">
-        <v>0.24297964087912982</v>
+        <v>3.8</v>
+      </c>
+      <c r="Y49">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>18.18</v>
+      </c>
+      <c r="C50">
+        <v>19.55</v>
+      </c>
+      <c r="D50">
+        <v>20.22</v>
+      </c>
+      <c r="E50">
+        <v>17.28</v>
+      </c>
+      <c r="F50">
+        <v>16.82</v>
+      </c>
+      <c r="G50">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H50">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I50">
+        <v>14.64</v>
+      </c>
+      <c r="J50">
+        <v>15.77</v>
+      </c>
+      <c r="K50">
+        <v>15.26</v>
+      </c>
+      <c r="L50">
+        <v>15.25</v>
+      </c>
+      <c r="M50">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N50">
+        <v>15.78</v>
+      </c>
+      <c r="O50">
+        <v>14.17</v>
+      </c>
+      <c r="P50">
+        <v>15.87</v>
+      </c>
+      <c r="Q50">
+        <v>15.38</v>
+      </c>
+      <c r="R50">
+        <v>15.78</v>
+      </c>
+      <c r="S50">
+        <v>15.55</v>
+      </c>
+      <c r="T50">
+        <v>16.13</v>
+      </c>
+      <c r="U50">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V50">
+        <v>16.63</v>
+      </c>
+      <c r="W50">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X50">
+        <v>16.46</v>
+      </c>
+      <c r="Y50">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51">
+        <v>0.93</v>
+      </c>
+      <c r="C51">
+        <v>0.83</v>
+      </c>
+      <c r="D51">
+        <v>1.02</v>
+      </c>
+      <c r="E51">
+        <v>1.01</v>
+      </c>
+      <c r="F51">
+        <v>1.01</v>
+      </c>
+      <c r="G51">
+        <v>0.75</v>
+      </c>
+      <c r="H51">
+        <v>0.47</v>
+      </c>
+      <c r="I51">
+        <v>0.59</v>
+      </c>
+      <c r="J51">
+        <v>0.25</v>
+      </c>
+      <c r="K51">
+        <v>0.31</v>
+      </c>
+      <c r="L51">
+        <v>0.34</v>
+      </c>
+      <c r="M51">
+        <v>0.15</v>
+      </c>
+      <c r="N51">
+        <v>0.2</v>
+      </c>
+      <c r="O51">
+        <v>0.21</v>
+      </c>
+      <c r="P51">
+        <v>0.21</v>
+      </c>
+      <c r="Q51">
+        <v>0.19</v>
+      </c>
+      <c r="R51">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S51">
+        <v>0.31</v>
+      </c>
+      <c r="T51">
+        <v>0.32</v>
+      </c>
+      <c r="U51">
+        <v>0.32</v>
+      </c>
+      <c r="V51">
+        <v>0.24</v>
+      </c>
+      <c r="W51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X51">
+        <v>0.35</v>
+      </c>
+      <c r="Y51">
+        <v>0.35</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0.01</v>
+      </c>
+      <c r="M52">
+        <v>0.1</v>
+      </c>
+      <c r="N52">
+        <v>0.78</v>
+      </c>
+      <c r="O52">
+        <v>1.39</v>
+      </c>
+      <c r="P52">
+        <v>1.26</v>
+      </c>
+      <c r="Q52">
+        <v>1.38</v>
+      </c>
+      <c r="R52">
+        <v>1.39</v>
+      </c>
+      <c r="S52">
+        <v>1.4</v>
+      </c>
+      <c r="T52">
+        <v>1.34</v>
+      </c>
+      <c r="U52">
+        <v>1.42</v>
+      </c>
+      <c r="V52">
+        <v>1.47</v>
+      </c>
+      <c r="W52">
+        <v>1.47</v>
+      </c>
+      <c r="X52">
+        <v>2.09</v>
+      </c>
+      <c r="Y52">
+        <v>3.52</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>2002</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2004</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>2006</v>
+        <v>0.02</v>
       </c>
       <c r="I53">
-        <v>2007</v>
+        <v>0.05</v>
       </c>
       <c r="J53">
-        <v>2008</v>
+        <v>0.12</v>
       </c>
       <c r="K53">
-        <v>2009</v>
+        <v>0.24</v>
       </c>
       <c r="L53">
-        <v>2010</v>
+        <v>0.68</v>
       </c>
       <c r="M53">
-        <v>2011</v>
+        <v>0.86</v>
       </c>
       <c r="N53">
-        <v>2012</v>
+        <v>1.22</v>
       </c>
       <c r="O53">
-        <v>2013</v>
+        <v>1.37</v>
       </c>
       <c r="P53">
-        <v>2014</v>
+        <v>1.33</v>
       </c>
       <c r="Q53">
-        <v>2015</v>
+        <v>1.45</v>
       </c>
       <c r="R53">
-        <v>2016</v>
+        <v>1.42</v>
       </c>
       <c r="S53">
-        <v>2017</v>
+        <v>1.5</v>
       </c>
       <c r="T53">
-        <v>2018</v>
+        <v>1.32</v>
       </c>
       <c r="U53">
-        <v>2019</v>
+        <v>1.32</v>
       </c>
       <c r="V53">
-        <v>2020</v>
+        <v>1.48</v>
       </c>
       <c r="W53">
-        <v>2021</v>
+        <v>1.43</v>
       </c>
       <c r="X53">
-        <v>2022</v>
+        <v>1.44</v>
       </c>
       <c r="Y53">
-        <v>2023</v>
-      </c>
-      <c r="Z53">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C54">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D54">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E54">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F54">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G54">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H54">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I54">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J54">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K54">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="L54">
-        <v>0.01</v>
-      </c>
-      <c r="M54">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N54">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O54">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="P54">
-        <v>0.04</v>
-      </c>
-      <c r="Q54">
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="R54">
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="S54">
-        <v>5.2003000000000001E-2</v>
-      </c>
-      <c r="T54">
-        <v>6.942799999999999E-2</v>
-      </c>
-      <c r="U54">
-        <v>5.6869000000000003E-2</v>
-      </c>
-      <c r="V54">
-        <v>4.8054000000000006E-2</v>
-      </c>
-      <c r="W54">
-        <v>4.7321000000000002E-2</v>
-      </c>
-      <c r="X54">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Y54">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Z54">
-        <v>7.8688999999999995E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55">
-        <v>1.88</v>
-      </c>
-      <c r="C55">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="D55">
-        <v>1.948</v>
-      </c>
-      <c r="E55">
-        <v>2.5150000000000001</v>
-      </c>
-      <c r="F55">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="G55">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="H55">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="I55">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="J55">
-        <v>2.984</v>
-      </c>
-      <c r="K55">
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="L55">
-        <v>3.048</v>
-      </c>
-      <c r="M55">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="N55">
-        <v>3.181</v>
-      </c>
-      <c r="O55">
-        <v>3.2029999999999998</v>
-      </c>
-      <c r="P55">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="Q55">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="R55">
-        <v>3.2229999999999999</v>
-      </c>
-      <c r="S55">
-        <v>3.37155</v>
-      </c>
-      <c r="T55">
-        <v>3.379</v>
-      </c>
-      <c r="U55">
-        <v>3.3783499999999997</v>
-      </c>
-      <c r="V55">
-        <v>3.3764560000000001</v>
-      </c>
-      <c r="W55">
-        <v>3.3692329999999999</v>
-      </c>
-      <c r="X55">
-        <v>3.348185</v>
-      </c>
-      <c r="Y55">
-        <v>3.3502800000000001</v>
-      </c>
-      <c r="Z55">
-        <v>3.3502800000000001</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56">
-        <v>3.532</v>
-      </c>
-      <c r="C56">
-        <v>3.532</v>
-      </c>
-      <c r="D56">
-        <v>2.722</v>
-      </c>
-      <c r="E56">
-        <v>2.722</v>
-      </c>
-      <c r="F56">
-        <v>2.722</v>
-      </c>
-      <c r="G56">
-        <v>2.722</v>
-      </c>
-      <c r="H56">
-        <v>2.722</v>
-      </c>
-      <c r="I56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="J56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="K56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="L56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="M56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="N56">
-        <v>1.9059999999999999</v>
-      </c>
-      <c r="O56">
-        <v>1.982</v>
-      </c>
-      <c r="P56">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="Q56">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="R56">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="S56">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="T56">
-        <v>2.008</v>
-      </c>
-      <c r="U56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="V56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="W56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="X56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="Y56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="Z56">
-        <v>2.0059999999999998</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B57">
-        <v>5.6210000000000004</v>
+        <v>2000</v>
       </c>
       <c r="C57">
-        <v>7.4059999999999997</v>
+        <v>2001</v>
       </c>
       <c r="D57">
-        <v>6.8259999999999996</v>
+        <v>2002</v>
       </c>
       <c r="E57">
-        <v>6.7519999999999998</v>
+        <v>2003</v>
       </c>
       <c r="F57">
-        <v>6.6820000000000004</v>
+        <v>2004</v>
       </c>
       <c r="G57">
-        <v>6.6749999999999998</v>
+        <v>2005</v>
       </c>
       <c r="H57">
-        <v>6.4119999999999999</v>
+        <v>2006</v>
       </c>
       <c r="I57">
-        <v>4.8959999999999999</v>
+        <v>2007</v>
       </c>
       <c r="J57">
-        <v>4.641</v>
+        <v>2008</v>
       </c>
       <c r="K57">
-        <v>4.3630000000000004</v>
+        <v>2009</v>
       </c>
       <c r="L57">
-        <v>4.5679999999999996</v>
+        <v>2010</v>
       </c>
       <c r="M57">
-        <v>4.5350000000000001</v>
+        <v>2011</v>
       </c>
       <c r="N57">
-        <v>4.8979999999999997</v>
+        <v>2012</v>
       </c>
       <c r="O57">
-        <v>4.6669999999999998</v>
+        <v>2013</v>
       </c>
       <c r="P57">
-        <v>4.43</v>
+        <v>2014</v>
       </c>
       <c r="Q57">
-        <v>3.9369999999999998</v>
+        <v>2015</v>
       </c>
       <c r="R57">
-        <v>3.7650000000000001</v>
+        <v>2016</v>
       </c>
       <c r="S57">
-        <v>3.7333600000000002</v>
+        <v>2017</v>
       </c>
       <c r="T57">
-        <v>4.1509750000000007</v>
+        <v>2018</v>
       </c>
       <c r="U57">
-        <v>4.040362</v>
+        <v>2019</v>
       </c>
       <c r="V57">
-        <v>3.7584020000000002</v>
+        <v>2020</v>
       </c>
       <c r="W57">
-        <v>3.8066649999999997</v>
+        <v>2021</v>
       </c>
       <c r="X57">
-        <v>3.9745819999999998</v>
+        <v>2022</v>
       </c>
       <c r="Y57">
-        <v>3.9745819999999998</v>
+        <v>2023</v>
       </c>
       <c r="Z57">
-        <v>3.9745819999999998</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C58">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D58">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H58">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I58">
-        <v>2.9999999999999997E-5</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J58">
-        <v>1E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K58">
-        <v>2E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="L58">
-        <v>2.5000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M58">
-        <v>0.154</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N58">
-        <v>0.92200000000000004</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O58">
-        <v>1.0389999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P58">
-        <v>1.0289999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="Q58">
-        <v>1.028</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="R58">
-        <v>1.03</v>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="S58">
-        <v>1.0307010000000001</v>
+        <v>5.2003000000000001E-2</v>
       </c>
       <c r="T58">
-        <v>1.033058</v>
+        <v>6.942799999999999E-2</v>
       </c>
       <c r="U58">
-        <v>1.0443900000000002</v>
+        <v>5.6869000000000003E-2</v>
       </c>
       <c r="V58">
-        <v>1.1002110000000001</v>
+        <v>4.8054000000000006E-2</v>
       </c>
       <c r="W58">
-        <v>1.274713</v>
+        <v>4.7321000000000002E-2</v>
       </c>
       <c r="X58">
-        <v>1.736537</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Y58">
-        <v>2.9081269999999999</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Z58">
-        <v>3.9081269999999999</v>
+        <v>7.8688999999999995E-2</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B59">
+        <v>1.88</v>
+      </c>
+      <c r="C59">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="D59">
+        <v>1.948</v>
+      </c>
+      <c r="E59">
+        <v>2.5150000000000001</v>
       </c>
       <c r="F59">
-        <v>1E-3</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="G59">
-        <v>8.0000000000000002E-3</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="H59">
-        <v>2.7E-2</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="I59">
-        <v>0.03</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="J59">
-        <v>0.114</v>
+        <v>2.984</v>
       </c>
       <c r="K59">
-        <v>0.33300000000000002</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="L59">
-        <v>0.48799999999999999</v>
+        <v>3.048</v>
       </c>
       <c r="M59">
-        <v>0.54100000000000004</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="N59">
-        <v>0.67700000000000005</v>
+        <v>3.181</v>
       </c>
       <c r="O59">
-        <v>0.68300000000000005</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="P59">
-        <v>0.69899999999999995</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="Q59">
-        <v>0.69899999999999995</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="R59">
-        <v>0.69899999999999995</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="S59">
-        <v>0.69838999999999996</v>
+        <v>3.37155</v>
       </c>
       <c r="T59">
-        <v>0.69891999999999999</v>
+        <v>3.379</v>
       </c>
       <c r="U59">
-        <v>0.70311999999999997</v>
+        <v>3.3783499999999997</v>
       </c>
       <c r="V59">
-        <v>0.70279999999999998</v>
+        <v>3.3764560000000001</v>
       </c>
       <c r="W59">
-        <v>0.70437499999999997</v>
+        <v>3.3692329999999999</v>
       </c>
       <c r="X59">
-        <v>0.70430999999999999</v>
+        <v>3.348185</v>
       </c>
       <c r="Y59">
-        <v>0.70430999999999999</v>
+        <v>3.3502800000000001</v>
       </c>
       <c r="Z59">
-        <v>0.70430999999999999</v>
+        <v>3.3502800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60">
+        <v>3.532</v>
+      </c>
+      <c r="C60">
+        <v>3.532</v>
+      </c>
+      <c r="D60">
+        <v>2.722</v>
+      </c>
+      <c r="E60">
+        <v>2.722</v>
+      </c>
+      <c r="F60">
+        <v>2.722</v>
+      </c>
+      <c r="G60">
+        <v>2.722</v>
+      </c>
+      <c r="H60">
+        <v>2.722</v>
+      </c>
+      <c r="I60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="J60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="K60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="L60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="M60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="N60">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="O60">
+        <v>1.982</v>
+      </c>
+      <c r="P60">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="Q60">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="R60">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="S60">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="T60">
+        <v>2.008</v>
+      </c>
+      <c r="U60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="V60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="W60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="X60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Y60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Z60">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C61">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="D61">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="E61">
+        <v>6.7519999999999998</v>
+      </c>
+      <c r="F61">
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="G61">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H61">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="I61">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="J61">
+        <v>4.641</v>
+      </c>
+      <c r="K61">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="L61">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="M61">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="N61">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="O61">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="P61">
+        <v>4.43</v>
+      </c>
+      <c r="Q61">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="R61">
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="S61">
+        <v>3.7333600000000002</v>
+      </c>
+      <c r="T61">
+        <v>4.1509750000000007</v>
+      </c>
+      <c r="U61">
+        <v>4.040362</v>
+      </c>
+      <c r="V61">
+        <v>3.7584020000000002</v>
+      </c>
+      <c r="W61">
+        <v>3.8066649999999997</v>
+      </c>
+      <c r="X61">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Y61">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Z61">
+        <v>3.9745819999999998</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="I62">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="J62">
+        <v>1E-4</v>
+      </c>
+      <c r="K62">
+        <v>2E-3</v>
+      </c>
+      <c r="L62">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M62">
+        <v>0.154</v>
+      </c>
+      <c r="N62">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O62">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="P62">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q62">
+        <v>1.028</v>
+      </c>
+      <c r="R62">
+        <v>1.03</v>
+      </c>
+      <c r="S62">
+        <v>1.0307010000000001</v>
+      </c>
+      <c r="T62">
+        <v>1.033058</v>
+      </c>
+      <c r="U62">
+        <v>1.0443900000000002</v>
+      </c>
+      <c r="V62">
+        <v>1.1002110000000001</v>
+      </c>
+      <c r="W62">
+        <v>1.274713</v>
+      </c>
+      <c r="X62">
+        <v>1.736537</v>
+      </c>
+      <c r="Y62">
+        <v>2.9081269999999999</v>
+      </c>
+      <c r="Z62">
+        <v>3.9081269999999999</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63">
-        <v>2000</v>
-      </c>
-      <c r="C63">
-        <v>2001</v>
-      </c>
-      <c r="D63">
-        <v>2002</v>
-      </c>
-      <c r="E63">
-        <v>2003</v>
+        <v>49</v>
       </c>
       <c r="F63">
-        <v>2004</v>
+        <v>1E-3</v>
       </c>
       <c r="G63">
-        <v>2005</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H63">
-        <v>2006</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I63">
-        <v>2007</v>
+        <v>0.03</v>
       </c>
       <c r="J63">
-        <v>2008</v>
+        <v>0.114</v>
       </c>
       <c r="K63">
-        <v>2009</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="L63">
-        <v>2010</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="M63">
-        <v>2011</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="N63">
-        <v>2012</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="O63">
-        <v>2013</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="P63">
-        <v>2014</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="Q63">
-        <v>2015</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="R63">
-        <v>2016</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="S63">
-        <v>2017</v>
+        <v>0.69838999999999996</v>
       </c>
       <c r="T63">
-        <v>2018</v>
+        <v>0.69891999999999999</v>
       </c>
       <c r="U63">
-        <v>2019</v>
+        <v>0.70311999999999997</v>
       </c>
       <c r="V63">
-        <v>2020</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="W63">
-        <v>2021</v>
+        <v>0.70437499999999997</v>
       </c>
       <c r="X63">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K64">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L64">
-        <v>3.5431999999999998E-2</v>
-      </c>
-      <c r="M64">
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="N64">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="O64">
-        <v>0.110402</v>
-      </c>
-      <c r="P64">
-        <v>0.2</v>
-      </c>
-      <c r="Q64">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="R64">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="S64">
-        <v>0.39598100000000003</v>
-      </c>
-      <c r="T64">
-        <v>1.5729660000000001</v>
-      </c>
-      <c r="U64">
-        <v>1.820811</v>
-      </c>
-      <c r="V64">
-        <v>1.699341</v>
-      </c>
-      <c r="W64">
-        <v>2.5888920000000004</v>
-      </c>
-      <c r="X64">
-        <v>2.2435940000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65">
-        <v>17.207000000000001</v>
-      </c>
-      <c r="C65">
-        <v>19.757000000000001</v>
-      </c>
-      <c r="D65">
-        <v>17.373000000000001</v>
-      </c>
-      <c r="E65">
-        <v>19.462</v>
-      </c>
-      <c r="F65">
-        <v>19.106999999999999</v>
-      </c>
-      <c r="G65">
-        <v>18.625</v>
-      </c>
-      <c r="H65">
-        <v>19.206</v>
-      </c>
-      <c r="I65">
-        <v>22.463000000000001</v>
-      </c>
-      <c r="J65">
-        <v>23.22</v>
-      </c>
-      <c r="K65">
-        <v>21.103000000000002</v>
-      </c>
-      <c r="L65">
-        <v>22.606000000000002</v>
-      </c>
-      <c r="M65">
-        <v>27.536999999999999</v>
-      </c>
-      <c r="N65">
-        <v>22.876000000000001</v>
-      </c>
-      <c r="O65">
-        <v>19.391598000000002</v>
-      </c>
-      <c r="P65">
-        <v>21.305</v>
-      </c>
-      <c r="Q65">
-        <v>22.521999999999998</v>
-      </c>
-      <c r="R65">
-        <v>19.364000000000001</v>
-      </c>
-      <c r="S65">
-        <v>20.914090999999999</v>
-      </c>
-      <c r="T65">
-        <v>18.659473000000002</v>
-      </c>
-      <c r="U65">
-        <v>17.224985</v>
-      </c>
-      <c r="V65">
-        <v>13.53266</v>
-      </c>
-      <c r="W65">
-        <v>17.085889999999999</v>
-      </c>
-      <c r="X65">
-        <v>21.785509999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Z63">
+        <v>0.70430999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66">
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="C66">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="D66">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="E66">
-        <v>1.762</v>
-      </c>
-      <c r="F66">
-        <v>1.494</v>
-      </c>
-      <c r="G66">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="H66">
-        <v>2.1589999999999998</v>
-      </c>
-      <c r="I66">
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="J66">
-        <v>2.36</v>
-      </c>
-      <c r="K66">
-        <v>1.9610000000000001</v>
-      </c>
-      <c r="L66">
-        <v>1.9665680000000001</v>
-      </c>
-      <c r="M66">
-        <v>2.077</v>
-      </c>
-      <c r="N66">
-        <v>2.3559999999999999</v>
-      </c>
-      <c r="O66">
-        <v>2.339</v>
-      </c>
-      <c r="P66">
-        <v>2.1419999999999999</v>
-      </c>
-      <c r="Q66">
-        <v>1.8640000000000001</v>
-      </c>
-      <c r="R66">
-        <v>2.0529999999999999</v>
-      </c>
-      <c r="S66">
-        <v>1.9266459999999999</v>
-      </c>
-      <c r="T66">
-        <v>2.0227580000000001</v>
-      </c>
-      <c r="U66">
-        <v>2.1529029999999998</v>
-      </c>
-      <c r="V66">
-        <v>2.292316</v>
-      </c>
-      <c r="W66">
-        <v>3.0456720000000002</v>
-      </c>
-      <c r="X66">
-        <v>2.0534110000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>39</v>
       </c>
       <c r="B67">
+        <v>2000</v>
+      </c>
+      <c r="C67">
+        <v>2001</v>
+      </c>
+      <c r="D67">
+        <v>2002</v>
+      </c>
+      <c r="E67">
+        <v>2003</v>
+      </c>
+      <c r="F67">
+        <v>2004</v>
+      </c>
+      <c r="G67">
+        <v>2005</v>
+      </c>
+      <c r="H67">
+        <v>2006</v>
+      </c>
+      <c r="I67">
+        <v>2007</v>
+      </c>
+      <c r="J67">
+        <v>2008</v>
+      </c>
+      <c r="K67">
+        <v>2009</v>
+      </c>
+      <c r="L67">
+        <v>2010</v>
+      </c>
+      <c r="M67">
+        <v>2011</v>
+      </c>
+      <c r="N67">
+        <v>2012</v>
+      </c>
+      <c r="O67">
+        <v>2013</v>
+      </c>
+      <c r="P67">
+        <v>2014</v>
+      </c>
+      <c r="Q67">
+        <v>2015</v>
+      </c>
+      <c r="R67">
+        <v>2016</v>
+      </c>
+      <c r="S67">
+        <v>2017</v>
+      </c>
+      <c r="T67">
+        <v>2018</v>
+      </c>
+      <c r="U67">
+        <v>2019</v>
+      </c>
+      <c r="V67">
+        <v>2020</v>
+      </c>
+      <c r="W67">
+        <v>2021</v>
+      </c>
+      <c r="X67">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K68">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L68">
+        <v>3.5431999999999998E-2</v>
+      </c>
+      <c r="M68">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="N68">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="O68">
+        <v>0.110402</v>
+      </c>
+      <c r="P68">
+        <v>0.2</v>
+      </c>
+      <c r="Q68">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="R68">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S68">
+        <v>0.39598100000000003</v>
+      </c>
+      <c r="T68">
+        <v>1.5729660000000001</v>
+      </c>
+      <c r="U68">
+        <v>1.820811</v>
+      </c>
+      <c r="V68">
+        <v>1.699341</v>
+      </c>
+      <c r="W68">
+        <v>2.5888920000000004</v>
+      </c>
+      <c r="X68">
+        <v>2.2435940000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>17.207000000000001</v>
+      </c>
+      <c r="C69">
+        <v>19.757000000000001</v>
+      </c>
+      <c r="D69">
+        <v>17.373000000000001</v>
+      </c>
+      <c r="E69">
+        <v>19.462</v>
+      </c>
+      <c r="F69">
+        <v>19.106999999999999</v>
+      </c>
+      <c r="G69">
+        <v>18.625</v>
+      </c>
+      <c r="H69">
+        <v>19.206</v>
+      </c>
+      <c r="I69">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J69">
+        <v>23.22</v>
+      </c>
+      <c r="K69">
+        <v>21.103000000000002</v>
+      </c>
+      <c r="L69">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="M69">
+        <v>27.536999999999999</v>
+      </c>
+      <c r="N69">
+        <v>22.876000000000001</v>
+      </c>
+      <c r="O69">
+        <v>19.391598000000002</v>
+      </c>
+      <c r="P69">
+        <v>21.305</v>
+      </c>
+      <c r="Q69">
+        <v>22.521999999999998</v>
+      </c>
+      <c r="R69">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="S69">
+        <v>20.914090999999999</v>
+      </c>
+      <c r="T69">
+        <v>18.659473000000002</v>
+      </c>
+      <c r="U69">
+        <v>17.224985</v>
+      </c>
+      <c r="V69">
+        <v>13.53266</v>
+      </c>
+      <c r="W69">
+        <v>17.085889999999999</v>
+      </c>
+      <c r="X69">
+        <v>21.785509999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="C70">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="D70">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="E70">
+        <v>1.762</v>
+      </c>
+      <c r="F70">
+        <v>1.494</v>
+      </c>
+      <c r="G70">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="H70">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="I70">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="J70">
+        <v>2.36</v>
+      </c>
+      <c r="K70">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="L70">
+        <v>1.9665680000000001</v>
+      </c>
+      <c r="M70">
+        <v>2.077</v>
+      </c>
+      <c r="N70">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="O70">
+        <v>2.339</v>
+      </c>
+      <c r="P70">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="Q70">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="R70">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="S70">
+        <v>1.9266459999999999</v>
+      </c>
+      <c r="T70">
+        <v>2.0227580000000001</v>
+      </c>
+      <c r="U70">
+        <v>2.1529029999999998</v>
+      </c>
+      <c r="V70">
+        <v>2.292316</v>
+      </c>
+      <c r="W70">
+        <v>3.0456720000000002</v>
+      </c>
+      <c r="X70">
+        <v>2.0534110000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71">
         <v>2.9509999999999996</v>
       </c>
-      <c r="C67">
+      <c r="C71">
         <v>2.1710000000000003</v>
       </c>
-      <c r="D67">
+      <c r="D71">
         <v>2.7040000000000002</v>
       </c>
-      <c r="E67">
+      <c r="E71">
         <v>3.3010000000000002</v>
       </c>
-      <c r="F67">
+      <c r="F71">
         <v>3.3628110000000002</v>
       </c>
-      <c r="G67">
+      <c r="G71">
         <v>4.7298960000000001</v>
       </c>
-      <c r="H67">
+      <c r="H71">
         <v>4.5789740000000005</v>
       </c>
-      <c r="I67">
+      <c r="I71">
         <v>3.2339989999999998</v>
       </c>
-      <c r="J67">
+      <c r="J71">
         <v>3.2767620000000002</v>
       </c>
-      <c r="K67">
+      <c r="K71">
         <v>4.0527119999999996</v>
       </c>
-      <c r="L67">
+      <c r="L71">
         <v>5.6925160000000004</v>
       </c>
-      <c r="M67">
+      <c r="M71">
         <v>3.6909139999999998</v>
       </c>
-      <c r="N67">
+      <c r="N71">
         <v>3.9757060000000002</v>
       </c>
-      <c r="O67">
+      <c r="O71">
         <v>4.7951379999999997</v>
       </c>
-      <c r="P67">
+      <c r="P71">
         <v>5.1626289999999999</v>
       </c>
-      <c r="Q67">
+      <c r="Q71">
         <v>6.1465419999999993</v>
       </c>
-      <c r="R67">
+      <c r="R71">
         <v>4.5678419999999997</v>
       </c>
-      <c r="S67">
+      <c r="S71">
         <v>3.4929449999999997</v>
       </c>
-      <c r="T67">
+      <c r="T71">
         <v>5.4227320000000008</v>
       </c>
-      <c r="U67">
+      <c r="U71">
         <v>3.3827449999999999</v>
       </c>
-      <c r="V67">
+      <c r="V71">
         <v>3.3202579999999999</v>
       </c>
-      <c r="W67">
+      <c r="W71">
         <v>5.0671330000000001</v>
       </c>
-      <c r="X67">
+      <c r="X71">
         <v>3.833256</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72">
         <v>18.178000000000001</v>
       </c>
-      <c r="C68">
+      <c r="C72">
         <v>19.553000000000001</v>
       </c>
-      <c r="D68">
+      <c r="D72">
         <v>20.222000000000001</v>
       </c>
-      <c r="E68">
+      <c r="E72">
         <v>17.28</v>
       </c>
-      <c r="F68">
+      <c r="F72">
         <v>16.815000000000001</v>
       </c>
-      <c r="G68">
+      <c r="G72">
         <v>18.652999999999999</v>
       </c>
-      <c r="H68">
+      <c r="H72">
         <v>19.492999999999999</v>
       </c>
-      <c r="I68">
+      <c r="I72">
         <v>14.643000000000001</v>
       </c>
-      <c r="J68">
+      <c r="J72">
         <v>15.765000000000001</v>
       </c>
-      <c r="K68">
+      <c r="K72">
         <v>15.256</v>
       </c>
-      <c r="L68">
+      <c r="L72">
         <v>15.249000000000001</v>
       </c>
-      <c r="M68">
+      <c r="M72">
         <v>16.314</v>
       </c>
-      <c r="N68">
+      <c r="N72">
         <v>15.785</v>
       </c>
-      <c r="O68">
+      <c r="O72">
         <v>14.170999999999999</v>
       </c>
-      <c r="P68">
+      <c r="P72">
         <v>15.867000000000001</v>
       </c>
-      <c r="Q68">
+      <c r="Q72">
         <v>15.382999999999999</v>
       </c>
-      <c r="R68">
+      <c r="R72">
         <v>15.776</v>
       </c>
-      <c r="S68">
+      <c r="S72">
         <v>15.545499</v>
       </c>
-      <c r="T68">
+      <c r="T72">
         <v>16.125281000000001</v>
       </c>
-      <c r="U68">
+      <c r="U72">
         <v>16.555288000000001</v>
       </c>
-      <c r="V68">
+      <c r="V72">
         <v>16.625764999999998</v>
       </c>
-      <c r="W68">
+      <c r="W72">
         <v>16.486893999999999</v>
       </c>
-      <c r="X68">
+      <c r="X72">
         <v>16.462018</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>37</v>
       </c>
-      <c r="B69">
+      <c r="B73">
         <v>0.67600000000000005</v>
       </c>
-      <c r="C69">
+      <c r="C73">
         <v>0.57899999999999996</v>
       </c>
-      <c r="D69">
+      <c r="D73">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E69">
+      <c r="E73">
         <v>0.79500000000000004</v>
       </c>
-      <c r="F69">
+      <c r="F73">
         <v>0.84099999999999997</v>
       </c>
-      <c r="G69">
+      <c r="G73">
         <v>0.623</v>
       </c>
-      <c r="H69">
+      <c r="H73">
         <v>0.38600000000000001</v>
       </c>
-      <c r="I69">
+      <c r="I73">
         <v>0.57399999999999995</v>
       </c>
-      <c r="J69">
+      <c r="J73">
         <v>0.27700000000000002</v>
       </c>
-      <c r="K69">
+      <c r="K73">
         <v>0.34300000000000003</v>
       </c>
-      <c r="L69">
+      <c r="L73">
         <v>0.40700000000000003</v>
       </c>
-      <c r="M69">
+      <c r="M73">
         <v>0.16</v>
       </c>
-      <c r="N69">
+      <c r="N73">
         <v>0.23499999999999999</v>
       </c>
-      <c r="O69">
+      <c r="O73">
         <v>0.24199999999999999</v>
       </c>
-      <c r="P69">
+      <c r="P73">
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q69">
+      <c r="Q73">
         <v>0.20499999999999999</v>
       </c>
-      <c r="R69">
+      <c r="R73">
         <v>0.35199999999999998</v>
       </c>
-      <c r="S69">
+      <c r="S73">
         <v>0.43059500000000001</v>
       </c>
-      <c r="T69">
+      <c r="T73">
         <v>0.37356200000000001</v>
       </c>
-      <c r="U69">
+      <c r="U73">
         <v>0.40558499999999997</v>
       </c>
-      <c r="V69">
+      <c r="V73">
         <v>0.33825000000000005</v>
       </c>
-      <c r="W69">
+      <c r="W73">
         <v>0.39345599999999997</v>
       </c>
-      <c r="X69">
+      <c r="X73">
         <v>0.52855200000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74">
         <v>5.9999999999999995E-5</v>
       </c>
-      <c r="J70">
+      <c r="J74">
         <v>1.6700000000000002E-4</v>
       </c>
-      <c r="K70">
+      <c r="K74">
         <v>3.2669999999999999E-3</v>
       </c>
-      <c r="L70">
+      <c r="L74">
         <v>1.4865E-2</v>
       </c>
-      <c r="M70">
+      <c r="M74">
         <v>0.10086199999999999</v>
       </c>
-      <c r="N70">
+      <c r="N74">
         <v>0.77869600000000005</v>
       </c>
-      <c r="O70">
+      <c r="O74">
         <v>1.3919870000000001</v>
       </c>
-      <c r="P70">
+      <c r="P74">
         <v>1.256651</v>
       </c>
-      <c r="Q70">
+      <c r="Q74">
         <v>1.381661</v>
       </c>
-      <c r="R70">
+      <c r="R74">
         <v>1.3879900000000001</v>
       </c>
-      <c r="S70">
+      <c r="S74">
         <v>1.4029700000000001</v>
       </c>
-      <c r="T70">
+      <c r="T74">
         <v>1.3427880000000001</v>
       </c>
-      <c r="U70">
+      <c r="U74">
         <v>1.417286</v>
       </c>
-      <c r="V70">
+      <c r="V74">
         <v>1.46872</v>
       </c>
-      <c r="W70">
+      <c r="W74">
         <v>1.4665979999999998</v>
       </c>
-      <c r="X70">
+      <c r="X74">
         <v>2.0938380000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75">
         <v>1E-3</v>
       </c>
-      <c r="G71">
+      <c r="G75">
         <v>4.5869999999999999E-3</v>
       </c>
-      <c r="H71">
+      <c r="H75">
         <v>2.0047000000000002E-2</v>
       </c>
-      <c r="I71">
+      <c r="I75">
         <v>4.6801999999999996E-2</v>
       </c>
-      <c r="J71">
+      <c r="J75">
         <v>0.12175799999999999</v>
       </c>
-      <c r="K71">
+      <c r="K75">
         <v>0.237009</v>
       </c>
-      <c r="L71">
+      <c r="L75">
         <v>0.681369</v>
       </c>
-      <c r="M71">
+      <c r="M75">
         <v>0.86109500000000005</v>
       </c>
-      <c r="N71">
+      <c r="N75">
         <v>1.2208979999999998</v>
       </c>
-      <c r="O71">
+      <c r="O75">
         <v>1.3735119999999998</v>
       </c>
-      <c r="P71">
+      <c r="P75">
         <v>1.3305769999999999</v>
       </c>
-      <c r="Q71">
+      <c r="Q75">
         <v>1.451511</v>
       </c>
-      <c r="R71">
+      <c r="R75">
         <v>1.4249700000000001</v>
       </c>
-      <c r="S71">
+      <c r="S75">
         <v>1.5040640000000001</v>
       </c>
-      <c r="T71">
+      <c r="T75">
         <v>1.3181230000000002</v>
       </c>
-      <c r="U71">
+      <c r="U75">
         <v>1.316988</v>
       </c>
-      <c r="V71">
+      <c r="V75">
         <v>1.4771310000000002</v>
       </c>
-      <c r="W71">
+      <c r="W75">
         <v>1.4335609999999999</v>
       </c>
-      <c r="X71">
+      <c r="X75">
         <v>1.499125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>2000</v>
+      </c>
+      <c r="D79">
+        <v>2001</v>
+      </c>
+      <c r="E79">
+        <v>2002</v>
+      </c>
+      <c r="F79">
+        <v>2003</v>
+      </c>
+      <c r="G79">
+        <v>2004</v>
+      </c>
+      <c r="H79">
+        <v>2005</v>
+      </c>
+      <c r="I79">
+        <v>2006</v>
+      </c>
+      <c r="J79">
+        <v>2007</v>
+      </c>
+      <c r="K79">
+        <v>2008</v>
+      </c>
+      <c r="L79">
+        <v>2009</v>
+      </c>
+      <c r="M79">
+        <v>2010</v>
+      </c>
+      <c r="N79">
+        <v>2011</v>
+      </c>
+      <c r="O79">
+        <v>2012</v>
+      </c>
+      <c r="P79">
+        <v>2013</v>
+      </c>
+      <c r="Q79">
+        <v>2014</v>
+      </c>
+      <c r="R79">
+        <v>2015</v>
+      </c>
+      <c r="S79">
+        <v>2016</v>
+      </c>
+      <c r="T79">
+        <v>2017</v>
+      </c>
+      <c r="U79">
+        <v>2018</v>
+      </c>
+      <c r="V79">
+        <v>2019</v>
+      </c>
+      <c r="W79">
+        <v>2020</v>
+      </c>
+      <c r="X79">
+        <v>2021</v>
+      </c>
+      <c r="Y79">
+        <v>2022</v>
+      </c>
+      <c r="Z79">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>5.6</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F80">
+        <v>6.8</v>
+      </c>
+      <c r="G80">
+        <v>6.6</v>
+      </c>
+      <c r="H80">
+        <v>8.4</v>
+      </c>
+      <c r="I80">
+        <v>8.9</v>
+      </c>
+      <c r="J80">
+        <v>7.5</v>
+      </c>
+      <c r="K80">
+        <v>8.4</v>
+      </c>
+      <c r="L80">
+        <v>7.7</v>
+      </c>
+      <c r="M80">
+        <v>9.6</v>
+      </c>
+      <c r="N80">
+        <v>12.1</v>
+      </c>
+      <c r="O80">
+        <v>10.7</v>
+      </c>
+      <c r="P80">
+        <v>9.5</v>
+      </c>
+      <c r="Q80">
+        <v>13.8</v>
+      </c>
+      <c r="R80">
+        <v>14.8</v>
+      </c>
+      <c r="S80">
+        <v>10.9</v>
+      </c>
+      <c r="T80">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U80">
+        <v>10</v>
+      </c>
+      <c r="V80">
+        <v>8.9</v>
+      </c>
+      <c r="W80">
+        <v>7.1</v>
+      </c>
+      <c r="X80">
+        <v>10.6</v>
+      </c>
+      <c r="Y80">
+        <v>13.7</v>
+      </c>
+      <c r="Z80">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1.3</v>
+      </c>
+      <c r="G81">
+        <v>0.7</v>
+      </c>
+      <c r="H81">
+        <v>0.8</v>
+      </c>
+      <c r="I81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J81">
+        <v>3.1</v>
+      </c>
+      <c r="K81">
+        <v>3.1</v>
+      </c>
+      <c r="L81">
+        <v>2.7</v>
+      </c>
+      <c r="M81">
+        <v>1.2</v>
+      </c>
+      <c r="N81">
+        <v>1.4</v>
+      </c>
+      <c r="O81">
+        <v>2.4</v>
+      </c>
+      <c r="P81">
+        <v>3.4</v>
+      </c>
+      <c r="Q81">
+        <v>4.3</v>
+      </c>
+      <c r="R81">
+        <v>4.3</v>
+      </c>
+      <c r="S81">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T81">
+        <v>3.7</v>
+      </c>
+      <c r="U81">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>3.7</v>
+      </c>
+      <c r="X81">
+        <v>1.9</v>
+      </c>
+      <c r="Y81">
+        <v>1.5</v>
+      </c>
+      <c r="Z81">
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B20A50-CEE9-4353-8BC9-0770CC050C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB54261-34FF-4BF4-956E-1616B6A6EE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="82">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -151,30 +151,9 @@
     <t>oil</t>
   </si>
   <si>
-    <t>iso_code</t>
-  </si>
-  <si>
     <t>model_fuel</t>
   </si>
   <si>
-    <t>generation_twh_gem_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_ember</t>
-  </si>
-  <si>
-    <t>generation_twh_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_ember</t>
-  </si>
-  <si>
-    <t>utilization_factor_irena</t>
-  </si>
-  <si>
-    <t>utilization_factor_ember</t>
-  </si>
-  <si>
     <t>hydro</t>
   </si>
   <si>
@@ -199,6 +178,30 @@
     <t>BGR</t>
   </si>
   <si>
+    <t>EMBER Utilization Factors</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
+  </si>
+  <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
     <t>Unnamed: 8</t>
   </si>
   <si>
@@ -251,9 +254,6 @@
   </si>
   <si>
     <t>Unnamed: 25</t>
-  </si>
-  <si>
-    <t>EMBER Utilization Factors</t>
   </si>
   <si>
     <t>IRENA Utilization Factors</t>
@@ -803,10 +803,10 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(historical_data!F2:F16)</f>
-        <v>2053.1324643942899</v>
+        <v>69544.567254609967</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -929,37 +929,37 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>53.358244837365724</v>
+        <v>1807.372934300598</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>53.358244837365724</v>
+        <v>1807.372934300598</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>53.358244837365724</v>
+        <v>1807.372934300598</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>53.358244837365724</v>
+        <v>1807.372934300598</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>53.358244837365724</v>
+        <v>1807.372934300598</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>53.358244837365724</v>
+        <v>1807.372934300598</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>53.358244837365724</v>
+        <v>1807.372934300598</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="7:25" x14ac:dyDescent="0.45">
@@ -996,31 +996,31 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>1408.1936789687388</v>
+        <v>47698.929179150568</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>1528.829710774957</v>
+        <v>51785.163639308448</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>1642.5059715154318</v>
+        <v>55635.653803687987</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>1719.0634532386086</v>
+        <v>58228.841057249709</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>1654.1055899583373</v>
+        <v>56028.560963318545</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>1661.0653610240806</v>
+        <v>56264.30525909688</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>1719.0634532386086</v>
+        <v>58228.841057249709</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1060,31 +1060,31 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>591.58054058818516</v>
+        <v>20038.265141158805</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>542.86214312798177</v>
+        <v>18388.055070710434</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>540.54221943940058</v>
+        <v>18309.473638784322</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>524.30275361933263</v>
+        <v>17759.403615301529</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>521.98282993075156</v>
+        <v>17680.822183375418</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>528.942600996495</v>
+        <v>17916.566479153757</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>459.34489033906146</v>
+        <v>15559.123521370368</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="19" spans="7:25" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R19" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
@@ -1100,27 +1100,27 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-13.919542131486708</v>
+        <v>-471.48859155667787</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>9.2796947543244812</v>
+        <v>314.32572770445222</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>51.038321148784597</v>
+        <v>1728.7915023744849</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>148.47511606919159</v>
+        <v>5029.2116432712291</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>294.63030844980204</v>
+        <v>9979.8418546163466</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>477.90427984771048</v>
+        <v>16187.77497677927</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1288,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1570,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1758,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1993,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2040,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -2087,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -2181,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2228,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -2275,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -2322,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
@@ -2369,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -2416,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -2510,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -2604,7 +2604,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -2651,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -2698,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -2933,7 +2933,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -2980,7 +2980,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -3027,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -3074,7 +3074,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -3168,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>32</v>
@@ -3215,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -3262,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -3309,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -3356,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
@@ -3403,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -3450,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
         <v>36</v>
@@ -3496,7 +3496,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -3515,4125 +3515,3982 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>2001</v>
       </c>
       <c r="D2">
-        <v>21.8</v>
+        <v>2002</v>
+      </c>
+      <c r="E2">
+        <v>2003</v>
       </c>
       <c r="F2">
-        <v>21.8</v>
+        <v>2004</v>
+      </c>
+      <c r="G2">
+        <v>2005</v>
       </c>
       <c r="H2">
-        <v>0.49</v>
+        <v>2006</v>
+      </c>
+      <c r="I2">
+        <v>2007</v>
+      </c>
+      <c r="J2">
+        <v>2008</v>
+      </c>
+      <c r="K2">
+        <v>2009</v>
+      </c>
+      <c r="L2">
+        <v>2010</v>
+      </c>
+      <c r="M2">
+        <v>2011</v>
+      </c>
+      <c r="N2">
+        <v>2012</v>
+      </c>
+      <c r="O2">
+        <v>2013</v>
+      </c>
+      <c r="P2">
+        <v>2014</v>
+      </c>
+      <c r="Q2">
+        <v>2015</v>
+      </c>
+      <c r="R2">
+        <v>2016</v>
+      </c>
+      <c r="S2">
+        <v>2017</v>
+      </c>
+      <c r="T2">
+        <v>2018</v>
+      </c>
+      <c r="U2">
+        <v>2019</v>
+      </c>
+      <c r="V2">
+        <v>2020</v>
+      </c>
+      <c r="W2">
+        <v>2021</v>
+      </c>
+      <c r="X2">
+        <v>2022</v>
+      </c>
+      <c r="Y2">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.1</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="K3">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="L3">
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="M3">
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="N3">
+        <v>0.7990867579908677</v>
+      </c>
+      <c r="O3">
+        <v>0.41856925418569257</v>
+      </c>
+      <c r="P3">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="Q3">
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="R3">
+        <v>0.66590563165905636</v>
+      </c>
+      <c r="S3">
+        <v>0.91324200913242015</v>
+      </c>
+      <c r="T3">
+        <v>2.5603392041748205</v>
+      </c>
+      <c r="U3">
+        <v>3.4627092846270933</v>
+      </c>
+      <c r="V3">
+        <v>3.8812785388127851</v>
+      </c>
+      <c r="W3">
+        <v>5.9132420091324196</v>
+      </c>
+      <c r="X3">
+        <v>5.1141552511415531</v>
+      </c>
+      <c r="Y3">
+        <v>4.9771689497716896</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0.34409073920603195</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0.39609028421001313</v>
       </c>
       <c r="D4">
-        <v>3.9</v>
+        <v>0.34896569655015519</v>
       </c>
       <c r="E4">
-        <v>3.8</v>
+        <v>0.3908090804205463</v>
       </c>
       <c r="F4">
-        <v>3.8</v>
+        <v>0.3922789539227895</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.38314653383146535</v>
       </c>
       <c r="H4">
-        <v>0.17</v>
+        <v>0.396222498962225</v>
+      </c>
+      <c r="I4">
+        <v>0.46430053964300544</v>
+      </c>
+      <c r="J4">
+        <v>0.48111249481112495</v>
+      </c>
+      <c r="K4">
+        <v>0.42782873873654675</v>
+      </c>
+      <c r="L4">
+        <v>0.45844586648499153</v>
+      </c>
+      <c r="M4">
+        <v>0.49726171897578175</v>
+      </c>
+      <c r="N4">
+        <v>0.41309028379862439</v>
+      </c>
+      <c r="O4">
+        <v>0.36227010141320837</v>
+      </c>
+      <c r="P4">
+        <v>0.41231328844516674</v>
+      </c>
+      <c r="Q4">
+        <v>0.50828415182197206</v>
+      </c>
+      <c r="R4">
+        <v>0.4369935206742831</v>
+      </c>
+      <c r="S4">
+        <v>0.46734400271649285</v>
+      </c>
+      <c r="T4">
+        <v>0.41685655309224456</v>
+      </c>
+      <c r="U4">
+        <v>0.38424076705180099</v>
+      </c>
+      <c r="V4">
+        <v>0.30180771877150181</v>
+      </c>
+      <c r="W4">
+        <v>0.38178341330902782</v>
+      </c>
+      <c r="X4">
+        <v>0.48677943686388042</v>
+      </c>
+      <c r="Y4">
+        <v>0.25824553878597789</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>0.19642930601834707</v>
       </c>
       <c r="C5">
-        <v>17.100000000000001</v>
+        <v>0.19642930601834707</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>0.1583775556378296</v>
       </c>
       <c r="E5">
-        <v>16.5</v>
+        <v>0.18100292072894811</v>
       </c>
       <c r="F5">
-        <v>16.5</v>
+        <v>0.15323542720802993</v>
       </c>
       <c r="G5">
-        <v>0.94</v>
+        <v>0.1779176436710683</v>
       </c>
       <c r="H5">
-        <v>0.93</v>
+        <v>0.22213994816734542</v>
+      </c>
+      <c r="I5">
+        <v>0.23228111971411552</v>
+      </c>
+      <c r="J5">
+        <v>0.23426642842962081</v>
+      </c>
+      <c r="K5">
+        <v>0.19456025411951558</v>
+      </c>
+      <c r="L5">
+        <v>0.19555290847726822</v>
+      </c>
+      <c r="M5">
+        <v>0.19786910197869106</v>
+      </c>
+      <c r="N5">
+        <v>0.22450532724505329</v>
+      </c>
+      <c r="O5">
+        <v>0.2226027397260274</v>
+      </c>
+      <c r="P5">
+        <v>0.20357686453576868</v>
+      </c>
+      <c r="Q5">
+        <v>0.17694063926940642</v>
+      </c>
+      <c r="R5">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="S5">
+        <v>0.18359969558599698</v>
+      </c>
+      <c r="T5">
+        <v>0.19216133942161343</v>
+      </c>
+      <c r="U5">
+        <v>0.20452815829528159</v>
+      </c>
+      <c r="V5">
+        <v>0.21784627092846273</v>
+      </c>
+      <c r="W5">
+        <v>0.29014459665144599</v>
+      </c>
+      <c r="X5">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="Y5">
+        <v>0.14840182648401828</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0.29434148088459128</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>0.22423352902804958</v>
       </c>
       <c r="D6">
-        <v>1.9</v>
+        <v>0.22408253001860307</v>
       </c>
       <c r="E6">
-        <v>2.1</v>
+        <v>0.20686315206863154</v>
       </c>
       <c r="F6">
-        <v>2.1</v>
+        <v>0.18103408514367419</v>
       </c>
       <c r="G6">
-        <v>0.14000000000000001</v>
+        <v>0.24791291914579586</v>
       </c>
       <c r="H6">
-        <v>0.14000000000000001</v>
+        <v>0.2427240440939071</v>
+      </c>
+      <c r="I6">
+        <v>0.16072605011472321</v>
+      </c>
+      <c r="J6">
+        <v>0.1502326182476092</v>
+      </c>
+      <c r="K6">
+        <v>0.18296846327828276</v>
+      </c>
+      <c r="L6">
+        <v>0.26339491433119683</v>
+      </c>
+      <c r="M6">
+        <v>0.14626141552511415</v>
+      </c>
+      <c r="N6">
+        <v>0.15647142182333496</v>
+      </c>
+      <c r="O6">
+        <v>0.19708855325293684</v>
+      </c>
+      <c r="P6">
+        <v>0.22250599798777185</v>
+      </c>
+      <c r="Q6">
+        <v>0.27329541057193724</v>
+      </c>
+      <c r="R6">
+        <v>0.18767897221577279</v>
+      </c>
+      <c r="S6">
+        <v>0.12870890865760704</v>
+      </c>
+      <c r="T6">
+        <v>0.23422292564900221</v>
+      </c>
+      <c r="U6">
+        <v>0.13325692663137406</v>
+      </c>
+      <c r="V6">
+        <v>0.12825410686023031</v>
+      </c>
+      <c r="W6">
+        <v>0.21921446633557101</v>
+      </c>
+      <c r="X6">
+        <v>0.17145847997545438</v>
+      </c>
+      <c r="Y6">
+        <v>0.14032522966412186</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0.58791571267802401</v>
       </c>
       <c r="C7">
-        <v>1.3</v>
+        <v>0.632219592016247</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>0.84860999194198217</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>0.72522159548751008</v>
       </c>
       <c r="F7">
-        <v>1.4</v>
+        <v>0.70591592801504166</v>
       </c>
       <c r="G7">
-        <v>0.24</v>
+        <v>0.78271890948160072</v>
       </c>
       <c r="H7">
-        <v>0.23</v>
+        <v>0.81797273704002138</v>
+      </c>
+      <c r="I7">
+        <v>0.88425019931869253</v>
+      </c>
+      <c r="J7">
+        <v>0.95250175158850958</v>
+      </c>
+      <c r="K7">
+        <v>0.92169795366142393</v>
+      </c>
+      <c r="L7">
+        <v>0.92109395762363799</v>
+      </c>
+      <c r="M7">
+        <v>0.98511753762895304</v>
+      </c>
+      <c r="N7">
+        <v>0.94312558272968505</v>
+      </c>
+      <c r="O7">
+        <v>0.81695954983626218</v>
+      </c>
+      <c r="P7">
+        <v>0.91497163414971638</v>
+      </c>
+      <c r="Q7">
+        <v>0.88672109220054429</v>
+      </c>
+      <c r="R7">
+        <v>0.91440094569223274</v>
+      </c>
+      <c r="S7">
+        <v>0.90107317525438657</v>
+      </c>
+      <c r="T7">
+        <v>0.91608169199663791</v>
+      </c>
+      <c r="U7">
+        <v>0.94050296462891025</v>
+      </c>
+      <c r="V7">
+        <v>0.9444785206388151</v>
+      </c>
+      <c r="W7">
+        <v>0.93652740861900541</v>
+      </c>
+      <c r="X7">
+        <v>0.93482359890047495</v>
+      </c>
+      <c r="Y7">
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>65535</v>
+      </c>
+      <c r="C8">
+        <v>65535</v>
+      </c>
+      <c r="D8">
+        <v>65535</v>
+      </c>
+      <c r="E8">
+        <v>65535</v>
+      </c>
+      <c r="F8">
+        <v>65535</v>
+      </c>
+      <c r="G8">
+        <v>65535</v>
+      </c>
+      <c r="H8">
+        <v>65535</v>
+      </c>
+      <c r="I8">
+        <v>65535</v>
+      </c>
+      <c r="J8">
+        <v>65535</v>
+      </c>
+      <c r="K8">
+        <v>65535</v>
+      </c>
+      <c r="L8">
+        <v>65535</v>
+      </c>
+      <c r="M8">
+        <v>65535</v>
+      </c>
+      <c r="N8">
+        <v>65535</v>
+      </c>
+      <c r="O8">
+        <v>65535</v>
+      </c>
+      <c r="P8">
+        <v>65535</v>
+      </c>
+      <c r="Q8">
+        <v>65535</v>
+      </c>
+      <c r="R8">
+        <v>65535</v>
+      </c>
+      <c r="S8">
+        <v>65535</v>
+      </c>
+      <c r="T8">
+        <v>65535</v>
+      </c>
+      <c r="U8">
+        <v>65535</v>
+      </c>
+      <c r="V8">
+        <v>65535</v>
+      </c>
+      <c r="W8">
+        <v>65535</v>
+      </c>
+      <c r="X8">
+        <v>65535</v>
+      </c>
+      <c r="Y8">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="M9">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="N9">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="P9">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="Q9">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="R9">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="S9">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="T9">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="U9">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="V9">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="W9">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="X9">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="Y9">
+        <v>0.13667567483614451</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>2000</v>
-      </c>
-      <c r="C11">
-        <v>2001</v>
-      </c>
-      <c r="D11">
-        <v>2002</v>
-      </c>
-      <c r="E11">
-        <v>2003</v>
-      </c>
-      <c r="F11">
-        <v>2004</v>
-      </c>
-      <c r="G11">
-        <v>2005</v>
-      </c>
-      <c r="H11">
-        <v>2006</v>
-      </c>
-      <c r="I11">
-        <v>2007</v>
-      </c>
-      <c r="J11">
-        <v>2008</v>
-      </c>
-      <c r="K11">
-        <v>2009</v>
-      </c>
-      <c r="L11">
-        <v>2010</v>
-      </c>
-      <c r="M11">
-        <v>2011</v>
-      </c>
-      <c r="N11">
-        <v>2012</v>
-      </c>
-      <c r="O11">
-        <v>2013</v>
-      </c>
-      <c r="P11">
-        <v>2014</v>
-      </c>
-      <c r="Q11">
-        <v>2015</v>
-      </c>
-      <c r="R11">
-        <v>2016</v>
-      </c>
-      <c r="S11">
-        <v>2017</v>
-      </c>
-      <c r="T11">
-        <v>2018</v>
-      </c>
-      <c r="U11">
-        <v>2019</v>
-      </c>
-      <c r="V11">
-        <v>2020</v>
-      </c>
-      <c r="W11">
-        <v>2021</v>
-      </c>
-      <c r="X11">
-        <v>2022</v>
-      </c>
-      <c r="Y11">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
+        <v>42</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="K12">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="L12">
-        <v>0.45662100456621008</v>
-      </c>
-      <c r="M12">
-        <v>0.68493150684931503</v>
-      </c>
-      <c r="N12">
-        <v>0.7990867579908677</v>
-      </c>
-      <c r="O12">
-        <v>0.41856925418569257</v>
-      </c>
-      <c r="P12">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q12">
-        <v>0.61643835616438358</v>
-      </c>
-      <c r="R12">
-        <v>0.66590563165905636</v>
-      </c>
-      <c r="S12">
-        <v>0.91324200913242015</v>
-      </c>
-      <c r="T12">
-        <v>2.5603392041748205</v>
-      </c>
-      <c r="U12">
-        <v>3.4627092846270933</v>
-      </c>
-      <c r="V12">
-        <v>3.8812785388127851</v>
-      </c>
-      <c r="W12">
-        <v>5.9132420091324196</v>
-      </c>
-      <c r="X12">
-        <v>5.1141552511415531</v>
-      </c>
-      <c r="Y12">
-        <v>4.9771689497716896</v>
+      <c r="H10">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="J10">
+        <v>0.12453300124533001</v>
+      </c>
+      <c r="K10">
+        <v>8.3022000830220002E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.15841953219644023</v>
+      </c>
+      <c r="M10">
+        <v>0.18180280737358362</v>
+      </c>
+      <c r="N10">
+        <v>0.20480795057749127</v>
+      </c>
+      <c r="O10">
+        <v>0.22998925597636316</v>
+      </c>
+      <c r="P10">
+        <v>0.21689497716894979</v>
+      </c>
+      <c r="Q10">
+        <v>0.23646444879321593</v>
+      </c>
+      <c r="R10">
+        <v>0.23157208088714937</v>
+      </c>
+      <c r="S10">
+        <v>0.24461839530332682</v>
+      </c>
+      <c r="T10">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="U10">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="V10">
+        <v>0.24135681669928247</v>
+      </c>
+      <c r="W10">
+        <v>0.23320287018917157</v>
+      </c>
+      <c r="X10">
+        <v>0.23483365949119375</v>
+      </c>
+      <c r="Y10">
+        <v>0.25277234181343772</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>0.34409073920603195</v>
-      </c>
-      <c r="C13">
-        <v>0.39609028421001313</v>
-      </c>
-      <c r="D13">
-        <v>0.34896569655015519</v>
-      </c>
-      <c r="E13">
-        <v>0.3908090804205463</v>
-      </c>
-      <c r="F13">
-        <v>0.3922789539227895</v>
-      </c>
-      <c r="G13">
-        <v>0.38314653383146535</v>
-      </c>
-      <c r="H13">
-        <v>0.396222498962225</v>
-      </c>
-      <c r="I13">
-        <v>0.46430053964300544</v>
-      </c>
-      <c r="J13">
-        <v>0.48111249481112495</v>
-      </c>
-      <c r="K13">
-        <v>0.42782873873654675</v>
-      </c>
-      <c r="L13">
-        <v>0.45844586648499153</v>
-      </c>
-      <c r="M13">
-        <v>0.49726171897578175</v>
-      </c>
-      <c r="N13">
-        <v>0.41309028379862439</v>
-      </c>
-      <c r="O13">
-        <v>0.36227010141320837</v>
-      </c>
-      <c r="P13">
-        <v>0.41231328844516674</v>
-      </c>
-      <c r="Q13">
-        <v>0.50828415182197206</v>
-      </c>
-      <c r="R13">
-        <v>0.4369935206742831</v>
-      </c>
-      <c r="S13">
-        <v>0.46734400271649285</v>
-      </c>
-      <c r="T13">
-        <v>0.41685655309224456</v>
-      </c>
-      <c r="U13">
-        <v>0.38424076705180099</v>
-      </c>
-      <c r="V13">
-        <v>0.30180771877150181</v>
-      </c>
-      <c r="W13">
-        <v>0.38178341330902782</v>
-      </c>
-      <c r="X13">
-        <v>0.48677943686388042</v>
-      </c>
-      <c r="Y13">
-        <v>0.25824553878597789</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>0.19642930601834707</v>
+        <v>2000</v>
       </c>
       <c r="C14">
-        <v>0.19642930601834707</v>
+        <v>2001</v>
       </c>
       <c r="D14">
-        <v>0.1583775556378296</v>
+        <v>2002</v>
       </c>
       <c r="E14">
-        <v>0.18100292072894811</v>
+        <v>2003</v>
       </c>
       <c r="F14">
-        <v>0.15323542720802993</v>
+        <v>2004</v>
       </c>
       <c r="G14">
-        <v>0.1779176436710683</v>
+        <v>2005</v>
       </c>
       <c r="H14">
-        <v>0.22213994816734542</v>
+        <v>2006</v>
       </c>
       <c r="I14">
-        <v>0.23228111971411552</v>
+        <v>2007</v>
       </c>
       <c r="J14">
-        <v>0.23426642842962081</v>
+        <v>2008</v>
       </c>
       <c r="K14">
-        <v>0.19456025411951558</v>
+        <v>2009</v>
       </c>
       <c r="L14">
-        <v>0.19555290847726822</v>
+        <v>2010</v>
       </c>
       <c r="M14">
-        <v>0.19786910197869106</v>
+        <v>2011</v>
       </c>
       <c r="N14">
-        <v>0.22450532724505329</v>
+        <v>2012</v>
       </c>
       <c r="O14">
-        <v>0.2226027397260274</v>
+        <v>2013</v>
       </c>
       <c r="P14">
-        <v>0.20357686453576868</v>
+        <v>2014</v>
       </c>
       <c r="Q14">
-        <v>0.17694063926940642</v>
+        <v>2015</v>
       </c>
       <c r="R14">
-        <v>0.1950152207001522</v>
+        <v>2016</v>
       </c>
       <c r="S14">
-        <v>0.18359969558599698</v>
+        <v>2017</v>
       </c>
       <c r="T14">
-        <v>0.19216133942161343</v>
+        <v>2018</v>
       </c>
       <c r="U14">
-        <v>0.20452815829528159</v>
+        <v>2019</v>
       </c>
       <c r="V14">
-        <v>0.21784627092846273</v>
+        <v>2020</v>
       </c>
       <c r="W14">
-        <v>0.29014459665144599</v>
+        <v>2021</v>
       </c>
       <c r="X14">
-        <v>0.1950152207001522</v>
-      </c>
-      <c r="Y14">
-        <v>0.14840182648401828</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>0.29434148088459128</v>
-      </c>
-      <c r="C15">
-        <v>0.22423352902804958</v>
-      </c>
-      <c r="D15">
-        <v>0.22408253001860307</v>
-      </c>
-      <c r="E15">
-        <v>0.20686315206863154</v>
-      </c>
-      <c r="F15">
-        <v>0.18103408514367419</v>
-      </c>
-      <c r="G15">
-        <v>0.24791291914579586</v>
-      </c>
-      <c r="H15">
-        <v>0.2427240440939071</v>
-      </c>
-      <c r="I15">
-        <v>0.16072605011472321</v>
+        <v>31</v>
       </c>
       <c r="J15">
-        <v>0.1502326182476092</v>
+        <v>0.30441400304414001</v>
       </c>
       <c r="K15">
-        <v>0.18296846327828276</v>
+        <v>0.10147133434804669</v>
       </c>
       <c r="L15">
-        <v>0.26339491433119683</v>
+        <v>0.40447488584474894</v>
       </c>
       <c r="M15">
-        <v>0.14626141552511415</v>
+        <v>0.5811540058115402</v>
       </c>
       <c r="N15">
-        <v>0.15647142182333496</v>
+        <v>0.53816046966731901</v>
       </c>
       <c r="O15">
-        <v>0.19708855325293684</v>
+        <v>0.37067553048616708</v>
       </c>
       <c r="P15">
-        <v>0.22250599798777185</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q15">
-        <v>0.27329541057193724</v>
+        <v>0.57500422797226458</v>
       </c>
       <c r="R15">
-        <v>0.18767897221577279</v>
+        <v>0.70696146759593048</v>
       </c>
       <c r="S15">
-        <v>0.12870890865760704</v>
+        <v>0.86924428402751963</v>
       </c>
       <c r="T15">
-        <v>0.23422292564900221</v>
+        <v>2.5863099724480505</v>
       </c>
       <c r="U15">
-        <v>0.13325692663137406</v>
+        <v>3.6549813955986812</v>
       </c>
       <c r="V15">
-        <v>0.12825410686023031</v>
+        <v>4.036889720525596</v>
       </c>
       <c r="W15">
-        <v>0.21921446633557101</v>
+        <v>6.2453375126974553</v>
       </c>
       <c r="X15">
-        <v>0.17145847997545438</v>
-      </c>
-      <c r="Y15">
-        <v>0.14032522966412186</v>
+        <v>3.2548137163984849</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>0.58791571267802401</v>
+        <v>0.17918731176527739</v>
       </c>
       <c r="C16">
-        <v>0.632219592016247</v>
+        <v>0.14535545467936098</v>
       </c>
       <c r="D16">
-        <v>0.84860999194198217</v>
+        <v>0.15845780240593327</v>
       </c>
       <c r="E16">
-        <v>0.72522159548751008</v>
+        <v>0.1498316039834055</v>
       </c>
       <c r="F16">
-        <v>0.70591592801504166</v>
+        <v>0.1347902156764661</v>
       </c>
       <c r="G16">
-        <v>0.78271890948160072</v>
+        <v>0.18958653994151151</v>
       </c>
       <c r="H16">
-        <v>0.81797273704002138</v>
+        <v>0.18353719344825822</v>
       </c>
       <c r="I16">
-        <v>0.88425019931869253</v>
+        <v>0.12836507928947488</v>
       </c>
       <c r="J16">
-        <v>0.95250175158850958</v>
+        <v>0.12535509016122517</v>
       </c>
       <c r="K16">
-        <v>0.92169795366142393</v>
+        <v>0.15416139825537606</v>
       </c>
       <c r="L16">
-        <v>0.92109395762363799</v>
+        <v>0.21319901365069094</v>
       </c>
       <c r="M16">
-        <v>0.98511753762895304</v>
+        <v>0.13556538436675425</v>
       </c>
       <c r="N16">
-        <v>0.94312558272968505</v>
+        <v>0.1426745416205524</v>
       </c>
       <c r="O16">
-        <v>0.81695954983626218</v>
+        <v>0.17089921406444017</v>
       </c>
       <c r="P16">
-        <v>0.91497163414971638</v>
+        <v>0.18308207829936693</v>
       </c>
       <c r="Q16">
-        <v>0.88672109220054429</v>
+        <v>0.21797454043557021</v>
       </c>
       <c r="R16">
-        <v>0.91440094569223274</v>
+        <v>0.16178813238750592</v>
       </c>
       <c r="S16">
-        <v>0.90107317525438657</v>
+        <v>0.11826549026371555</v>
       </c>
       <c r="T16">
-        <v>0.91608169199663791</v>
+        <v>0.18320015783762453</v>
       </c>
       <c r="U16">
-        <v>0.94050296462891025</v>
+        <v>0.11430375923833559</v>
       </c>
       <c r="V16">
-        <v>0.9444785206388151</v>
+        <v>0.11225524213694742</v>
       </c>
       <c r="W16">
-        <v>0.93652740861900541</v>
+        <v>0.1716829439171017</v>
       </c>
       <c r="X16">
-        <v>0.93482359890047495</v>
-      </c>
-      <c r="Y16">
-        <v>0.91778550171516859</v>
+        <v>0.13069358514235713</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>65535</v>
+        <v>0.58751816400088952</v>
       </c>
       <c r="C17">
-        <v>65535</v>
+        <v>0.63195855763612019</v>
       </c>
       <c r="D17">
-        <v>65535</v>
+        <v>0.84807034848805107</v>
       </c>
       <c r="E17">
-        <v>65535</v>
+        <v>0.72468873612271401</v>
       </c>
       <c r="F17">
-        <v>65535</v>
+        <v>0.70518756353607848</v>
       </c>
       <c r="G17">
-        <v>65535</v>
+        <v>0.78226961776024206</v>
       </c>
       <c r="H17">
-        <v>65535</v>
+        <v>0.81749754243287398</v>
       </c>
       <c r="I17">
-        <v>65535</v>
+        <v>0.88349648121868596</v>
       </c>
       <c r="J17">
-        <v>65535</v>
+        <v>0.95119319991890894</v>
       </c>
       <c r="K17">
-        <v>65535</v>
+        <v>0.92048229990249752</v>
       </c>
       <c r="L17">
-        <v>65535</v>
+        <v>0.92005994960757642</v>
       </c>
       <c r="M17">
-        <v>65535</v>
+        <v>0.98431753019201262</v>
       </c>
       <c r="N17">
-        <v>65535</v>
+        <v>0.94540432280661413</v>
       </c>
       <c r="O17">
-        <v>65535</v>
+        <v>0.81619276686525755</v>
       </c>
       <c r="P17">
-        <v>65535</v>
+        <v>0.91711461765215874</v>
       </c>
       <c r="Q17">
-        <v>65535</v>
+        <v>0.88913935610658323</v>
       </c>
       <c r="R17">
-        <v>65535</v>
+        <v>0.91556341739152636</v>
       </c>
       <c r="S17">
-        <v>65535</v>
+        <v>0.90218624426321981</v>
       </c>
       <c r="T17">
-        <v>65535</v>
+        <v>0.91672584775055033</v>
       </c>
       <c r="U17">
-        <v>65535</v>
+        <v>0.942110199083116</v>
       </c>
       <c r="V17">
-        <v>65535</v>
+        <v>0.94612082701666678</v>
       </c>
       <c r="W17">
-        <v>65535</v>
+        <v>0.9382181082323805</v>
       </c>
       <c r="X17">
-        <v>65535</v>
-      </c>
-      <c r="Y17">
-        <v>65535</v>
+        <v>0.93680249206717758</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>1.3728687025740881E-2</v>
+      </c>
+      <c r="C18">
+        <v>8.9246408872480296E-3</v>
+      </c>
+      <c r="D18">
+        <v>1.4064542368890371E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.3440969291696423E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.4367639360976603E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.06544901065449E-2</v>
+      </c>
+      <c r="H18">
+        <v>6.8721033906174785E-3</v>
+      </c>
+      <c r="I18">
+        <v>1.3383397499030053E-2</v>
+      </c>
+      <c r="J18">
+        <v>6.8134032678754683E-3</v>
+      </c>
+      <c r="K18">
+        <v>8.974387151398696E-3</v>
       </c>
       <c r="L18">
-        <v>3.8051750380517509E-2</v>
+        <v>1.0171012962918537E-2</v>
       </c>
       <c r="M18">
-        <v>7.6103500761035017E-2</v>
+        <v>4.0275281549390085E-3</v>
       </c>
       <c r="N18">
-        <v>9.6783799880881469E-2</v>
+        <v>5.4770281784942507E-3</v>
       </c>
       <c r="O18">
-        <v>0.1525728837372673</v>
+        <v>5.9193423561722108E-3</v>
       </c>
       <c r="P18">
-        <v>0.13964622955180209</v>
+        <v>5.7979529360833674E-3</v>
       </c>
       <c r="Q18">
-        <v>0.15294587046149752</v>
+        <v>5.9440758150922698E-3</v>
       </c>
       <c r="R18">
-        <v>0.1540541738706388</v>
+        <v>1.0672682178439969E-2</v>
       </c>
       <c r="S18">
-        <v>0.15516247727978011</v>
+        <v>1.3166338195431674E-2</v>
       </c>
       <c r="T18">
-        <v>0.14851265682493239</v>
+        <v>1.0273264456408587E-2</v>
       </c>
       <c r="U18">
-        <v>0.15586582367404284</v>
+        <v>1.1459284473580975E-2</v>
       </c>
       <c r="V18">
-        <v>0.15255292652552924</v>
+        <v>1.0273784895450284E-2</v>
       </c>
       <c r="W18">
-        <v>0.13213245604573401</v>
+        <v>1.1799059936493149E-2</v>
       </c>
       <c r="X18">
-        <v>0.13711751430220961</v>
-      </c>
-      <c r="Y18">
-        <v>0.13667567483614451</v>
+        <v>1.5180712412366853E-2</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>7.6103500761035017E-2</v>
+        <v>41</v>
       </c>
       <c r="I19">
-        <v>0.19025875190258754</v>
+        <v>0.22831050228310501</v>
       </c>
       <c r="J19">
-        <v>0.12453300124533001</v>
+        <v>0.1906392694063927</v>
       </c>
       <c r="K19">
-        <v>8.3022000830220002E-2</v>
+        <v>0.18647260273972602</v>
       </c>
       <c r="L19">
-        <v>0.15841953219644023</v>
+        <v>6.7876712328767116E-2</v>
       </c>
       <c r="M19">
-        <v>0.18180280737358362</v>
+        <v>7.476575935480044E-2</v>
       </c>
       <c r="N19">
-        <v>0.20480795057749127</v>
+        <v>9.6412405035707568E-2</v>
       </c>
       <c r="O19">
-        <v>0.22998925597636316</v>
+        <v>0.15293804193529958</v>
       </c>
       <c r="P19">
-        <v>0.21689497716894979</v>
+        <v>0.13941040865139273</v>
       </c>
       <c r="Q19">
-        <v>0.23646444879321593</v>
+        <v>0.1534278778672068</v>
       </c>
       <c r="R19">
-        <v>0.23157208088714937</v>
+        <v>0.15383140488540142</v>
       </c>
       <c r="S19">
-        <v>0.24461839530332682</v>
+        <v>0.15538589047072227</v>
       </c>
       <c r="T19">
-        <v>0.21526418786692761</v>
+        <v>0.14838111835914639</v>
       </c>
       <c r="U19">
-        <v>0.21526418786692761</v>
+        <v>0.15491400651998427</v>
       </c>
       <c r="V19">
-        <v>0.24135681669928247</v>
+        <v>0.15239085998651261</v>
       </c>
       <c r="W19">
-        <v>0.23320287018917157</v>
+        <v>0.13133926069138591</v>
       </c>
       <c r="X19">
-        <v>0.23483365949119375</v>
-      </c>
-      <c r="Y19">
-        <v>0.25277234181343772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>73</v>
+        <v>0.13764325363624622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="G20">
+        <v>6.5453767123287668E-2</v>
+      </c>
+      <c r="H20">
+        <v>8.4758159986470502E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.17808980213089803</v>
+      </c>
+      <c r="J20">
+        <v>0.12192381639029079</v>
+      </c>
+      <c r="K20">
+        <v>8.1248714467892558E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.15938903548169775</v>
+      </c>
+      <c r="M20">
+        <v>0.18169781142649755</v>
+      </c>
+      <c r="N20">
+        <v>0.2058669391554197</v>
+      </c>
+      <c r="O20">
+        <v>0.22956604290766625</v>
+      </c>
+      <c r="P20">
+        <v>0.2172995015710637</v>
+      </c>
+      <c r="Q20">
+        <v>0.23704950320418605</v>
+      </c>
+      <c r="R20">
+        <v>0.23271503321770831</v>
+      </c>
+      <c r="S20">
+        <v>0.24584659524473154</v>
+      </c>
+      <c r="T20">
+        <v>0.21529025081619735</v>
+      </c>
+      <c r="U20">
+        <v>0.21381996798613462</v>
+      </c>
+      <c r="V20">
+        <v>0.23992922634315969</v>
+      </c>
+      <c r="W20">
+        <v>0.2323315222455867</v>
+      </c>
+      <c r="X20">
+        <v>0.24297964087912982</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23">
-        <v>2000</v>
-      </c>
-      <c r="C23">
-        <v>2001</v>
-      </c>
-      <c r="D23">
-        <v>2002</v>
-      </c>
-      <c r="E23">
-        <v>2003</v>
-      </c>
-      <c r="F23">
-        <v>2004</v>
-      </c>
-      <c r="G23">
-        <v>2005</v>
-      </c>
-      <c r="H23">
-        <v>2006</v>
-      </c>
-      <c r="I23">
-        <v>2007</v>
-      </c>
-      <c r="J23">
-        <v>2008</v>
-      </c>
-      <c r="K23">
-        <v>2009</v>
-      </c>
-      <c r="L23">
-        <v>2010</v>
-      </c>
-      <c r="M23">
-        <v>2011</v>
-      </c>
-      <c r="N23">
-        <v>2012</v>
-      </c>
-      <c r="O23">
-        <v>2013</v>
-      </c>
-      <c r="P23">
-        <v>2014</v>
-      </c>
-      <c r="Q23">
-        <v>2015</v>
-      </c>
-      <c r="R23">
-        <v>2016</v>
-      </c>
-      <c r="S23">
-        <v>2017</v>
-      </c>
-      <c r="T23">
-        <v>2018</v>
-      </c>
-      <c r="U23">
-        <v>2019</v>
-      </c>
-      <c r="V23">
-        <v>2020</v>
-      </c>
-      <c r="W23">
-        <v>2021</v>
-      </c>
-      <c r="X23">
-        <v>2022</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>2000</v>
+      </c>
+      <c r="C24">
+        <v>2001</v>
+      </c>
+      <c r="D24">
+        <v>2002</v>
+      </c>
+      <c r="E24">
+        <v>2003</v>
+      </c>
+      <c r="F24">
+        <v>2004</v>
+      </c>
+      <c r="G24">
+        <v>2005</v>
+      </c>
+      <c r="H24">
+        <v>2006</v>
+      </c>
+      <c r="I24">
+        <v>2007</v>
       </c>
       <c r="J24">
-        <v>0.30441400304414001</v>
+        <v>2008</v>
       </c>
       <c r="K24">
-        <v>0.10147133434804669</v>
+        <v>2009</v>
       </c>
       <c r="L24">
-        <v>0.40447488584474894</v>
+        <v>2010</v>
       </c>
       <c r="M24">
-        <v>0.5811540058115402</v>
+        <v>2011</v>
       </c>
       <c r="N24">
-        <v>0.53816046966731901</v>
+        <v>2012</v>
       </c>
       <c r="O24">
-        <v>0.37067553048616708</v>
+        <v>2013</v>
       </c>
       <c r="P24">
-        <v>0.57077625570776258</v>
+        <v>2014</v>
       </c>
       <c r="Q24">
-        <v>0.57500422797226458</v>
+        <v>2015</v>
       </c>
       <c r="R24">
-        <v>0.70696146759593048</v>
+        <v>2016</v>
       </c>
       <c r="S24">
-        <v>0.86924428402751963</v>
+        <v>2017</v>
       </c>
       <c r="T24">
-        <v>2.5863099724480505</v>
+        <v>2018</v>
       </c>
       <c r="U24">
-        <v>3.6549813955986812</v>
+        <v>2019</v>
       </c>
       <c r="V24">
-        <v>4.036889720525596</v>
+        <v>2020</v>
       </c>
       <c r="W24">
-        <v>6.2453375126974553</v>
+        <v>2021</v>
       </c>
       <c r="X24">
-        <v>3.2548137163984849</v>
+        <v>2022</v>
+      </c>
+      <c r="Y24">
+        <v>2023</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.17918731176527739</v>
+        <v>0.05</v>
       </c>
       <c r="C25">
-        <v>0.14535545467936098</v>
+        <v>0.05</v>
       </c>
       <c r="D25">
-        <v>0.15845780240593327</v>
+        <v>0.05</v>
       </c>
       <c r="E25">
-        <v>0.1498316039834055</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
-        <v>0.1347902156764661</v>
+        <v>0.01</v>
       </c>
       <c r="G25">
-        <v>0.18958653994151151</v>
+        <v>0.01</v>
       </c>
       <c r="H25">
-        <v>0.18353719344825822</v>
+        <v>0.01</v>
       </c>
       <c r="I25">
-        <v>0.12836507928947488</v>
+        <v>0.01</v>
       </c>
       <c r="J25">
-        <v>0.12535509016122517</v>
+        <v>0.01</v>
       </c>
       <c r="K25">
-        <v>0.15416139825537606</v>
+        <v>0.01</v>
       </c>
       <c r="L25">
-        <v>0.21319901365069094</v>
+        <v>0.01</v>
       </c>
       <c r="M25">
-        <v>0.13556538436675425</v>
+        <v>0.01</v>
       </c>
       <c r="N25">
-        <v>0.1426745416205524</v>
+        <v>0.01</v>
       </c>
       <c r="O25">
-        <v>0.17089921406444017</v>
+        <v>0.03</v>
       </c>
       <c r="P25">
-        <v>0.18308207829936693</v>
+        <v>0.04</v>
       </c>
       <c r="Q25">
-        <v>0.21797454043557021</v>
+        <v>0.05</v>
       </c>
       <c r="R25">
-        <v>0.16178813238750592</v>
+        <v>0.06</v>
       </c>
       <c r="S25">
-        <v>0.11826549026371555</v>
+        <v>0.05</v>
       </c>
       <c r="T25">
-        <v>0.18320015783762453</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U25">
-        <v>0.11430375923833559</v>
+        <v>0.06</v>
       </c>
       <c r="V25">
-        <v>0.11225524213694742</v>
+        <v>0.05</v>
       </c>
       <c r="W25">
-        <v>0.1716829439171017</v>
+        <v>0.05</v>
       </c>
       <c r="X25">
-        <v>0.13069358514235713</v>
+        <v>0.05</v>
+      </c>
+      <c r="Y25">
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.58751816400088952</v>
+        <v>5.62</v>
       </c>
       <c r="C26">
-        <v>0.63195855763612019</v>
+        <v>5.62</v>
       </c>
       <c r="D26">
-        <v>0.84807034848805107</v>
+        <v>5.62</v>
       </c>
       <c r="E26">
-        <v>0.72468873612271401</v>
+        <v>5.62</v>
       </c>
       <c r="F26">
-        <v>0.70518756353607848</v>
+        <v>5.5</v>
       </c>
       <c r="G26">
-        <v>0.78226961776024206</v>
+        <v>5.5</v>
       </c>
       <c r="H26">
-        <v>0.81749754243287398</v>
+        <v>5.5</v>
       </c>
       <c r="I26">
-        <v>0.88349648121868596</v>
+        <v>5.5</v>
       </c>
       <c r="J26">
-        <v>0.95119319991890894</v>
+        <v>5.5</v>
       </c>
       <c r="K26">
-        <v>0.92048229990249752</v>
+        <v>5.63</v>
       </c>
       <c r="L26">
-        <v>0.92005994960757642</v>
+        <v>5.63</v>
       </c>
       <c r="M26">
-        <v>0.98431753019201262</v>
+        <v>6.32</v>
       </c>
       <c r="N26">
-        <v>0.94540432280661413</v>
+        <v>6.32</v>
       </c>
       <c r="O26">
-        <v>0.81619276686525755</v>
+        <v>6.11</v>
       </c>
       <c r="P26">
-        <v>0.91711461765215874</v>
+        <v>5.9</v>
       </c>
       <c r="Q26">
-        <v>0.88913935610658323</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R26">
-        <v>0.91556341739152636</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="S26">
-        <v>0.90218624426321981</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="T26">
-        <v>0.91672584775055033</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="U26">
-        <v>0.942110199083116</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V26">
-        <v>0.94612082701666678</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W26">
-        <v>0.9382181082323805</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="X26">
-        <v>0.93680249206717758</v>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Y26">
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>1.3728687025740881E-2</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C27">
-        <v>8.9246408872480296E-3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D27">
-        <v>1.4064542368890371E-2</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E27">
-        <v>1.3440969291696423E-2</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F27">
-        <v>1.4367639360976603E-2</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G27">
-        <v>1.06544901065449E-2</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H27">
-        <v>6.8721033906174785E-3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I27">
-        <v>1.3383397499030053E-2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J27">
-        <v>6.8134032678754683E-3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K27">
-        <v>8.974387151398696E-3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L27">
-        <v>1.0171012962918537E-2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M27">
-        <v>4.0275281549390085E-3</v>
+        <v>1.2</v>
       </c>
       <c r="N27">
-        <v>5.4770281784942507E-3</v>
+        <v>1.2</v>
       </c>
       <c r="O27">
-        <v>5.9193423561722108E-3</v>
+        <v>1.2</v>
       </c>
       <c r="P27">
-        <v>5.7979529360833674E-3</v>
+        <v>1.2</v>
       </c>
       <c r="Q27">
-        <v>5.9440758150922698E-3</v>
+        <v>1.2</v>
       </c>
       <c r="R27">
-        <v>1.0672682178439969E-2</v>
+        <v>1.2</v>
       </c>
       <c r="S27">
-        <v>1.3166338195431674E-2</v>
+        <v>1.2</v>
       </c>
       <c r="T27">
-        <v>1.0273264456408587E-2</v>
+        <v>1.2</v>
       </c>
       <c r="U27">
-        <v>1.1459284473580975E-2</v>
+        <v>1.2</v>
       </c>
       <c r="V27">
-        <v>1.0273784895450284E-2</v>
+        <v>1.2</v>
       </c>
       <c r="W27">
-        <v>1.1799059936493149E-2</v>
+        <v>1.2</v>
       </c>
       <c r="X27">
-        <v>1.5180712412366853E-2</v>
+        <v>1.2</v>
+      </c>
+      <c r="Y27">
+        <v>1.2</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>1.02</v>
+      </c>
+      <c r="C28">
+        <v>0.84</v>
+      </c>
+      <c r="D28">
+        <v>1.08</v>
+      </c>
+      <c r="E28">
+        <v>1.65</v>
+      </c>
+      <c r="F28">
+        <v>1.98</v>
+      </c>
+      <c r="G28">
+        <v>1.98</v>
+      </c>
+      <c r="H28">
+        <v>1.98</v>
       </c>
       <c r="I28">
-        <v>0.22831050228310501</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J28">
-        <v>0.1906392694063927</v>
+        <v>2.12</v>
       </c>
       <c r="K28">
-        <v>0.18647260273972602</v>
+        <v>2.14</v>
       </c>
       <c r="L28">
-        <v>6.7876712328767116E-2</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M28">
-        <v>7.476575935480044E-2</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N28">
-        <v>9.6412405035707568E-2</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="O28">
-        <v>0.15293804193529958</v>
+        <v>2.34</v>
       </c>
       <c r="P28">
-        <v>0.13941040865139273</v>
+        <v>2.36</v>
       </c>
       <c r="Q28">
-        <v>0.1534278778672068</v>
+        <v>2.36</v>
       </c>
       <c r="R28">
-        <v>0.15383140488540142</v>
+        <v>2.36</v>
       </c>
       <c r="S28">
-        <v>0.15538589047072227</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="T28">
-        <v>0.14838111835914639</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="U28">
-        <v>0.15491400651998427</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="V28">
-        <v>0.15239085998651261</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="W28">
-        <v>0.13133926069138591</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="X28">
-        <v>0.13764325363624622</v>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Y28">
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>3.53</v>
+      </c>
+      <c r="C29">
+        <v>3.53</v>
+      </c>
+      <c r="D29">
+        <v>2.72</v>
+      </c>
+      <c r="E29">
+        <v>2.72</v>
       </c>
       <c r="F29">
-        <v>0.11415525114155251</v>
+        <v>2.72</v>
       </c>
       <c r="G29">
-        <v>6.5453767123287668E-2</v>
+        <v>2.72</v>
       </c>
       <c r="H29">
-        <v>8.4758159986470502E-2</v>
+        <v>2.72</v>
       </c>
       <c r="I29">
-        <v>0.17808980213089803</v>
+        <v>1.89</v>
       </c>
       <c r="J29">
-        <v>0.12192381639029079</v>
+        <v>1.89</v>
       </c>
       <c r="K29">
-        <v>8.1248714467892558E-2</v>
+        <v>1.89</v>
       </c>
       <c r="L29">
-        <v>0.15938903548169775</v>
+        <v>1.89</v>
       </c>
       <c r="M29">
-        <v>0.18169781142649755</v>
+        <v>1.89</v>
       </c>
       <c r="N29">
-        <v>0.2058669391554197</v>
+        <v>1.91</v>
       </c>
       <c r="O29">
-        <v>0.22956604290766625</v>
+        <v>1.98</v>
       </c>
       <c r="P29">
-        <v>0.2172995015710637</v>
+        <v>1.98</v>
       </c>
       <c r="Q29">
-        <v>0.23704950320418605</v>
+        <v>1.98</v>
       </c>
       <c r="R29">
-        <v>0.23271503321770831</v>
+        <v>1.97</v>
       </c>
       <c r="S29">
-        <v>0.24584659524473154</v>
+        <v>1.97</v>
       </c>
       <c r="T29">
-        <v>0.21529025081619735</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="U29">
-        <v>0.21381996798613462</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V29">
-        <v>0.23992922634315969</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="W29">
-        <v>0.2323315222455867</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="X29">
-        <v>0.24297964087912982</v>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y29">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0.03</v>
+      </c>
+      <c r="M31">
+        <v>0.15</v>
+      </c>
+      <c r="N31">
+        <v>0.92</v>
+      </c>
+      <c r="O31">
+        <v>1.04</v>
+      </c>
+      <c r="P31">
+        <v>1.03</v>
+      </c>
+      <c r="Q31">
+        <v>1.03</v>
+      </c>
+      <c r="R31">
+        <v>1.03</v>
+      </c>
+      <c r="S31">
+        <v>1.03</v>
+      </c>
+      <c r="T31">
+        <v>1.03</v>
+      </c>
+      <c r="U31">
+        <v>1.04</v>
+      </c>
+      <c r="V31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W31">
+        <v>1.27</v>
+      </c>
+      <c r="X31">
+        <v>1.74</v>
+      </c>
+      <c r="Y31">
+        <v>2.94</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.01</v>
+      </c>
+      <c r="H32">
+        <v>0.03</v>
+      </c>
+      <c r="I32">
+        <v>0.03</v>
+      </c>
+      <c r="J32">
+        <v>0.11</v>
+      </c>
+      <c r="K32">
+        <v>0.33</v>
+      </c>
+      <c r="L32">
+        <v>0.49</v>
+      </c>
+      <c r="M32">
+        <v>0.54</v>
+      </c>
+      <c r="N32">
+        <v>0.68</v>
+      </c>
+      <c r="O32">
+        <v>0.68</v>
+      </c>
+      <c r="P32">
+        <v>0.7</v>
+      </c>
+      <c r="Q32">
+        <v>0.7</v>
+      </c>
+      <c r="R32">
+        <v>0.7</v>
+      </c>
+      <c r="S32">
+        <v>0.7</v>
+      </c>
+      <c r="T32">
+        <v>0.7</v>
+      </c>
+      <c r="U32">
+        <v>0.7</v>
+      </c>
+      <c r="V32">
+        <v>0.7</v>
+      </c>
+      <c r="W32">
+        <v>0.7</v>
+      </c>
+      <c r="X32">
+        <v>0.7</v>
+      </c>
+      <c r="Y32">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>2000</v>
+      </c>
+      <c r="C36">
+        <v>2001</v>
+      </c>
+      <c r="D36">
+        <v>2002</v>
+      </c>
+      <c r="E36">
+        <v>2003</v>
+      </c>
+      <c r="F36">
+        <v>2004</v>
+      </c>
+      <c r="G36">
+        <v>2005</v>
+      </c>
+      <c r="H36">
+        <v>2006</v>
+      </c>
+      <c r="I36">
+        <v>2007</v>
+      </c>
+      <c r="J36">
+        <v>2008</v>
+      </c>
+      <c r="K36">
+        <v>2009</v>
+      </c>
+      <c r="L36">
+        <v>2010</v>
+      </c>
+      <c r="M36">
+        <v>2011</v>
+      </c>
+      <c r="N36">
+        <v>2012</v>
+      </c>
+      <c r="O36">
+        <v>2013</v>
+      </c>
+      <c r="P36">
+        <v>2014</v>
+      </c>
+      <c r="Q36">
+        <v>2015</v>
+      </c>
+      <c r="R36">
+        <v>2016</v>
+      </c>
+      <c r="S36">
+        <v>2017</v>
+      </c>
+      <c r="T36">
+        <v>2018</v>
+      </c>
+      <c r="U36">
+        <v>2019</v>
+      </c>
+      <c r="V36">
+        <v>2020</v>
+      </c>
+      <c r="W36">
+        <v>2021</v>
+      </c>
+      <c r="X36">
+        <v>2022</v>
+      </c>
+      <c r="Y36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.02</v>
+      </c>
+      <c r="K37">
+        <v>0.01</v>
+      </c>
+      <c r="L37">
+        <v>0.04</v>
+      </c>
+      <c r="M37">
+        <v>0.06</v>
+      </c>
+      <c r="N37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37">
+        <v>0.2</v>
+      </c>
+      <c r="Q37">
+        <v>0.27</v>
+      </c>
+      <c r="R37">
+        <v>0.35</v>
+      </c>
+      <c r="S37">
+        <v>0.4</v>
+      </c>
+      <c r="T37">
+        <v>1.57</v>
+      </c>
+      <c r="U37">
+        <v>1.82</v>
+      </c>
+      <c r="V37">
+        <v>1.7</v>
+      </c>
+      <c r="W37">
+        <v>2.59</v>
+      </c>
+      <c r="X37">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y37">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="C38">
+        <v>19.5</v>
+      </c>
+      <c r="D38">
+        <v>17.18</v>
+      </c>
+      <c r="E38">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="F38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G38">
+        <v>18.46</v>
+      </c>
+      <c r="H38">
+        <v>19.09</v>
+      </c>
+      <c r="I38">
+        <v>22.37</v>
+      </c>
+      <c r="J38">
+        <v>23.18</v>
+      </c>
+      <c r="K38">
+        <v>21.1</v>
+      </c>
+      <c r="L38">
+        <v>22.61</v>
+      </c>
+      <c r="M38">
+        <v>27.53</v>
+      </c>
+      <c r="N38">
+        <v>22.87</v>
+      </c>
+      <c r="O38">
+        <v>19.39</v>
+      </c>
+      <c r="P38">
+        <v>21.31</v>
+      </c>
+      <c r="Q38">
+        <v>22.53</v>
+      </c>
+      <c r="R38">
+        <v>19.37</v>
+      </c>
+      <c r="S38">
+        <v>20.92</v>
+      </c>
+      <c r="T38">
+        <v>18.66</v>
+      </c>
+      <c r="U38">
+        <v>17.2</v>
+      </c>
+      <c r="V38">
+        <v>13.51</v>
+      </c>
+      <c r="W38">
+        <v>17.09</v>
+      </c>
+      <c r="X38">
+        <v>21.79</v>
+      </c>
+      <c r="Y38">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>1.91</v>
+      </c>
+      <c r="C39">
+        <v>1.91</v>
+      </c>
+      <c r="D39">
+        <v>1.54</v>
+      </c>
+      <c r="E39">
+        <v>1.76</v>
+      </c>
+      <c r="F39">
+        <v>1.49</v>
+      </c>
+      <c r="G39">
+        <v>1.73</v>
+      </c>
+      <c r="H39">
+        <v>2.16</v>
+      </c>
+      <c r="I39">
+        <v>2.34</v>
+      </c>
+      <c r="J39">
+        <v>2.36</v>
+      </c>
+      <c r="K39">
+        <v>1.96</v>
+      </c>
+      <c r="L39">
+        <v>1.97</v>
+      </c>
+      <c r="M39">
+        <v>2.08</v>
+      </c>
+      <c r="N39">
+        <v>2.36</v>
+      </c>
+      <c r="O39">
+        <v>2.34</v>
+      </c>
+      <c r="P39">
+        <v>2.14</v>
+      </c>
+      <c r="Q39">
+        <v>1.86</v>
+      </c>
+      <c r="R39">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S39">
+        <v>1.93</v>
+      </c>
+      <c r="T39">
+        <v>2.02</v>
+      </c>
+      <c r="U39">
+        <v>2.15</v>
+      </c>
+      <c r="V39">
+        <v>2.29</v>
+      </c>
+      <c r="W39">
+        <v>3.05</v>
+      </c>
+      <c r="X39">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Y39">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B33">
+      <c r="B40">
+        <v>2.63</v>
+      </c>
+      <c r="C40">
+        <v>1.65</v>
+      </c>
+      <c r="D40">
+        <v>2.12</v>
+      </c>
+      <c r="E40">
+        <v>2.99</v>
+      </c>
+      <c r="F40">
+        <v>3.14</v>
+      </c>
+      <c r="G40">
+        <v>4.3</v>
+      </c>
+      <c r="H40">
+        <v>4.21</v>
+      </c>
+      <c r="I40">
+        <v>2.83</v>
+      </c>
+      <c r="J40">
+        <v>2.79</v>
+      </c>
+      <c r="K40">
+        <v>3.43</v>
+      </c>
+      <c r="L40">
+        <v>5.03</v>
+      </c>
+      <c r="M40">
+        <v>2.87</v>
+      </c>
+      <c r="N40">
+        <v>3.18</v>
+      </c>
+      <c r="O40">
+        <v>4.04</v>
+      </c>
+      <c r="P40">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q40">
+        <v>5.65</v>
+      </c>
+      <c r="R40">
+        <v>3.88</v>
+      </c>
+      <c r="S40">
+        <v>2.83</v>
+      </c>
+      <c r="T40">
+        <v>5.15</v>
+      </c>
+      <c r="U40">
+        <v>2.93</v>
+      </c>
+      <c r="V40">
+        <v>2.82</v>
+      </c>
+      <c r="W40">
+        <v>4.82</v>
+      </c>
+      <c r="X40">
+        <v>3.8</v>
+      </c>
+      <c r="Y40">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>18.18</v>
+      </c>
+      <c r="C41">
+        <v>19.55</v>
+      </c>
+      <c r="D41">
+        <v>20.22</v>
+      </c>
+      <c r="E41">
+        <v>17.28</v>
+      </c>
+      <c r="F41">
+        <v>16.82</v>
+      </c>
+      <c r="G41">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H41">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I41">
+        <v>14.64</v>
+      </c>
+      <c r="J41">
+        <v>15.77</v>
+      </c>
+      <c r="K41">
+        <v>15.26</v>
+      </c>
+      <c r="L41">
+        <v>15.25</v>
+      </c>
+      <c r="M41">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N41">
+        <v>15.78</v>
+      </c>
+      <c r="O41">
+        <v>14.17</v>
+      </c>
+      <c r="P41">
+        <v>15.87</v>
+      </c>
+      <c r="Q41">
+        <v>15.38</v>
+      </c>
+      <c r="R41">
+        <v>15.78</v>
+      </c>
+      <c r="S41">
+        <v>15.55</v>
+      </c>
+      <c r="T41">
+        <v>16.13</v>
+      </c>
+      <c r="U41">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V41">
+        <v>16.63</v>
+      </c>
+      <c r="W41">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X41">
+        <v>16.46</v>
+      </c>
+      <c r="Y41">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>0.93</v>
+      </c>
+      <c r="C42">
+        <v>0.83</v>
+      </c>
+      <c r="D42">
+        <v>1.02</v>
+      </c>
+      <c r="E42">
+        <v>1.01</v>
+      </c>
+      <c r="F42">
+        <v>1.01</v>
+      </c>
+      <c r="G42">
+        <v>0.75</v>
+      </c>
+      <c r="H42">
+        <v>0.47</v>
+      </c>
+      <c r="I42">
+        <v>0.59</v>
+      </c>
+      <c r="J42">
+        <v>0.25</v>
+      </c>
+      <c r="K42">
+        <v>0.31</v>
+      </c>
+      <c r="L42">
+        <v>0.34</v>
+      </c>
+      <c r="M42">
+        <v>0.15</v>
+      </c>
+      <c r="N42">
+        <v>0.2</v>
+      </c>
+      <c r="O42">
+        <v>0.21</v>
+      </c>
+      <c r="P42">
+        <v>0.21</v>
+      </c>
+      <c r="Q42">
+        <v>0.19</v>
+      </c>
+      <c r="R42">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S42">
+        <v>0.31</v>
+      </c>
+      <c r="T42">
+        <v>0.32</v>
+      </c>
+      <c r="U42">
+        <v>0.32</v>
+      </c>
+      <c r="V42">
+        <v>0.24</v>
+      </c>
+      <c r="W42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X42">
+        <v>0.35</v>
+      </c>
+      <c r="Y42">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0.01</v>
+      </c>
+      <c r="M43">
+        <v>0.1</v>
+      </c>
+      <c r="N43">
+        <v>0.78</v>
+      </c>
+      <c r="O43">
+        <v>1.39</v>
+      </c>
+      <c r="P43">
+        <v>1.26</v>
+      </c>
+      <c r="Q43">
+        <v>1.38</v>
+      </c>
+      <c r="R43">
+        <v>1.39</v>
+      </c>
+      <c r="S43">
+        <v>1.4</v>
+      </c>
+      <c r="T43">
+        <v>1.34</v>
+      </c>
+      <c r="U43">
+        <v>1.42</v>
+      </c>
+      <c r="V43">
+        <v>1.47</v>
+      </c>
+      <c r="W43">
+        <v>1.47</v>
+      </c>
+      <c r="X43">
+        <v>2.09</v>
+      </c>
+      <c r="Y43">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.02</v>
+      </c>
+      <c r="I44">
+        <v>0.05</v>
+      </c>
+      <c r="J44">
+        <v>0.12</v>
+      </c>
+      <c r="K44">
+        <v>0.24</v>
+      </c>
+      <c r="L44">
+        <v>0.68</v>
+      </c>
+      <c r="M44">
+        <v>0.86</v>
+      </c>
+      <c r="N44">
+        <v>1.22</v>
+      </c>
+      <c r="O44">
+        <v>1.37</v>
+      </c>
+      <c r="P44">
+        <v>1.33</v>
+      </c>
+      <c r="Q44">
+        <v>1.45</v>
+      </c>
+      <c r="R44">
+        <v>1.42</v>
+      </c>
+      <c r="S44">
+        <v>1.5</v>
+      </c>
+      <c r="T44">
+        <v>1.32</v>
+      </c>
+      <c r="U44">
+        <v>1.32</v>
+      </c>
+      <c r="V44">
+        <v>1.48</v>
+      </c>
+      <c r="W44">
+        <v>1.43</v>
+      </c>
+      <c r="X44">
+        <v>1.44</v>
+      </c>
+      <c r="Y44">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48">
         <v>2000</v>
       </c>
-      <c r="C33">
+      <c r="C48">
         <v>2001</v>
       </c>
-      <c r="D33">
+      <c r="D48">
         <v>2002</v>
       </c>
-      <c r="E33">
+      <c r="E48">
         <v>2003</v>
       </c>
-      <c r="F33">
+      <c r="F48">
         <v>2004</v>
       </c>
-      <c r="G33">
+      <c r="G48">
         <v>2005</v>
       </c>
-      <c r="H33">
+      <c r="H48">
         <v>2006</v>
       </c>
-      <c r="I33">
+      <c r="I48">
         <v>2007</v>
       </c>
-      <c r="J33">
+      <c r="J48">
         <v>2008</v>
       </c>
-      <c r="K33">
+      <c r="K48">
         <v>2009</v>
       </c>
-      <c r="L33">
+      <c r="L48">
         <v>2010</v>
       </c>
-      <c r="M33">
+      <c r="M48">
         <v>2011</v>
       </c>
-      <c r="N33">
+      <c r="N48">
         <v>2012</v>
       </c>
-      <c r="O33">
+      <c r="O48">
         <v>2013</v>
       </c>
-      <c r="P33">
+      <c r="P48">
         <v>2014</v>
       </c>
-      <c r="Q33">
+      <c r="Q48">
         <v>2015</v>
       </c>
-      <c r="R33">
+      <c r="R48">
         <v>2016</v>
       </c>
-      <c r="S33">
+      <c r="S48">
         <v>2017</v>
       </c>
-      <c r="T33">
+      <c r="T48">
         <v>2018</v>
       </c>
-      <c r="U33">
+      <c r="U48">
         <v>2019</v>
       </c>
-      <c r="V33">
+      <c r="V48">
         <v>2020</v>
       </c>
-      <c r="W33">
+      <c r="W48">
         <v>2021</v>
       </c>
-      <c r="X33">
+      <c r="X48">
         <v>2022</v>
       </c>
-      <c r="Y33">
+      <c r="Y48">
         <v>2023</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>0.05</v>
-      </c>
-      <c r="C34">
-        <v>0.05</v>
-      </c>
-      <c r="D34">
-        <v>0.05</v>
-      </c>
-      <c r="E34">
-        <v>0.01</v>
-      </c>
-      <c r="F34">
-        <v>0.01</v>
-      </c>
-      <c r="G34">
-        <v>0.01</v>
-      </c>
-      <c r="H34">
-        <v>0.01</v>
-      </c>
-      <c r="I34">
-        <v>0.01</v>
-      </c>
-      <c r="J34">
-        <v>0.01</v>
-      </c>
-      <c r="K34">
-        <v>0.01</v>
-      </c>
-      <c r="L34">
-        <v>0.01</v>
-      </c>
-      <c r="M34">
-        <v>0.01</v>
-      </c>
-      <c r="N34">
-        <v>0.01</v>
-      </c>
-      <c r="O34">
-        <v>0.03</v>
-      </c>
-      <c r="P34">
-        <v>0.04</v>
-      </c>
-      <c r="Q34">
-        <v>0.05</v>
-      </c>
-      <c r="R34">
-        <v>0.06</v>
-      </c>
-      <c r="S34">
-        <v>0.05</v>
-      </c>
-      <c r="T34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U34">
-        <v>0.06</v>
-      </c>
-      <c r="V34">
-        <v>0.05</v>
-      </c>
-      <c r="W34">
-        <v>0.05</v>
-      </c>
-      <c r="X34">
-        <v>0.05</v>
-      </c>
-      <c r="Y34">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5.62</v>
-      </c>
-      <c r="C35">
-        <v>5.62</v>
-      </c>
-      <c r="D35">
-        <v>5.62</v>
-      </c>
-      <c r="E35">
-        <v>5.62</v>
-      </c>
-      <c r="F35">
-        <v>5.5</v>
-      </c>
-      <c r="G35">
-        <v>5.5</v>
-      </c>
-      <c r="H35">
-        <v>5.5</v>
-      </c>
-      <c r="I35">
-        <v>5.5</v>
-      </c>
-      <c r="J35">
-        <v>5.5</v>
-      </c>
-      <c r="K35">
-        <v>5.63</v>
-      </c>
-      <c r="L35">
-        <v>5.63</v>
-      </c>
-      <c r="M35">
-        <v>6.32</v>
-      </c>
-      <c r="N35">
-        <v>6.32</v>
-      </c>
-      <c r="O35">
-        <v>6.11</v>
-      </c>
-      <c r="P35">
-        <v>5.9</v>
-      </c>
-      <c r="Q35">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="R35">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="S35">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="T35">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="U35">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="V35">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="W35">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="X35">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="Y35">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I36">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J36">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K36">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L36">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M36">
-        <v>1.2</v>
-      </c>
-      <c r="N36">
-        <v>1.2</v>
-      </c>
-      <c r="O36">
-        <v>1.2</v>
-      </c>
-      <c r="P36">
-        <v>1.2</v>
-      </c>
-      <c r="Q36">
-        <v>1.2</v>
-      </c>
-      <c r="R36">
-        <v>1.2</v>
-      </c>
-      <c r="S36">
-        <v>1.2</v>
-      </c>
-      <c r="T36">
-        <v>1.2</v>
-      </c>
-      <c r="U36">
-        <v>1.2</v>
-      </c>
-      <c r="V36">
-        <v>1.2</v>
-      </c>
-      <c r="W36">
-        <v>1.2</v>
-      </c>
-      <c r="X36">
-        <v>1.2</v>
-      </c>
-      <c r="Y36">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>1.02</v>
-      </c>
-      <c r="C37">
-        <v>0.84</v>
-      </c>
-      <c r="D37">
-        <v>1.08</v>
-      </c>
-      <c r="E37">
-        <v>1.65</v>
-      </c>
-      <c r="F37">
-        <v>1.98</v>
-      </c>
-      <c r="G37">
-        <v>1.98</v>
-      </c>
-      <c r="H37">
-        <v>1.98</v>
-      </c>
-      <c r="I37">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J37">
-        <v>2.12</v>
-      </c>
-      <c r="K37">
-        <v>2.14</v>
-      </c>
-      <c r="L37">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="M37">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="N37">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="O37">
-        <v>2.34</v>
-      </c>
-      <c r="P37">
-        <v>2.36</v>
-      </c>
-      <c r="Q37">
-        <v>2.36</v>
-      </c>
-      <c r="R37">
-        <v>2.36</v>
-      </c>
-      <c r="S37">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="T37">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="U37">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="V37">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="W37">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="X37">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="Y37">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
-        <v>3.53</v>
-      </c>
-      <c r="C38">
-        <v>3.53</v>
-      </c>
-      <c r="D38">
-        <v>2.72</v>
-      </c>
-      <c r="E38">
-        <v>2.72</v>
-      </c>
-      <c r="F38">
-        <v>2.72</v>
-      </c>
-      <c r="G38">
-        <v>2.72</v>
-      </c>
-      <c r="H38">
-        <v>2.72</v>
-      </c>
-      <c r="I38">
-        <v>1.89</v>
-      </c>
-      <c r="J38">
-        <v>1.89</v>
-      </c>
-      <c r="K38">
-        <v>1.89</v>
-      </c>
-      <c r="L38">
-        <v>1.89</v>
-      </c>
-      <c r="M38">
-        <v>1.89</v>
-      </c>
-      <c r="N38">
-        <v>1.91</v>
-      </c>
-      <c r="O38">
-        <v>1.98</v>
-      </c>
-      <c r="P38">
-        <v>1.98</v>
-      </c>
-      <c r="Q38">
-        <v>1.98</v>
-      </c>
-      <c r="R38">
-        <v>1.97</v>
-      </c>
-      <c r="S38">
-        <v>1.97</v>
-      </c>
-      <c r="T38">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="U38">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="V38">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="W38">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="X38">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="Y38">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0.03</v>
-      </c>
-      <c r="M40">
-        <v>0.15</v>
-      </c>
-      <c r="N40">
-        <v>0.92</v>
-      </c>
-      <c r="O40">
-        <v>1.04</v>
-      </c>
-      <c r="P40">
-        <v>1.03</v>
-      </c>
-      <c r="Q40">
-        <v>1.03</v>
-      </c>
-      <c r="R40">
-        <v>1.03</v>
-      </c>
-      <c r="S40">
-        <v>1.03</v>
-      </c>
-      <c r="T40">
-        <v>1.03</v>
-      </c>
-      <c r="U40">
-        <v>1.04</v>
-      </c>
-      <c r="V40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W40">
-        <v>1.27</v>
-      </c>
-      <c r="X40">
-        <v>1.74</v>
-      </c>
-      <c r="Y40">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0.01</v>
-      </c>
-      <c r="H41">
-        <v>0.03</v>
-      </c>
-      <c r="I41">
-        <v>0.03</v>
-      </c>
-      <c r="J41">
-        <v>0.11</v>
-      </c>
-      <c r="K41">
-        <v>0.33</v>
-      </c>
-      <c r="L41">
-        <v>0.49</v>
-      </c>
-      <c r="M41">
-        <v>0.54</v>
-      </c>
-      <c r="N41">
-        <v>0.68</v>
-      </c>
-      <c r="O41">
-        <v>0.68</v>
-      </c>
-      <c r="P41">
-        <v>0.7</v>
-      </c>
-      <c r="Q41">
-        <v>0.7</v>
-      </c>
-      <c r="R41">
-        <v>0.7</v>
-      </c>
-      <c r="S41">
-        <v>0.7</v>
-      </c>
-      <c r="T41">
-        <v>0.7</v>
-      </c>
-      <c r="U41">
-        <v>0.7</v>
-      </c>
-      <c r="V41">
-        <v>0.7</v>
-      </c>
-      <c r="W41">
-        <v>0.7</v>
-      </c>
-      <c r="X41">
-        <v>0.7</v>
-      </c>
-      <c r="Y41">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45">
-        <v>2000</v>
-      </c>
-      <c r="C45">
-        <v>2001</v>
-      </c>
-      <c r="D45">
-        <v>2002</v>
-      </c>
-      <c r="E45">
-        <v>2003</v>
-      </c>
-      <c r="F45">
-        <v>2004</v>
-      </c>
-      <c r="G45">
-        <v>2005</v>
-      </c>
-      <c r="H45">
-        <v>2006</v>
-      </c>
-      <c r="I45">
-        <v>2007</v>
-      </c>
-      <c r="J45">
-        <v>2008</v>
-      </c>
-      <c r="K45">
-        <v>2009</v>
-      </c>
-      <c r="L45">
-        <v>2010</v>
-      </c>
-      <c r="M45">
-        <v>2011</v>
-      </c>
-      <c r="N45">
-        <v>2012</v>
-      </c>
-      <c r="O45">
-        <v>2013</v>
-      </c>
-      <c r="P45">
-        <v>2014</v>
-      </c>
-      <c r="Q45">
-        <v>2015</v>
-      </c>
-      <c r="R45">
-        <v>2016</v>
-      </c>
-      <c r="S45">
-        <v>2017</v>
-      </c>
-      <c r="T45">
-        <v>2018</v>
-      </c>
-      <c r="U45">
-        <v>2019</v>
-      </c>
-      <c r="V45">
-        <v>2020</v>
-      </c>
-      <c r="W45">
-        <v>2021</v>
-      </c>
-      <c r="X45">
-        <v>2022</v>
-      </c>
-      <c r="Y45">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0.02</v>
-      </c>
-      <c r="K46">
-        <v>0.01</v>
-      </c>
-      <c r="L46">
-        <v>0.04</v>
-      </c>
-      <c r="M46">
-        <v>0.06</v>
-      </c>
-      <c r="N46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O46">
-        <v>0.11</v>
-      </c>
-      <c r="P46">
-        <v>0.2</v>
-      </c>
-      <c r="Q46">
-        <v>0.27</v>
-      </c>
-      <c r="R46">
-        <v>0.35</v>
-      </c>
-      <c r="S46">
-        <v>0.4</v>
-      </c>
-      <c r="T46">
-        <v>1.57</v>
-      </c>
-      <c r="U46">
-        <v>1.82</v>
-      </c>
-      <c r="V46">
-        <v>1.7</v>
-      </c>
-      <c r="W46">
-        <v>2.59</v>
-      </c>
-      <c r="X46">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="Y46">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="C47">
-        <v>19.5</v>
-      </c>
-      <c r="D47">
-        <v>17.18</v>
-      </c>
-      <c r="E47">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="F47">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G47">
-        <v>18.46</v>
-      </c>
-      <c r="H47">
-        <v>19.09</v>
-      </c>
-      <c r="I47">
-        <v>22.37</v>
-      </c>
-      <c r="J47">
-        <v>23.18</v>
-      </c>
-      <c r="K47">
-        <v>21.1</v>
-      </c>
-      <c r="L47">
-        <v>22.61</v>
-      </c>
-      <c r="M47">
-        <v>27.53</v>
-      </c>
-      <c r="N47">
-        <v>22.87</v>
-      </c>
-      <c r="O47">
-        <v>19.39</v>
-      </c>
-      <c r="P47">
-        <v>21.31</v>
-      </c>
-      <c r="Q47">
-        <v>22.53</v>
-      </c>
-      <c r="R47">
-        <v>19.37</v>
-      </c>
-      <c r="S47">
-        <v>20.92</v>
-      </c>
-      <c r="T47">
-        <v>18.66</v>
-      </c>
-      <c r="U47">
-        <v>17.2</v>
-      </c>
-      <c r="V47">
-        <v>13.51</v>
-      </c>
-      <c r="W47">
-        <v>17.09</v>
-      </c>
-      <c r="X47">
-        <v>21.79</v>
-      </c>
-      <c r="Y47">
-        <v>11.56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48">
-        <v>1.91</v>
-      </c>
-      <c r="C48">
-        <v>1.91</v>
-      </c>
-      <c r="D48">
-        <v>1.54</v>
-      </c>
-      <c r="E48">
-        <v>1.76</v>
-      </c>
-      <c r="F48">
-        <v>1.49</v>
-      </c>
-      <c r="G48">
-        <v>1.73</v>
-      </c>
-      <c r="H48">
-        <v>2.16</v>
-      </c>
-      <c r="I48">
-        <v>2.34</v>
-      </c>
-      <c r="J48">
-        <v>2.36</v>
-      </c>
-      <c r="K48">
-        <v>1.96</v>
-      </c>
-      <c r="L48">
-        <v>1.97</v>
-      </c>
-      <c r="M48">
-        <v>2.08</v>
-      </c>
-      <c r="N48">
-        <v>2.36</v>
-      </c>
-      <c r="O48">
-        <v>2.34</v>
-      </c>
-      <c r="P48">
-        <v>2.14</v>
-      </c>
-      <c r="Q48">
-        <v>1.86</v>
-      </c>
-      <c r="R48">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="S48">
-        <v>1.93</v>
-      </c>
-      <c r="T48">
-        <v>2.02</v>
-      </c>
-      <c r="U48">
-        <v>2.15</v>
-      </c>
-      <c r="V48">
-        <v>2.29</v>
-      </c>
-      <c r="W48">
-        <v>3.05</v>
-      </c>
-      <c r="X48">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="Y48">
-        <v>1.56</v>
+      <c r="Z48">
+        <v>2024</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>2.63</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C49">
-        <v>1.65</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D49">
-        <v>2.12</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E49">
-        <v>2.99</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F49">
-        <v>3.14</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G49">
-        <v>4.3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H49">
-        <v>4.21</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I49">
-        <v>2.83</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J49">
-        <v>2.79</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K49">
-        <v>3.43</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="L49">
-        <v>5.03</v>
+        <v>0.01</v>
       </c>
       <c r="M49">
-        <v>2.87</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N49">
-        <v>3.18</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O49">
-        <v>4.04</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P49">
-        <v>4.5999999999999996</v>
+        <v>0.04</v>
       </c>
       <c r="Q49">
-        <v>5.65</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="R49">
-        <v>3.88</v>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="S49">
-        <v>2.83</v>
+        <v>5.2003000000000001E-2</v>
       </c>
       <c r="T49">
-        <v>5.15</v>
+        <v>6.942799999999999E-2</v>
       </c>
       <c r="U49">
-        <v>2.93</v>
+        <v>5.6869000000000003E-2</v>
       </c>
       <c r="V49">
-        <v>2.82</v>
+        <v>4.8054000000000006E-2</v>
       </c>
       <c r="W49">
-        <v>4.82</v>
+        <v>4.7321000000000002E-2</v>
       </c>
       <c r="X49">
-        <v>3.8</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Y49">
-        <v>3.11</v>
+        <v>7.8688999999999995E-2</v>
+      </c>
+      <c r="Z49">
+        <v>7.8688999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B50">
-        <v>18.18</v>
+        <v>1.88</v>
       </c>
       <c r="C50">
-        <v>19.55</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="D50">
-        <v>20.22</v>
+        <v>1.948</v>
       </c>
       <c r="E50">
-        <v>17.28</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="F50">
-        <v>16.82</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="G50">
-        <v>18.649999999999999</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="H50">
-        <v>19.489999999999998</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="I50">
-        <v>14.64</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="J50">
-        <v>15.77</v>
+        <v>2.984</v>
       </c>
       <c r="K50">
-        <v>15.26</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="L50">
-        <v>15.25</v>
+        <v>3.048</v>
       </c>
       <c r="M50">
-        <v>16.309999999999999</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="N50">
-        <v>15.78</v>
+        <v>3.181</v>
       </c>
       <c r="O50">
-        <v>14.17</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="P50">
-        <v>15.87</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="Q50">
-        <v>15.38</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="R50">
-        <v>15.78</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="S50">
-        <v>15.55</v>
+        <v>3.37155</v>
       </c>
       <c r="T50">
-        <v>16.13</v>
+        <v>3.379</v>
       </c>
       <c r="U50">
-        <v>16.559999999999999</v>
+        <v>3.3783499999999997</v>
       </c>
       <c r="V50">
-        <v>16.63</v>
+        <v>3.3764560000000001</v>
       </c>
       <c r="W50">
-        <v>16.489999999999998</v>
+        <v>3.3692329999999999</v>
       </c>
       <c r="X50">
-        <v>16.46</v>
+        <v>3.348185</v>
       </c>
       <c r="Y50">
-        <v>16.16</v>
+        <v>3.3502800000000001</v>
+      </c>
+      <c r="Z50">
+        <v>3.3502800000000001</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B51">
-        <v>0.93</v>
+        <v>3.532</v>
       </c>
       <c r="C51">
-        <v>0.83</v>
+        <v>3.532</v>
       </c>
       <c r="D51">
-        <v>1.02</v>
+        <v>2.722</v>
       </c>
       <c r="E51">
-        <v>1.01</v>
+        <v>2.722</v>
       </c>
       <c r="F51">
-        <v>1.01</v>
+        <v>2.722</v>
       </c>
       <c r="G51">
-        <v>0.75</v>
+        <v>2.722</v>
       </c>
       <c r="H51">
-        <v>0.47</v>
+        <v>2.722</v>
       </c>
       <c r="I51">
-        <v>0.59</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="J51">
-        <v>0.25</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="K51">
-        <v>0.31</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="L51">
-        <v>0.34</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="M51">
-        <v>0.15</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="N51">
-        <v>0.2</v>
+        <v>1.9059999999999999</v>
       </c>
       <c r="O51">
-        <v>0.21</v>
+        <v>1.982</v>
       </c>
       <c r="P51">
-        <v>0.21</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="Q51">
-        <v>0.19</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="R51">
-        <v>0.28999999999999998</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="S51">
-        <v>0.31</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="T51">
-        <v>0.32</v>
+        <v>2.008</v>
       </c>
       <c r="U51">
-        <v>0.32</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="V51">
-        <v>0.24</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="W51">
-        <v>0.28000000000000003</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="X51">
-        <v>0.35</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="Y51">
-        <v>0.35</v>
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Z51">
+        <v>2.0059999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>5.6210000000000004</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>7.4059999999999997</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>6.8259999999999996</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>6.7519999999999998</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>6.6820000000000004</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>6.6749999999999998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>6.4119999999999999</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>4.8959999999999999</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>4.641</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>4.3630000000000004</v>
       </c>
       <c r="L52">
-        <v>0.01</v>
+        <v>4.5679999999999996</v>
       </c>
       <c r="M52">
-        <v>0.1</v>
+        <v>4.5350000000000001</v>
       </c>
       <c r="N52">
-        <v>0.78</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="O52">
-        <v>1.39</v>
+        <v>4.6669999999999998</v>
       </c>
       <c r="P52">
-        <v>1.26</v>
+        <v>4.43</v>
       </c>
       <c r="Q52">
-        <v>1.38</v>
+        <v>3.9369999999999998</v>
       </c>
       <c r="R52">
-        <v>1.39</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="S52">
-        <v>1.4</v>
+        <v>3.7333600000000002</v>
       </c>
       <c r="T52">
-        <v>1.34</v>
+        <v>4.1509750000000007</v>
       </c>
       <c r="U52">
-        <v>1.42</v>
+        <v>4.040362</v>
       </c>
       <c r="V52">
-        <v>1.47</v>
+        <v>3.7584020000000002</v>
       </c>
       <c r="W52">
-        <v>1.47</v>
+        <v>3.8066649999999997</v>
       </c>
       <c r="X52">
-        <v>2.09</v>
+        <v>3.9745819999999998</v>
       </c>
       <c r="Y52">
-        <v>3.52</v>
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Z52">
+        <v>3.9745819999999998</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0.02</v>
+        <v>41</v>
       </c>
       <c r="I53">
-        <v>0.05</v>
+        <v>2.9999999999999997E-5</v>
       </c>
       <c r="J53">
-        <v>0.12</v>
+        <v>1E-4</v>
       </c>
       <c r="K53">
-        <v>0.24</v>
+        <v>2E-3</v>
       </c>
       <c r="L53">
-        <v>0.68</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M53">
-        <v>0.86</v>
+        <v>0.154</v>
       </c>
       <c r="N53">
-        <v>1.22</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="O53">
-        <v>1.37</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="P53">
-        <v>1.33</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="Q53">
-        <v>1.45</v>
+        <v>1.028</v>
       </c>
       <c r="R53">
-        <v>1.42</v>
+        <v>1.03</v>
       </c>
       <c r="S53">
-        <v>1.5</v>
+        <v>1.0307010000000001</v>
       </c>
       <c r="T53">
-        <v>1.32</v>
+        <v>1.033058</v>
       </c>
       <c r="U53">
-        <v>1.32</v>
+        <v>1.0443900000000002</v>
       </c>
       <c r="V53">
-        <v>1.48</v>
+        <v>1.1002110000000001</v>
       </c>
       <c r="W53">
-        <v>1.43</v>
+        <v>1.274713</v>
       </c>
       <c r="X53">
-        <v>1.44</v>
+        <v>1.736537</v>
       </c>
       <c r="Y53">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>76</v>
+        <v>2.9081269999999999</v>
+      </c>
+      <c r="Z53">
+        <v>3.9081269999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54">
+        <v>1E-3</v>
+      </c>
+      <c r="G54">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H54">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I54">
+        <v>0.03</v>
+      </c>
+      <c r="J54">
+        <v>0.114</v>
+      </c>
+      <c r="K54">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L54">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="M54">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N54">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="O54">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="P54">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Q54">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="R54">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="S54">
+        <v>0.69838999999999996</v>
+      </c>
+      <c r="T54">
+        <v>0.69891999999999999</v>
+      </c>
+      <c r="U54">
+        <v>0.70311999999999997</v>
+      </c>
+      <c r="V54">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="W54">
+        <v>0.70437499999999997</v>
+      </c>
+      <c r="X54">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Z54">
+        <v>0.70430999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57">
-        <v>2000</v>
-      </c>
-      <c r="C57">
-        <v>2001</v>
-      </c>
-      <c r="D57">
-        <v>2002</v>
-      </c>
-      <c r="E57">
-        <v>2003</v>
-      </c>
-      <c r="F57">
-        <v>2004</v>
-      </c>
-      <c r="G57">
-        <v>2005</v>
-      </c>
-      <c r="H57">
-        <v>2006</v>
-      </c>
-      <c r="I57">
-        <v>2007</v>
-      </c>
-      <c r="J57">
-        <v>2008</v>
-      </c>
-      <c r="K57">
-        <v>2009</v>
-      </c>
-      <c r="L57">
-        <v>2010</v>
-      </c>
-      <c r="M57">
-        <v>2011</v>
-      </c>
-      <c r="N57">
-        <v>2012</v>
-      </c>
-      <c r="O57">
-        <v>2013</v>
-      </c>
-      <c r="P57">
-        <v>2014</v>
-      </c>
-      <c r="Q57">
-        <v>2015</v>
-      </c>
-      <c r="R57">
-        <v>2016</v>
-      </c>
-      <c r="S57">
-        <v>2017</v>
-      </c>
-      <c r="T57">
-        <v>2018</v>
-      </c>
-      <c r="U57">
-        <v>2019</v>
-      </c>
-      <c r="V57">
-        <v>2020</v>
-      </c>
-      <c r="W57">
-        <v>2021</v>
-      </c>
-      <c r="X57">
-        <v>2022</v>
-      </c>
-      <c r="Y57">
-        <v>2023</v>
-      </c>
-      <c r="Z57">
-        <v>2024</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>5.1999999999999998E-2</v>
+        <v>2000</v>
       </c>
       <c r="C58">
-        <v>5.1999999999999998E-2</v>
+        <v>2001</v>
       </c>
       <c r="D58">
-        <v>5.1999999999999998E-2</v>
+        <v>2002</v>
       </c>
       <c r="E58">
-        <v>7.0000000000000001E-3</v>
+        <v>2003</v>
       </c>
       <c r="F58">
-        <v>7.0000000000000001E-3</v>
+        <v>2004</v>
       </c>
       <c r="G58">
-        <v>7.0000000000000001E-3</v>
+        <v>2005</v>
       </c>
       <c r="H58">
-        <v>6.0000000000000001E-3</v>
+        <v>2006</v>
       </c>
       <c r="I58">
-        <v>6.0000000000000001E-3</v>
+        <v>2007</v>
       </c>
       <c r="J58">
-        <v>6.0000000000000001E-3</v>
+        <v>2008</v>
       </c>
       <c r="K58">
-        <v>9.0000000000000011E-3</v>
+        <v>2009</v>
       </c>
       <c r="L58">
-        <v>0.01</v>
+        <v>2010</v>
       </c>
       <c r="M58">
-        <v>1.0999999999999999E-2</v>
+        <v>2011</v>
       </c>
       <c r="N58">
-        <v>1.4E-2</v>
+        <v>2012</v>
       </c>
       <c r="O58">
-        <v>3.4000000000000002E-2</v>
+        <v>2013</v>
       </c>
       <c r="P58">
-        <v>0.04</v>
+        <v>2014</v>
       </c>
       <c r="Q58">
-        <v>5.4000000000000006E-2</v>
+        <v>2015</v>
       </c>
       <c r="R58">
-        <v>5.6999999999999995E-2</v>
+        <v>2016</v>
       </c>
       <c r="S58">
-        <v>5.2003000000000001E-2</v>
+        <v>2017</v>
       </c>
       <c r="T58">
-        <v>6.942799999999999E-2</v>
+        <v>2018</v>
       </c>
       <c r="U58">
-        <v>5.6869000000000003E-2</v>
+        <v>2019</v>
       </c>
       <c r="V58">
-        <v>4.8054000000000006E-2</v>
+        <v>2020</v>
       </c>
       <c r="W58">
-        <v>4.7321000000000002E-2</v>
+        <v>2021</v>
       </c>
       <c r="X58">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Y58">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Z58">
-        <v>7.8688999999999995E-2</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59">
-        <v>1.88</v>
-      </c>
-      <c r="C59">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="D59">
-        <v>1.948</v>
-      </c>
-      <c r="E59">
-        <v>2.5150000000000001</v>
-      </c>
-      <c r="F59">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="G59">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="H59">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="I59">
-        <v>2.8759999999999999</v>
+        <v>31</v>
       </c>
       <c r="J59">
-        <v>2.984</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K59">
-        <v>3.0009999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L59">
-        <v>3.048</v>
+        <v>3.5431999999999998E-2</v>
       </c>
       <c r="M59">
-        <v>3.1080000000000001</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="N59">
-        <v>3.181</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O59">
-        <v>3.2029999999999998</v>
+        <v>0.110402</v>
       </c>
       <c r="P59">
-        <v>3.2189999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Q59">
-        <v>3.2189999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="R59">
-        <v>3.2229999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="S59">
-        <v>3.37155</v>
+        <v>0.39598100000000003</v>
       </c>
       <c r="T59">
-        <v>3.379</v>
+        <v>1.5729660000000001</v>
       </c>
       <c r="U59">
-        <v>3.3783499999999997</v>
+        <v>1.820811</v>
       </c>
       <c r="V59">
-        <v>3.3764560000000001</v>
+        <v>1.699341</v>
       </c>
       <c r="W59">
-        <v>3.3692329999999999</v>
+        <v>2.5888920000000004</v>
       </c>
       <c r="X59">
-        <v>3.348185</v>
-      </c>
-      <c r="Y59">
-        <v>3.3502800000000001</v>
-      </c>
-      <c r="Z59">
-        <v>3.3502800000000001</v>
+        <v>2.2435940000000003</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B60">
-        <v>3.532</v>
+        <v>17.207000000000001</v>
       </c>
       <c r="C60">
-        <v>3.532</v>
+        <v>19.757000000000001</v>
       </c>
       <c r="D60">
-        <v>2.722</v>
+        <v>17.373000000000001</v>
       </c>
       <c r="E60">
-        <v>2.722</v>
+        <v>19.462</v>
       </c>
       <c r="F60">
-        <v>2.722</v>
+        <v>19.106999999999999</v>
       </c>
       <c r="G60">
-        <v>2.722</v>
+        <v>18.625</v>
       </c>
       <c r="H60">
-        <v>2.722</v>
+        <v>19.206</v>
       </c>
       <c r="I60">
-        <v>1.8919999999999999</v>
+        <v>22.463000000000001</v>
       </c>
       <c r="J60">
-        <v>1.8919999999999999</v>
+        <v>23.22</v>
       </c>
       <c r="K60">
-        <v>1.8919999999999999</v>
+        <v>21.103000000000002</v>
       </c>
       <c r="L60">
-        <v>1.8919999999999999</v>
+        <v>22.606000000000002</v>
       </c>
       <c r="M60">
-        <v>1.8919999999999999</v>
+        <v>27.536999999999999</v>
       </c>
       <c r="N60">
-        <v>1.9059999999999999</v>
+        <v>22.876000000000001</v>
       </c>
       <c r="O60">
-        <v>1.982</v>
+        <v>19.391598000000002</v>
       </c>
       <c r="P60">
-        <v>1.9750000000000001</v>
+        <v>21.305</v>
       </c>
       <c r="Q60">
-        <v>1.9750000000000001</v>
+        <v>22.521999999999998</v>
       </c>
       <c r="R60">
-        <v>1.9670000000000001</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="S60">
-        <v>1.9670000000000001</v>
+        <v>20.914090999999999</v>
       </c>
       <c r="T60">
-        <v>2.008</v>
+        <v>18.659473000000002</v>
       </c>
       <c r="U60">
-        <v>2.0059999999999998</v>
+        <v>17.224985</v>
       </c>
       <c r="V60">
-        <v>2.0059999999999998</v>
+        <v>13.53266</v>
       </c>
       <c r="W60">
-        <v>2.0059999999999998</v>
+        <v>17.085889999999999</v>
       </c>
       <c r="X60">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="Y60">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="Z60">
-        <v>2.0059999999999998</v>
+        <v>21.785509999999999</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61">
-        <v>5.6210000000000004</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="C61">
-        <v>7.4059999999999997</v>
+        <v>1.9079999999999999</v>
       </c>
       <c r="D61">
-        <v>6.8259999999999996</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="E61">
-        <v>6.7519999999999998</v>
+        <v>1.762</v>
       </c>
       <c r="F61">
-        <v>6.6820000000000004</v>
+        <v>1.494</v>
       </c>
       <c r="G61">
-        <v>6.6749999999999998</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="H61">
-        <v>6.4119999999999999</v>
+        <v>2.1589999999999998</v>
       </c>
       <c r="I61">
-        <v>4.8959999999999999</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="J61">
-        <v>4.641</v>
+        <v>2.36</v>
       </c>
       <c r="K61">
-        <v>4.3630000000000004</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="L61">
-        <v>4.5679999999999996</v>
+        <v>1.9665680000000001</v>
       </c>
       <c r="M61">
-        <v>4.5350000000000001</v>
+        <v>2.077</v>
       </c>
       <c r="N61">
-        <v>4.8979999999999997</v>
+        <v>2.3559999999999999</v>
       </c>
       <c r="O61">
-        <v>4.6669999999999998</v>
+        <v>2.339</v>
       </c>
       <c r="P61">
-        <v>4.43</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="Q61">
-        <v>3.9369999999999998</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="R61">
-        <v>3.7650000000000001</v>
+        <v>2.0529999999999999</v>
       </c>
       <c r="S61">
-        <v>3.7333600000000002</v>
+        <v>1.9266459999999999</v>
       </c>
       <c r="T61">
-        <v>4.1509750000000007</v>
+        <v>2.0227580000000001</v>
       </c>
       <c r="U61">
-        <v>4.040362</v>
+        <v>2.1529029999999998</v>
       </c>
       <c r="V61">
-        <v>3.7584020000000002</v>
+        <v>2.292316</v>
       </c>
       <c r="W61">
-        <v>3.8066649999999997</v>
+        <v>3.0456720000000002</v>
       </c>
       <c r="X61">
-        <v>3.9745819999999998</v>
-      </c>
-      <c r="Y61">
-        <v>3.9745819999999998</v>
-      </c>
-      <c r="Z61">
-        <v>3.9745819999999998</v>
+        <v>2.0534110000000001</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="B62">
+        <v>2.9509999999999996</v>
+      </c>
+      <c r="C62">
+        <v>2.1710000000000003</v>
+      </c>
+      <c r="D62">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="E62">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="F62">
+        <v>3.3628110000000002</v>
+      </c>
+      <c r="G62">
+        <v>4.7298960000000001</v>
+      </c>
+      <c r="H62">
+        <v>4.5789740000000005</v>
       </c>
       <c r="I62">
-        <v>2.9999999999999997E-5</v>
+        <v>3.2339989999999998</v>
       </c>
       <c r="J62">
-        <v>1E-4</v>
+        <v>3.2767620000000002</v>
       </c>
       <c r="K62">
-        <v>2E-3</v>
+        <v>4.0527119999999996</v>
       </c>
       <c r="L62">
-        <v>2.5000000000000001E-2</v>
+        <v>5.6925160000000004</v>
       </c>
       <c r="M62">
-        <v>0.154</v>
+        <v>3.6909139999999998</v>
       </c>
       <c r="N62">
-        <v>0.92200000000000004</v>
+        <v>3.9757060000000002</v>
       </c>
       <c r="O62">
-        <v>1.0389999999999999</v>
+        <v>4.7951379999999997</v>
       </c>
       <c r="P62">
-        <v>1.0289999999999999</v>
+        <v>5.1626289999999999</v>
       </c>
       <c r="Q62">
-        <v>1.028</v>
+        <v>6.1465419999999993</v>
       </c>
       <c r="R62">
-        <v>1.03</v>
+        <v>4.5678419999999997</v>
       </c>
       <c r="S62">
-        <v>1.0307010000000001</v>
+        <v>3.4929449999999997</v>
       </c>
       <c r="T62">
-        <v>1.033058</v>
+        <v>5.4227320000000008</v>
       </c>
       <c r="U62">
-        <v>1.0443900000000002</v>
+        <v>3.3827449999999999</v>
       </c>
       <c r="V62">
-        <v>1.1002110000000001</v>
+        <v>3.3202579999999999</v>
       </c>
       <c r="W62">
-        <v>1.274713</v>
+        <v>5.0671330000000001</v>
       </c>
       <c r="X62">
-        <v>1.736537</v>
-      </c>
-      <c r="Y62">
-        <v>2.9081269999999999</v>
-      </c>
-      <c r="Z62">
-        <v>3.9081269999999999</v>
+        <v>3.833256</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="B63">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="C63">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="D63">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="E63">
+        <v>17.28</v>
       </c>
       <c r="F63">
-        <v>1E-3</v>
+        <v>16.815000000000001</v>
       </c>
       <c r="G63">
-        <v>8.0000000000000002E-3</v>
+        <v>18.652999999999999</v>
       </c>
       <c r="H63">
-        <v>2.7E-2</v>
+        <v>19.492999999999999</v>
       </c>
       <c r="I63">
-        <v>0.03</v>
+        <v>14.643000000000001</v>
       </c>
       <c r="J63">
-        <v>0.114</v>
+        <v>15.765000000000001</v>
       </c>
       <c r="K63">
-        <v>0.33300000000000002</v>
+        <v>15.256</v>
       </c>
       <c r="L63">
-        <v>0.48799999999999999</v>
+        <v>15.249000000000001</v>
       </c>
       <c r="M63">
-        <v>0.54100000000000004</v>
+        <v>16.314</v>
       </c>
       <c r="N63">
-        <v>0.67700000000000005</v>
+        <v>15.785</v>
       </c>
       <c r="O63">
-        <v>0.68300000000000005</v>
+        <v>14.170999999999999</v>
       </c>
       <c r="P63">
-        <v>0.69899999999999995</v>
+        <v>15.867000000000001</v>
       </c>
       <c r="Q63">
-        <v>0.69899999999999995</v>
+        <v>15.382999999999999</v>
       </c>
       <c r="R63">
-        <v>0.69899999999999995</v>
+        <v>15.776</v>
       </c>
       <c r="S63">
-        <v>0.69838999999999996</v>
+        <v>15.545499</v>
       </c>
       <c r="T63">
-        <v>0.69891999999999999</v>
+        <v>16.125281000000001</v>
       </c>
       <c r="U63">
-        <v>0.70311999999999997</v>
+        <v>16.555288000000001</v>
       </c>
       <c r="V63">
-        <v>0.70279999999999998</v>
+        <v>16.625764999999998</v>
       </c>
       <c r="W63">
-        <v>0.70437499999999997</v>
+        <v>16.486893999999999</v>
       </c>
       <c r="X63">
-        <v>0.70430999999999999</v>
-      </c>
-      <c r="Y63">
-        <v>0.70430999999999999</v>
-      </c>
-      <c r="Z63">
-        <v>0.70430999999999999</v>
+        <v>16.462018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C64">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D64">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E64">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F64">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G64">
+        <v>0.623</v>
+      </c>
+      <c r="H64">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I64">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J64">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K64">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L64">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="M64">
+        <v>0.16</v>
+      </c>
+      <c r="N64">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O64">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P64">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q64">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R64">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S64">
+        <v>0.43059500000000001</v>
+      </c>
+      <c r="T64">
+        <v>0.37356200000000001</v>
+      </c>
+      <c r="U64">
+        <v>0.40558499999999997</v>
+      </c>
+      <c r="V64">
+        <v>0.33825000000000005</v>
+      </c>
+      <c r="W64">
+        <v>0.39345599999999997</v>
+      </c>
+      <c r="X64">
+        <v>0.52855200000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J65">
+        <v>1.6700000000000002E-4</v>
+      </c>
+      <c r="K65">
+        <v>3.2669999999999999E-3</v>
+      </c>
+      <c r="L65">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="M65">
+        <v>0.10086199999999999</v>
+      </c>
+      <c r="N65">
+        <v>0.77869600000000005</v>
+      </c>
+      <c r="O65">
+        <v>1.3919870000000001</v>
+      </c>
+      <c r="P65">
+        <v>1.256651</v>
+      </c>
+      <c r="Q65">
+        <v>1.381661</v>
+      </c>
+      <c r="R65">
+        <v>1.3879900000000001</v>
+      </c>
+      <c r="S65">
+        <v>1.4029700000000001</v>
+      </c>
+      <c r="T65">
+        <v>1.3427880000000001</v>
+      </c>
+      <c r="U65">
+        <v>1.417286</v>
+      </c>
+      <c r="V65">
+        <v>1.46872</v>
+      </c>
+      <c r="W65">
+        <v>1.4665979999999998</v>
+      </c>
+      <c r="X65">
+        <v>2.0938380000000003</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67">
-        <v>2000</v>
-      </c>
-      <c r="C67">
-        <v>2001</v>
-      </c>
-      <c r="D67">
-        <v>2002</v>
-      </c>
-      <c r="E67">
-        <v>2003</v>
-      </c>
-      <c r="F67">
-        <v>2004</v>
-      </c>
-      <c r="G67">
-        <v>2005</v>
-      </c>
-      <c r="H67">
-        <v>2006</v>
-      </c>
-      <c r="I67">
-        <v>2007</v>
-      </c>
-      <c r="J67">
-        <v>2008</v>
-      </c>
-      <c r="K67">
-        <v>2009</v>
-      </c>
-      <c r="L67">
-        <v>2010</v>
-      </c>
-      <c r="M67">
-        <v>2011</v>
-      </c>
-      <c r="N67">
-        <v>2012</v>
-      </c>
-      <c r="O67">
-        <v>2013</v>
-      </c>
-      <c r="P67">
-        <v>2014</v>
-      </c>
-      <c r="Q67">
-        <v>2015</v>
-      </c>
-      <c r="R67">
-        <v>2016</v>
-      </c>
-      <c r="S67">
-        <v>2017</v>
-      </c>
-      <c r="T67">
-        <v>2018</v>
-      </c>
-      <c r="U67">
-        <v>2019</v>
-      </c>
-      <c r="V67">
-        <v>2020</v>
-      </c>
-      <c r="W67">
-        <v>2021</v>
-      </c>
-      <c r="X67">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>31</v>
-      </c>
-      <c r="J68">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K68">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L68">
-        <v>3.5431999999999998E-2</v>
-      </c>
-      <c r="M68">
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="N68">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="O68">
-        <v>0.110402</v>
-      </c>
-      <c r="P68">
-        <v>0.2</v>
-      </c>
-      <c r="Q68">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="R68">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="S68">
-        <v>0.39598100000000003</v>
-      </c>
-      <c r="T68">
-        <v>1.5729660000000001</v>
-      </c>
-      <c r="U68">
-        <v>1.820811</v>
-      </c>
-      <c r="V68">
-        <v>1.699341</v>
-      </c>
-      <c r="W68">
-        <v>2.5888920000000004</v>
-      </c>
-      <c r="X68">
-        <v>2.2435940000000003</v>
+        <v>42</v>
+      </c>
+      <c r="F66">
+        <v>1E-3</v>
+      </c>
+      <c r="G66">
+        <v>4.5869999999999999E-3</v>
+      </c>
+      <c r="H66">
+        <v>2.0047000000000002E-2</v>
+      </c>
+      <c r="I66">
+        <v>4.6801999999999996E-2</v>
+      </c>
+      <c r="J66">
+        <v>0.12175799999999999</v>
+      </c>
+      <c r="K66">
+        <v>0.237009</v>
+      </c>
+      <c r="L66">
+        <v>0.681369</v>
+      </c>
+      <c r="M66">
+        <v>0.86109500000000005</v>
+      </c>
+      <c r="N66">
+        <v>1.2208979999999998</v>
+      </c>
+      <c r="O66">
+        <v>1.3735119999999998</v>
+      </c>
+      <c r="P66">
+        <v>1.3305769999999999</v>
+      </c>
+      <c r="Q66">
+        <v>1.451511</v>
+      </c>
+      <c r="R66">
+        <v>1.4249700000000001</v>
+      </c>
+      <c r="S66">
+        <v>1.5040640000000001</v>
+      </c>
+      <c r="T66">
+        <v>1.3181230000000002</v>
+      </c>
+      <c r="U66">
+        <v>1.316988</v>
+      </c>
+      <c r="V66">
+        <v>1.4771310000000002</v>
+      </c>
+      <c r="W66">
+        <v>1.4335609999999999</v>
+      </c>
+      <c r="X66">
+        <v>1.499125</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69">
-        <v>17.207000000000001</v>
-      </c>
-      <c r="C69">
-        <v>19.757000000000001</v>
-      </c>
-      <c r="D69">
-        <v>17.373000000000001</v>
-      </c>
-      <c r="E69">
-        <v>19.462</v>
-      </c>
-      <c r="F69">
-        <v>19.106999999999999</v>
-      </c>
-      <c r="G69">
-        <v>18.625</v>
-      </c>
-      <c r="H69">
-        <v>19.206</v>
-      </c>
-      <c r="I69">
-        <v>22.463000000000001</v>
-      </c>
-      <c r="J69">
-        <v>23.22</v>
-      </c>
-      <c r="K69">
-        <v>21.103000000000002</v>
-      </c>
-      <c r="L69">
-        <v>22.606000000000002</v>
-      </c>
-      <c r="M69">
-        <v>27.536999999999999</v>
-      </c>
-      <c r="N69">
-        <v>22.876000000000001</v>
-      </c>
-      <c r="O69">
-        <v>19.391598000000002</v>
-      </c>
-      <c r="P69">
-        <v>21.305</v>
-      </c>
-      <c r="Q69">
-        <v>22.521999999999998</v>
-      </c>
-      <c r="R69">
-        <v>19.364000000000001</v>
-      </c>
-      <c r="S69">
-        <v>20.914090999999999</v>
-      </c>
-      <c r="T69">
-        <v>18.659473000000002</v>
-      </c>
-      <c r="U69">
-        <v>17.224985</v>
-      </c>
-      <c r="V69">
-        <v>13.53266</v>
-      </c>
-      <c r="W69">
-        <v>17.085889999999999</v>
-      </c>
-      <c r="X69">
-        <v>21.785509999999999</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70">
-        <v>1.9119999999999999</v>
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>1.9079999999999999</v>
+        <v>2000</v>
       </c>
       <c r="D70">
-        <v>1.5389999999999999</v>
+        <v>2001</v>
       </c>
       <c r="E70">
-        <v>1.762</v>
+        <v>2002</v>
       </c>
       <c r="F70">
-        <v>1.494</v>
+        <v>2003</v>
       </c>
       <c r="G70">
-        <v>1.7290000000000001</v>
+        <v>2004</v>
       </c>
       <c r="H70">
-        <v>2.1589999999999998</v>
+        <v>2005</v>
       </c>
       <c r="I70">
-        <v>2.3359999999999999</v>
+        <v>2006</v>
       </c>
       <c r="J70">
-        <v>2.36</v>
+        <v>2007</v>
       </c>
       <c r="K70">
-        <v>1.9610000000000001</v>
+        <v>2008</v>
       </c>
       <c r="L70">
-        <v>1.9665680000000001</v>
+        <v>2009</v>
       </c>
       <c r="M70">
-        <v>2.077</v>
+        <v>2010</v>
       </c>
       <c r="N70">
-        <v>2.3559999999999999</v>
+        <v>2011</v>
       </c>
       <c r="O70">
-        <v>2.339</v>
+        <v>2012</v>
       </c>
       <c r="P70">
-        <v>2.1419999999999999</v>
+        <v>2013</v>
       </c>
       <c r="Q70">
-        <v>1.8640000000000001</v>
+        <v>2014</v>
       </c>
       <c r="R70">
-        <v>2.0529999999999999</v>
+        <v>2015</v>
       </c>
       <c r="S70">
-        <v>1.9266459999999999</v>
+        <v>2016</v>
       </c>
       <c r="T70">
-        <v>2.0227580000000001</v>
+        <v>2017</v>
       </c>
       <c r="U70">
-        <v>2.1529029999999998</v>
+        <v>2018</v>
       </c>
       <c r="V70">
-        <v>2.292316</v>
+        <v>2019</v>
       </c>
       <c r="W70">
-        <v>3.0456720000000002</v>
+        <v>2020</v>
       </c>
       <c r="X70">
-        <v>2.0534110000000001</v>
+        <v>2021</v>
+      </c>
+      <c r="Y70">
+        <v>2022</v>
+      </c>
+      <c r="Z70">
+        <v>2023</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>46</v>
       </c>
-      <c r="B71">
-        <v>2.9509999999999996</v>
+      <c r="B71" t="s">
+        <v>80</v>
       </c>
       <c r="C71">
-        <v>2.1710000000000003</v>
+        <v>5.6</v>
       </c>
       <c r="D71">
-        <v>2.7040000000000002</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>3.3010000000000002</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F71">
-        <v>3.3628110000000002</v>
+        <v>6.8</v>
       </c>
       <c r="G71">
-        <v>4.7298960000000001</v>
+        <v>6.6</v>
       </c>
       <c r="H71">
-        <v>4.5789740000000005</v>
+        <v>8.4</v>
       </c>
       <c r="I71">
-        <v>3.2339989999999998</v>
+        <v>8.9</v>
       </c>
       <c r="J71">
-        <v>3.2767620000000002</v>
+        <v>7.5</v>
       </c>
       <c r="K71">
-        <v>4.0527119999999996</v>
+        <v>8.4</v>
       </c>
       <c r="L71">
-        <v>5.6925160000000004</v>
+        <v>7.7</v>
       </c>
       <c r="M71">
-        <v>3.6909139999999998</v>
+        <v>9.6</v>
       </c>
       <c r="N71">
-        <v>3.9757060000000002</v>
+        <v>12.1</v>
       </c>
       <c r="O71">
-        <v>4.7951379999999997</v>
+        <v>10.7</v>
       </c>
       <c r="P71">
-        <v>5.1626289999999999</v>
+        <v>9.5</v>
       </c>
       <c r="Q71">
-        <v>6.1465419999999993</v>
+        <v>13.8</v>
       </c>
       <c r="R71">
-        <v>4.5678419999999997</v>
+        <v>14.8</v>
       </c>
       <c r="S71">
-        <v>3.4929449999999997</v>
+        <v>10.9</v>
       </c>
       <c r="T71">
-        <v>5.4227320000000008</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U71">
-        <v>3.3827449999999999</v>
+        <v>10</v>
       </c>
       <c r="V71">
-        <v>3.3202579999999999</v>
+        <v>8.9</v>
       </c>
       <c r="W71">
-        <v>5.0671330000000001</v>
+        <v>7.1</v>
       </c>
       <c r="X71">
-        <v>3.833256</v>
+        <v>10.6</v>
+      </c>
+      <c r="Y71">
+        <v>13.7</v>
+      </c>
+      <c r="Z71">
+        <v>7.7</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72">
-        <v>18.178000000000001</v>
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
       </c>
       <c r="C72">
-        <v>19.553000000000001</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>20.222000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E72">
-        <v>17.28</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>16.815000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="G72">
-        <v>18.652999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H72">
-        <v>19.492999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="I72">
-        <v>14.643000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J72">
-        <v>15.765000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K72">
-        <v>15.256</v>
+        <v>3.1</v>
       </c>
       <c r="L72">
-        <v>15.249000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="M72">
-        <v>16.314</v>
+        <v>1.2</v>
       </c>
       <c r="N72">
-        <v>15.785</v>
+        <v>1.4</v>
       </c>
       <c r="O72">
-        <v>14.170999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="P72">
-        <v>15.867000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="Q72">
-        <v>15.382999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="R72">
-        <v>15.776</v>
+        <v>4.3</v>
       </c>
       <c r="S72">
-        <v>15.545499</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T72">
-        <v>16.125281000000001</v>
+        <v>3.7</v>
       </c>
       <c r="U72">
-        <v>16.555288000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V72">
-        <v>16.625764999999998</v>
+        <v>3</v>
       </c>
       <c r="W72">
-        <v>16.486893999999999</v>
+        <v>3.7</v>
       </c>
       <c r="X72">
-        <v>16.462018</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="C73">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D73">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="E73">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="F73">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="G73">
-        <v>0.623</v>
-      </c>
-      <c r="H73">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="I73">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="J73">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="K73">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="L73">
-        <v>0.40700000000000003</v>
-      </c>
-      <c r="M73">
-        <v>0.16</v>
-      </c>
-      <c r="N73">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="O73">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="P73">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="Q73">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="R73">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="S73">
-        <v>0.43059500000000001</v>
-      </c>
-      <c r="T73">
-        <v>0.37356200000000001</v>
-      </c>
-      <c r="U73">
-        <v>0.40558499999999997</v>
-      </c>
-      <c r="V73">
-        <v>0.33825000000000005</v>
-      </c>
-      <c r="W73">
-        <v>0.39345599999999997</v>
-      </c>
-      <c r="X73">
-        <v>0.52855200000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74">
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="J74">
-        <v>1.6700000000000002E-4</v>
-      </c>
-      <c r="K74">
-        <v>3.2669999999999999E-3</v>
-      </c>
-      <c r="L74">
-        <v>1.4865E-2</v>
-      </c>
-      <c r="M74">
-        <v>0.10086199999999999</v>
-      </c>
-      <c r="N74">
-        <v>0.77869600000000005</v>
-      </c>
-      <c r="O74">
-        <v>1.3919870000000001</v>
-      </c>
-      <c r="P74">
-        <v>1.256651</v>
-      </c>
-      <c r="Q74">
-        <v>1.381661</v>
-      </c>
-      <c r="R74">
-        <v>1.3879900000000001</v>
-      </c>
-      <c r="S74">
-        <v>1.4029700000000001</v>
-      </c>
-      <c r="T74">
-        <v>1.3427880000000001</v>
-      </c>
-      <c r="U74">
-        <v>1.417286</v>
-      </c>
-      <c r="V74">
-        <v>1.46872</v>
-      </c>
-      <c r="W74">
-        <v>1.4665979999999998</v>
-      </c>
-      <c r="X74">
-        <v>2.0938380000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75">
-        <v>1E-3</v>
-      </c>
-      <c r="G75">
-        <v>4.5869999999999999E-3</v>
-      </c>
-      <c r="H75">
-        <v>2.0047000000000002E-2</v>
-      </c>
-      <c r="I75">
-        <v>4.6801999999999996E-2</v>
-      </c>
-      <c r="J75">
-        <v>0.12175799999999999</v>
-      </c>
-      <c r="K75">
-        <v>0.237009</v>
-      </c>
-      <c r="L75">
-        <v>0.681369</v>
-      </c>
-      <c r="M75">
-        <v>0.86109500000000005</v>
-      </c>
-      <c r="N75">
-        <v>1.2208979999999998</v>
-      </c>
-      <c r="O75">
-        <v>1.3735119999999998</v>
-      </c>
-      <c r="P75">
-        <v>1.3305769999999999</v>
-      </c>
-      <c r="Q75">
-        <v>1.451511</v>
-      </c>
-      <c r="R75">
-        <v>1.4249700000000001</v>
-      </c>
-      <c r="S75">
-        <v>1.5040640000000001</v>
-      </c>
-      <c r="T75">
-        <v>1.3181230000000002</v>
-      </c>
-      <c r="U75">
-        <v>1.316988</v>
-      </c>
-      <c r="V75">
-        <v>1.4771310000000002</v>
-      </c>
-      <c r="W75">
-        <v>1.4335609999999999</v>
-      </c>
-      <c r="X75">
-        <v>1.499125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79">
-        <v>2000</v>
-      </c>
-      <c r="D79">
-        <v>2001</v>
-      </c>
-      <c r="E79">
-        <v>2002</v>
-      </c>
-      <c r="F79">
-        <v>2003</v>
-      </c>
-      <c r="G79">
-        <v>2004</v>
-      </c>
-      <c r="H79">
-        <v>2005</v>
-      </c>
-      <c r="I79">
-        <v>2006</v>
-      </c>
-      <c r="J79">
-        <v>2007</v>
-      </c>
-      <c r="K79">
-        <v>2008</v>
-      </c>
-      <c r="L79">
-        <v>2009</v>
-      </c>
-      <c r="M79">
-        <v>2010</v>
-      </c>
-      <c r="N79">
-        <v>2011</v>
-      </c>
-      <c r="O79">
-        <v>2012</v>
-      </c>
-      <c r="P79">
-        <v>2013</v>
-      </c>
-      <c r="Q79">
-        <v>2014</v>
-      </c>
-      <c r="R79">
-        <v>2015</v>
-      </c>
-      <c r="S79">
-        <v>2016</v>
-      </c>
-      <c r="T79">
-        <v>2017</v>
-      </c>
-      <c r="U79">
-        <v>2018</v>
-      </c>
-      <c r="V79">
-        <v>2019</v>
-      </c>
-      <c r="W79">
-        <v>2020</v>
-      </c>
-      <c r="X79">
-        <v>2021</v>
-      </c>
-      <c r="Y79">
-        <v>2022</v>
-      </c>
-      <c r="Z79">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80">
-        <v>5.6</v>
-      </c>
-      <c r="D80">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F80">
-        <v>6.8</v>
-      </c>
-      <c r="G80">
-        <v>6.6</v>
-      </c>
-      <c r="H80">
-        <v>8.4</v>
-      </c>
-      <c r="I80">
-        <v>8.9</v>
-      </c>
-      <c r="J80">
-        <v>7.5</v>
-      </c>
-      <c r="K80">
-        <v>8.4</v>
-      </c>
-      <c r="L80">
-        <v>7.7</v>
-      </c>
-      <c r="M80">
-        <v>9.6</v>
-      </c>
-      <c r="N80">
-        <v>12.1</v>
-      </c>
-      <c r="O80">
-        <v>10.7</v>
-      </c>
-      <c r="P80">
-        <v>9.5</v>
-      </c>
-      <c r="Q80">
-        <v>13.8</v>
-      </c>
-      <c r="R80">
-        <v>14.8</v>
-      </c>
-      <c r="S80">
-        <v>10.9</v>
-      </c>
-      <c r="T80">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="U80">
-        <v>10</v>
-      </c>
-      <c r="V80">
-        <v>8.9</v>
-      </c>
-      <c r="W80">
-        <v>7.1</v>
-      </c>
-      <c r="X80">
-        <v>10.6</v>
-      </c>
-      <c r="Y80">
-        <v>13.7</v>
-      </c>
-      <c r="Z80">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>1.3</v>
-      </c>
-      <c r="G81">
-        <v>0.7</v>
-      </c>
-      <c r="H81">
-        <v>0.8</v>
-      </c>
-      <c r="I81">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J81">
-        <v>3.1</v>
-      </c>
-      <c r="K81">
-        <v>3.1</v>
-      </c>
-      <c r="L81">
-        <v>2.7</v>
-      </c>
-      <c r="M81">
-        <v>1.2</v>
-      </c>
-      <c r="N81">
-        <v>1.4</v>
-      </c>
-      <c r="O81">
-        <v>2.4</v>
-      </c>
-      <c r="P81">
-        <v>3.4</v>
-      </c>
-      <c r="Q81">
-        <v>4.3</v>
-      </c>
-      <c r="R81">
-        <v>4.3</v>
-      </c>
-      <c r="S81">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T81">
-        <v>3.7</v>
-      </c>
-      <c r="U81">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V81">
-        <v>3</v>
-      </c>
-      <c r="W81">
-        <v>3.7</v>
-      </c>
-      <c r="X81">
         <v>1.9</v>
       </c>
-      <c r="Y81">
+      <c r="Y72">
         <v>1.5</v>
       </c>
-      <c r="Z81">
+      <c r="Z72">
         <v>4.4000000000000004</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB54261-34FF-4BF4-956E-1616B6A6EE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794E648B-336F-4BE7-A859-FBC3B9E8D680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,7 +803,7 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(historical_data!F2:F16)</f>
-        <v>69544.567254609967</v>
+        <v>69544.432464394296</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>45</v>
@@ -929,31 +929,31 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>1807.372934300598</v>
+        <v>1807.3694312780437</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>1807.372934300598</v>
+        <v>1807.3694312780437</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>1807.372934300598</v>
+        <v>1807.3694312780437</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>1807.372934300598</v>
+        <v>1807.3694312780437</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>1807.372934300598</v>
+        <v>1807.3694312780437</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>1807.372934300598</v>
+        <v>1807.3694312780437</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>1807.372934300598</v>
+        <v>1807.3694312780437</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
@@ -996,31 +996,31 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>47698.929179150568</v>
+        <v>47698.836729816197</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>51785.163639308448</v>
+        <v>51785.063270096995</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>55635.653803687987</v>
+        <v>55635.545971515443</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>58228.841057249709</v>
+        <v>58228.728199001329</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>56028.560963318545</v>
+        <v>56028.452369619365</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>56264.30525909688</v>
+        <v>56264.196208481713</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>58228.841057249709</v>
+        <v>58228.728199001329</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1060,31 +1060,31 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>20038.265141158805</v>
+        <v>20038.226303300049</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>18388.055070710434</v>
+        <v>18388.019431263576</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>18309.473638784322</v>
+        <v>18309.438151642793</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>17759.403615301529</v>
+        <v>17759.369194297298</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>17680.822183375418</v>
+        <v>17680.787914676515</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>17916.566479153757</v>
+        <v>17916.531753538871</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>15559.123521370368</v>
+        <v>15559.093364915336</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
@@ -1100,27 +1100,27 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-471.48859155667787</v>
+        <v>-471.48767772470705</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>314.32572770445222</v>
+        <v>314.32511848313811</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>1728.7915023744849</v>
+        <v>1728.788151657259</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>5029.2116432712291</v>
+        <v>5029.2018957302089</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>9979.8418546163466</v>
+        <v>9979.8225118396331</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>16187.77497677927</v>
+        <v>16187.74360188161</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
@@ -3496,7 +3496,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -4241,1096 +4241,942 @@
         <v>0.25277234181343772</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>2000</v>
-      </c>
-      <c r="C14">
-        <v>2001</v>
-      </c>
-      <c r="D14">
-        <v>2002</v>
-      </c>
-      <c r="E14">
-        <v>2003</v>
-      </c>
-      <c r="F14">
-        <v>2004</v>
-      </c>
-      <c r="G14">
-        <v>2005</v>
-      </c>
-      <c r="H14">
-        <v>2006</v>
-      </c>
-      <c r="I14">
-        <v>2007</v>
-      </c>
-      <c r="J14">
-        <v>2008</v>
-      </c>
-      <c r="K14">
-        <v>2009</v>
-      </c>
-      <c r="L14">
-        <v>2010</v>
-      </c>
-      <c r="M14">
-        <v>2011</v>
-      </c>
-      <c r="N14">
-        <v>2012</v>
-      </c>
-      <c r="O14">
-        <v>2013</v>
-      </c>
-      <c r="P14">
-        <v>2014</v>
-      </c>
-      <c r="Q14">
-        <v>2015</v>
-      </c>
-      <c r="R14">
-        <v>2016</v>
-      </c>
-      <c r="S14">
-        <v>2017</v>
-      </c>
-      <c r="T14">
-        <v>2018</v>
-      </c>
-      <c r="U14">
-        <v>2019</v>
-      </c>
-      <c r="V14">
-        <v>2020</v>
-      </c>
-      <c r="W14">
-        <v>2021</v>
-      </c>
-      <c r="X14">
-        <v>2022</v>
-      </c>
-    </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15">
-        <v>0.30441400304414001</v>
-      </c>
-      <c r="K15">
-        <v>0.10147133434804669</v>
-      </c>
-      <c r="L15">
-        <v>0.40447488584474894</v>
-      </c>
-      <c r="M15">
-        <v>0.5811540058115402</v>
-      </c>
-      <c r="N15">
-        <v>0.53816046966731901</v>
-      </c>
-      <c r="O15">
-        <v>0.37067553048616708</v>
-      </c>
-      <c r="P15">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q15">
-        <v>0.57500422797226458</v>
-      </c>
-      <c r="R15">
-        <v>0.70696146759593048</v>
-      </c>
-      <c r="S15">
-        <v>0.86924428402751963</v>
-      </c>
-      <c r="T15">
-        <v>2.5863099724480505</v>
-      </c>
-      <c r="U15">
-        <v>3.6549813955986812</v>
-      </c>
-      <c r="V15">
-        <v>4.036889720525596</v>
-      </c>
-      <c r="W15">
-        <v>6.2453375126974553</v>
-      </c>
-      <c r="X15">
-        <v>3.2548137163984849</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>0.17918731176527739</v>
+        <v>2000</v>
       </c>
       <c r="C16">
-        <v>0.14535545467936098</v>
+        <v>2001</v>
       </c>
       <c r="D16">
-        <v>0.15845780240593327</v>
+        <v>2002</v>
       </c>
       <c r="E16">
-        <v>0.1498316039834055</v>
+        <v>2003</v>
       </c>
       <c r="F16">
-        <v>0.1347902156764661</v>
+        <v>2004</v>
       </c>
       <c r="G16">
-        <v>0.18958653994151151</v>
+        <v>2005</v>
       </c>
       <c r="H16">
-        <v>0.18353719344825822</v>
+        <v>2006</v>
       </c>
       <c r="I16">
-        <v>0.12836507928947488</v>
+        <v>2007</v>
       </c>
       <c r="J16">
-        <v>0.12535509016122517</v>
+        <v>2008</v>
       </c>
       <c r="K16">
-        <v>0.15416139825537606</v>
+        <v>2009</v>
       </c>
       <c r="L16">
-        <v>0.21319901365069094</v>
+        <v>2010</v>
       </c>
       <c r="M16">
-        <v>0.13556538436675425</v>
+        <v>2011</v>
       </c>
       <c r="N16">
-        <v>0.1426745416205524</v>
+        <v>2012</v>
       </c>
       <c r="O16">
-        <v>0.17089921406444017</v>
+        <v>2013</v>
       </c>
       <c r="P16">
-        <v>0.18308207829936693</v>
+        <v>2014</v>
       </c>
       <c r="Q16">
-        <v>0.21797454043557021</v>
+        <v>2015</v>
       </c>
       <c r="R16">
-        <v>0.16178813238750592</v>
+        <v>2016</v>
       </c>
       <c r="S16">
-        <v>0.11826549026371555</v>
+        <v>2017</v>
       </c>
       <c r="T16">
-        <v>0.18320015783762453</v>
+        <v>2018</v>
       </c>
       <c r="U16">
-        <v>0.11430375923833559</v>
+        <v>2019</v>
       </c>
       <c r="V16">
-        <v>0.11225524213694742</v>
+        <v>2020</v>
       </c>
       <c r="W16">
-        <v>0.1716829439171017</v>
+        <v>2021</v>
       </c>
       <c r="X16">
-        <v>0.13069358514235713</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>0.58751816400088952</v>
-      </c>
-      <c r="C17">
-        <v>0.63195855763612019</v>
-      </c>
-      <c r="D17">
-        <v>0.84807034848805107</v>
-      </c>
-      <c r="E17">
-        <v>0.72468873612271401</v>
-      </c>
-      <c r="F17">
-        <v>0.70518756353607848</v>
-      </c>
-      <c r="G17">
-        <v>0.78226961776024206</v>
-      </c>
-      <c r="H17">
-        <v>0.81749754243287398</v>
-      </c>
-      <c r="I17">
-        <v>0.88349648121868596</v>
+        <v>31</v>
       </c>
       <c r="J17">
-        <v>0.95119319991890894</v>
+        <v>0.30441400304414001</v>
       </c>
       <c r="K17">
-        <v>0.92048229990249752</v>
+        <v>0.10147133434804669</v>
       </c>
       <c r="L17">
-        <v>0.92005994960757642</v>
+        <v>0.40447488584474894</v>
       </c>
       <c r="M17">
-        <v>0.98431753019201262</v>
+        <v>0.5811540058115402</v>
       </c>
       <c r="N17">
-        <v>0.94540432280661413</v>
+        <v>0.53816046966731901</v>
       </c>
       <c r="O17">
-        <v>0.81619276686525755</v>
+        <v>0.37067553048616708</v>
       </c>
       <c r="P17">
-        <v>0.91711461765215874</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q17">
-        <v>0.88913935610658323</v>
+        <v>0.57500422797226458</v>
       </c>
       <c r="R17">
-        <v>0.91556341739152636</v>
+        <v>0.70696146759593048</v>
       </c>
       <c r="S17">
-        <v>0.90218624426321981</v>
+        <v>0.86924428402751963</v>
       </c>
       <c r="T17">
-        <v>0.91672584775055033</v>
+        <v>2.5863099724480505</v>
       </c>
       <c r="U17">
-        <v>0.942110199083116</v>
+        <v>3.6549813955986812</v>
       </c>
       <c r="V17">
-        <v>0.94612082701666678</v>
+        <v>4.036889720525596</v>
       </c>
       <c r="W17">
-        <v>0.9382181082323805</v>
+        <v>6.2453375126974553</v>
       </c>
       <c r="X17">
-        <v>0.93680249206717758</v>
+        <v>3.2548137163984849</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>1.3728687025740881E-2</v>
+        <v>0.17918731176527739</v>
       </c>
       <c r="C18">
-        <v>8.9246408872480296E-3</v>
+        <v>0.14535545467936098</v>
       </c>
       <c r="D18">
-        <v>1.4064542368890371E-2</v>
+        <v>0.15845780240593327</v>
       </c>
       <c r="E18">
-        <v>1.3440969291696423E-2</v>
+        <v>0.1498316039834055</v>
       </c>
       <c r="F18">
-        <v>1.4367639360976603E-2</v>
+        <v>0.1347902156764661</v>
       </c>
       <c r="G18">
-        <v>1.06544901065449E-2</v>
+        <v>0.18958653994151151</v>
       </c>
       <c r="H18">
-        <v>6.8721033906174785E-3</v>
+        <v>0.18353719344825822</v>
       </c>
       <c r="I18">
-        <v>1.3383397499030053E-2</v>
+        <v>0.12836507928947488</v>
       </c>
       <c r="J18">
-        <v>6.8134032678754683E-3</v>
+        <v>0.12535509016122517</v>
       </c>
       <c r="K18">
-        <v>8.974387151398696E-3</v>
+        <v>0.15416139825537606</v>
       </c>
       <c r="L18">
-        <v>1.0171012962918537E-2</v>
+        <v>0.21319901365069094</v>
       </c>
       <c r="M18">
-        <v>4.0275281549390085E-3</v>
+        <v>0.13556538436675425</v>
       </c>
       <c r="N18">
-        <v>5.4770281784942507E-3</v>
+        <v>0.1426745416205524</v>
       </c>
       <c r="O18">
-        <v>5.9193423561722108E-3</v>
+        <v>0.17089921406444017</v>
       </c>
       <c r="P18">
-        <v>5.7979529360833674E-3</v>
+        <v>0.18308207829936693</v>
       </c>
       <c r="Q18">
-        <v>5.9440758150922698E-3</v>
+        <v>0.21797454043557021</v>
       </c>
       <c r="R18">
-        <v>1.0672682178439969E-2</v>
+        <v>0.16178813238750592</v>
       </c>
       <c r="S18">
-        <v>1.3166338195431674E-2</v>
+        <v>0.11826549026371555</v>
       </c>
       <c r="T18">
-        <v>1.0273264456408587E-2</v>
+        <v>0.18320015783762453</v>
       </c>
       <c r="U18">
-        <v>1.1459284473580975E-2</v>
+        <v>0.11430375923833559</v>
       </c>
       <c r="V18">
-        <v>1.0273784895450284E-2</v>
+        <v>0.11225524213694742</v>
       </c>
       <c r="W18">
-        <v>1.1799059936493149E-2</v>
+        <v>0.1716829439171017</v>
       </c>
       <c r="X18">
-        <v>1.5180712412366853E-2</v>
+        <v>0.13069358514235713</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>0.58751816400088952</v>
+      </c>
+      <c r="C19">
+        <v>0.63195855763612019</v>
+      </c>
+      <c r="D19">
+        <v>0.84807034848805107</v>
+      </c>
+      <c r="E19">
+        <v>0.72468873612271401</v>
+      </c>
+      <c r="F19">
+        <v>0.70518756353607848</v>
+      </c>
+      <c r="G19">
+        <v>0.78226961776024206</v>
+      </c>
+      <c r="H19">
+        <v>0.81749754243287398</v>
       </c>
       <c r="I19">
-        <v>0.22831050228310501</v>
+        <v>0.88349648121868596</v>
       </c>
       <c r="J19">
-        <v>0.1906392694063927</v>
+        <v>0.95119319991890894</v>
       </c>
       <c r="K19">
-        <v>0.18647260273972602</v>
+        <v>0.92048229990249752</v>
       </c>
       <c r="L19">
-        <v>6.7876712328767116E-2</v>
+        <v>0.92005994960757642</v>
       </c>
       <c r="M19">
-        <v>7.476575935480044E-2</v>
+        <v>0.98431753019201262</v>
       </c>
       <c r="N19">
-        <v>9.6412405035707568E-2</v>
+        <v>0.94540432280661413</v>
       </c>
       <c r="O19">
-        <v>0.15293804193529958</v>
+        <v>0.81619276686525755</v>
       </c>
       <c r="P19">
-        <v>0.13941040865139273</v>
+        <v>0.91711461765215874</v>
       </c>
       <c r="Q19">
-        <v>0.1534278778672068</v>
+        <v>0.88913935610658323</v>
       </c>
       <c r="R19">
-        <v>0.15383140488540142</v>
+        <v>0.91556341739152636</v>
       </c>
       <c r="S19">
-        <v>0.15538589047072227</v>
+        <v>0.90218624426321981</v>
       </c>
       <c r="T19">
-        <v>0.14838111835914639</v>
+        <v>0.91672584775055033</v>
       </c>
       <c r="U19">
-        <v>0.15491400651998427</v>
+        <v>0.942110199083116</v>
       </c>
       <c r="V19">
-        <v>0.15239085998651261</v>
+        <v>0.94612082701666678</v>
       </c>
       <c r="W19">
-        <v>0.13133926069138591</v>
+        <v>0.9382181082323805</v>
       </c>
       <c r="X19">
-        <v>0.13764325363624622</v>
+        <v>0.93680249206717758</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>1.3728687025740881E-2</v>
+      </c>
+      <c r="C20">
+        <v>8.9246408872480296E-3</v>
+      </c>
+      <c r="D20">
+        <v>1.4064542368890371E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.3440969291696423E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.4367639360976603E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.06544901065449E-2</v>
+      </c>
+      <c r="H20">
+        <v>6.8721033906174785E-3</v>
+      </c>
+      <c r="I20">
+        <v>1.3383397499030053E-2</v>
+      </c>
+      <c r="J20">
+        <v>6.8134032678754683E-3</v>
+      </c>
+      <c r="K20">
+        <v>8.974387151398696E-3</v>
+      </c>
+      <c r="L20">
+        <v>1.0171012962918537E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.0275281549390085E-3</v>
+      </c>
+      <c r="N20">
+        <v>5.4770281784942507E-3</v>
+      </c>
+      <c r="O20">
+        <v>5.9193423561722108E-3</v>
+      </c>
+      <c r="P20">
+        <v>5.7979529360833674E-3</v>
+      </c>
+      <c r="Q20">
+        <v>5.9440758150922698E-3</v>
+      </c>
+      <c r="R20">
+        <v>1.0672682178439969E-2</v>
+      </c>
+      <c r="S20">
+        <v>1.3166338195431674E-2</v>
+      </c>
+      <c r="T20">
+        <v>1.0273264456408587E-2</v>
+      </c>
+      <c r="U20">
+        <v>1.1459284473580975E-2</v>
+      </c>
+      <c r="V20">
+        <v>1.0273784895450284E-2</v>
+      </c>
+      <c r="W20">
+        <v>1.1799059936493149E-2</v>
+      </c>
+      <c r="X20">
+        <v>1.5180712412366853E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>0.22831050228310501</v>
+      </c>
+      <c r="J21">
+        <v>0.1906392694063927</v>
+      </c>
+      <c r="K21">
+        <v>0.18647260273972602</v>
+      </c>
+      <c r="L21">
+        <v>6.7876712328767116E-2</v>
+      </c>
+      <c r="M21">
+        <v>7.476575935480044E-2</v>
+      </c>
+      <c r="N21">
+        <v>9.6412405035707568E-2</v>
+      </c>
+      <c r="O21">
+        <v>0.15293804193529958</v>
+      </c>
+      <c r="P21">
+        <v>0.13941040865139273</v>
+      </c>
+      <c r="Q21">
+        <v>0.1534278778672068</v>
+      </c>
+      <c r="R21">
+        <v>0.15383140488540142</v>
+      </c>
+      <c r="S21">
+        <v>0.15538589047072227</v>
+      </c>
+      <c r="T21">
+        <v>0.14838111835914639</v>
+      </c>
+      <c r="U21">
+        <v>0.15491400651998427</v>
+      </c>
+      <c r="V21">
+        <v>0.15239085998651261</v>
+      </c>
+      <c r="W21">
+        <v>0.13133926069138591</v>
+      </c>
+      <c r="X21">
+        <v>0.13764325363624622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>0.11415525114155251</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>0.17808980213089803</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>0.12192381639029079</v>
       </c>
-      <c r="K20">
+      <c r="K22">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>0.15938903548169775</v>
       </c>
-      <c r="M20">
+      <c r="M22">
         <v>0.18169781142649755</v>
       </c>
-      <c r="N20">
+      <c r="N22">
         <v>0.2058669391554197</v>
       </c>
-      <c r="O20">
+      <c r="O22">
         <v>0.22956604290766625</v>
       </c>
-      <c r="P20">
+      <c r="P22">
         <v>0.2172995015710637</v>
       </c>
-      <c r="Q20">
+      <c r="Q22">
         <v>0.23704950320418605</v>
       </c>
-      <c r="R20">
+      <c r="R22">
         <v>0.23271503321770831</v>
       </c>
-      <c r="S20">
+      <c r="S22">
         <v>0.24584659524473154</v>
       </c>
-      <c r="T20">
+      <c r="T22">
         <v>0.21529025081619735</v>
       </c>
-      <c r="U20">
+      <c r="U22">
         <v>0.21381996798613462</v>
       </c>
-      <c r="V20">
+      <c r="V22">
         <v>0.23992922634315969</v>
       </c>
-      <c r="W20">
+      <c r="W22">
         <v>0.2323315222455867</v>
       </c>
-      <c r="X20">
+      <c r="X22">
         <v>0.24297964087912982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>2000</v>
-      </c>
-      <c r="C24">
-        <v>2001</v>
-      </c>
-      <c r="D24">
-        <v>2002</v>
-      </c>
-      <c r="E24">
-        <v>2003</v>
-      </c>
-      <c r="F24">
-        <v>2004</v>
-      </c>
-      <c r="G24">
-        <v>2005</v>
-      </c>
-      <c r="H24">
-        <v>2006</v>
-      </c>
-      <c r="I24">
-        <v>2007</v>
-      </c>
-      <c r="J24">
-        <v>2008</v>
-      </c>
-      <c r="K24">
-        <v>2009</v>
-      </c>
-      <c r="L24">
-        <v>2010</v>
-      </c>
-      <c r="M24">
-        <v>2011</v>
-      </c>
-      <c r="N24">
-        <v>2012</v>
-      </c>
-      <c r="O24">
-        <v>2013</v>
-      </c>
-      <c r="P24">
-        <v>2014</v>
-      </c>
-      <c r="Q24">
-        <v>2015</v>
-      </c>
-      <c r="R24">
-        <v>2016</v>
-      </c>
-      <c r="S24">
-        <v>2017</v>
-      </c>
-      <c r="T24">
-        <v>2018</v>
-      </c>
-      <c r="U24">
-        <v>2019</v>
-      </c>
-      <c r="V24">
-        <v>2020</v>
-      </c>
-      <c r="W24">
-        <v>2021</v>
-      </c>
-      <c r="X24">
-        <v>2022</v>
-      </c>
-      <c r="Y24">
-        <v>2023</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>0.05</v>
-      </c>
-      <c r="C25">
-        <v>0.05</v>
-      </c>
-      <c r="D25">
-        <v>0.05</v>
-      </c>
-      <c r="E25">
-        <v>0.01</v>
-      </c>
-      <c r="F25">
-        <v>0.01</v>
-      </c>
-      <c r="G25">
-        <v>0.01</v>
-      </c>
-      <c r="H25">
-        <v>0.01</v>
-      </c>
-      <c r="I25">
-        <v>0.01</v>
-      </c>
-      <c r="J25">
-        <v>0.01</v>
-      </c>
-      <c r="K25">
-        <v>0.01</v>
-      </c>
-      <c r="L25">
-        <v>0.01</v>
-      </c>
-      <c r="M25">
-        <v>0.01</v>
-      </c>
-      <c r="N25">
-        <v>0.01</v>
-      </c>
-      <c r="O25">
-        <v>0.03</v>
-      </c>
-      <c r="P25">
-        <v>0.04</v>
-      </c>
-      <c r="Q25">
-        <v>0.05</v>
-      </c>
-      <c r="R25">
-        <v>0.06</v>
-      </c>
-      <c r="S25">
-        <v>0.05</v>
-      </c>
-      <c r="T25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U25">
-        <v>0.06</v>
-      </c>
-      <c r="V25">
-        <v>0.05</v>
-      </c>
-      <c r="W25">
-        <v>0.05</v>
-      </c>
-      <c r="X25">
-        <v>0.05</v>
-      </c>
-      <c r="Y25">
-        <v>0.05</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B26">
-        <v>5.62</v>
+        <v>2000</v>
       </c>
       <c r="C26">
-        <v>5.62</v>
+        <v>2001</v>
       </c>
       <c r="D26">
-        <v>5.62</v>
+        <v>2002</v>
       </c>
       <c r="E26">
-        <v>5.62</v>
+        <v>2003</v>
       </c>
       <c r="F26">
-        <v>5.5</v>
+        <v>2004</v>
       </c>
       <c r="G26">
-        <v>5.5</v>
+        <v>2005</v>
       </c>
       <c r="H26">
-        <v>5.5</v>
+        <v>2006</v>
       </c>
       <c r="I26">
-        <v>5.5</v>
+        <v>2007</v>
       </c>
       <c r="J26">
-        <v>5.5</v>
+        <v>2008</v>
       </c>
       <c r="K26">
-        <v>5.63</v>
+        <v>2009</v>
       </c>
       <c r="L26">
-        <v>5.63</v>
+        <v>2010</v>
       </c>
       <c r="M26">
-        <v>6.32</v>
+        <v>2011</v>
       </c>
       <c r="N26">
-        <v>6.32</v>
+        <v>2012</v>
       </c>
       <c r="O26">
-        <v>6.11</v>
+        <v>2013</v>
       </c>
       <c r="P26">
-        <v>5.9</v>
+        <v>2014</v>
       </c>
       <c r="Q26">
-        <v>5.0599999999999996</v>
+        <v>2015</v>
       </c>
       <c r="R26">
-        <v>5.0599999999999996</v>
+        <v>2016</v>
       </c>
       <c r="S26">
-        <v>5.1100000000000003</v>
+        <v>2017</v>
       </c>
       <c r="T26">
-        <v>5.1100000000000003</v>
+        <v>2018</v>
       </c>
       <c r="U26">
-        <v>5.1100000000000003</v>
+        <v>2019</v>
       </c>
       <c r="V26">
-        <v>5.1100000000000003</v>
+        <v>2020</v>
       </c>
       <c r="W26">
-        <v>5.1100000000000003</v>
+        <v>2021</v>
       </c>
       <c r="X26">
-        <v>5.1100000000000003</v>
+        <v>2022</v>
       </c>
       <c r="Y26">
-        <v>5.1100000000000003</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>1.1100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C27">
-        <v>1.1100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="D27">
-        <v>1.1100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E27">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G27">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="H27">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I27">
-        <v>1.1499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J27">
-        <v>1.1499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K27">
-        <v>1.1499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="L27">
-        <v>1.1499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="M27">
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
       <c r="N27">
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
       <c r="O27">
-        <v>1.2</v>
+        <v>0.03</v>
       </c>
       <c r="P27">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="Q27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="R27">
-        <v>1.2</v>
+        <v>0.06</v>
       </c>
       <c r="S27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="T27">
-        <v>1.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U27">
-        <v>1.2</v>
+        <v>0.06</v>
       </c>
       <c r="V27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="X27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>1.02</v>
+        <v>5.62</v>
       </c>
       <c r="C28">
-        <v>0.84</v>
+        <v>5.62</v>
       </c>
       <c r="D28">
-        <v>1.08</v>
+        <v>5.62</v>
       </c>
       <c r="E28">
-        <v>1.65</v>
+        <v>5.62</v>
       </c>
       <c r="F28">
-        <v>1.98</v>
+        <v>5.5</v>
       </c>
       <c r="G28">
-        <v>1.98</v>
+        <v>5.5</v>
       </c>
       <c r="H28">
-        <v>1.98</v>
+        <v>5.5</v>
       </c>
       <c r="I28">
-        <v>2.0099999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="J28">
-        <v>2.12</v>
+        <v>5.5</v>
       </c>
       <c r="K28">
-        <v>2.14</v>
+        <v>5.63</v>
       </c>
       <c r="L28">
-        <v>2.1800000000000002</v>
+        <v>5.63</v>
       </c>
       <c r="M28">
-        <v>2.2400000000000002</v>
+        <v>6.32</v>
       </c>
       <c r="N28">
-        <v>2.3199999999999998</v>
+        <v>6.32</v>
       </c>
       <c r="O28">
-        <v>2.34</v>
+        <v>6.11</v>
       </c>
       <c r="P28">
-        <v>2.36</v>
+        <v>5.9</v>
       </c>
       <c r="Q28">
-        <v>2.36</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R28">
-        <v>2.36</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="S28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="T28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="U28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="X28">
-        <v>2.5299999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Y28">
-        <v>2.5299999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>3.53</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C29">
-        <v>3.53</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I29">
-        <v>1.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J29">
-        <v>1.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K29">
-        <v>1.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L29">
-        <v>1.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M29">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="N29">
-        <v>1.91</v>
+        <v>1.2</v>
       </c>
       <c r="O29">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="P29">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="Q29">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="R29">
-        <v>1.97</v>
+        <v>1.2</v>
       </c>
       <c r="S29">
-        <v>1.97</v>
+        <v>1.2</v>
       </c>
       <c r="T29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="U29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="V29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="W29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="X29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="Y29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="L31">
-        <v>0.03</v>
+        <v>1.89</v>
       </c>
       <c r="M31">
-        <v>0.15</v>
+        <v>1.89</v>
       </c>
       <c r="N31">
-        <v>0.92</v>
+        <v>1.91</v>
       </c>
       <c r="O31">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="P31">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="Q31">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="R31">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="S31">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="T31">
-        <v>1.03</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="U31">
-        <v>1.04</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V31">
-        <v>1.1000000000000001</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="W31">
-        <v>1.27</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="X31">
-        <v>1.74</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Y31">
-        <v>2.94</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5348,2149 +5194,2303 @@
         <v>0</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0.03</v>
+      </c>
+      <c r="M33">
+        <v>0.15</v>
+      </c>
+      <c r="N33">
+        <v>0.92</v>
+      </c>
+      <c r="O33">
+        <v>1.04</v>
+      </c>
+      <c r="P33">
+        <v>1.03</v>
+      </c>
+      <c r="Q33">
+        <v>1.03</v>
+      </c>
+      <c r="R33">
+        <v>1.03</v>
+      </c>
+      <c r="S33">
+        <v>1.03</v>
+      </c>
+      <c r="T33">
+        <v>1.03</v>
+      </c>
+      <c r="U33">
+        <v>1.04</v>
+      </c>
+      <c r="V33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W33">
+        <v>1.27</v>
+      </c>
+      <c r="X33">
+        <v>1.74</v>
+      </c>
+      <c r="Y33">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0.01</v>
       </c>
-      <c r="H32">
+      <c r="H34">
         <v>0.03</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <v>0.03</v>
       </c>
-      <c r="J32">
+      <c r="J34">
         <v>0.11</v>
       </c>
-      <c r="K32">
+      <c r="K34">
         <v>0.33</v>
       </c>
-      <c r="L32">
+      <c r="L34">
         <v>0.49</v>
       </c>
-      <c r="M32">
+      <c r="M34">
         <v>0.54</v>
       </c>
-      <c r="N32">
+      <c r="N34">
         <v>0.68</v>
       </c>
-      <c r="O32">
+      <c r="O34">
         <v>0.68</v>
       </c>
-      <c r="P32">
+      <c r="P34">
         <v>0.7</v>
       </c>
-      <c r="Q32">
+      <c r="Q34">
         <v>0.7</v>
       </c>
-      <c r="R32">
+      <c r="R34">
         <v>0.7</v>
       </c>
-      <c r="S32">
+      <c r="S34">
         <v>0.7</v>
       </c>
-      <c r="T32">
+      <c r="T34">
         <v>0.7</v>
       </c>
-      <c r="U32">
+      <c r="U34">
         <v>0.7</v>
       </c>
-      <c r="V32">
+      <c r="V34">
         <v>0.7</v>
       </c>
-      <c r="W32">
+      <c r="W34">
         <v>0.7</v>
       </c>
-      <c r="X32">
+      <c r="X34">
         <v>0.7</v>
       </c>
-      <c r="Y32">
+      <c r="Y34">
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>2000</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>2001</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>2002</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>2003</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <v>2004</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <v>2005</v>
       </c>
-      <c r="H36">
+      <c r="H38">
         <v>2006</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>2007</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>2008</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <v>2009</v>
       </c>
-      <c r="L36">
+      <c r="L38">
         <v>2010</v>
       </c>
-      <c r="M36">
+      <c r="M38">
         <v>2011</v>
       </c>
-      <c r="N36">
+      <c r="N38">
         <v>2012</v>
       </c>
-      <c r="O36">
+      <c r="O38">
         <v>2013</v>
       </c>
-      <c r="P36">
+      <c r="P38">
         <v>2014</v>
       </c>
-      <c r="Q36">
+      <c r="Q38">
         <v>2015</v>
       </c>
-      <c r="R36">
+      <c r="R38">
         <v>2016</v>
       </c>
-      <c r="S36">
+      <c r="S38">
         <v>2017</v>
       </c>
-      <c r="T36">
+      <c r="T38">
         <v>2018</v>
       </c>
-      <c r="U36">
+      <c r="U38">
         <v>2019</v>
       </c>
-      <c r="V36">
+      <c r="V38">
         <v>2020</v>
       </c>
-      <c r="W36">
+      <c r="W38">
         <v>2021</v>
       </c>
-      <c r="X36">
+      <c r="X38">
         <v>2022</v>
       </c>
-      <c r="Y36">
+      <c r="Y38">
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>0</v>
       </c>
-      <c r="H37">
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="J39">
         <v>0.02</v>
       </c>
-      <c r="K37">
+      <c r="K39">
         <v>0.01</v>
       </c>
-      <c r="L37">
+      <c r="L39">
         <v>0.04</v>
       </c>
-      <c r="M37">
+      <c r="M39">
         <v>0.06</v>
       </c>
-      <c r="N37">
+      <c r="N39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O37">
+      <c r="O39">
         <v>0.11</v>
       </c>
-      <c r="P37">
+      <c r="P39">
         <v>0.2</v>
       </c>
-      <c r="Q37">
+      <c r="Q39">
         <v>0.27</v>
       </c>
-      <c r="R37">
+      <c r="R39">
         <v>0.35</v>
       </c>
-      <c r="S37">
+      <c r="S39">
         <v>0.4</v>
       </c>
-      <c r="T37">
+      <c r="T39">
         <v>1.57</v>
       </c>
-      <c r="U37">
+      <c r="U39">
         <v>1.82</v>
       </c>
-      <c r="V37">
+      <c r="V39">
         <v>1.7</v>
       </c>
-      <c r="W37">
+      <c r="W39">
         <v>2.59</v>
       </c>
-      <c r="X37">
+      <c r="X39">
         <v>2.2400000000000002</v>
       </c>
-      <c r="Y37">
+      <c r="Y39">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>16.940000000000001</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>19.5</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>17.18</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>19.239999999999998</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>18.899999999999999</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <v>18.46</v>
       </c>
-      <c r="H38">
+      <c r="H40">
         <v>19.09</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>22.37</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <v>23.18</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>21.1</v>
       </c>
-      <c r="L38">
+      <c r="L40">
         <v>22.61</v>
       </c>
-      <c r="M38">
+      <c r="M40">
         <v>27.53</v>
       </c>
-      <c r="N38">
+      <c r="N40">
         <v>22.87</v>
       </c>
-      <c r="O38">
+      <c r="O40">
         <v>19.39</v>
       </c>
-      <c r="P38">
+      <c r="P40">
         <v>21.31</v>
       </c>
-      <c r="Q38">
+      <c r="Q40">
         <v>22.53</v>
       </c>
-      <c r="R38">
+      <c r="R40">
         <v>19.37</v>
       </c>
-      <c r="S38">
+      <c r="S40">
         <v>20.92</v>
       </c>
-      <c r="T38">
+      <c r="T40">
         <v>18.66</v>
       </c>
-      <c r="U38">
+      <c r="U40">
         <v>17.2</v>
       </c>
-      <c r="V38">
+      <c r="V40">
         <v>13.51</v>
       </c>
-      <c r="W38">
+      <c r="W40">
         <v>17.09</v>
       </c>
-      <c r="X38">
+      <c r="X40">
         <v>21.79</v>
       </c>
-      <c r="Y38">
+      <c r="Y40">
         <v>11.56</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>1.91</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>1.91</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>1.54</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>1.76</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>1.49</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <v>1.73</v>
       </c>
-      <c r="H39">
+      <c r="H41">
         <v>2.16</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <v>2.34</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <v>2.36</v>
       </c>
-      <c r="K39">
+      <c r="K41">
         <v>1.96</v>
       </c>
-      <c r="L39">
+      <c r="L41">
         <v>1.97</v>
       </c>
-      <c r="M39">
+      <c r="M41">
         <v>2.08</v>
       </c>
-      <c r="N39">
+      <c r="N41">
         <v>2.36</v>
       </c>
-      <c r="O39">
+      <c r="O41">
         <v>2.34</v>
       </c>
-      <c r="P39">
+      <c r="P41">
         <v>2.14</v>
       </c>
-      <c r="Q39">
+      <c r="Q41">
         <v>1.86</v>
       </c>
-      <c r="R39">
+      <c r="R41">
         <v>2.0499999999999998</v>
       </c>
-      <c r="S39">
+      <c r="S41">
         <v>1.93</v>
       </c>
-      <c r="T39">
+      <c r="T41">
         <v>2.02</v>
       </c>
-      <c r="U39">
+      <c r="U41">
         <v>2.15</v>
       </c>
-      <c r="V39">
+      <c r="V41">
         <v>2.29</v>
       </c>
-      <c r="W39">
+      <c r="W41">
         <v>3.05</v>
       </c>
-      <c r="X39">
+      <c r="X41">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Y39">
+      <c r="Y41">
         <v>1.56</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>2.63</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>1.65</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>2.12</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>2.99</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <v>3.14</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <v>4.3</v>
       </c>
-      <c r="H40">
+      <c r="H42">
         <v>4.21</v>
       </c>
-      <c r="I40">
+      <c r="I42">
         <v>2.83</v>
       </c>
-      <c r="J40">
+      <c r="J42">
         <v>2.79</v>
       </c>
-      <c r="K40">
+      <c r="K42">
         <v>3.43</v>
       </c>
-      <c r="L40">
+      <c r="L42">
         <v>5.03</v>
       </c>
-      <c r="M40">
+      <c r="M42">
         <v>2.87</v>
       </c>
-      <c r="N40">
+      <c r="N42">
         <v>3.18</v>
       </c>
-      <c r="O40">
+      <c r="O42">
         <v>4.04</v>
       </c>
-      <c r="P40">
+      <c r="P42">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q40">
+      <c r="Q42">
         <v>5.65</v>
       </c>
-      <c r="R40">
+      <c r="R42">
         <v>3.88</v>
       </c>
-      <c r="S40">
+      <c r="S42">
         <v>2.83</v>
       </c>
-      <c r="T40">
+      <c r="T42">
         <v>5.15</v>
       </c>
-      <c r="U40">
+      <c r="U42">
         <v>2.93</v>
       </c>
-      <c r="V40">
+      <c r="V42">
         <v>2.82</v>
       </c>
-      <c r="W40">
+      <c r="W42">
         <v>4.82</v>
       </c>
-      <c r="X40">
+      <c r="X42">
         <v>3.8</v>
       </c>
-      <c r="Y40">
+      <c r="Y42">
         <v>3.11</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>18.18</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>19.55</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>20.22</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>17.28</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>16.82</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>18.649999999999999</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <v>19.489999999999998</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>14.64</v>
       </c>
-      <c r="J41">
+      <c r="J43">
         <v>15.77</v>
       </c>
-      <c r="K41">
+      <c r="K43">
         <v>15.26</v>
       </c>
-      <c r="L41">
+      <c r="L43">
         <v>15.25</v>
       </c>
-      <c r="M41">
+      <c r="M43">
         <v>16.309999999999999</v>
       </c>
-      <c r="N41">
+      <c r="N43">
         <v>15.78</v>
       </c>
-      <c r="O41">
+      <c r="O43">
         <v>14.17</v>
       </c>
-      <c r="P41">
+      <c r="P43">
         <v>15.87</v>
       </c>
-      <c r="Q41">
+      <c r="Q43">
         <v>15.38</v>
       </c>
-      <c r="R41">
+      <c r="R43">
         <v>15.78</v>
       </c>
-      <c r="S41">
+      <c r="S43">
         <v>15.55</v>
       </c>
-      <c r="T41">
+      <c r="T43">
         <v>16.13</v>
       </c>
-      <c r="U41">
+      <c r="U43">
         <v>16.559999999999999</v>
       </c>
-      <c r="V41">
+      <c r="V43">
         <v>16.63</v>
       </c>
-      <c r="W41">
+      <c r="W43">
         <v>16.489999999999998</v>
       </c>
-      <c r="X41">
+      <c r="X43">
         <v>16.46</v>
       </c>
-      <c r="Y41">
+      <c r="Y43">
         <v>16.16</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>37</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>0.93</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>0.83</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>1.02</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <v>1.01</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <v>1.01</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <v>0.75</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <v>0.47</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <v>0.59</v>
       </c>
-      <c r="J42">
+      <c r="J44">
         <v>0.25</v>
       </c>
-      <c r="K42">
+      <c r="K44">
         <v>0.31</v>
       </c>
-      <c r="L42">
+      <c r="L44">
         <v>0.34</v>
       </c>
-      <c r="M42">
+      <c r="M44">
         <v>0.15</v>
       </c>
-      <c r="N42">
+      <c r="N44">
         <v>0.2</v>
       </c>
-      <c r="O42">
+      <c r="O44">
         <v>0.21</v>
       </c>
-      <c r="P42">
+      <c r="P44">
         <v>0.21</v>
       </c>
-      <c r="Q42">
+      <c r="Q44">
         <v>0.19</v>
       </c>
-      <c r="R42">
+      <c r="R44">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S42">
+      <c r="S44">
         <v>0.31</v>
       </c>
-      <c r="T42">
+      <c r="T44">
         <v>0.32</v>
       </c>
-      <c r="U42">
+      <c r="U44">
         <v>0.32</v>
       </c>
-      <c r="V42">
+      <c r="V44">
         <v>0.24</v>
       </c>
-      <c r="W42">
+      <c r="W44">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X42">
+      <c r="X44">
         <v>0.35</v>
       </c>
-      <c r="Y42">
+      <c r="Y44">
         <v>0.35</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>0</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <v>0</v>
       </c>
-      <c r="H43">
+      <c r="H45">
         <v>0</v>
       </c>
-      <c r="I43">
+      <c r="I45">
         <v>0</v>
       </c>
-      <c r="J43">
+      <c r="J45">
         <v>0</v>
       </c>
-      <c r="K43">
+      <c r="K45">
         <v>0</v>
       </c>
-      <c r="L43">
+      <c r="L45">
         <v>0.01</v>
       </c>
-      <c r="M43">
+      <c r="M45">
         <v>0.1</v>
       </c>
-      <c r="N43">
+      <c r="N45">
         <v>0.78</v>
       </c>
-      <c r="O43">
+      <c r="O45">
         <v>1.39</v>
       </c>
-      <c r="P43">
+      <c r="P45">
         <v>1.26</v>
       </c>
-      <c r="Q43">
+      <c r="Q45">
         <v>1.38</v>
       </c>
-      <c r="R43">
+      <c r="R45">
         <v>1.39</v>
       </c>
-      <c r="S43">
+      <c r="S45">
         <v>1.4</v>
       </c>
-      <c r="T43">
+      <c r="T45">
         <v>1.34</v>
       </c>
-      <c r="U43">
+      <c r="U45">
         <v>1.42</v>
       </c>
-      <c r="V43">
+      <c r="V45">
         <v>1.47</v>
       </c>
-      <c r="W43">
+      <c r="W45">
         <v>1.47</v>
       </c>
-      <c r="X43">
+      <c r="X45">
         <v>2.09</v>
       </c>
-      <c r="Y43">
+      <c r="Y45">
         <v>3.52</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>0</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>0</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F46">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <v>0</v>
       </c>
-      <c r="H44">
+      <c r="H46">
         <v>0.02</v>
       </c>
-      <c r="I44">
+      <c r="I46">
         <v>0.05</v>
       </c>
-      <c r="J44">
+      <c r="J46">
         <v>0.12</v>
       </c>
-      <c r="K44">
+      <c r="K46">
         <v>0.24</v>
       </c>
-      <c r="L44">
+      <c r="L46">
         <v>0.68</v>
       </c>
-      <c r="M44">
+      <c r="M46">
         <v>0.86</v>
       </c>
-      <c r="N44">
+      <c r="N46">
         <v>1.22</v>
       </c>
-      <c r="O44">
+      <c r="O46">
         <v>1.37</v>
       </c>
-      <c r="P44">
+      <c r="P46">
         <v>1.33</v>
       </c>
-      <c r="Q44">
+      <c r="Q46">
         <v>1.45</v>
       </c>
-      <c r="R44">
+      <c r="R46">
         <v>1.42</v>
       </c>
-      <c r="S44">
+      <c r="S46">
         <v>1.5</v>
       </c>
-      <c r="T44">
+      <c r="T46">
         <v>1.32</v>
       </c>
-      <c r="U44">
+      <c r="U46">
         <v>1.32</v>
       </c>
-      <c r="V44">
+      <c r="V46">
         <v>1.48</v>
       </c>
-      <c r="W44">
+      <c r="W46">
         <v>1.43</v>
       </c>
-      <c r="X44">
+      <c r="X46">
         <v>1.44</v>
       </c>
-      <c r="Y44">
+      <c r="Y46">
         <v>1.55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48">
-        <v>2000</v>
-      </c>
-      <c r="C48">
-        <v>2001</v>
-      </c>
-      <c r="D48">
-        <v>2002</v>
-      </c>
-      <c r="E48">
-        <v>2003</v>
-      </c>
-      <c r="F48">
-        <v>2004</v>
-      </c>
-      <c r="G48">
-        <v>2005</v>
-      </c>
-      <c r="H48">
-        <v>2006</v>
-      </c>
-      <c r="I48">
-        <v>2007</v>
-      </c>
-      <c r="J48">
-        <v>2008</v>
-      </c>
-      <c r="K48">
-        <v>2009</v>
-      </c>
-      <c r="L48">
-        <v>2010</v>
-      </c>
-      <c r="M48">
-        <v>2011</v>
-      </c>
-      <c r="N48">
-        <v>2012</v>
-      </c>
-      <c r="O48">
-        <v>2013</v>
-      </c>
-      <c r="P48">
-        <v>2014</v>
-      </c>
-      <c r="Q48">
-        <v>2015</v>
-      </c>
-      <c r="R48">
-        <v>2016</v>
-      </c>
-      <c r="S48">
-        <v>2017</v>
-      </c>
-      <c r="T48">
-        <v>2018</v>
-      </c>
-      <c r="U48">
-        <v>2019</v>
-      </c>
-      <c r="V48">
-        <v>2020</v>
-      </c>
-      <c r="W48">
-        <v>2021</v>
-      </c>
-      <c r="X48">
-        <v>2022</v>
-      </c>
-      <c r="Y48">
-        <v>2023</v>
-      </c>
-      <c r="Z48">
-        <v>2024</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C49">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D49">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H49">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I49">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J49">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K49">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="L49">
-        <v>0.01</v>
-      </c>
-      <c r="M49">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N49">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O49">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="P49">
-        <v>0.04</v>
-      </c>
-      <c r="Q49">
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="R49">
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="S49">
-        <v>5.2003000000000001E-2</v>
-      </c>
-      <c r="T49">
-        <v>6.942799999999999E-2</v>
-      </c>
-      <c r="U49">
-        <v>5.6869000000000003E-2</v>
-      </c>
-      <c r="V49">
-        <v>4.8054000000000006E-2</v>
-      </c>
-      <c r="W49">
-        <v>4.7321000000000002E-2</v>
-      </c>
-      <c r="X49">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Y49">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Z49">
-        <v>7.8688999999999995E-2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50">
-        <v>1.88</v>
+        <v>2000</v>
       </c>
       <c r="C50">
-        <v>1.7050000000000001</v>
+        <v>2001</v>
       </c>
       <c r="D50">
-        <v>1.948</v>
+        <v>2002</v>
       </c>
       <c r="E50">
-        <v>2.5150000000000001</v>
+        <v>2003</v>
       </c>
       <c r="F50">
-        <v>2.8479999999999999</v>
+        <v>2004</v>
       </c>
       <c r="G50">
-        <v>2.8479999999999999</v>
+        <v>2005</v>
       </c>
       <c r="H50">
-        <v>2.8479999999999999</v>
+        <v>2006</v>
       </c>
       <c r="I50">
-        <v>2.8759999999999999</v>
+        <v>2007</v>
       </c>
       <c r="J50">
-        <v>2.984</v>
+        <v>2008</v>
       </c>
       <c r="K50">
-        <v>3.0009999999999999</v>
+        <v>2009</v>
       </c>
       <c r="L50">
-        <v>3.048</v>
+        <v>2010</v>
       </c>
       <c r="M50">
-        <v>3.1080000000000001</v>
+        <v>2011</v>
       </c>
       <c r="N50">
-        <v>3.181</v>
+        <v>2012</v>
       </c>
       <c r="O50">
-        <v>3.2029999999999998</v>
+        <v>2013</v>
       </c>
       <c r="P50">
-        <v>3.2189999999999999</v>
+        <v>2014</v>
       </c>
       <c r="Q50">
-        <v>3.2189999999999999</v>
+        <v>2015</v>
       </c>
       <c r="R50">
-        <v>3.2229999999999999</v>
+        <v>2016</v>
       </c>
       <c r="S50">
-        <v>3.37155</v>
+        <v>2017</v>
       </c>
       <c r="T50">
-        <v>3.379</v>
+        <v>2018</v>
       </c>
       <c r="U50">
-        <v>3.3783499999999997</v>
+        <v>2019</v>
       </c>
       <c r="V50">
-        <v>3.3764560000000001</v>
+        <v>2020</v>
       </c>
       <c r="W50">
-        <v>3.3692329999999999</v>
+        <v>2021</v>
       </c>
       <c r="X50">
-        <v>3.348185</v>
+        <v>2022</v>
       </c>
       <c r="Y50">
-        <v>3.3502800000000001</v>
+        <v>2023</v>
       </c>
       <c r="Z50">
-        <v>3.3502800000000001</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>3.532</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C51">
-        <v>3.532</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D51">
-        <v>2.722</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E51">
-        <v>2.722</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F51">
-        <v>2.722</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G51">
-        <v>2.722</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H51">
-        <v>2.722</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I51">
-        <v>1.8919999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J51">
-        <v>1.8919999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K51">
-        <v>1.8919999999999999</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="L51">
-        <v>1.8919999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="M51">
-        <v>1.8919999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N51">
-        <v>1.9059999999999999</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O51">
-        <v>1.982</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P51">
-        <v>1.9750000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="Q51">
-        <v>1.9750000000000001</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="R51">
-        <v>1.9670000000000001</v>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="S51">
-        <v>1.9670000000000001</v>
+        <v>5.2003000000000001E-2</v>
       </c>
       <c r="T51">
-        <v>2.008</v>
+        <v>6.942799999999999E-2</v>
       </c>
       <c r="U51">
-        <v>2.0059999999999998</v>
+        <v>5.6869000000000003E-2</v>
       </c>
       <c r="V51">
-        <v>2.0059999999999998</v>
+        <v>4.8054000000000006E-2</v>
       </c>
       <c r="W51">
-        <v>2.0059999999999998</v>
+        <v>4.7321000000000002E-2</v>
       </c>
       <c r="X51">
-        <v>2.0059999999999998</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Y51">
-        <v>2.0059999999999998</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Z51">
-        <v>2.0059999999999998</v>
+        <v>7.8688999999999995E-2</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B52">
-        <v>5.6210000000000004</v>
+        <v>1.88</v>
       </c>
       <c r="C52">
-        <v>7.4059999999999997</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="D52">
-        <v>6.8259999999999996</v>
+        <v>1.948</v>
       </c>
       <c r="E52">
-        <v>6.7519999999999998</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="F52">
-        <v>6.6820000000000004</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="G52">
-        <v>6.6749999999999998</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="H52">
-        <v>6.4119999999999999</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="I52">
-        <v>4.8959999999999999</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="J52">
-        <v>4.641</v>
+        <v>2.984</v>
       </c>
       <c r="K52">
-        <v>4.3630000000000004</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="L52">
-        <v>4.5679999999999996</v>
+        <v>3.048</v>
       </c>
       <c r="M52">
-        <v>4.5350000000000001</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="N52">
-        <v>4.8979999999999997</v>
+        <v>3.181</v>
       </c>
       <c r="O52">
-        <v>4.6669999999999998</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="P52">
-        <v>4.43</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="Q52">
-        <v>3.9369999999999998</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="R52">
-        <v>3.7650000000000001</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="S52">
-        <v>3.7333600000000002</v>
+        <v>3.37155</v>
       </c>
       <c r="T52">
-        <v>4.1509750000000007</v>
+        <v>3.379</v>
       </c>
       <c r="U52">
-        <v>4.040362</v>
+        <v>3.3783499999999997</v>
       </c>
       <c r="V52">
-        <v>3.7584020000000002</v>
+        <v>3.3764560000000001</v>
       </c>
       <c r="W52">
-        <v>3.8066649999999997</v>
+        <v>3.3692329999999999</v>
       </c>
       <c r="X52">
-        <v>3.9745819999999998</v>
+        <v>3.348185</v>
       </c>
       <c r="Y52">
-        <v>3.9745819999999998</v>
+        <v>3.3502800000000001</v>
       </c>
       <c r="Z52">
-        <v>3.9745819999999998</v>
+        <v>3.3502800000000001</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>3.532</v>
+      </c>
+      <c r="C53">
+        <v>3.532</v>
+      </c>
+      <c r="D53">
+        <v>2.722</v>
+      </c>
+      <c r="E53">
+        <v>2.722</v>
+      </c>
+      <c r="F53">
+        <v>2.722</v>
+      </c>
+      <c r="G53">
+        <v>2.722</v>
+      </c>
+      <c r="H53">
+        <v>2.722</v>
       </c>
       <c r="I53">
-        <v>2.9999999999999997E-5</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="J53">
-        <v>1E-4</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="K53">
-        <v>2E-3</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="L53">
-        <v>2.5000000000000001E-2</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="M53">
-        <v>0.154</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="N53">
-        <v>0.92200000000000004</v>
+        <v>1.9059999999999999</v>
       </c>
       <c r="O53">
-        <v>1.0389999999999999</v>
+        <v>1.982</v>
       </c>
       <c r="P53">
-        <v>1.0289999999999999</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="Q53">
-        <v>1.028</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="R53">
-        <v>1.03</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="S53">
-        <v>1.0307010000000001</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="T53">
-        <v>1.033058</v>
+        <v>2.008</v>
       </c>
       <c r="U53">
-        <v>1.0443900000000002</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="V53">
-        <v>1.1002110000000001</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="W53">
-        <v>1.274713</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="X53">
-        <v>1.736537</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="Y53">
-        <v>2.9081269999999999</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="Z53">
-        <v>3.9081269999999999</v>
+        <v>2.0059999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C54">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="D54">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="E54">
+        <v>6.7519999999999998</v>
+      </c>
+      <c r="F54">
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="G54">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H54">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="I54">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="J54">
+        <v>4.641</v>
+      </c>
+      <c r="K54">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="L54">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="M54">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="N54">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="O54">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="P54">
+        <v>4.43</v>
+      </c>
+      <c r="Q54">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="R54">
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="S54">
+        <v>3.7333600000000002</v>
+      </c>
+      <c r="T54">
+        <v>4.1509750000000007</v>
+      </c>
+      <c r="U54">
+        <v>4.040362</v>
+      </c>
+      <c r="V54">
+        <v>3.7584020000000002</v>
+      </c>
+      <c r="W54">
+        <v>3.8066649999999997</v>
+      </c>
+      <c r="X54">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Y54">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Z54">
+        <v>3.9745819999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="J55">
+        <v>1E-4</v>
+      </c>
+      <c r="K55">
+        <v>2E-3</v>
+      </c>
+      <c r="L55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <v>0.154</v>
+      </c>
+      <c r="N55">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O55">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="P55">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>1.028</v>
+      </c>
+      <c r="R55">
+        <v>1.03</v>
+      </c>
+      <c r="S55">
+        <v>1.0307010000000001</v>
+      </c>
+      <c r="T55">
+        <v>1.033058</v>
+      </c>
+      <c r="U55">
+        <v>1.0443900000000002</v>
+      </c>
+      <c r="V55">
+        <v>1.1002110000000001</v>
+      </c>
+      <c r="W55">
+        <v>1.274713</v>
+      </c>
+      <c r="X55">
+        <v>1.736537</v>
+      </c>
+      <c r="Y55">
+        <v>2.9081269999999999</v>
+      </c>
+      <c r="Z55">
+        <v>3.9081269999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>42</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>1E-3</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H54">
+      <c r="H56">
         <v>2.7E-2</v>
       </c>
-      <c r="I54">
+      <c r="I56">
         <v>0.03</v>
       </c>
-      <c r="J54">
+      <c r="J56">
         <v>0.114</v>
       </c>
-      <c r="K54">
+      <c r="K56">
         <v>0.33300000000000002</v>
       </c>
-      <c r="L54">
+      <c r="L56">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M54">
+      <c r="M56">
         <v>0.54100000000000004</v>
       </c>
-      <c r="N54">
+      <c r="N56">
         <v>0.67700000000000005</v>
       </c>
-      <c r="O54">
+      <c r="O56">
         <v>0.68300000000000005</v>
       </c>
-      <c r="P54">
+      <c r="P56">
         <v>0.69899999999999995</v>
       </c>
-      <c r="Q54">
+      <c r="Q56">
         <v>0.69899999999999995</v>
       </c>
-      <c r="R54">
+      <c r="R56">
         <v>0.69899999999999995</v>
       </c>
-      <c r="S54">
+      <c r="S56">
         <v>0.69838999999999996</v>
       </c>
-      <c r="T54">
+      <c r="T56">
         <v>0.69891999999999999</v>
       </c>
-      <c r="U54">
+      <c r="U56">
         <v>0.70311999999999997</v>
       </c>
-      <c r="V54">
+      <c r="V56">
         <v>0.70279999999999998</v>
       </c>
-      <c r="W54">
+      <c r="W56">
         <v>0.70437499999999997</v>
       </c>
-      <c r="X54">
+      <c r="X56">
         <v>0.70430999999999999</v>
       </c>
-      <c r="Y54">
+      <c r="Y56">
         <v>0.70430999999999999</v>
       </c>
-      <c r="Z54">
+      <c r="Z56">
         <v>0.70430999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58">
-        <v>2000</v>
-      </c>
-      <c r="C58">
-        <v>2001</v>
-      </c>
-      <c r="D58">
-        <v>2002</v>
-      </c>
-      <c r="E58">
-        <v>2003</v>
-      </c>
-      <c r="F58">
-        <v>2004</v>
-      </c>
-      <c r="G58">
-        <v>2005</v>
-      </c>
-      <c r="H58">
-        <v>2006</v>
-      </c>
-      <c r="I58">
-        <v>2007</v>
-      </c>
-      <c r="J58">
-        <v>2008</v>
-      </c>
-      <c r="K58">
-        <v>2009</v>
-      </c>
-      <c r="L58">
-        <v>2010</v>
-      </c>
-      <c r="M58">
-        <v>2011</v>
-      </c>
-      <c r="N58">
-        <v>2012</v>
-      </c>
-      <c r="O58">
-        <v>2013</v>
-      </c>
-      <c r="P58">
-        <v>2014</v>
-      </c>
-      <c r="Q58">
-        <v>2015</v>
-      </c>
-      <c r="R58">
-        <v>2016</v>
-      </c>
-      <c r="S58">
-        <v>2017</v>
-      </c>
-      <c r="T58">
-        <v>2018</v>
-      </c>
-      <c r="U58">
-        <v>2019</v>
-      </c>
-      <c r="V58">
-        <v>2020</v>
-      </c>
-      <c r="W58">
-        <v>2021</v>
-      </c>
-      <c r="X58">
-        <v>2022</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="J59">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K59">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L59">
-        <v>3.5431999999999998E-2</v>
-      </c>
-      <c r="M59">
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="N59">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="O59">
-        <v>0.110402</v>
-      </c>
-      <c r="P59">
-        <v>0.2</v>
-      </c>
-      <c r="Q59">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="R59">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="S59">
-        <v>0.39598100000000003</v>
-      </c>
-      <c r="T59">
-        <v>1.5729660000000001</v>
-      </c>
-      <c r="U59">
-        <v>1.820811</v>
-      </c>
-      <c r="V59">
-        <v>1.699341</v>
-      </c>
-      <c r="W59">
-        <v>2.5888920000000004</v>
-      </c>
-      <c r="X59">
-        <v>2.2435940000000003</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>17.207000000000001</v>
+        <v>2000</v>
       </c>
       <c r="C60">
-        <v>19.757000000000001</v>
+        <v>2001</v>
       </c>
       <c r="D60">
-        <v>17.373000000000001</v>
+        <v>2002</v>
       </c>
       <c r="E60">
-        <v>19.462</v>
+        <v>2003</v>
       </c>
       <c r="F60">
-        <v>19.106999999999999</v>
+        <v>2004</v>
       </c>
       <c r="G60">
-        <v>18.625</v>
+        <v>2005</v>
       </c>
       <c r="H60">
-        <v>19.206</v>
+        <v>2006</v>
       </c>
       <c r="I60">
-        <v>22.463000000000001</v>
+        <v>2007</v>
       </c>
       <c r="J60">
-        <v>23.22</v>
+        <v>2008</v>
       </c>
       <c r="K60">
-        <v>21.103000000000002</v>
+        <v>2009</v>
       </c>
       <c r="L60">
-        <v>22.606000000000002</v>
+        <v>2010</v>
       </c>
       <c r="M60">
-        <v>27.536999999999999</v>
+        <v>2011</v>
       </c>
       <c r="N60">
-        <v>22.876000000000001</v>
+        <v>2012</v>
       </c>
       <c r="O60">
-        <v>19.391598000000002</v>
+        <v>2013</v>
       </c>
       <c r="P60">
-        <v>21.305</v>
+        <v>2014</v>
       </c>
       <c r="Q60">
-        <v>22.521999999999998</v>
+        <v>2015</v>
       </c>
       <c r="R60">
-        <v>19.364000000000001</v>
+        <v>2016</v>
       </c>
       <c r="S60">
-        <v>20.914090999999999</v>
+        <v>2017</v>
       </c>
       <c r="T60">
-        <v>18.659473000000002</v>
+        <v>2018</v>
       </c>
       <c r="U60">
-        <v>17.224985</v>
+        <v>2019</v>
       </c>
       <c r="V60">
-        <v>13.53266</v>
+        <v>2020</v>
       </c>
       <c r="W60">
-        <v>17.085889999999999</v>
+        <v>2021</v>
       </c>
       <c r="X60">
-        <v>21.785509999999999</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61">
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="C61">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="D61">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="E61">
-        <v>1.762</v>
-      </c>
-      <c r="F61">
-        <v>1.494</v>
-      </c>
-      <c r="G61">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="H61">
-        <v>2.1589999999999998</v>
-      </c>
-      <c r="I61">
-        <v>2.3359999999999999</v>
+        <v>31</v>
       </c>
       <c r="J61">
-        <v>2.36</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K61">
-        <v>1.9610000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L61">
-        <v>1.9665680000000001</v>
+        <v>3.5431999999999998E-2</v>
       </c>
       <c r="M61">
-        <v>2.077</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="N61">
-        <v>2.3559999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O61">
-        <v>2.339</v>
+        <v>0.110402</v>
       </c>
       <c r="P61">
-        <v>2.1419999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Q61">
-        <v>1.8640000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="R61">
-        <v>2.0529999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="S61">
-        <v>1.9266459999999999</v>
+        <v>0.39598100000000003</v>
       </c>
       <c r="T61">
-        <v>2.0227580000000001</v>
+        <v>1.5729660000000001</v>
       </c>
       <c r="U61">
-        <v>2.1529029999999998</v>
+        <v>1.820811</v>
       </c>
       <c r="V61">
-        <v>2.292316</v>
+        <v>1.699341</v>
       </c>
       <c r="W61">
-        <v>3.0456720000000002</v>
+        <v>2.5888920000000004</v>
       </c>
       <c r="X61">
-        <v>2.0534110000000001</v>
+        <v>2.2435940000000003</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B62">
-        <v>2.9509999999999996</v>
+        <v>17.207000000000001</v>
       </c>
       <c r="C62">
-        <v>2.1710000000000003</v>
+        <v>19.757000000000001</v>
       </c>
       <c r="D62">
-        <v>2.7040000000000002</v>
+        <v>17.373000000000001</v>
       </c>
       <c r="E62">
-        <v>3.3010000000000002</v>
+        <v>19.462</v>
       </c>
       <c r="F62">
-        <v>3.3628110000000002</v>
+        <v>19.106999999999999</v>
       </c>
       <c r="G62">
-        <v>4.7298960000000001</v>
+        <v>18.625</v>
       </c>
       <c r="H62">
-        <v>4.5789740000000005</v>
+        <v>19.206</v>
       </c>
       <c r="I62">
-        <v>3.2339989999999998</v>
+        <v>22.463000000000001</v>
       </c>
       <c r="J62">
-        <v>3.2767620000000002</v>
+        <v>23.22</v>
       </c>
       <c r="K62">
-        <v>4.0527119999999996</v>
+        <v>21.103000000000002</v>
       </c>
       <c r="L62">
-        <v>5.6925160000000004</v>
+        <v>22.606000000000002</v>
       </c>
       <c r="M62">
-        <v>3.6909139999999998</v>
+        <v>27.536999999999999</v>
       </c>
       <c r="N62">
-        <v>3.9757060000000002</v>
+        <v>22.876000000000001</v>
       </c>
       <c r="O62">
-        <v>4.7951379999999997</v>
+        <v>19.391598000000002</v>
       </c>
       <c r="P62">
-        <v>5.1626289999999999</v>
+        <v>21.305</v>
       </c>
       <c r="Q62">
-        <v>6.1465419999999993</v>
+        <v>22.521999999999998</v>
       </c>
       <c r="R62">
-        <v>4.5678419999999997</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="S62">
-        <v>3.4929449999999997</v>
+        <v>20.914090999999999</v>
       </c>
       <c r="T62">
-        <v>5.4227320000000008</v>
+        <v>18.659473000000002</v>
       </c>
       <c r="U62">
-        <v>3.3827449999999999</v>
+        <v>17.224985</v>
       </c>
       <c r="V62">
-        <v>3.3202579999999999</v>
+        <v>13.53266</v>
       </c>
       <c r="W62">
-        <v>5.0671330000000001</v>
+        <v>17.085889999999999</v>
       </c>
       <c r="X62">
-        <v>3.833256</v>
+        <v>21.785509999999999</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>18.178000000000001</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="C63">
-        <v>19.553000000000001</v>
+        <v>1.9079999999999999</v>
       </c>
       <c r="D63">
-        <v>20.222000000000001</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="E63">
-        <v>17.28</v>
+        <v>1.762</v>
       </c>
       <c r="F63">
-        <v>16.815000000000001</v>
+        <v>1.494</v>
       </c>
       <c r="G63">
-        <v>18.652999999999999</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="H63">
-        <v>19.492999999999999</v>
+        <v>2.1589999999999998</v>
       </c>
       <c r="I63">
-        <v>14.643000000000001</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="J63">
-        <v>15.765000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="K63">
-        <v>15.256</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="L63">
-        <v>15.249000000000001</v>
+        <v>1.9665680000000001</v>
       </c>
       <c r="M63">
-        <v>16.314</v>
+        <v>2.077</v>
       </c>
       <c r="N63">
-        <v>15.785</v>
+        <v>2.3559999999999999</v>
       </c>
       <c r="O63">
-        <v>14.170999999999999</v>
+        <v>2.339</v>
       </c>
       <c r="P63">
-        <v>15.867000000000001</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="Q63">
-        <v>15.382999999999999</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="R63">
-        <v>15.776</v>
+        <v>2.0529999999999999</v>
       </c>
       <c r="S63">
-        <v>15.545499</v>
+        <v>1.9266459999999999</v>
       </c>
       <c r="T63">
-        <v>16.125281000000001</v>
+        <v>2.0227580000000001</v>
       </c>
       <c r="U63">
-        <v>16.555288000000001</v>
+        <v>2.1529029999999998</v>
       </c>
       <c r="V63">
-        <v>16.625764999999998</v>
+        <v>2.292316</v>
       </c>
       <c r="W63">
-        <v>16.486893999999999</v>
+        <v>3.0456720000000002</v>
       </c>
       <c r="X63">
-        <v>16.462018</v>
+        <v>2.0534110000000001</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B64">
-        <v>0.67600000000000005</v>
+        <v>2.9509999999999996</v>
       </c>
       <c r="C64">
-        <v>0.57899999999999996</v>
+        <v>2.1710000000000003</v>
       </c>
       <c r="D64">
-        <v>0.84099999999999997</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="E64">
-        <v>0.79500000000000004</v>
+        <v>3.3010000000000002</v>
       </c>
       <c r="F64">
-        <v>0.84099999999999997</v>
+        <v>3.3628110000000002</v>
       </c>
       <c r="G64">
-        <v>0.623</v>
+        <v>4.7298960000000001</v>
       </c>
       <c r="H64">
-        <v>0.38600000000000001</v>
+        <v>4.5789740000000005</v>
       </c>
       <c r="I64">
-        <v>0.57399999999999995</v>
+        <v>3.2339989999999998</v>
       </c>
       <c r="J64">
-        <v>0.27700000000000002</v>
+        <v>3.2767620000000002</v>
       </c>
       <c r="K64">
-        <v>0.34300000000000003</v>
+        <v>4.0527119999999996</v>
       </c>
       <c r="L64">
-        <v>0.40700000000000003</v>
+        <v>5.6925160000000004</v>
       </c>
       <c r="M64">
-        <v>0.16</v>
+        <v>3.6909139999999998</v>
       </c>
       <c r="N64">
-        <v>0.23499999999999999</v>
+        <v>3.9757060000000002</v>
       </c>
       <c r="O64">
-        <v>0.24199999999999999</v>
+        <v>4.7951379999999997</v>
       </c>
       <c r="P64">
-        <v>0.22500000000000001</v>
+        <v>5.1626289999999999</v>
       </c>
       <c r="Q64">
-        <v>0.20499999999999999</v>
+        <v>6.1465419999999993</v>
       </c>
       <c r="R64">
-        <v>0.35199999999999998</v>
+        <v>4.5678419999999997</v>
       </c>
       <c r="S64">
-        <v>0.43059500000000001</v>
+        <v>3.4929449999999997</v>
       </c>
       <c r="T64">
-        <v>0.37356200000000001</v>
+        <v>5.4227320000000008</v>
       </c>
       <c r="U64">
-        <v>0.40558499999999997</v>
+        <v>3.3827449999999999</v>
       </c>
       <c r="V64">
-        <v>0.33825000000000005</v>
+        <v>3.3202579999999999</v>
       </c>
       <c r="W64">
-        <v>0.39345599999999997</v>
+        <v>5.0671330000000001</v>
       </c>
       <c r="X64">
-        <v>0.52855200000000002</v>
+        <v>3.833256</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="C65">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="D65">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="E65">
+        <v>17.28</v>
+      </c>
+      <c r="F65">
+        <v>16.815000000000001</v>
+      </c>
+      <c r="G65">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="H65">
+        <v>19.492999999999999</v>
       </c>
       <c r="I65">
-        <v>5.9999999999999995E-5</v>
+        <v>14.643000000000001</v>
       </c>
       <c r="J65">
-        <v>1.6700000000000002E-4</v>
+        <v>15.765000000000001</v>
       </c>
       <c r="K65">
-        <v>3.2669999999999999E-3</v>
+        <v>15.256</v>
       </c>
       <c r="L65">
-        <v>1.4865E-2</v>
+        <v>15.249000000000001</v>
       </c>
       <c r="M65">
-        <v>0.10086199999999999</v>
+        <v>16.314</v>
       </c>
       <c r="N65">
-        <v>0.77869600000000005</v>
+        <v>15.785</v>
       </c>
       <c r="O65">
-        <v>1.3919870000000001</v>
+        <v>14.170999999999999</v>
       </c>
       <c r="P65">
-        <v>1.256651</v>
+        <v>15.867000000000001</v>
       </c>
       <c r="Q65">
-        <v>1.381661</v>
+        <v>15.382999999999999</v>
       </c>
       <c r="R65">
-        <v>1.3879900000000001</v>
+        <v>15.776</v>
       </c>
       <c r="S65">
-        <v>1.4029700000000001</v>
+        <v>15.545499</v>
       </c>
       <c r="T65">
-        <v>1.3427880000000001</v>
+        <v>16.125281000000001</v>
       </c>
       <c r="U65">
-        <v>1.417286</v>
+        <v>16.555288000000001</v>
       </c>
       <c r="V65">
-        <v>1.46872</v>
+        <v>16.625764999999998</v>
       </c>
       <c r="W65">
-        <v>1.4665979999999998</v>
+        <v>16.486893999999999</v>
       </c>
       <c r="X65">
-        <v>2.0938380000000003</v>
+        <v>16.462018</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C66">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D66">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E66">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F66">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G66">
+        <v>0.623</v>
+      </c>
+      <c r="H66">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I66">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J66">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K66">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L66">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="M66">
+        <v>0.16</v>
+      </c>
+      <c r="N66">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O66">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P66">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q66">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R66">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S66">
+        <v>0.43059500000000001</v>
+      </c>
+      <c r="T66">
+        <v>0.37356200000000001</v>
+      </c>
+      <c r="U66">
+        <v>0.40558499999999997</v>
+      </c>
+      <c r="V66">
+        <v>0.33825000000000005</v>
+      </c>
+      <c r="W66">
+        <v>0.39345599999999997</v>
+      </c>
+      <c r="X66">
+        <v>0.52855200000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J67">
+        <v>1.6700000000000002E-4</v>
+      </c>
+      <c r="K67">
+        <v>3.2669999999999999E-3</v>
+      </c>
+      <c r="L67">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="M67">
+        <v>0.10086199999999999</v>
+      </c>
+      <c r="N67">
+        <v>0.77869600000000005</v>
+      </c>
+      <c r="O67">
+        <v>1.3919870000000001</v>
+      </c>
+      <c r="P67">
+        <v>1.256651</v>
+      </c>
+      <c r="Q67">
+        <v>1.381661</v>
+      </c>
+      <c r="R67">
+        <v>1.3879900000000001</v>
+      </c>
+      <c r="S67">
+        <v>1.4029700000000001</v>
+      </c>
+      <c r="T67">
+        <v>1.3427880000000001</v>
+      </c>
+      <c r="U67">
+        <v>1.417286</v>
+      </c>
+      <c r="V67">
+        <v>1.46872</v>
+      </c>
+      <c r="W67">
+        <v>1.4665979999999998</v>
+      </c>
+      <c r="X67">
+        <v>2.0938380000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>42</v>
       </c>
-      <c r="F66">
+      <c r="F68">
         <v>1E-3</v>
       </c>
-      <c r="G66">
+      <c r="G68">
         <v>4.5869999999999999E-3</v>
       </c>
-      <c r="H66">
+      <c r="H68">
         <v>2.0047000000000002E-2</v>
       </c>
-      <c r="I66">
+      <c r="I68">
         <v>4.6801999999999996E-2</v>
       </c>
-      <c r="J66">
+      <c r="J68">
         <v>0.12175799999999999</v>
       </c>
-      <c r="K66">
+      <c r="K68">
         <v>0.237009</v>
       </c>
-      <c r="L66">
+      <c r="L68">
         <v>0.681369</v>
       </c>
-      <c r="M66">
+      <c r="M68">
         <v>0.86109500000000005</v>
       </c>
-      <c r="N66">
+      <c r="N68">
         <v>1.2208979999999998</v>
       </c>
-      <c r="O66">
+      <c r="O68">
         <v>1.3735119999999998</v>
       </c>
-      <c r="P66">
+      <c r="P68">
         <v>1.3305769999999999</v>
       </c>
-      <c r="Q66">
+      <c r="Q68">
         <v>1.451511</v>
       </c>
-      <c r="R66">
+      <c r="R68">
         <v>1.4249700000000001</v>
       </c>
-      <c r="S66">
+      <c r="S68">
         <v>1.5040640000000001</v>
       </c>
-      <c r="T66">
+      <c r="T68">
         <v>1.3181230000000002</v>
       </c>
-      <c r="U66">
+      <c r="U68">
         <v>1.316988</v>
       </c>
-      <c r="V66">
+      <c r="V68">
         <v>1.4771310000000002</v>
       </c>
-      <c r="W66">
+      <c r="W68">
         <v>1.4335609999999999</v>
       </c>
-      <c r="X66">
+      <c r="X68">
         <v>1.499125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70">
-        <v>2000</v>
-      </c>
-      <c r="D70">
-        <v>2001</v>
-      </c>
-      <c r="E70">
-        <v>2002</v>
-      </c>
-      <c r="F70">
-        <v>2003</v>
-      </c>
-      <c r="G70">
-        <v>2004</v>
-      </c>
-      <c r="H70">
-        <v>2005</v>
-      </c>
-      <c r="I70">
-        <v>2006</v>
-      </c>
-      <c r="J70">
-        <v>2007</v>
-      </c>
-      <c r="K70">
-        <v>2008</v>
-      </c>
-      <c r="L70">
-        <v>2009</v>
-      </c>
-      <c r="M70">
-        <v>2010</v>
-      </c>
-      <c r="N70">
-        <v>2011</v>
-      </c>
-      <c r="O70">
-        <v>2012</v>
-      </c>
-      <c r="P70">
-        <v>2013</v>
-      </c>
-      <c r="Q70">
-        <v>2014</v>
-      </c>
-      <c r="R70">
-        <v>2015</v>
-      </c>
-      <c r="S70">
-        <v>2016</v>
-      </c>
-      <c r="T70">
-        <v>2017</v>
-      </c>
-      <c r="U70">
-        <v>2018</v>
-      </c>
-      <c r="V70">
-        <v>2019</v>
-      </c>
-      <c r="W70">
-        <v>2020</v>
-      </c>
-      <c r="X70">
-        <v>2021</v>
-      </c>
-      <c r="Y70">
-        <v>2022</v>
-      </c>
-      <c r="Z70">
-        <v>2023</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71">
-        <v>5.6</v>
-      </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F71">
-        <v>6.8</v>
-      </c>
-      <c r="G71">
-        <v>6.6</v>
-      </c>
-      <c r="H71">
-        <v>8.4</v>
-      </c>
-      <c r="I71">
-        <v>8.9</v>
-      </c>
-      <c r="J71">
-        <v>7.5</v>
-      </c>
-      <c r="K71">
-        <v>8.4</v>
-      </c>
-      <c r="L71">
-        <v>7.7</v>
-      </c>
-      <c r="M71">
-        <v>9.6</v>
-      </c>
-      <c r="N71">
-        <v>12.1</v>
-      </c>
-      <c r="O71">
-        <v>10.7</v>
-      </c>
-      <c r="P71">
-        <v>9.5</v>
-      </c>
-      <c r="Q71">
-        <v>13.8</v>
-      </c>
-      <c r="R71">
-        <v>14.8</v>
-      </c>
-      <c r="S71">
-        <v>10.9</v>
-      </c>
-      <c r="T71">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="U71">
-        <v>10</v>
-      </c>
-      <c r="V71">
-        <v>8.9</v>
-      </c>
-      <c r="W71">
-        <v>7.1</v>
-      </c>
-      <c r="X71">
-        <v>10.6</v>
-      </c>
-      <c r="Y71">
-        <v>13.7</v>
-      </c>
-      <c r="Z71">
-        <v>7.7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>2000</v>
+      </c>
+      <c r="D72">
+        <v>2001</v>
+      </c>
+      <c r="E72">
+        <v>2002</v>
+      </c>
+      <c r="F72">
+        <v>2003</v>
+      </c>
+      <c r="G72">
+        <v>2004</v>
+      </c>
+      <c r="H72">
+        <v>2005</v>
+      </c>
+      <c r="I72">
+        <v>2006</v>
+      </c>
+      <c r="J72">
+        <v>2007</v>
+      </c>
+      <c r="K72">
+        <v>2008</v>
+      </c>
+      <c r="L72">
+        <v>2009</v>
+      </c>
+      <c r="M72">
+        <v>2010</v>
+      </c>
+      <c r="N72">
+        <v>2011</v>
+      </c>
+      <c r="O72">
+        <v>2012</v>
+      </c>
+      <c r="P72">
+        <v>2013</v>
+      </c>
+      <c r="Q72">
+        <v>2014</v>
+      </c>
+      <c r="R72">
+        <v>2015</v>
+      </c>
+      <c r="S72">
+        <v>2016</v>
+      </c>
+      <c r="T72">
+        <v>2017</v>
+      </c>
+      <c r="U72">
+        <v>2018</v>
+      </c>
+      <c r="V72">
+        <v>2019</v>
+      </c>
+      <c r="W72">
+        <v>2020</v>
+      </c>
+      <c r="X72">
+        <v>2021</v>
+      </c>
+      <c r="Y72">
+        <v>2022</v>
+      </c>
+      <c r="Z72">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>46</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>5.6</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F73">
+        <v>6.8</v>
+      </c>
+      <c r="G73">
+        <v>6.6</v>
+      </c>
+      <c r="H73">
+        <v>8.4</v>
+      </c>
+      <c r="I73">
+        <v>8.9</v>
+      </c>
+      <c r="J73">
+        <v>7.5</v>
+      </c>
+      <c r="K73">
+        <v>8.4</v>
+      </c>
+      <c r="L73">
+        <v>7.7</v>
+      </c>
+      <c r="M73">
+        <v>9.6</v>
+      </c>
+      <c r="N73">
+        <v>12.1</v>
+      </c>
+      <c r="O73">
+        <v>10.7</v>
+      </c>
+      <c r="P73">
+        <v>9.5</v>
+      </c>
+      <c r="Q73">
+        <v>13.8</v>
+      </c>
+      <c r="R73">
+        <v>14.8</v>
+      </c>
+      <c r="S73">
+        <v>10.9</v>
+      </c>
+      <c r="T73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U73">
+        <v>10</v>
+      </c>
+      <c r="V73">
+        <v>8.9</v>
+      </c>
+      <c r="W73">
+        <v>7.1</v>
+      </c>
+      <c r="X73">
+        <v>10.6</v>
+      </c>
+      <c r="Y73">
+        <v>13.7</v>
+      </c>
+      <c r="Z73">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
         <v>81</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="D74">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <v>2</v>
       </c>
-      <c r="F72">
+      <c r="F74">
         <v>1.3</v>
       </c>
-      <c r="G72">
+      <c r="G74">
         <v>0.7</v>
       </c>
-      <c r="H72">
+      <c r="H74">
         <v>0.8</v>
       </c>
-      <c r="I72">
+      <c r="I74">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J72">
+      <c r="J74">
         <v>3.1</v>
       </c>
-      <c r="K72">
+      <c r="K74">
         <v>3.1</v>
       </c>
-      <c r="L72">
+      <c r="L74">
         <v>2.7</v>
       </c>
-      <c r="M72">
+      <c r="M74">
         <v>1.2</v>
       </c>
-      <c r="N72">
+      <c r="N74">
         <v>1.4</v>
       </c>
-      <c r="O72">
+      <c r="O74">
         <v>2.4</v>
       </c>
-      <c r="P72">
+      <c r="P74">
         <v>3.4</v>
       </c>
-      <c r="Q72">
+      <c r="Q74">
         <v>4.3</v>
       </c>
-      <c r="R72">
+      <c r="R74">
         <v>4.3</v>
       </c>
-      <c r="S72">
+      <c r="S74">
         <v>4.5999999999999996</v>
       </c>
-      <c r="T72">
+      <c r="T74">
         <v>3.7</v>
       </c>
-      <c r="U72">
+      <c r="U74">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V72">
+      <c r="V74">
         <v>3</v>
       </c>
-      <c r="W72">
+      <c r="W74">
         <v>3.7</v>
       </c>
-      <c r="X72">
+      <c r="X74">
         <v>1.9</v>
       </c>
-      <c r="Y72">
+      <c r="Y74">
         <v>1.5</v>
       </c>
-      <c r="Z72">
+      <c r="Z74">
         <v>4.4000000000000004</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794E648B-336F-4BE7-A859-FBC3B9E8D680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA08DE-0522-45DE-82B4-EFD759E7BC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA08DE-0522-45DE-82B4-EFD759E7BC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC53BD3-CFB2-44C9-9AC9-1DE1CDE0683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="83">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Import</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -3496,7 +3499,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -7494,6 +7497,4102 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>2040.5900000000004</v>
+      </c>
+      <c r="C79">
+        <v>2044.44</v>
+      </c>
+      <c r="D79">
+        <v>2044.08</v>
+      </c>
+      <c r="E79">
+        <v>2045.28</v>
+      </c>
+      <c r="F79">
+        <v>2045.3600000000001</v>
+      </c>
+      <c r="G79">
+        <v>2048.89</v>
+      </c>
+      <c r="H79">
+        <v>2051.4399999999996</v>
+      </c>
+      <c r="I79">
+        <v>2049.8200000000002</v>
+      </c>
+      <c r="J79">
+        <v>2052.4899999999998</v>
+      </c>
+      <c r="K79">
+        <v>2051.31</v>
+      </c>
+      <c r="L79">
+        <v>2055.9299999999998</v>
+      </c>
+      <c r="M79">
+        <v>2060.96</v>
+      </c>
+      <c r="N79">
+        <v>2058.4599999999996</v>
+      </c>
+      <c r="O79">
+        <v>2056.0199999999995</v>
+      </c>
+      <c r="P79">
+        <v>2060.92</v>
+      </c>
+      <c r="Q79">
+        <v>2063.71</v>
+      </c>
+      <c r="R79">
+        <v>2060.5299999999997</v>
+      </c>
+      <c r="S79">
+        <v>2061.84</v>
+      </c>
+      <c r="T79">
+        <v>2064.5100000000007</v>
+      </c>
+      <c r="U79">
+        <v>2062.7200000000007</v>
+      </c>
+      <c r="V79">
+        <v>2060.1399999999994</v>
+      </c>
+      <c r="W79">
+        <v>2068.2199999999993</v>
+      </c>
+      <c r="X79">
+        <v>2072.2200000000003</v>
+      </c>
+      <c r="Y79">
+        <v>2062.9899999999998</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80">
+        <v>2000</v>
+      </c>
+      <c r="C80">
+        <v>2001</v>
+      </c>
+      <c r="D80">
+        <v>2002</v>
+      </c>
+      <c r="E80">
+        <v>2003</v>
+      </c>
+      <c r="F80">
+        <v>2004</v>
+      </c>
+      <c r="G80">
+        <v>2005</v>
+      </c>
+      <c r="H80">
+        <v>2006</v>
+      </c>
+      <c r="I80">
+        <v>2007</v>
+      </c>
+      <c r="J80">
+        <v>2008</v>
+      </c>
+      <c r="K80">
+        <v>2009</v>
+      </c>
+      <c r="L80">
+        <v>2010</v>
+      </c>
+      <c r="M80">
+        <v>2011</v>
+      </c>
+      <c r="N80">
+        <v>2012</v>
+      </c>
+      <c r="O80">
+        <v>2013</v>
+      </c>
+      <c r="P80">
+        <v>2014</v>
+      </c>
+      <c r="Q80">
+        <v>2015</v>
+      </c>
+      <c r="R80">
+        <v>2016</v>
+      </c>
+      <c r="S80">
+        <v>2017</v>
+      </c>
+      <c r="T80">
+        <v>2018</v>
+      </c>
+      <c r="U80">
+        <v>2019</v>
+      </c>
+      <c r="V80">
+        <v>2020</v>
+      </c>
+      <c r="W80">
+        <v>2021</v>
+      </c>
+      <c r="X80">
+        <v>2022</v>
+      </c>
+      <c r="Y80">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.02</v>
+      </c>
+      <c r="K81">
+        <v>0.01</v>
+      </c>
+      <c r="L81">
+        <v>0.04</v>
+      </c>
+      <c r="M81">
+        <v>0.06</v>
+      </c>
+      <c r="N81">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O81">
+        <v>0.11</v>
+      </c>
+      <c r="P81">
+        <v>0.2</v>
+      </c>
+      <c r="Q81">
+        <v>0.27</v>
+      </c>
+      <c r="R81">
+        <v>0.35</v>
+      </c>
+      <c r="S81">
+        <v>0.4</v>
+      </c>
+      <c r="T81">
+        <v>1.57</v>
+      </c>
+      <c r="U81">
+        <v>1.82</v>
+      </c>
+      <c r="V81">
+        <v>1.7</v>
+      </c>
+      <c r="W81">
+        <v>2.59</v>
+      </c>
+      <c r="X81">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y81">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="C82">
+        <v>19.5</v>
+      </c>
+      <c r="D82">
+        <v>17.18</v>
+      </c>
+      <c r="E82">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="F82">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G82">
+        <v>18.46</v>
+      </c>
+      <c r="H82">
+        <v>19.09</v>
+      </c>
+      <c r="I82">
+        <v>22.37</v>
+      </c>
+      <c r="J82">
+        <v>23.18</v>
+      </c>
+      <c r="K82">
+        <v>21.1</v>
+      </c>
+      <c r="L82">
+        <v>22.61</v>
+      </c>
+      <c r="M82">
+        <v>27.53</v>
+      </c>
+      <c r="N82">
+        <v>22.87</v>
+      </c>
+      <c r="O82">
+        <v>19.39</v>
+      </c>
+      <c r="P82">
+        <v>21.31</v>
+      </c>
+      <c r="Q82">
+        <v>22.53</v>
+      </c>
+      <c r="R82">
+        <v>19.37</v>
+      </c>
+      <c r="S82">
+        <v>20.92</v>
+      </c>
+      <c r="T82">
+        <v>18.66</v>
+      </c>
+      <c r="U82">
+        <v>17.2</v>
+      </c>
+      <c r="V82">
+        <v>13.51</v>
+      </c>
+      <c r="W82">
+        <v>17.09</v>
+      </c>
+      <c r="X82">
+        <v>21.79</v>
+      </c>
+      <c r="Y82">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83">
+        <v>1.91</v>
+      </c>
+      <c r="C83">
+        <v>1.91</v>
+      </c>
+      <c r="D83">
+        <v>1.54</v>
+      </c>
+      <c r="E83">
+        <v>1.76</v>
+      </c>
+      <c r="F83">
+        <v>1.49</v>
+      </c>
+      <c r="G83">
+        <v>1.73</v>
+      </c>
+      <c r="H83">
+        <v>2.16</v>
+      </c>
+      <c r="I83">
+        <v>2.34</v>
+      </c>
+      <c r="J83">
+        <v>2.36</v>
+      </c>
+      <c r="K83">
+        <v>1.96</v>
+      </c>
+      <c r="L83">
+        <v>1.97</v>
+      </c>
+      <c r="M83">
+        <v>2.08</v>
+      </c>
+      <c r="N83">
+        <v>2.36</v>
+      </c>
+      <c r="O83">
+        <v>2.34</v>
+      </c>
+      <c r="P83">
+        <v>2.14</v>
+      </c>
+      <c r="Q83">
+        <v>1.86</v>
+      </c>
+      <c r="R83">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S83">
+        <v>1.93</v>
+      </c>
+      <c r="T83">
+        <v>2.02</v>
+      </c>
+      <c r="U83">
+        <v>2.15</v>
+      </c>
+      <c r="V83">
+        <v>2.29</v>
+      </c>
+      <c r="W83">
+        <v>3.05</v>
+      </c>
+      <c r="X83">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Y83">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84">
+        <v>2.63</v>
+      </c>
+      <c r="C84">
+        <v>1.65</v>
+      </c>
+      <c r="D84">
+        <v>2.12</v>
+      </c>
+      <c r="E84">
+        <v>2.99</v>
+      </c>
+      <c r="F84">
+        <v>3.14</v>
+      </c>
+      <c r="G84">
+        <v>4.3</v>
+      </c>
+      <c r="H84">
+        <v>4.21</v>
+      </c>
+      <c r="I84">
+        <v>2.83</v>
+      </c>
+      <c r="J84">
+        <v>2.79</v>
+      </c>
+      <c r="K84">
+        <v>3.43</v>
+      </c>
+      <c r="L84">
+        <v>5.03</v>
+      </c>
+      <c r="M84">
+        <v>2.87</v>
+      </c>
+      <c r="N84">
+        <v>3.18</v>
+      </c>
+      <c r="O84">
+        <v>4.04</v>
+      </c>
+      <c r="P84">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q84">
+        <v>5.65</v>
+      </c>
+      <c r="R84">
+        <v>3.88</v>
+      </c>
+      <c r="S84">
+        <v>2.83</v>
+      </c>
+      <c r="T84">
+        <v>5.15</v>
+      </c>
+      <c r="U84">
+        <v>2.93</v>
+      </c>
+      <c r="V84">
+        <v>2.82</v>
+      </c>
+      <c r="W84">
+        <v>4.82</v>
+      </c>
+      <c r="X84">
+        <v>3.8</v>
+      </c>
+      <c r="Y84">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>18.18</v>
+      </c>
+      <c r="C85">
+        <v>19.55</v>
+      </c>
+      <c r="D85">
+        <v>20.22</v>
+      </c>
+      <c r="E85">
+        <v>17.28</v>
+      </c>
+      <c r="F85">
+        <v>16.82</v>
+      </c>
+      <c r="G85">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H85">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I85">
+        <v>14.64</v>
+      </c>
+      <c r="J85">
+        <v>15.77</v>
+      </c>
+      <c r="K85">
+        <v>15.26</v>
+      </c>
+      <c r="L85">
+        <v>15.25</v>
+      </c>
+      <c r="M85">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N85">
+        <v>15.78</v>
+      </c>
+      <c r="O85">
+        <v>14.17</v>
+      </c>
+      <c r="P85">
+        <v>15.87</v>
+      </c>
+      <c r="Q85">
+        <v>15.38</v>
+      </c>
+      <c r="R85">
+        <v>15.78</v>
+      </c>
+      <c r="S85">
+        <v>15.55</v>
+      </c>
+      <c r="T85">
+        <v>16.13</v>
+      </c>
+      <c r="U85">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V85">
+        <v>16.63</v>
+      </c>
+      <c r="W85">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X85">
+        <v>16.46</v>
+      </c>
+      <c r="Y85">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86">
+        <v>0.93</v>
+      </c>
+      <c r="C86">
+        <v>0.83</v>
+      </c>
+      <c r="D86">
+        <v>1.02</v>
+      </c>
+      <c r="E86">
+        <v>1.01</v>
+      </c>
+      <c r="F86">
+        <v>1.01</v>
+      </c>
+      <c r="G86">
+        <v>0.75</v>
+      </c>
+      <c r="H86">
+        <v>0.47</v>
+      </c>
+      <c r="I86">
+        <v>0.59</v>
+      </c>
+      <c r="J86">
+        <v>0.25</v>
+      </c>
+      <c r="K86">
+        <v>0.31</v>
+      </c>
+      <c r="L86">
+        <v>0.34</v>
+      </c>
+      <c r="M86">
+        <v>0.15</v>
+      </c>
+      <c r="N86">
+        <v>0.2</v>
+      </c>
+      <c r="O86">
+        <v>0.21</v>
+      </c>
+      <c r="P86">
+        <v>0.21</v>
+      </c>
+      <c r="Q86">
+        <v>0.19</v>
+      </c>
+      <c r="R86">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S86">
+        <v>0.31</v>
+      </c>
+      <c r="T86">
+        <v>0.32</v>
+      </c>
+      <c r="U86">
+        <v>0.32</v>
+      </c>
+      <c r="V86">
+        <v>0.24</v>
+      </c>
+      <c r="W86">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X86">
+        <v>0.35</v>
+      </c>
+      <c r="Y86">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0.01</v>
+      </c>
+      <c r="M87">
+        <v>0.1</v>
+      </c>
+      <c r="N87">
+        <v>0.78</v>
+      </c>
+      <c r="O87">
+        <v>1.39</v>
+      </c>
+      <c r="P87">
+        <v>1.26</v>
+      </c>
+      <c r="Q87">
+        <v>1.38</v>
+      </c>
+      <c r="R87">
+        <v>1.39</v>
+      </c>
+      <c r="S87">
+        <v>1.4</v>
+      </c>
+      <c r="T87">
+        <v>1.34</v>
+      </c>
+      <c r="U87">
+        <v>1.42</v>
+      </c>
+      <c r="V87">
+        <v>1.47</v>
+      </c>
+      <c r="W87">
+        <v>1.47</v>
+      </c>
+      <c r="X87">
+        <v>2.09</v>
+      </c>
+      <c r="Y87">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0.02</v>
+      </c>
+      <c r="I88">
+        <v>0.05</v>
+      </c>
+      <c r="J88">
+        <v>0.12</v>
+      </c>
+      <c r="K88">
+        <v>0.24</v>
+      </c>
+      <c r="L88">
+        <v>0.68</v>
+      </c>
+      <c r="M88">
+        <v>0.86</v>
+      </c>
+      <c r="N88">
+        <v>1.22</v>
+      </c>
+      <c r="O88">
+        <v>1.37</v>
+      </c>
+      <c r="P88">
+        <v>1.33</v>
+      </c>
+      <c r="Q88">
+        <v>1.45</v>
+      </c>
+      <c r="R88">
+        <v>1.42</v>
+      </c>
+      <c r="S88">
+        <v>1.5</v>
+      </c>
+      <c r="T88">
+        <v>1.32</v>
+      </c>
+      <c r="U88">
+        <v>1.32</v>
+      </c>
+      <c r="V88">
+        <v>1.48</v>
+      </c>
+      <c r="W88">
+        <v>1.43</v>
+      </c>
+      <c r="X88">
+        <v>1.44</v>
+      </c>
+      <c r="Y88">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96">
+        <v>2040.9240000000002</v>
+      </c>
+      <c r="C96">
+        <v>4051.5679999999998</v>
+      </c>
+      <c r="D96">
+        <v>4054.779</v>
+      </c>
+      <c r="E96">
+        <v>4057.9</v>
+      </c>
+      <c r="F96">
+        <v>4056.7208110000001</v>
+      </c>
+      <c r="G96">
+        <v>4060.6644829999996</v>
+      </c>
+      <c r="H96">
+        <v>4066.0430210000004</v>
+      </c>
+      <c r="I96">
+        <v>4066.2968609999998</v>
+      </c>
+      <c r="J96">
+        <v>4070.6366870000002</v>
+      </c>
+      <c r="K96">
+        <v>4071.463988</v>
+      </c>
+      <c r="L96">
+        <v>4076.0527499999998</v>
+      </c>
+      <c r="M96">
+        <v>4082.5968709999997</v>
+      </c>
+      <c r="N96">
+        <v>4083.7932999999998</v>
+      </c>
+      <c r="O96">
+        <v>4081.9146369999999</v>
+      </c>
+      <c r="P96">
+        <v>4087.3888570000004</v>
+      </c>
+      <c r="Q96">
+        <v>4096.3257139999996</v>
+      </c>
+      <c r="R96">
+        <v>4095.3788020000006</v>
+      </c>
+      <c r="S96">
+        <v>4094.112791</v>
+      </c>
+      <c r="T96">
+        <v>4094.7376829999998</v>
+      </c>
+      <c r="U96">
+        <v>4093.4765909999996</v>
+      </c>
+      <c r="V96">
+        <v>4091.6544409999997</v>
+      </c>
+      <c r="W96">
+        <v>4099.3680959999992</v>
+      </c>
+      <c r="X96">
+        <v>4105.9993039999999</v>
+      </c>
+      <c r="Y96">
+        <v>2037.2</v>
+      </c>
+      <c r="Z96">
+        <v>2035.1000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97">
+        <v>2000</v>
+      </c>
+      <c r="C97">
+        <v>2001</v>
+      </c>
+      <c r="D97">
+        <v>2002</v>
+      </c>
+      <c r="E97">
+        <v>2003</v>
+      </c>
+      <c r="F97">
+        <v>2004</v>
+      </c>
+      <c r="G97">
+        <v>2005</v>
+      </c>
+      <c r="H97">
+        <v>2006</v>
+      </c>
+      <c r="I97">
+        <v>2007</v>
+      </c>
+      <c r="J97">
+        <v>2008</v>
+      </c>
+      <c r="K97">
+        <v>2009</v>
+      </c>
+      <c r="L97">
+        <v>2010</v>
+      </c>
+      <c r="M97">
+        <v>2011</v>
+      </c>
+      <c r="N97">
+        <v>2012</v>
+      </c>
+      <c r="O97">
+        <v>2013</v>
+      </c>
+      <c r="P97">
+        <v>2014</v>
+      </c>
+      <c r="Q97">
+        <v>2015</v>
+      </c>
+      <c r="R97">
+        <v>2016</v>
+      </c>
+      <c r="S97">
+        <v>2017</v>
+      </c>
+      <c r="T97">
+        <v>2018</v>
+      </c>
+      <c r="U97">
+        <v>2019</v>
+      </c>
+      <c r="V97">
+        <v>2020</v>
+      </c>
+      <c r="W97">
+        <v>2021</v>
+      </c>
+      <c r="X97">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K98">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L98">
+        <v>3.5431999999999998E-2</v>
+      </c>
+      <c r="M98">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="N98">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="O98">
+        <v>0.110402</v>
+      </c>
+      <c r="P98">
+        <v>0.2</v>
+      </c>
+      <c r="Q98">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="R98">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.39598100000000003</v>
+      </c>
+      <c r="T98">
+        <v>1.5729660000000001</v>
+      </c>
+      <c r="U98">
+        <v>1.820811</v>
+      </c>
+      <c r="V98">
+        <v>1.699341</v>
+      </c>
+      <c r="W98">
+        <v>2.5888920000000004</v>
+      </c>
+      <c r="X98">
+        <v>2.2435940000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99">
+        <v>17.207000000000001</v>
+      </c>
+      <c r="C99">
+        <v>19.757000000000001</v>
+      </c>
+      <c r="D99">
+        <v>17.373000000000001</v>
+      </c>
+      <c r="E99">
+        <v>19.462</v>
+      </c>
+      <c r="F99">
+        <v>19.106999999999999</v>
+      </c>
+      <c r="G99">
+        <v>18.625</v>
+      </c>
+      <c r="H99">
+        <v>19.206</v>
+      </c>
+      <c r="I99">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J99">
+        <v>23.22</v>
+      </c>
+      <c r="K99">
+        <v>21.103000000000002</v>
+      </c>
+      <c r="L99">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="M99">
+        <v>27.536999999999999</v>
+      </c>
+      <c r="N99">
+        <v>22.876000000000001</v>
+      </c>
+      <c r="O99">
+        <v>19.391598000000002</v>
+      </c>
+      <c r="P99">
+        <v>21.305</v>
+      </c>
+      <c r="Q99">
+        <v>22.521999999999998</v>
+      </c>
+      <c r="R99">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="S99">
+        <v>20.914090999999999</v>
+      </c>
+      <c r="T99">
+        <v>18.659473000000002</v>
+      </c>
+      <c r="U99">
+        <v>17.224985</v>
+      </c>
+      <c r="V99">
+        <v>13.53266</v>
+      </c>
+      <c r="W99">
+        <v>17.085889999999999</v>
+      </c>
+      <c r="X99">
+        <v>21.785509999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="C100">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="D100">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="E100">
+        <v>1.762</v>
+      </c>
+      <c r="F100">
+        <v>1.494</v>
+      </c>
+      <c r="G100">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="H100">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="I100">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="J100">
+        <v>2.36</v>
+      </c>
+      <c r="K100">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="L100">
+        <v>1.9665680000000001</v>
+      </c>
+      <c r="M100">
+        <v>2.077</v>
+      </c>
+      <c r="N100">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="O100">
+        <v>2.339</v>
+      </c>
+      <c r="P100">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="Q100">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="R100">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="S100">
+        <v>1.9266459999999999</v>
+      </c>
+      <c r="T100">
+        <v>2.0227580000000001</v>
+      </c>
+      <c r="U100">
+        <v>2.1529029999999998</v>
+      </c>
+      <c r="V100">
+        <v>2.292316</v>
+      </c>
+      <c r="W100">
+        <v>3.0456720000000002</v>
+      </c>
+      <c r="X100">
+        <v>2.0534110000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101">
+        <v>2.9509999999999996</v>
+      </c>
+      <c r="C101">
+        <v>2.1710000000000003</v>
+      </c>
+      <c r="D101">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="E101">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="F101">
+        <v>3.3628110000000002</v>
+      </c>
+      <c r="G101">
+        <v>4.7298960000000001</v>
+      </c>
+      <c r="H101">
+        <v>4.5789740000000005</v>
+      </c>
+      <c r="I101">
+        <v>3.2339989999999998</v>
+      </c>
+      <c r="J101">
+        <v>3.2767620000000002</v>
+      </c>
+      <c r="K101">
+        <v>4.0527119999999996</v>
+      </c>
+      <c r="L101">
+        <v>5.6925160000000004</v>
+      </c>
+      <c r="M101">
+        <v>3.6909139999999998</v>
+      </c>
+      <c r="N101">
+        <v>3.9757060000000002</v>
+      </c>
+      <c r="O101">
+        <v>4.7951379999999997</v>
+      </c>
+      <c r="P101">
+        <v>5.1626289999999999</v>
+      </c>
+      <c r="Q101">
+        <v>6.1465419999999993</v>
+      </c>
+      <c r="R101">
+        <v>4.5678419999999997</v>
+      </c>
+      <c r="S101">
+        <v>3.4929449999999997</v>
+      </c>
+      <c r="T101">
+        <v>5.4227320000000008</v>
+      </c>
+      <c r="U101">
+        <v>3.3827449999999999</v>
+      </c>
+      <c r="V101">
+        <v>3.3202579999999999</v>
+      </c>
+      <c r="W101">
+        <v>5.0671330000000001</v>
+      </c>
+      <c r="X101">
+        <v>3.833256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="C102">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="D102">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="E102">
+        <v>17.28</v>
+      </c>
+      <c r="F102">
+        <v>16.815000000000001</v>
+      </c>
+      <c r="G102">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="H102">
+        <v>19.492999999999999</v>
+      </c>
+      <c r="I102">
+        <v>14.643000000000001</v>
+      </c>
+      <c r="J102">
+        <v>15.765000000000001</v>
+      </c>
+      <c r="K102">
+        <v>15.256</v>
+      </c>
+      <c r="L102">
+        <v>15.249000000000001</v>
+      </c>
+      <c r="M102">
+        <v>16.314</v>
+      </c>
+      <c r="N102">
+        <v>15.785</v>
+      </c>
+      <c r="O102">
+        <v>14.170999999999999</v>
+      </c>
+      <c r="P102">
+        <v>15.867000000000001</v>
+      </c>
+      <c r="Q102">
+        <v>15.382999999999999</v>
+      </c>
+      <c r="R102">
+        <v>15.776</v>
+      </c>
+      <c r="S102">
+        <v>15.545499</v>
+      </c>
+      <c r="T102">
+        <v>16.125281000000001</v>
+      </c>
+      <c r="U102">
+        <v>16.555288000000001</v>
+      </c>
+      <c r="V102">
+        <v>16.625764999999998</v>
+      </c>
+      <c r="W102">
+        <v>16.486893999999999</v>
+      </c>
+      <c r="X102">
+        <v>16.462018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C103">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D103">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E103">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F103">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G103">
+        <v>0.623</v>
+      </c>
+      <c r="H103">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I103">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J103">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K103">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L103">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="M103">
+        <v>0.16</v>
+      </c>
+      <c r="N103">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O103">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P103">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q103">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R103">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S103">
+        <v>0.43059500000000001</v>
+      </c>
+      <c r="T103">
+        <v>0.37356200000000001</v>
+      </c>
+      <c r="U103">
+        <v>0.40558499999999997</v>
+      </c>
+      <c r="V103">
+        <v>0.33825000000000005</v>
+      </c>
+      <c r="W103">
+        <v>0.39345599999999997</v>
+      </c>
+      <c r="X103">
+        <v>0.52855200000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J104">
+        <v>1.6700000000000002E-4</v>
+      </c>
+      <c r="K104">
+        <v>3.2669999999999999E-3</v>
+      </c>
+      <c r="L104">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="M104">
+        <v>0.10086199999999999</v>
+      </c>
+      <c r="N104">
+        <v>0.77869600000000005</v>
+      </c>
+      <c r="O104">
+        <v>1.3919870000000001</v>
+      </c>
+      <c r="P104">
+        <v>1.256651</v>
+      </c>
+      <c r="Q104">
+        <v>1.381661</v>
+      </c>
+      <c r="R104">
+        <v>1.3879900000000001</v>
+      </c>
+      <c r="S104">
+        <v>1.4029700000000001</v>
+      </c>
+      <c r="T104">
+        <v>1.3427880000000001</v>
+      </c>
+      <c r="U104">
+        <v>1.417286</v>
+      </c>
+      <c r="V104">
+        <v>1.46872</v>
+      </c>
+      <c r="W104">
+        <v>1.4665979999999998</v>
+      </c>
+      <c r="X104">
+        <v>2.0938380000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105">
+        <v>1E-3</v>
+      </c>
+      <c r="G105">
+        <v>4.5869999999999999E-3</v>
+      </c>
+      <c r="H105">
+        <v>2.0047000000000002E-2</v>
+      </c>
+      <c r="I105">
+        <v>4.6801999999999996E-2</v>
+      </c>
+      <c r="J105">
+        <v>0.12175799999999999</v>
+      </c>
+      <c r="K105">
+        <v>0.237009</v>
+      </c>
+      <c r="L105">
+        <v>0.681369</v>
+      </c>
+      <c r="M105">
+        <v>0.86109500000000005</v>
+      </c>
+      <c r="N105">
+        <v>1.2208979999999998</v>
+      </c>
+      <c r="O105">
+        <v>1.3735119999999998</v>
+      </c>
+      <c r="P105">
+        <v>1.3305769999999999</v>
+      </c>
+      <c r="Q105">
+        <v>1.451511</v>
+      </c>
+      <c r="R105">
+        <v>1.4249700000000001</v>
+      </c>
+      <c r="S105">
+        <v>1.5040640000000001</v>
+      </c>
+      <c r="T105">
+        <v>1.3181230000000002</v>
+      </c>
+      <c r="U105">
+        <v>1.316988</v>
+      </c>
+      <c r="V105">
+        <v>1.4771310000000002</v>
+      </c>
+      <c r="W105">
+        <v>1.4335609999999999</v>
+      </c>
+      <c r="X105">
+        <v>1.499125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>2000</v>
+      </c>
+      <c r="D109">
+        <v>2001</v>
+      </c>
+      <c r="E109">
+        <v>2002</v>
+      </c>
+      <c r="F109">
+        <v>2003</v>
+      </c>
+      <c r="G109">
+        <v>2004</v>
+      </c>
+      <c r="H109">
+        <v>2005</v>
+      </c>
+      <c r="I109">
+        <v>2006</v>
+      </c>
+      <c r="J109">
+        <v>2007</v>
+      </c>
+      <c r="K109">
+        <v>2008</v>
+      </c>
+      <c r="L109">
+        <v>2009</v>
+      </c>
+      <c r="M109">
+        <v>2010</v>
+      </c>
+      <c r="N109">
+        <v>2011</v>
+      </c>
+      <c r="O109">
+        <v>2012</v>
+      </c>
+      <c r="P109">
+        <v>2013</v>
+      </c>
+      <c r="Q109">
+        <v>2014</v>
+      </c>
+      <c r="R109">
+        <v>2015</v>
+      </c>
+      <c r="S109">
+        <v>2016</v>
+      </c>
+      <c r="T109">
+        <v>2017</v>
+      </c>
+      <c r="U109">
+        <v>2018</v>
+      </c>
+      <c r="V109">
+        <v>2019</v>
+      </c>
+      <c r="W109">
+        <v>2020</v>
+      </c>
+      <c r="X109">
+        <v>2021</v>
+      </c>
+      <c r="Y109">
+        <v>2022</v>
+      </c>
+      <c r="Z109">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110">
+        <v>5.6</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F110">
+        <v>6.8</v>
+      </c>
+      <c r="G110">
+        <v>6.6</v>
+      </c>
+      <c r="H110">
+        <v>8.4</v>
+      </c>
+      <c r="I110">
+        <v>8.9</v>
+      </c>
+      <c r="J110">
+        <v>7.5</v>
+      </c>
+      <c r="K110">
+        <v>8.4</v>
+      </c>
+      <c r="L110">
+        <v>7.7</v>
+      </c>
+      <c r="M110">
+        <v>9.6</v>
+      </c>
+      <c r="N110">
+        <v>12.1</v>
+      </c>
+      <c r="O110">
+        <v>10.7</v>
+      </c>
+      <c r="P110">
+        <v>9.5</v>
+      </c>
+      <c r="Q110">
+        <v>13.8</v>
+      </c>
+      <c r="R110">
+        <v>14.8</v>
+      </c>
+      <c r="S110">
+        <v>10.9</v>
+      </c>
+      <c r="T110">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U110">
+        <v>10</v>
+      </c>
+      <c r="V110">
+        <v>8.9</v>
+      </c>
+      <c r="W110">
+        <v>7.1</v>
+      </c>
+      <c r="X110">
+        <v>10.6</v>
+      </c>
+      <c r="Y110">
+        <v>13.7</v>
+      </c>
+      <c r="Z110">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>1.3</v>
+      </c>
+      <c r="G111">
+        <v>0.7</v>
+      </c>
+      <c r="H111">
+        <v>0.8</v>
+      </c>
+      <c r="I111">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J111">
+        <v>3.1</v>
+      </c>
+      <c r="K111">
+        <v>3.1</v>
+      </c>
+      <c r="L111">
+        <v>2.7</v>
+      </c>
+      <c r="M111">
+        <v>1.2</v>
+      </c>
+      <c r="N111">
+        <v>1.4</v>
+      </c>
+      <c r="O111">
+        <v>2.4</v>
+      </c>
+      <c r="P111">
+        <v>3.4</v>
+      </c>
+      <c r="Q111">
+        <v>4.3</v>
+      </c>
+      <c r="R111">
+        <v>4.3</v>
+      </c>
+      <c r="S111">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T111">
+        <v>3.7</v>
+      </c>
+      <c r="U111">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V111">
+        <v>3</v>
+      </c>
+      <c r="W111">
+        <v>3.7</v>
+      </c>
+      <c r="X111">
+        <v>1.9</v>
+      </c>
+      <c r="Y111">
+        <v>1.5</v>
+      </c>
+      <c r="Z111">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117">
+        <v>2000</v>
+      </c>
+      <c r="C117">
+        <v>2001</v>
+      </c>
+      <c r="D117">
+        <v>2002</v>
+      </c>
+      <c r="E117">
+        <v>2003</v>
+      </c>
+      <c r="F117">
+        <v>2004</v>
+      </c>
+      <c r="G117">
+        <v>2005</v>
+      </c>
+      <c r="H117">
+        <v>2006</v>
+      </c>
+      <c r="I117">
+        <v>2007</v>
+      </c>
+      <c r="J117">
+        <v>2008</v>
+      </c>
+      <c r="K117">
+        <v>2009</v>
+      </c>
+      <c r="L117">
+        <v>2010</v>
+      </c>
+      <c r="M117">
+        <v>2011</v>
+      </c>
+      <c r="N117">
+        <v>2012</v>
+      </c>
+      <c r="O117">
+        <v>2013</v>
+      </c>
+      <c r="P117">
+        <v>2014</v>
+      </c>
+      <c r="Q117">
+        <v>2015</v>
+      </c>
+      <c r="R117">
+        <v>2016</v>
+      </c>
+      <c r="S117">
+        <v>2017</v>
+      </c>
+      <c r="T117">
+        <v>2018</v>
+      </c>
+      <c r="U117">
+        <v>2019</v>
+      </c>
+      <c r="V117">
+        <v>2020</v>
+      </c>
+      <c r="W117">
+        <v>2021</v>
+      </c>
+      <c r="X117">
+        <v>2022</v>
+      </c>
+      <c r="Y117">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118">
+        <v>0.05</v>
+      </c>
+      <c r="C118">
+        <v>0.05</v>
+      </c>
+      <c r="D118">
+        <v>0.05</v>
+      </c>
+      <c r="E118">
+        <v>0.01</v>
+      </c>
+      <c r="F118">
+        <v>0.01</v>
+      </c>
+      <c r="G118">
+        <v>0.01</v>
+      </c>
+      <c r="H118">
+        <v>0.01</v>
+      </c>
+      <c r="I118">
+        <v>0.01</v>
+      </c>
+      <c r="J118">
+        <v>0.01</v>
+      </c>
+      <c r="K118">
+        <v>0.01</v>
+      </c>
+      <c r="L118">
+        <v>0.01</v>
+      </c>
+      <c r="M118">
+        <v>0.01</v>
+      </c>
+      <c r="N118">
+        <v>0.01</v>
+      </c>
+      <c r="O118">
+        <v>0.03</v>
+      </c>
+      <c r="P118">
+        <v>0.04</v>
+      </c>
+      <c r="Q118">
+        <v>0.05</v>
+      </c>
+      <c r="R118">
+        <v>0.06</v>
+      </c>
+      <c r="S118">
+        <v>0.05</v>
+      </c>
+      <c r="T118">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U118">
+        <v>0.06</v>
+      </c>
+      <c r="V118">
+        <v>0.05</v>
+      </c>
+      <c r="W118">
+        <v>0.05</v>
+      </c>
+      <c r="X118">
+        <v>0.05</v>
+      </c>
+      <c r="Y118">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119">
+        <v>5.62</v>
+      </c>
+      <c r="C119">
+        <v>5.62</v>
+      </c>
+      <c r="D119">
+        <v>5.62</v>
+      </c>
+      <c r="E119">
+        <v>5.62</v>
+      </c>
+      <c r="F119">
+        <v>5.5</v>
+      </c>
+      <c r="G119">
+        <v>5.5</v>
+      </c>
+      <c r="H119">
+        <v>5.5</v>
+      </c>
+      <c r="I119">
+        <v>5.5</v>
+      </c>
+      <c r="J119">
+        <v>5.5</v>
+      </c>
+      <c r="K119">
+        <v>5.63</v>
+      </c>
+      <c r="L119">
+        <v>5.63</v>
+      </c>
+      <c r="M119">
+        <v>6.32</v>
+      </c>
+      <c r="N119">
+        <v>6.32</v>
+      </c>
+      <c r="O119">
+        <v>6.11</v>
+      </c>
+      <c r="P119">
+        <v>5.9</v>
+      </c>
+      <c r="Q119">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R119">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S119">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="T119">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U119">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="V119">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="W119">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="X119">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Y119">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C120">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D120">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E120">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F120">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G120">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H120">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I120">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J120">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K120">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L120">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M120">
+        <v>1.2</v>
+      </c>
+      <c r="N120">
+        <v>1.2</v>
+      </c>
+      <c r="O120">
+        <v>1.2</v>
+      </c>
+      <c r="P120">
+        <v>1.2</v>
+      </c>
+      <c r="Q120">
+        <v>1.2</v>
+      </c>
+      <c r="R120">
+        <v>1.2</v>
+      </c>
+      <c r="S120">
+        <v>1.2</v>
+      </c>
+      <c r="T120">
+        <v>1.2</v>
+      </c>
+      <c r="U120">
+        <v>1.2</v>
+      </c>
+      <c r="V120">
+        <v>1.2</v>
+      </c>
+      <c r="W120">
+        <v>1.2</v>
+      </c>
+      <c r="X120">
+        <v>1.2</v>
+      </c>
+      <c r="Y120">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121">
+        <v>1.02</v>
+      </c>
+      <c r="C121">
+        <v>0.84</v>
+      </c>
+      <c r="D121">
+        <v>1.08</v>
+      </c>
+      <c r="E121">
+        <v>1.65</v>
+      </c>
+      <c r="F121">
+        <v>1.98</v>
+      </c>
+      <c r="G121">
+        <v>1.98</v>
+      </c>
+      <c r="H121">
+        <v>1.98</v>
+      </c>
+      <c r="I121">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J121">
+        <v>2.12</v>
+      </c>
+      <c r="K121">
+        <v>2.14</v>
+      </c>
+      <c r="L121">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M121">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N121">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O121">
+        <v>2.34</v>
+      </c>
+      <c r="P121">
+        <v>2.36</v>
+      </c>
+      <c r="Q121">
+        <v>2.36</v>
+      </c>
+      <c r="R121">
+        <v>2.36</v>
+      </c>
+      <c r="S121">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="T121">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="U121">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="V121">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="W121">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="X121">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Y121">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122">
+        <v>3.53</v>
+      </c>
+      <c r="C122">
+        <v>3.53</v>
+      </c>
+      <c r="D122">
+        <v>2.72</v>
+      </c>
+      <c r="E122">
+        <v>2.72</v>
+      </c>
+      <c r="F122">
+        <v>2.72</v>
+      </c>
+      <c r="G122">
+        <v>2.72</v>
+      </c>
+      <c r="H122">
+        <v>2.72</v>
+      </c>
+      <c r="I122">
+        <v>1.89</v>
+      </c>
+      <c r="J122">
+        <v>1.89</v>
+      </c>
+      <c r="K122">
+        <v>1.89</v>
+      </c>
+      <c r="L122">
+        <v>1.89</v>
+      </c>
+      <c r="M122">
+        <v>1.89</v>
+      </c>
+      <c r="N122">
+        <v>1.91</v>
+      </c>
+      <c r="O122">
+        <v>1.98</v>
+      </c>
+      <c r="P122">
+        <v>1.98</v>
+      </c>
+      <c r="Q122">
+        <v>1.98</v>
+      </c>
+      <c r="R122">
+        <v>1.97</v>
+      </c>
+      <c r="S122">
+        <v>1.97</v>
+      </c>
+      <c r="T122">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U122">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V122">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="W122">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="X122">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y122">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0.03</v>
+      </c>
+      <c r="M124">
+        <v>0.15</v>
+      </c>
+      <c r="N124">
+        <v>0.92</v>
+      </c>
+      <c r="O124">
+        <v>1.04</v>
+      </c>
+      <c r="P124">
+        <v>1.03</v>
+      </c>
+      <c r="Q124">
+        <v>1.03</v>
+      </c>
+      <c r="R124">
+        <v>1.03</v>
+      </c>
+      <c r="S124">
+        <v>1.03</v>
+      </c>
+      <c r="T124">
+        <v>1.03</v>
+      </c>
+      <c r="U124">
+        <v>1.04</v>
+      </c>
+      <c r="V124">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W124">
+        <v>1.27</v>
+      </c>
+      <c r="X124">
+        <v>1.74</v>
+      </c>
+      <c r="Y124">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0.01</v>
+      </c>
+      <c r="H125">
+        <v>0.03</v>
+      </c>
+      <c r="I125">
+        <v>0.03</v>
+      </c>
+      <c r="J125">
+        <v>0.11</v>
+      </c>
+      <c r="K125">
+        <v>0.33</v>
+      </c>
+      <c r="L125">
+        <v>0.49</v>
+      </c>
+      <c r="M125">
+        <v>0.54</v>
+      </c>
+      <c r="N125">
+        <v>0.68</v>
+      </c>
+      <c r="O125">
+        <v>0.68</v>
+      </c>
+      <c r="P125">
+        <v>0.7</v>
+      </c>
+      <c r="Q125">
+        <v>0.7</v>
+      </c>
+      <c r="R125">
+        <v>0.7</v>
+      </c>
+      <c r="S125">
+        <v>0.7</v>
+      </c>
+      <c r="T125">
+        <v>0.7</v>
+      </c>
+      <c r="U125">
+        <v>0.7</v>
+      </c>
+      <c r="V125">
+        <v>0.7</v>
+      </c>
+      <c r="W125">
+        <v>0.7</v>
+      </c>
+      <c r="X125">
+        <v>0.7</v>
+      </c>
+      <c r="Y125">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133">
+        <v>2000</v>
+      </c>
+      <c r="C133">
+        <v>2001</v>
+      </c>
+      <c r="D133">
+        <v>2002</v>
+      </c>
+      <c r="E133">
+        <v>2003</v>
+      </c>
+      <c r="F133">
+        <v>2004</v>
+      </c>
+      <c r="G133">
+        <v>2005</v>
+      </c>
+      <c r="H133">
+        <v>2006</v>
+      </c>
+      <c r="I133">
+        <v>2007</v>
+      </c>
+      <c r="J133">
+        <v>2008</v>
+      </c>
+      <c r="K133">
+        <v>2009</v>
+      </c>
+      <c r="L133">
+        <v>2010</v>
+      </c>
+      <c r="M133">
+        <v>2011</v>
+      </c>
+      <c r="N133">
+        <v>2012</v>
+      </c>
+      <c r="O133">
+        <v>2013</v>
+      </c>
+      <c r="P133">
+        <v>2014</v>
+      </c>
+      <c r="Q133">
+        <v>2015</v>
+      </c>
+      <c r="R133">
+        <v>2016</v>
+      </c>
+      <c r="S133">
+        <v>2017</v>
+      </c>
+      <c r="T133">
+        <v>2018</v>
+      </c>
+      <c r="U133">
+        <v>2019</v>
+      </c>
+      <c r="V133">
+        <v>2020</v>
+      </c>
+      <c r="W133">
+        <v>2021</v>
+      </c>
+      <c r="X133">
+        <v>2022</v>
+      </c>
+      <c r="Y133">
+        <v>2023</v>
+      </c>
+      <c r="Z133">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C134">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D134">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E134">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F134">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G134">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H134">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I134">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J134">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K134">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="L134">
+        <v>0.01</v>
+      </c>
+      <c r="M134">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N134">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O134">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P134">
+        <v>0.04</v>
+      </c>
+      <c r="Q134">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="R134">
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="S134">
+        <v>5.2003000000000001E-2</v>
+      </c>
+      <c r="T134">
+        <v>6.942799999999999E-2</v>
+      </c>
+      <c r="U134">
+        <v>5.6869000000000003E-2</v>
+      </c>
+      <c r="V134">
+        <v>4.8054000000000006E-2</v>
+      </c>
+      <c r="W134">
+        <v>4.7321000000000002E-2</v>
+      </c>
+      <c r="X134">
+        <v>7.8688999999999995E-2</v>
+      </c>
+      <c r="Y134">
+        <v>7.8688999999999995E-2</v>
+      </c>
+      <c r="Z134">
+        <v>7.8688999999999995E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135">
+        <v>1.88</v>
+      </c>
+      <c r="C135">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="D135">
+        <v>1.948</v>
+      </c>
+      <c r="E135">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="F135">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="G135">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="H135">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="I135">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="J135">
+        <v>2.984</v>
+      </c>
+      <c r="K135">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="L135">
+        <v>3.048</v>
+      </c>
+      <c r="M135">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="N135">
+        <v>3.181</v>
+      </c>
+      <c r="O135">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="P135">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="Q135">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="R135">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="S135">
+        <v>3.37155</v>
+      </c>
+      <c r="T135">
+        <v>3.379</v>
+      </c>
+      <c r="U135">
+        <v>3.3783499999999997</v>
+      </c>
+      <c r="V135">
+        <v>3.3764560000000001</v>
+      </c>
+      <c r="W135">
+        <v>3.3692329999999999</v>
+      </c>
+      <c r="X135">
+        <v>3.348185</v>
+      </c>
+      <c r="Y135">
+        <v>3.3502800000000001</v>
+      </c>
+      <c r="Z135">
+        <v>3.3502800000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136">
+        <v>3.532</v>
+      </c>
+      <c r="C136">
+        <v>3.532</v>
+      </c>
+      <c r="D136">
+        <v>2.722</v>
+      </c>
+      <c r="E136">
+        <v>2.722</v>
+      </c>
+      <c r="F136">
+        <v>2.722</v>
+      </c>
+      <c r="G136">
+        <v>2.722</v>
+      </c>
+      <c r="H136">
+        <v>2.722</v>
+      </c>
+      <c r="I136">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="J136">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="K136">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="L136">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="M136">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="N136">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="O136">
+        <v>1.982</v>
+      </c>
+      <c r="P136">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="Q136">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="R136">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="S136">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="T136">
+        <v>2.008</v>
+      </c>
+      <c r="U136">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="V136">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="W136">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="X136">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Y136">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Z136">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C137">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="D137">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="E137">
+        <v>6.7519999999999998</v>
+      </c>
+      <c r="F137">
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="G137">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H137">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="I137">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="J137">
+        <v>4.641</v>
+      </c>
+      <c r="K137">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="L137">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="M137">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="N137">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="O137">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="P137">
+        <v>4.43</v>
+      </c>
+      <c r="Q137">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="R137">
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="S137">
+        <v>3.7333600000000002</v>
+      </c>
+      <c r="T137">
+        <v>4.1509750000000007</v>
+      </c>
+      <c r="U137">
+        <v>4.040362</v>
+      </c>
+      <c r="V137">
+        <v>3.7584020000000002</v>
+      </c>
+      <c r="W137">
+        <v>3.8066649999999997</v>
+      </c>
+      <c r="X137">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Y137">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Z137">
+        <v>3.9745819999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>41</v>
+      </c>
+      <c r="I138">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="J138">
+        <v>1E-4</v>
+      </c>
+      <c r="K138">
+        <v>2E-3</v>
+      </c>
+      <c r="L138">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M138">
+        <v>0.154</v>
+      </c>
+      <c r="N138">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O138">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="P138">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q138">
+        <v>1.028</v>
+      </c>
+      <c r="R138">
+        <v>1.03</v>
+      </c>
+      <c r="S138">
+        <v>1.0307010000000001</v>
+      </c>
+      <c r="T138">
+        <v>1.033058</v>
+      </c>
+      <c r="U138">
+        <v>1.0443900000000002</v>
+      </c>
+      <c r="V138">
+        <v>1.1002110000000001</v>
+      </c>
+      <c r="W138">
+        <v>1.274713</v>
+      </c>
+      <c r="X138">
+        <v>1.736537</v>
+      </c>
+      <c r="Y138">
+        <v>2.9081269999999999</v>
+      </c>
+      <c r="Z138">
+        <v>3.9081269999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139">
+        <v>1E-3</v>
+      </c>
+      <c r="G139">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H139">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I139">
+        <v>0.03</v>
+      </c>
+      <c r="J139">
+        <v>0.114</v>
+      </c>
+      <c r="K139">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L139">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="M139">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N139">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="O139">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="P139">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Q139">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="R139">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="S139">
+        <v>0.69838999999999996</v>
+      </c>
+      <c r="T139">
+        <v>0.69891999999999999</v>
+      </c>
+      <c r="U139">
+        <v>0.70311999999999997</v>
+      </c>
+      <c r="V139">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="W139">
+        <v>0.70437499999999997</v>
+      </c>
+      <c r="X139">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Y139">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Z139">
+        <v>0.70430999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>38</v>
+      </c>
+      <c r="B147">
+        <v>2000</v>
+      </c>
+      <c r="C147">
+        <v>2001</v>
+      </c>
+      <c r="D147">
+        <v>2002</v>
+      </c>
+      <c r="E147">
+        <v>2003</v>
+      </c>
+      <c r="F147">
+        <v>2004</v>
+      </c>
+      <c r="G147">
+        <v>2005</v>
+      </c>
+      <c r="H147">
+        <v>2006</v>
+      </c>
+      <c r="I147">
+        <v>2007</v>
+      </c>
+      <c r="J147">
+        <v>2008</v>
+      </c>
+      <c r="K147">
+        <v>2009</v>
+      </c>
+      <c r="L147">
+        <v>2010</v>
+      </c>
+      <c r="M147">
+        <v>2011</v>
+      </c>
+      <c r="N147">
+        <v>2012</v>
+      </c>
+      <c r="O147">
+        <v>2013</v>
+      </c>
+      <c r="P147">
+        <v>2014</v>
+      </c>
+      <c r="Q147">
+        <v>2015</v>
+      </c>
+      <c r="R147">
+        <v>2016</v>
+      </c>
+      <c r="S147">
+        <v>2017</v>
+      </c>
+      <c r="T147">
+        <v>2018</v>
+      </c>
+      <c r="U147">
+        <v>2019</v>
+      </c>
+      <c r="V147">
+        <v>2020</v>
+      </c>
+      <c r="W147">
+        <v>2021</v>
+      </c>
+      <c r="X147">
+        <v>2022</v>
+      </c>
+      <c r="Y147">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="K148">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="L148">
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="M148">
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="N148">
+        <v>0.7990867579908677</v>
+      </c>
+      <c r="O148">
+        <v>0.41856925418569257</v>
+      </c>
+      <c r="P148">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="Q148">
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="R148">
+        <v>0.66590563165905636</v>
+      </c>
+      <c r="S148">
+        <v>0.91324200913242015</v>
+      </c>
+      <c r="T148">
+        <v>2.5603392041748205</v>
+      </c>
+      <c r="U148">
+        <v>3.4627092846270933</v>
+      </c>
+      <c r="V148">
+        <v>3.8812785388127851</v>
+      </c>
+      <c r="W148">
+        <v>5.9132420091324196</v>
+      </c>
+      <c r="X148">
+        <v>5.1141552511415531</v>
+      </c>
+      <c r="Y148">
+        <v>4.9771689497716896</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149">
+        <v>0.34409073920603195</v>
+      </c>
+      <c r="C149">
+        <v>0.39609028421001313</v>
+      </c>
+      <c r="D149">
+        <v>0.34896569655015519</v>
+      </c>
+      <c r="E149">
+        <v>0.3908090804205463</v>
+      </c>
+      <c r="F149">
+        <v>0.3922789539227895</v>
+      </c>
+      <c r="G149">
+        <v>0.38314653383146535</v>
+      </c>
+      <c r="H149">
+        <v>0.396222498962225</v>
+      </c>
+      <c r="I149">
+        <v>0.46430053964300544</v>
+      </c>
+      <c r="J149">
+        <v>0.48111249481112495</v>
+      </c>
+      <c r="K149">
+        <v>0.42782873873654675</v>
+      </c>
+      <c r="L149">
+        <v>0.45844586648499153</v>
+      </c>
+      <c r="M149">
+        <v>0.49726171897578175</v>
+      </c>
+      <c r="N149">
+        <v>0.41309028379862439</v>
+      </c>
+      <c r="O149">
+        <v>0.36227010141320837</v>
+      </c>
+      <c r="P149">
+        <v>0.41231328844516674</v>
+      </c>
+      <c r="Q149">
+        <v>0.50828415182197206</v>
+      </c>
+      <c r="R149">
+        <v>0.4369935206742831</v>
+      </c>
+      <c r="S149">
+        <v>0.46734400271649285</v>
+      </c>
+      <c r="T149">
+        <v>0.41685655309224456</v>
+      </c>
+      <c r="U149">
+        <v>0.38424076705180099</v>
+      </c>
+      <c r="V149">
+        <v>0.30180771877150181</v>
+      </c>
+      <c r="W149">
+        <v>0.38178341330902782</v>
+      </c>
+      <c r="X149">
+        <v>0.48677943686388042</v>
+      </c>
+      <c r="Y149">
+        <v>0.25824553878597789</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150">
+        <v>0.19642930601834707</v>
+      </c>
+      <c r="C150">
+        <v>0.19642930601834707</v>
+      </c>
+      <c r="D150">
+        <v>0.1583775556378296</v>
+      </c>
+      <c r="E150">
+        <v>0.18100292072894811</v>
+      </c>
+      <c r="F150">
+        <v>0.15323542720802993</v>
+      </c>
+      <c r="G150">
+        <v>0.1779176436710683</v>
+      </c>
+      <c r="H150">
+        <v>0.22213994816734542</v>
+      </c>
+      <c r="I150">
+        <v>0.23228111971411552</v>
+      </c>
+      <c r="J150">
+        <v>0.23426642842962081</v>
+      </c>
+      <c r="K150">
+        <v>0.19456025411951558</v>
+      </c>
+      <c r="L150">
+        <v>0.19555290847726822</v>
+      </c>
+      <c r="M150">
+        <v>0.19786910197869106</v>
+      </c>
+      <c r="N150">
+        <v>0.22450532724505329</v>
+      </c>
+      <c r="O150">
+        <v>0.2226027397260274</v>
+      </c>
+      <c r="P150">
+        <v>0.20357686453576868</v>
+      </c>
+      <c r="Q150">
+        <v>0.17694063926940642</v>
+      </c>
+      <c r="R150">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="S150">
+        <v>0.18359969558599698</v>
+      </c>
+      <c r="T150">
+        <v>0.19216133942161343</v>
+      </c>
+      <c r="U150">
+        <v>0.20452815829528159</v>
+      </c>
+      <c r="V150">
+        <v>0.21784627092846273</v>
+      </c>
+      <c r="W150">
+        <v>0.29014459665144599</v>
+      </c>
+      <c r="X150">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="Y150">
+        <v>0.14840182648401828</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151">
+        <v>0.29434148088459128</v>
+      </c>
+      <c r="C151">
+        <v>0.22423352902804958</v>
+      </c>
+      <c r="D151">
+        <v>0.22408253001860307</v>
+      </c>
+      <c r="E151">
+        <v>0.20686315206863154</v>
+      </c>
+      <c r="F151">
+        <v>0.18103408514367419</v>
+      </c>
+      <c r="G151">
+        <v>0.24791291914579586</v>
+      </c>
+      <c r="H151">
+        <v>0.2427240440939071</v>
+      </c>
+      <c r="I151">
+        <v>0.16072605011472321</v>
+      </c>
+      <c r="J151">
+        <v>0.1502326182476092</v>
+      </c>
+      <c r="K151">
+        <v>0.18296846327828276</v>
+      </c>
+      <c r="L151">
+        <v>0.26339491433119683</v>
+      </c>
+      <c r="M151">
+        <v>0.14626141552511415</v>
+      </c>
+      <c r="N151">
+        <v>0.15647142182333496</v>
+      </c>
+      <c r="O151">
+        <v>0.19708855325293684</v>
+      </c>
+      <c r="P151">
+        <v>0.22250599798777185</v>
+      </c>
+      <c r="Q151">
+        <v>0.27329541057193724</v>
+      </c>
+      <c r="R151">
+        <v>0.18767897221577279</v>
+      </c>
+      <c r="S151">
+        <v>0.12870890865760704</v>
+      </c>
+      <c r="T151">
+        <v>0.23422292564900221</v>
+      </c>
+      <c r="U151">
+        <v>0.13325692663137406</v>
+      </c>
+      <c r="V151">
+        <v>0.12825410686023031</v>
+      </c>
+      <c r="W151">
+        <v>0.21921446633557101</v>
+      </c>
+      <c r="X151">
+        <v>0.17145847997545438</v>
+      </c>
+      <c r="Y151">
+        <v>0.14032522966412186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152">
+        <v>0.58791571267802401</v>
+      </c>
+      <c r="C152">
+        <v>0.632219592016247</v>
+      </c>
+      <c r="D152">
+        <v>0.84860999194198217</v>
+      </c>
+      <c r="E152">
+        <v>0.72522159548751008</v>
+      </c>
+      <c r="F152">
+        <v>0.70591592801504166</v>
+      </c>
+      <c r="G152">
+        <v>0.78271890948160072</v>
+      </c>
+      <c r="H152">
+        <v>0.81797273704002138</v>
+      </c>
+      <c r="I152">
+        <v>0.88425019931869253</v>
+      </c>
+      <c r="J152">
+        <v>0.95250175158850958</v>
+      </c>
+      <c r="K152">
+        <v>0.92169795366142393</v>
+      </c>
+      <c r="L152">
+        <v>0.92109395762363799</v>
+      </c>
+      <c r="M152">
+        <v>0.98511753762895304</v>
+      </c>
+      <c r="N152">
+        <v>0.94312558272968505</v>
+      </c>
+      <c r="O152">
+        <v>0.81695954983626218</v>
+      </c>
+      <c r="P152">
+        <v>0.91497163414971638</v>
+      </c>
+      <c r="Q152">
+        <v>0.88672109220054429</v>
+      </c>
+      <c r="R152">
+        <v>0.91440094569223274</v>
+      </c>
+      <c r="S152">
+        <v>0.90107317525438657</v>
+      </c>
+      <c r="T152">
+        <v>0.91608169199663791</v>
+      </c>
+      <c r="U152">
+        <v>0.94050296462891025</v>
+      </c>
+      <c r="V152">
+        <v>0.9444785206388151</v>
+      </c>
+      <c r="W152">
+        <v>0.93652740861900541</v>
+      </c>
+      <c r="X152">
+        <v>0.93482359890047495</v>
+      </c>
+      <c r="Y152">
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153">
+        <v>65535</v>
+      </c>
+      <c r="C153">
+        <v>65535</v>
+      </c>
+      <c r="D153">
+        <v>65535</v>
+      </c>
+      <c r="E153">
+        <v>65535</v>
+      </c>
+      <c r="F153">
+        <v>65535</v>
+      </c>
+      <c r="G153">
+        <v>65535</v>
+      </c>
+      <c r="H153">
+        <v>65535</v>
+      </c>
+      <c r="I153">
+        <v>65535</v>
+      </c>
+      <c r="J153">
+        <v>65535</v>
+      </c>
+      <c r="K153">
+        <v>65535</v>
+      </c>
+      <c r="L153">
+        <v>65535</v>
+      </c>
+      <c r="M153">
+        <v>65535</v>
+      </c>
+      <c r="N153">
+        <v>65535</v>
+      </c>
+      <c r="O153">
+        <v>65535</v>
+      </c>
+      <c r="P153">
+        <v>65535</v>
+      </c>
+      <c r="Q153">
+        <v>65535</v>
+      </c>
+      <c r="R153">
+        <v>65535</v>
+      </c>
+      <c r="S153">
+        <v>65535</v>
+      </c>
+      <c r="T153">
+        <v>65535</v>
+      </c>
+      <c r="U153">
+        <v>65535</v>
+      </c>
+      <c r="V153">
+        <v>65535</v>
+      </c>
+      <c r="W153">
+        <v>65535</v>
+      </c>
+      <c r="X153">
+        <v>65535</v>
+      </c>
+      <c r="Y153">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>41</v>
+      </c>
+      <c r="L154">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="M154">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="N154">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="O154">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="P154">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="Q154">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="R154">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="S154">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="T154">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="U154">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="V154">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="W154">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="X154">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="Y154">
+        <v>0.13667567483614451</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>42</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I155">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="J155">
+        <v>0.12453300124533001</v>
+      </c>
+      <c r="K155">
+        <v>8.3022000830220002E-2</v>
+      </c>
+      <c r="L155">
+        <v>0.15841953219644023</v>
+      </c>
+      <c r="M155">
+        <v>0.18180280737358362</v>
+      </c>
+      <c r="N155">
+        <v>0.20480795057749127</v>
+      </c>
+      <c r="O155">
+        <v>0.22998925597636316</v>
+      </c>
+      <c r="P155">
+        <v>0.21689497716894979</v>
+      </c>
+      <c r="Q155">
+        <v>0.23646444879321593</v>
+      </c>
+      <c r="R155">
+        <v>0.23157208088714937</v>
+      </c>
+      <c r="S155">
+        <v>0.24461839530332682</v>
+      </c>
+      <c r="T155">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="U155">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="V155">
+        <v>0.24135681669928247</v>
+      </c>
+      <c r="W155">
+        <v>0.23320287018917157</v>
+      </c>
+      <c r="X155">
+        <v>0.23483365949119375</v>
+      </c>
+      <c r="Y155">
+        <v>0.25277234181343772</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>38</v>
+      </c>
+      <c r="B165">
+        <v>2000</v>
+      </c>
+      <c r="C165">
+        <v>2001</v>
+      </c>
+      <c r="D165">
+        <v>2002</v>
+      </c>
+      <c r="E165">
+        <v>2003</v>
+      </c>
+      <c r="F165">
+        <v>2004</v>
+      </c>
+      <c r="G165">
+        <v>2005</v>
+      </c>
+      <c r="H165">
+        <v>2006</v>
+      </c>
+      <c r="I165">
+        <v>2007</v>
+      </c>
+      <c r="J165">
+        <v>2008</v>
+      </c>
+      <c r="K165">
+        <v>2009</v>
+      </c>
+      <c r="L165">
+        <v>2010</v>
+      </c>
+      <c r="M165">
+        <v>2011</v>
+      </c>
+      <c r="N165">
+        <v>2012</v>
+      </c>
+      <c r="O165">
+        <v>2013</v>
+      </c>
+      <c r="P165">
+        <v>2014</v>
+      </c>
+      <c r="Q165">
+        <v>2015</v>
+      </c>
+      <c r="R165">
+        <v>2016</v>
+      </c>
+      <c r="S165">
+        <v>2017</v>
+      </c>
+      <c r="T165">
+        <v>2018</v>
+      </c>
+      <c r="U165">
+        <v>2019</v>
+      </c>
+      <c r="V165">
+        <v>2020</v>
+      </c>
+      <c r="W165">
+        <v>2021</v>
+      </c>
+      <c r="X165">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>31</v>
+      </c>
+      <c r="J166">
+        <v>0.30441400304414001</v>
+      </c>
+      <c r="K166">
+        <v>0.10147133434804669</v>
+      </c>
+      <c r="L166">
+        <v>0.40447488584474894</v>
+      </c>
+      <c r="M166">
+        <v>0.5811540058115402</v>
+      </c>
+      <c r="N166">
+        <v>0.53816046966731901</v>
+      </c>
+      <c r="O166">
+        <v>0.37067553048616708</v>
+      </c>
+      <c r="P166">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="Q166">
+        <v>0.57500422797226458</v>
+      </c>
+      <c r="R166">
+        <v>0.70696146759593048</v>
+      </c>
+      <c r="S166">
+        <v>0.86924428402751963</v>
+      </c>
+      <c r="T166">
+        <v>2.5863099724480505</v>
+      </c>
+      <c r="U166">
+        <v>3.6549813955986812</v>
+      </c>
+      <c r="V166">
+        <v>4.036889720525596</v>
+      </c>
+      <c r="W166">
+        <v>6.2453375126974553</v>
+      </c>
+      <c r="X166">
+        <v>3.2548137163984849</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167">
+        <v>0.17918731176527739</v>
+      </c>
+      <c r="C167">
+        <v>0.14535545467936098</v>
+      </c>
+      <c r="D167">
+        <v>0.15845780240593327</v>
+      </c>
+      <c r="E167">
+        <v>0.1498316039834055</v>
+      </c>
+      <c r="F167">
+        <v>0.1347902156764661</v>
+      </c>
+      <c r="G167">
+        <v>0.18958653994151151</v>
+      </c>
+      <c r="H167">
+        <v>0.18353719344825822</v>
+      </c>
+      <c r="I167">
+        <v>0.12836507928947488</v>
+      </c>
+      <c r="J167">
+        <v>0.12535509016122517</v>
+      </c>
+      <c r="K167">
+        <v>0.15416139825537606</v>
+      </c>
+      <c r="L167">
+        <v>0.21319901365069094</v>
+      </c>
+      <c r="M167">
+        <v>0.13556538436675425</v>
+      </c>
+      <c r="N167">
+        <v>0.1426745416205524</v>
+      </c>
+      <c r="O167">
+        <v>0.17089921406444017</v>
+      </c>
+      <c r="P167">
+        <v>0.18308207829936693</v>
+      </c>
+      <c r="Q167">
+        <v>0.21797454043557021</v>
+      </c>
+      <c r="R167">
+        <v>0.16178813238750592</v>
+      </c>
+      <c r="S167">
+        <v>0.11826549026371555</v>
+      </c>
+      <c r="T167">
+        <v>0.18320015783762453</v>
+      </c>
+      <c r="U167">
+        <v>0.11430375923833559</v>
+      </c>
+      <c r="V167">
+        <v>0.11225524213694742</v>
+      </c>
+      <c r="W167">
+        <v>0.1716829439171017</v>
+      </c>
+      <c r="X167">
+        <v>0.13069358514235713</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168">
+        <v>0.58751816400088952</v>
+      </c>
+      <c r="C168">
+        <v>0.63195855763612019</v>
+      </c>
+      <c r="D168">
+        <v>0.84807034848805107</v>
+      </c>
+      <c r="E168">
+        <v>0.72468873612271401</v>
+      </c>
+      <c r="F168">
+        <v>0.70518756353607848</v>
+      </c>
+      <c r="G168">
+        <v>0.78226961776024206</v>
+      </c>
+      <c r="H168">
+        <v>0.81749754243287398</v>
+      </c>
+      <c r="I168">
+        <v>0.88349648121868596</v>
+      </c>
+      <c r="J168">
+        <v>0.95119319991890894</v>
+      </c>
+      <c r="K168">
+        <v>0.92048229990249752</v>
+      </c>
+      <c r="L168">
+        <v>0.92005994960757642</v>
+      </c>
+      <c r="M168">
+        <v>0.98431753019201262</v>
+      </c>
+      <c r="N168">
+        <v>0.94540432280661413</v>
+      </c>
+      <c r="O168">
+        <v>0.81619276686525755</v>
+      </c>
+      <c r="P168">
+        <v>0.91711461765215874</v>
+      </c>
+      <c r="Q168">
+        <v>0.88913935610658323</v>
+      </c>
+      <c r="R168">
+        <v>0.91556341739152636</v>
+      </c>
+      <c r="S168">
+        <v>0.90218624426321981</v>
+      </c>
+      <c r="T168">
+        <v>0.91672584775055033</v>
+      </c>
+      <c r="U168">
+        <v>0.942110199083116</v>
+      </c>
+      <c r="V168">
+        <v>0.94612082701666678</v>
+      </c>
+      <c r="W168">
+        <v>0.9382181082323805</v>
+      </c>
+      <c r="X168">
+        <v>0.93680249206717758</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169">
+        <v>1.3728687025740881E-2</v>
+      </c>
+      <c r="C169">
+        <v>8.9246408872480296E-3</v>
+      </c>
+      <c r="D169">
+        <v>1.4064542368890371E-2</v>
+      </c>
+      <c r="E169">
+        <v>1.3440969291696423E-2</v>
+      </c>
+      <c r="F169">
+        <v>1.4367639360976603E-2</v>
+      </c>
+      <c r="G169">
+        <v>1.06544901065449E-2</v>
+      </c>
+      <c r="H169">
+        <v>6.8721033906174785E-3</v>
+      </c>
+      <c r="I169">
+        <v>1.3383397499030053E-2</v>
+      </c>
+      <c r="J169">
+        <v>6.8134032678754683E-3</v>
+      </c>
+      <c r="K169">
+        <v>8.974387151398696E-3</v>
+      </c>
+      <c r="L169">
+        <v>1.0171012962918537E-2</v>
+      </c>
+      <c r="M169">
+        <v>4.0275281549390085E-3</v>
+      </c>
+      <c r="N169">
+        <v>5.4770281784942507E-3</v>
+      </c>
+      <c r="O169">
+        <v>5.9193423561722108E-3</v>
+      </c>
+      <c r="P169">
+        <v>5.7979529360833674E-3</v>
+      </c>
+      <c r="Q169">
+        <v>5.9440758150922698E-3</v>
+      </c>
+      <c r="R169">
+        <v>1.0672682178439969E-2</v>
+      </c>
+      <c r="S169">
+        <v>1.3166338195431674E-2</v>
+      </c>
+      <c r="T169">
+        <v>1.0273264456408587E-2</v>
+      </c>
+      <c r="U169">
+        <v>1.1459284473580975E-2</v>
+      </c>
+      <c r="V169">
+        <v>1.0273784895450284E-2</v>
+      </c>
+      <c r="W169">
+        <v>1.1799059936493149E-2</v>
+      </c>
+      <c r="X169">
+        <v>1.5180712412366853E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>41</v>
+      </c>
+      <c r="I170">
+        <v>0.22831050228310501</v>
+      </c>
+      <c r="J170">
+        <v>0.1906392694063927</v>
+      </c>
+      <c r="K170">
+        <v>0.18647260273972602</v>
+      </c>
+      <c r="L170">
+        <v>6.7876712328767116E-2</v>
+      </c>
+      <c r="M170">
+        <v>7.476575935480044E-2</v>
+      </c>
+      <c r="N170">
+        <v>9.6412405035707568E-2</v>
+      </c>
+      <c r="O170">
+        <v>0.15293804193529958</v>
+      </c>
+      <c r="P170">
+        <v>0.13941040865139273</v>
+      </c>
+      <c r="Q170">
+        <v>0.1534278778672068</v>
+      </c>
+      <c r="R170">
+        <v>0.15383140488540142</v>
+      </c>
+      <c r="S170">
+        <v>0.15538589047072227</v>
+      </c>
+      <c r="T170">
+        <v>0.14838111835914639</v>
+      </c>
+      <c r="U170">
+        <v>0.15491400651998427</v>
+      </c>
+      <c r="V170">
+        <v>0.15239085998651261</v>
+      </c>
+      <c r="W170">
+        <v>0.13133926069138591</v>
+      </c>
+      <c r="X170">
+        <v>0.13764325363624622</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>42</v>
+      </c>
+      <c r="F171">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="G171">
+        <v>6.5453767123287668E-2</v>
+      </c>
+      <c r="H171">
+        <v>8.4758159986470502E-2</v>
+      </c>
+      <c r="I171">
+        <v>0.17808980213089803</v>
+      </c>
+      <c r="J171">
+        <v>0.12192381639029079</v>
+      </c>
+      <c r="K171">
+        <v>8.1248714467892558E-2</v>
+      </c>
+      <c r="L171">
+        <v>0.15938903548169775</v>
+      </c>
+      <c r="M171">
+        <v>0.18169781142649755</v>
+      </c>
+      <c r="N171">
+        <v>0.2058669391554197</v>
+      </c>
+      <c r="O171">
+        <v>0.22956604290766625</v>
+      </c>
+      <c r="P171">
+        <v>0.2172995015710637</v>
+      </c>
+      <c r="Q171">
+        <v>0.23704950320418605</v>
+      </c>
+      <c r="R171">
+        <v>0.23271503321770831</v>
+      </c>
+      <c r="S171">
+        <v>0.24584659524473154</v>
+      </c>
+      <c r="T171">
+        <v>0.21529025081619735</v>
+      </c>
+      <c r="U171">
+        <v>0.21381996798613462</v>
+      </c>
+      <c r="V171">
+        <v>0.23992922634315969</v>
+      </c>
+      <c r="W171">
+        <v>0.2323315222455867</v>
+      </c>
+      <c r="X171">
+        <v>0.24297964087912982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E15AE-7387-4287-81BF-1ADFFAAB9B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF7224A-53BD-4300-9E5A-5C931B58CEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="64">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Downscaling[MESSAGEix-GLOBIOM 1.1-M-R12]</t>
   </si>
   <si>
-    <t>BGR</t>
-  </si>
-  <si>
     <t>Final Energy|Industry|Electricity</t>
   </si>
   <si>
@@ -161,6 +158,27 @@
   </si>
   <si>
     <t>oil</t>
+  </si>
+  <si>
+    <t>Trd_electricity import</t>
+  </si>
+  <si>
+    <t>Trd_electricity export</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>BGR</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -702,9 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA19"/>
+  <dimension ref="B2:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -925,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G17">
         <f>SUMIFS(iamc_data!F$2:F$50,iamc_data!$O$2:$O$50,Veda!$Q17,iamc_data!$B$2:$B$50,Veda!$C$5)</f>
         <v>6.0699999999999997E-2</v>
@@ -989,7 +1009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G18">
         <f>SUMIFS(iamc_data!F$2:F$50,iamc_data!$O$2:$O$50,Veda!$Q18,iamc_data!$B$2:$B$50,Veda!$C$5)</f>
         <v>2.5499999999999998E-2</v>
@@ -1053,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:26" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
         <v>15</v>
       </c>
@@ -1087,6 +1107,88 @@
       </c>
       <c r="Y19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="7:26" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q22" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="7:26" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="5">
+        <f>R15</f>
+        <v>2022</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" ref="S23:X23" si="3">S15</f>
+        <v>2025</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="1">
+        <f>historical_data!Y87</f>
+        <v>13.7</v>
+      </c>
+      <c r="S24" s="1">
+        <f>AVERAGE(historical_data!U87:Z87)</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="Q25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="1">
+        <f>historical_data!Y88</f>
+        <v>1.5</v>
+      </c>
+      <c r="S25" s="1">
+        <f>AVERAGE(historical_data!U88:Z88)</f>
+        <v>2.7833333333333337</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1159,13 +1261,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
       <c r="F2">
         <v>2.47E-2</v>
@@ -1189,10 +1291,10 @@
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -1206,13 +1308,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="F3">
         <v>2.58E-2</v>
@@ -1236,10 +1338,10 @@
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>14</v>
@@ -1253,13 +1355,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>2.3E-3</v>
@@ -1283,10 +1385,10 @@
         <v>2.29E-2</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -1300,13 +1402,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>6.0699999999999997E-2</v>
@@ -1330,10 +1432,10 @@
         <v>7.4099999999999999E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -1347,13 +1449,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
       <c r="F6">
         <v>2.5499999999999998E-2</v>
@@ -1377,10 +1479,10 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -1394,13 +1496,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
       <c r="F7">
         <v>2.5399999999999999E-2</v>
@@ -1424,10 +1526,10 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
         <v>14</v>
@@ -1441,13 +1543,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>5.9799999999999999E-2</v>
@@ -1471,10 +1573,10 @@
         <v>7.8799999999999995E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
         <v>13</v>
@@ -1488,13 +1590,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>2.3E-3</v>
@@ -1518,10 +1620,10 @@
         <v>2.7099999999999999E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -1535,13 +1637,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>2.2000000000000001E-3</v>
@@ -1565,10 +1667,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
         <v>11</v>
@@ -1582,13 +1684,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>5.9200000000000003E-2</v>
@@ -1612,10 +1714,10 @@
         <v>0.1172</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
         <v>13</v>
@@ -1629,13 +1731,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
       </c>
       <c r="F12">
         <v>2.5000000000000001E-2</v>
@@ -1659,10 +1761,10 @@
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1676,13 +1778,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>6.1600000000000002E-2</v>
@@ -1706,10 +1808,10 @@
         <v>7.8899999999999998E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
         <v>13</v>
@@ -1723,13 +1825,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>2.2000000000000001E-3</v>
@@ -1753,10 +1855,10 @@
         <v>2.7099999999999999E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
         <v>11</v>
@@ -1770,13 +1872,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>6.2E-2</v>
@@ -1800,10 +1902,10 @@
         <v>8.3699999999999997E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
@@ -1817,13 +1919,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
       </c>
       <c r="F16">
         <v>2.6200000000000001E-2</v>
@@ -1847,10 +1949,10 @@
         <v>2.3900000000000001E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s">
         <v>14</v>
@@ -1864,13 +1966,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>2.3E-3</v>
@@ -1894,10 +1996,10 @@
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
         <v>11</v>
@@ -1911,13 +2013,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>6.1800000000000001E-2</v>
@@ -1941,10 +2043,10 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="M18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
         <v>13</v>
@@ -1958,13 +2060,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
       </c>
       <c r="F19">
         <v>2.4899999999999999E-2</v>
@@ -1988,10 +2090,10 @@
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
         <v>14</v>
@@ -2005,13 +2107,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>6.0499999999999998E-2</v>
@@ -2035,10 +2137,10 @@
         <v>6.3200000000000006E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O20" t="s">
         <v>13</v>
@@ -2052,13 +2154,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>2.2000000000000001E-3</v>
@@ -2082,10 +2184,10 @@
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
         <v>11</v>
@@ -2099,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>2.2000000000000001E-3</v>
@@ -2129,10 +2231,10 @@
         <v>2.3099999999999999E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O22" t="s">
         <v>11</v>
@@ -2146,13 +2248,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
         <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
       </c>
       <c r="F23">
         <v>5.6798999999999999</v>
@@ -2176,13 +2278,13 @@
         <v>41.471299999999999</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" t="s">
         <v>34</v>
-      </c>
-      <c r="O23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -2193,13 +2295,13 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24">
         <v>7.8779000000000003</v>
@@ -2223,13 +2325,13 @@
         <v>8.1904000000000003</v>
       </c>
       <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" t="s">
         <v>36</v>
-      </c>
-      <c r="N24" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -2240,13 +2342,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>12.219799999999999</v>
@@ -2270,13 +2372,13 @@
         <v>7.1673</v>
       </c>
       <c r="M25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" t="s">
         <v>38</v>
-      </c>
-      <c r="N25" t="s">
-        <v>34</v>
-      </c>
-      <c r="O25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -2287,13 +2389,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26">
         <v>12.219799999999999</v>
@@ -2317,13 +2419,13 @@
         <v>4.6173000000000002</v>
       </c>
       <c r="M26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" t="s">
         <v>38</v>
-      </c>
-      <c r="N26" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -2334,13 +2436,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27">
         <v>7.8779000000000003</v>
@@ -2364,13 +2466,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" t="s">
         <v>36</v>
-      </c>
-      <c r="N27" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -2381,13 +2483,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28">
         <v>10.9808</v>
@@ -2411,13 +2513,13 @@
         <v>4.4867999999999997</v>
       </c>
       <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" t="s">
         <v>40</v>
-      </c>
-      <c r="N28" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -2428,13 +2530,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
         <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
       </c>
       <c r="F29">
         <v>5.6798999999999999</v>
@@ -2458,13 +2560,13 @@
         <v>8.7202999999999999</v>
       </c>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" t="s">
         <v>34</v>
-      </c>
-      <c r="O29" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -2475,13 +2577,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>7.8779000000000003</v>
@@ -2505,13 +2607,13 @@
         <v>1.0552999999999999</v>
       </c>
       <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
         <v>36</v>
-      </c>
-      <c r="N30" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
@@ -2522,13 +2624,13 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31">
         <v>10.9808</v>
@@ -2552,13 +2654,13 @@
         <v>5.0053999999999998</v>
       </c>
       <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" t="s">
         <v>40</v>
-      </c>
-      <c r="N31" t="s">
-        <v>34</v>
-      </c>
-      <c r="O31" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
@@ -2569,13 +2671,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
         <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
       </c>
       <c r="F32">
         <v>5.6798999999999999</v>
@@ -2599,13 +2701,13 @@
         <v>17.773700000000002</v>
       </c>
       <c r="M32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" t="s">
         <v>34</v>
-      </c>
-      <c r="O32" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
@@ -2616,13 +2718,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
         <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
       </c>
       <c r="F33">
         <v>5.6798999999999999</v>
@@ -2646,13 +2748,13 @@
         <v>6.1288999999999998</v>
       </c>
       <c r="M33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" t="s">
         <v>34</v>
-      </c>
-      <c r="O33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
@@ -2663,13 +2765,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>12.219799999999999</v>
@@ -2693,13 +2795,13 @@
         <v>4.4836999999999998</v>
       </c>
       <c r="M34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" t="s">
         <v>38</v>
-      </c>
-      <c r="N34" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
@@ -2710,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
         <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>33</v>
       </c>
       <c r="F35">
         <v>5.6798999999999999</v>
@@ -2740,13 +2842,13 @@
         <v>11.3034</v>
       </c>
       <c r="M35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" t="s">
         <v>34</v>
-      </c>
-      <c r="O35" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -2757,13 +2859,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36">
         <v>7.8779000000000003</v>
@@ -2787,13 +2889,13 @@
         <v>3.4154</v>
       </c>
       <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" t="s">
         <v>36</v>
-      </c>
-      <c r="N36" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
@@ -2804,13 +2906,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37">
         <v>12.219799999999999</v>
@@ -2834,13 +2936,13 @@
         <v>4.7060000000000004</v>
       </c>
       <c r="M37" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" t="s">
         <v>38</v>
-      </c>
-      <c r="N37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O37" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -2851,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38">
         <v>10.9808</v>
@@ -2881,13 +2983,13 @@
         <v>5.1143999999999998</v>
       </c>
       <c r="M38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" t="s">
         <v>40</v>
-      </c>
-      <c r="N38" t="s">
-        <v>34</v>
-      </c>
-      <c r="O38" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -2898,13 +3000,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
         <v>32</v>
-      </c>
-      <c r="E39" t="s">
-        <v>33</v>
       </c>
       <c r="F39">
         <v>5.6798999999999999</v>
@@ -2928,13 +3030,13 @@
         <v>12.010300000000001</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" t="s">
         <v>34</v>
-      </c>
-      <c r="O39" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -2945,13 +3047,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40">
         <v>7.8779000000000003</v>
@@ -2975,13 +3077,13 @@
         <v>2.7033</v>
       </c>
       <c r="M40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" t="s">
         <v>36</v>
-      </c>
-      <c r="N40" t="s">
-        <v>34</v>
-      </c>
-      <c r="O40" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
@@ -2992,13 +3094,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>10.9808</v>
@@ -3022,13 +3124,13 @@
         <v>6.2306999999999997</v>
       </c>
       <c r="M41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" t="s">
         <v>40</v>
-      </c>
-      <c r="N41" t="s">
-        <v>34</v>
-      </c>
-      <c r="O41" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -3039,13 +3141,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42">
         <v>12.219799999999999</v>
@@ -3069,13 +3171,13 @@
         <v>2.8281000000000001</v>
       </c>
       <c r="M42" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" t="s">
         <v>38</v>
-      </c>
-      <c r="N42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O42" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
@@ -3086,13 +3188,13 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
         <v>32</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
       </c>
       <c r="F43">
         <v>5.6798999999999999</v>
@@ -3116,13 +3218,13 @@
         <v>2.7120000000000002</v>
       </c>
       <c r="M43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N43" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" t="s">
         <v>34</v>
-      </c>
-      <c r="O43" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -3133,13 +3235,13 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44">
         <v>7.8779000000000003</v>
@@ -3163,13 +3265,13 @@
         <v>2.3031000000000001</v>
       </c>
       <c r="M44" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" t="s">
         <v>36</v>
-      </c>
-      <c r="N44" t="s">
-        <v>34</v>
-      </c>
-      <c r="O44" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
@@ -3180,13 +3282,13 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45">
         <v>12.219799999999999</v>
@@ -3210,13 +3312,13 @@
         <v>4.2888000000000002</v>
       </c>
       <c r="M45" t="s">
+        <v>37</v>
+      </c>
+      <c r="N45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" t="s">
         <v>38</v>
-      </c>
-      <c r="N45" t="s">
-        <v>34</v>
-      </c>
-      <c r="O45" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
@@ -3227,13 +3329,13 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46">
         <v>10.9808</v>
@@ -3257,13 +3359,13 @@
         <v>6.2908999999999997</v>
       </c>
       <c r="M46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" t="s">
         <v>40</v>
-      </c>
-      <c r="N46" t="s">
-        <v>34</v>
-      </c>
-      <c r="O46" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
@@ -3274,13 +3376,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <v>12.219799999999999</v>
@@ -3304,13 +3406,13 @@
         <v>4.0972</v>
       </c>
       <c r="M47" t="s">
+        <v>37</v>
+      </c>
+      <c r="N47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" t="s">
         <v>38</v>
-      </c>
-      <c r="N47" t="s">
-        <v>34</v>
-      </c>
-      <c r="O47" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
@@ -3321,13 +3423,13 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48">
         <v>7.8779000000000003</v>
@@ -3351,13 +3453,13 @@
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="M48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" t="s">
         <v>36</v>
-      </c>
-      <c r="N48" t="s">
-        <v>34</v>
-      </c>
-      <c r="O48" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -3368,13 +3470,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>10.9808</v>
@@ -3398,13 +3500,13 @@
         <v>4.9897</v>
       </c>
       <c r="M49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" t="s">
         <v>40</v>
-      </c>
-      <c r="N49" t="s">
-        <v>34</v>
-      </c>
-      <c r="O49" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
@@ -3415,13 +3517,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50">
         <v>10.9808</v>
@@ -3445,13 +3547,13 @@
         <v>3.7004000000000001</v>
       </c>
       <c r="M50" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" t="s">
         <v>40</v>
-      </c>
-      <c r="N50" t="s">
-        <v>34</v>
-      </c>
-      <c r="O50" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3461,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z83"/>
+      <selection sqref="A1:Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3484,12 +3586,12 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8">
         <v>2000</v>
@@ -3566,7 +3668,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -3643,7 +3745,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9">
         <v>0.34409073920603195</v>
@@ -3720,7 +3822,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="9">
         <v>0.19642930601834707</v>
@@ -3797,7 +3899,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B6" s="9">
         <v>0.29434148088459128</v>
@@ -3874,7 +3976,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" s="9">
         <v>0.58791571267802401</v>
@@ -3951,7 +4053,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9">
         <v>65535</v>
@@ -4028,7 +4130,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4085,7 +4187,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4152,12 +4254,12 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8">
         <v>2000</v>
@@ -4231,7 +4333,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4289,7 +4391,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B18" s="9">
         <v>0.17918731176527739</v>
@@ -4363,7 +4465,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="9">
         <v>0.58751816400088952</v>
@@ -4437,7 +4539,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="9">
         <v>1.3728687025740881E-2</v>
@@ -4511,7 +4613,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4571,7 +4673,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4637,12 +4739,12 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A30" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B31" s="8">
         <v>2000</v>
@@ -4719,7 +4821,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B32" s="10">
         <v>40.590000000000003</v>
@@ -4796,7 +4898,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="11">
         <v>0</v>
@@ -4873,7 +4975,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="11">
         <v>16.940000000000001</v>
@@ -4950,7 +5052,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="11">
         <v>1.91</v>
@@ -5027,7 +5129,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="11">
         <v>2.63</v>
@@ -5104,7 +5206,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B37" s="11">
         <v>18.18</v>
@@ -5181,7 +5283,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="11">
         <v>0.93</v>
@@ -5258,7 +5360,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B39" s="11">
         <v>0</v>
@@ -5335,7 +5437,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B40" s="11">
         <v>0</v>
@@ -5412,12 +5514,12 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A44" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B45" s="8">
         <v>2000</v>
@@ -5491,7 +5593,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B46" s="10">
         <v>40.923999999999999</v>
@@ -5565,7 +5667,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5623,7 +5725,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="11">
         <v>17.207000000000001</v>
@@ -5697,7 +5799,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="11">
         <v>1.9119999999999999</v>
@@ -5771,7 +5873,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B50" s="11">
         <v>2.9509999999999996</v>
@@ -5845,7 +5947,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B51" s="11">
         <v>18.178000000000001</v>
@@ -5919,7 +6021,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="11">
         <v>0.67600000000000005</v>
@@ -5993,7 +6095,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6053,7 +6155,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -6119,12 +6221,12 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A59" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B59" s="8">
         <v>2000</v>
@@ -6201,7 +6303,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" s="11">
         <v>0.05</v>
@@ -6278,7 +6380,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="11">
         <v>5.62</v>
@@ -6355,7 +6457,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="11">
         <v>1.1100000000000001</v>
@@ -6432,7 +6534,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B63" s="11">
         <v>1.02</v>
@@ -6509,7 +6611,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B64" s="11">
         <v>3.53</v>
@@ -6586,7 +6688,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="11">
         <v>0</v>
@@ -6663,7 +6765,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B66" s="11">
         <v>0</v>
@@ -6740,7 +6842,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B67" s="11">
         <v>0</v>
@@ -6817,12 +6919,12 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B71" s="8">
         <v>2000</v>
@@ -6902,7 +7004,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" s="11">
         <v>5.1999999999999998E-2</v>
@@ -6982,7 +7084,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B73" s="11">
         <v>1.88</v>
@@ -7062,7 +7164,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B74" s="11">
         <v>3.532</v>
@@ -7142,7 +7244,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B75" s="11">
         <v>5.6210000000000004</v>
@@ -7222,7 +7324,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -7288,7 +7390,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -7358,248 +7460,248 @@
         <v>0.70430999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A80" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A81" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="8" t="s">
+    <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A85" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A86" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C86" s="8">
         <v>2000</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D86" s="8">
         <v>2001</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E86" s="8">
         <v>2002</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F86" s="8">
         <v>2003</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G86" s="8">
         <v>2004</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H86" s="8">
         <v>2005</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I86" s="8">
         <v>2006</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J86" s="8">
         <v>2007</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K86" s="8">
         <v>2008</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L86" s="8">
         <v>2009</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M86" s="8">
         <v>2010</v>
       </c>
-      <c r="N81" s="8">
+      <c r="N86" s="8">
         <v>2011</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O86" s="8">
         <v>2012</v>
       </c>
-      <c r="P81" s="8">
+      <c r="P86" s="8">
         <v>2013</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q86" s="8">
         <v>2014</v>
       </c>
-      <c r="R81" s="8">
+      <c r="R86" s="8">
         <v>2015</v>
       </c>
-      <c r="S81" s="8">
+      <c r="S86" s="8">
         <v>2016</v>
       </c>
-      <c r="T81" s="8">
+      <c r="T86" s="8">
         <v>2017</v>
       </c>
-      <c r="U81" s="8">
+      <c r="U86" s="8">
         <v>2018</v>
       </c>
-      <c r="V81" s="8">
+      <c r="V86" s="8">
         <v>2019</v>
       </c>
-      <c r="W81" s="8">
+      <c r="W86" s="8">
         <v>2020</v>
       </c>
-      <c r="X81" s="8">
+      <c r="X86" s="8">
         <v>2021</v>
       </c>
-      <c r="Y81" s="8">
+      <c r="Y86" s="8">
         <v>2022</v>
       </c>
-      <c r="Z81" s="8">
+      <c r="Z86" s="8">
         <v>2023</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="11">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="11">
         <v>5.6</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D87" s="11">
         <v>8</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E87" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F87" s="11">
         <v>6.8</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G87" s="11">
         <v>6.6</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H87" s="11">
         <v>8.4</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I87" s="11">
         <v>8.9</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J87" s="11">
         <v>7.5</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K87" s="11">
         <v>8.4</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L87" s="11">
         <v>7.7</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M87" s="11">
         <v>9.6</v>
       </c>
-      <c r="N82" s="11">
+      <c r="N87" s="11">
         <v>12.1</v>
       </c>
-      <c r="O82" s="11">
+      <c r="O87" s="11">
         <v>10.7</v>
       </c>
-      <c r="P82" s="11">
+      <c r="P87" s="11">
         <v>9.5</v>
       </c>
-      <c r="Q82" s="11">
+      <c r="Q87" s="11">
         <v>13.8</v>
       </c>
-      <c r="R82" s="11">
+      <c r="R87" s="11">
         <v>14.8</v>
       </c>
-      <c r="S82" s="11">
+      <c r="S87" s="11">
         <v>10.9</v>
       </c>
-      <c r="T82" s="11">
+      <c r="T87" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="U82" s="11">
+      <c r="U87" s="11">
         <v>10</v>
       </c>
-      <c r="V82" s="11">
+      <c r="V87" s="11">
         <v>8.9</v>
       </c>
-      <c r="W82" s="11">
+      <c r="W87" s="11">
         <v>7.1</v>
       </c>
-      <c r="X82" s="11">
+      <c r="X87" s="11">
         <v>10.6</v>
       </c>
-      <c r="Y82" s="11">
+      <c r="Y87" s="11">
         <v>13.7</v>
       </c>
-      <c r="Z82" s="11">
+      <c r="Z87" s="11">
         <v>7.7</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="11">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="11">
         <v>1</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D88" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E88" s="11">
         <v>2</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F88" s="11">
         <v>1.3</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G88" s="11">
         <v>0.7</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H88" s="11">
         <v>0.8</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I88" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J88" s="11">
         <v>3.1</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K88" s="11">
         <v>3.1</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L88" s="11">
         <v>2.7</v>
       </c>
-      <c r="M83" s="11">
+      <c r="M88" s="11">
         <v>1.2</v>
       </c>
-      <c r="N83" s="11">
+      <c r="N88" s="11">
         <v>1.4</v>
       </c>
-      <c r="O83" s="11">
+      <c r="O88" s="11">
         <v>2.4</v>
       </c>
-      <c r="P83" s="11">
+      <c r="P88" s="11">
         <v>3.4</v>
       </c>
-      <c r="Q83" s="11">
+      <c r="Q88" s="11">
         <v>4.3</v>
       </c>
-      <c r="R83" s="11">
+      <c r="R88" s="11">
         <v>4.3</v>
       </c>
-      <c r="S83" s="11">
+      <c r="S88" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="T83" s="11">
+      <c r="T88" s="11">
         <v>3.7</v>
       </c>
-      <c r="U83" s="11">
+      <c r="U88" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V83" s="11">
+      <c r="V88" s="11">
         <v>3</v>
       </c>
-      <c r="W83" s="11">
+      <c r="W88" s="11">
         <v>3.7</v>
       </c>
-      <c r="X83" s="11">
+      <c r="X88" s="11">
         <v>1.9</v>
       </c>
-      <c r="Y83" s="11">
+      <c r="Y88" s="11">
         <v>1.5</v>
       </c>
-      <c r="Z83" s="11">
+      <c r="Z88" s="11">
         <v>4.4000000000000004</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF7224A-53BD-4300-9E5A-5C931B58CEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82268FC5-C2F4-4839-9B9C-F881B74D9689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82268FC5-C2F4-4839-9B9C-F881B74D9689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F4E488-0903-4265-8F82-17F7C9546A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F4E488-0903-4265-8F82-17F7C9546A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB80F71-5A47-4E4A-A001-75F8FCB7B832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79D7AAF-A5ED-4B2F-86F1-2828A033E54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED5F340-26A7-4063-997A-E897754ACC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38D2AD4-C800-49C1-9674-26E9342E2DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A2A8A0-8CE1-423A-9129-8E10C46694D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A2A8A0-8CE1-423A-9129-8E10C46694D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E0858E0-0042-4AC0-84AB-6CDDDD7E0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E0858E0-0042-4AC0-84AB-6CDDDD7E0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3DC829-A945-44F7-902C-5DD8618ACAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3DC829-A945-44F7-902C-5DD8618ACAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED32F4D1-8DA6-4976-A488-86E4C28926C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED32F4D1-8DA6-4976-A488-86E4C28926C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09B353D-D1C0-416C-AC50-E0D478876644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09B353D-D1C0-416C-AC50-E0D478876644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{205878FF-FADA-4134-9E46-F960A2C4E9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{205878FF-FADA-4134-9E46-F960A2C4E9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADC110A-6F77-455D-B24F-7D223DD51132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADC110A-6F77-455D-B24F-7D223DD51132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{300DFF32-0EFD-4BA0-921B-5F35015A8849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{300DFF32-0EFD-4BA0-921B-5F35015A8849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A707C6E6-B391-4658-B953-B1FF7BB4FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A707C6E6-B391-4658-B953-B1FF7BB4FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F49B708-39DA-43D9-A59E-33B2063FBA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F49B708-39DA-43D9-A59E-33B2063FBA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{201DADF8-6FE8-40EF-9B2F-9CB6E278440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{201DADF8-6FE8-40EF-9B2F-9CB6E278440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C247BC8F-76AC-45AE-8C12-E450883C3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C247BC8F-76AC-45AE-8C12-E450883C3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E5F20E-E4A4-4DC7-9A25-16872C6986EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E5F20E-E4A4-4DC7-9A25-16872C6986EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8FD7F0-AF23-4188-BA02-49BE9BB12145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8FD7F0-AF23-4188-BA02-49BE9BB12145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7890C1-5953-49FA-B53A-38E3DF79C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7890C1-5953-49FA-B53A-38E3DF79C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613D0F9F-137B-4D94-99D0-0D47810C923A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D67C36-4E3D-482B-A346-3652D130E811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCE0BC08-FB43-4994-AC98-B4D90CED9D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6993" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="90">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -286,6 +286,9 @@
     <t>EMBER</t>
   </si>
   <si>
+    <t>~Inputcell: 1-5</t>
+  </si>
+  <si>
     <t>BGR</t>
   </si>
   <si>
@@ -303,6 +306,9 @@
   <si>
     <t>Trd_electricity_imp</t>
   </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +414,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +559,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -560,6 +579,14 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -765,25 +792,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>77.620000000000019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>79.455608108108109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>81.815675675675678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>85.749121621621626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>87.322499999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>91.168536036036045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>94.05306306306305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,25 +1145,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20.514571549375177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.71568307807949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>24.862615334022362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>25.692262050173824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>29.361964671615141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>33.961219111152872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,6 +2499,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04B8FD6-A081-66F5-7632-2C057EBE9839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2792,7 +2869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
@@ -2800,85 +2877,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.53125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
+    <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2">
-        <v>2024</v>
-      </c>
-      <c r="D2">
-        <v>2030</v>
-      </c>
-      <c r="E2">
-        <v>2040</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3">
-        <v>4.1820000000000004</v>
-      </c>
-      <c r="D3">
-        <v>5.57</v>
-      </c>
-      <c r="E3">
-        <v>6.06</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
+      <c r="B3" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C5" s="1" t="e">
+      <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Current Policies</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -2941,33 +2972,33 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="8" t="e">
+      <c r="R12" s="8">
         <f>SUM(R16:R19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="8" t="e">
+        <v>77.620000000000019</v>
+      </c>
+      <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="0">SUM(S16:S19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="8" t="e">
+        <v>79.455608108108109</v>
+      </c>
+      <c r="T12" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="8" t="e">
+        <v>81.815675675675678</v>
+      </c>
+      <c r="U12" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="8" t="e">
+        <v>85.749121621621626</v>
+      </c>
+      <c r="V12" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" s="8" t="e">
+        <v>87.322499999999991</v>
+      </c>
+      <c r="W12" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="8" t="e">
+        <v>91.168536036036045</v>
+      </c>
+      <c r="X12" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>94.05306306306305</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -3042,62 +3073,62 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
-        <v>0</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="H16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!H$15)</f>
-        <v>0</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="I16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!I$15)</f>
-        <v>0</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="J16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!J$15)</f>
-        <v>0</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="K16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!K$15)</f>
-        <v>0</v>
+        <v>3.3E-3</v>
       </c>
       <c r="L16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!L$15)</f>
-        <v>0</v>
+        <v>2.8E-3</v>
       </c>
       <c r="M16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R16" s="6" t="e">
+      <c r="R16" s="6">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="6" t="e">
+        <v>1.9230180180180185</v>
+      </c>
+      <c r="S16" s="6">
         <f>R16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="6" t="e">
+        <v>1.9230180180180185</v>
+      </c>
+      <c r="T16" s="6">
         <f t="shared" ref="T16:X16" si="2">S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="6" t="e">
+        <v>1.9230180180180185</v>
+      </c>
+      <c r="U16" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="6" t="e">
+        <v>1.9230180180180185</v>
+      </c>
+      <c r="V16" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="6" t="e">
+        <v>1.9230180180180185</v>
+      </c>
+      <c r="W16" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X16" s="6" t="e">
+        <v>1.9230180180180185</v>
+      </c>
+      <c r="X16" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.9230180180180185</v>
       </c>
       <c r="Y16" t="s">
         <v>11</v>
@@ -3109,62 +3140,62 @@
     <row r="17" spans="2:26" x14ac:dyDescent="0.45">
       <c r="G17" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q17,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
-        <v>0</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="H17" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q17,iamc_data!$I$2:$I$17119,Veda!H$15)</f>
-        <v>0</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="I17" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q17,iamc_data!$I$2:$I$17119,Veda!I$15)</f>
-        <v>0</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="J17" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q17,iamc_data!$I$2:$I$17119,Veda!J$15)</f>
-        <v>0</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="K17" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q17,iamc_data!$I$2:$I$17119,Veda!K$15)</f>
-        <v>0</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="L17" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q17,iamc_data!$I$2:$I$17119,Veda!L$15)</f>
-        <v>0</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="M17" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q17,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
-        <v>0</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="6" t="e">
+      <c r="R17" s="6">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="6" t="e">
+        <v>53.844504504504513</v>
+      </c>
+      <c r="S17" s="6">
         <f t="shared" ref="S17:X18" si="3">R17*H17/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="6" t="e">
+        <v>58.040180180180187</v>
+      </c>
+      <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="6" t="e">
+        <v>59.351328828828834</v>
+      </c>
+      <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="6" t="e">
+        <v>61.711396396396395</v>
+      </c>
+      <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W17" s="6" t="e">
+        <v>62.585495495495493</v>
+      </c>
+      <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X17" s="6" t="e">
+        <v>65.732252252252252</v>
+      </c>
+      <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>68.966418918918905</v>
       </c>
       <c r="Y17" t="s">
         <v>11</v>
@@ -3173,62 +3204,62 @@
     <row r="18" spans="2:26" x14ac:dyDescent="0.45">
       <c r="G18" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q18,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H18" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q18,iamc_data!$I$2:$I$17119,Veda!H$15)</f>
-        <v>0</v>
+        <v>2.29E-2</v>
       </c>
       <c r="I18" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q18,iamc_data!$I$2:$I$17119,Veda!I$15)</f>
-        <v>0</v>
+        <v>2.23E-2</v>
       </c>
       <c r="J18" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q18,iamc_data!$I$2:$I$17119,Veda!J$15)</f>
-        <v>0</v>
+        <v>2.41E-2</v>
       </c>
       <c r="K18" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q18,iamc_data!$I$2:$I$17119,Veda!K$15)</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L18" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q18,iamc_data!$I$2:$I$17119,Veda!L$15)</f>
-        <v>0</v>
+        <v>2.63E-2</v>
       </c>
       <c r="M18" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q18,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
-        <v>0</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="6" t="e">
+      <c r="R18" s="6">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="6" t="e">
+        <v>21.852477477477482</v>
+      </c>
+      <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="6" t="e">
+        <v>20.01686936936937</v>
+      </c>
+      <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" s="6" t="e">
+        <v>19.492409909909913</v>
+      </c>
+      <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="6" t="e">
+        <v>21.065788288288292</v>
+      </c>
+      <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W18" s="6" t="e">
+        <v>21.852477477477482</v>
+      </c>
+      <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X18" s="6" t="e">
+        <v>22.988806306306312</v>
+      </c>
+      <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>20.716148648648652</v>
       </c>
       <c r="Y18" t="s">
         <v>11</v>
@@ -3241,33 +3272,33 @@
       <c r="Q19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="6" t="e">
+      <c r="R19" s="6">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
         <f t="shared" ref="S19:X19" si="4">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="6" t="e">
+        <v>-0.5244594594594596</v>
+      </c>
+      <c r="T19" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="6" t="e">
+        <v>1.0489189189189183</v>
+      </c>
+      <c r="U19" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="6" t="e">
+        <v>1.0489189189189183</v>
+      </c>
+      <c r="V19" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" s="6" t="e">
+        <v>0.96150900900900949</v>
+      </c>
+      <c r="W19" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X19" s="6" t="e">
+        <v>0.52445945945945915</v>
+      </c>
+      <c r="X19" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.4474774774774777</v>
       </c>
       <c r="Y19" t="s">
         <v>11</v>
@@ -3289,56 +3320,56 @@
       <c r="D21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="8" t="e">
+      <c r="G21" s="8">
         <f>G34/$G$34*$B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="8" t="e">
+        <v>15.41</v>
+      </c>
+      <c r="H21" s="8">
         <f t="shared" ref="H21:M21" si="5">H34/$G$34*$B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="8" t="e">
+        <v>20.514571549375177</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="8" t="e">
+        <v>11.71568307807949</v>
+      </c>
+      <c r="J21" s="8">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="8" t="e">
+        <v>24.862615334022362</v>
+      </c>
+      <c r="K21" s="8">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="8" t="e">
+        <v>25.692262050173824</v>
+      </c>
+      <c r="L21" s="8">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="8" t="e">
+        <v>29.361964671615141</v>
+      </c>
+      <c r="M21" s="8">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>33.961219111152872</v>
       </c>
       <c r="Q21" t="s">
         <v>65</v>
       </c>
       <c r="T21" s="8">
         <f>I34*1000</f>
-        <v>0</v>
+        <v>1618.3000000000002</v>
       </c>
       <c r="U21" s="8">
         <f>J34*1000</f>
-        <v>0</v>
+        <v>3434.3</v>
       </c>
       <c r="V21" s="8">
         <f>K34*1000</f>
-        <v>0</v>
+        <v>3548.9</v>
       </c>
       <c r="W21" s="8">
         <f>L34*1000</f>
-        <v>0</v>
+        <v>4055.7999999999997</v>
       </c>
       <c r="X21" s="8">
         <f>M34*1000</f>
-        <v>0</v>
+        <v>4691.0999999999995</v>
       </c>
       <c r="Y21" t="s">
         <v>66</v>
@@ -3444,37 +3475,103 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
-        <v>0</v>
+        <v>2.1286</v>
       </c>
       <c r="H34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!H$15)</f>
-        <v>0</v>
+        <v>2.8336999999999999</v>
       </c>
       <c r="I34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!I$15)</f>
-        <v>0</v>
+        <v>1.6183000000000001</v>
       </c>
       <c r="J34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!J$15)</f>
-        <v>0</v>
+        <v>3.4343000000000004</v>
       </c>
       <c r="K34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!K$15)</f>
-        <v>0</v>
+        <v>3.5489000000000002</v>
       </c>
       <c r="L34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!L$15)</f>
-        <v>0</v>
+        <v>4.0557999999999996</v>
       </c>
       <c r="M34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
+        <v>4.6910999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="D35" s="20">
+        <v>2030</v>
+      </c>
+      <c r="E35" s="20">
+        <v>2040</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="22">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="D36" s="22">
+        <v>5.57</v>
+      </c>
+      <c r="E36" s="22">
+        <v>6.06</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B37" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="24">
         <v>0</v>
       </c>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13232,7 +13329,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -13264,7 +13361,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -13296,7 +13393,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -13328,7 +13425,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -13360,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -13392,7 +13489,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -13424,7 +13521,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -13456,7 +13553,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -13491,7 +13588,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -13526,7 +13623,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -13561,7 +13658,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -13596,7 +13693,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -13631,7 +13728,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -13666,7 +13763,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -13701,7 +13798,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -13736,7 +13833,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -13771,7 +13868,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -13806,7 +13903,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -13841,7 +13938,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -13876,7 +13973,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -13911,7 +14008,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -13946,7 +14043,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -13981,7 +14078,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -14016,7 +14113,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -14051,7 +14148,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -14086,7 +14183,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -14121,7 +14218,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -14156,7 +14253,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -14191,7 +14288,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>70</v>
@@ -14226,7 +14323,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>70</v>
@@ -14261,7 +14358,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
         <v>70</v>
@@ -14296,7 +14393,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
         <v>70</v>
@@ -14331,7 +14428,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>70</v>
@@ -14366,7 +14463,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
         <v>70</v>
@@ -14401,7 +14498,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>70</v>
@@ -14436,7 +14533,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -14471,7 +14568,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
         <v>70</v>
@@ -14506,7 +14603,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
         <v>70</v>
@@ -14541,7 +14638,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
         <v>70</v>
@@ -14576,7 +14673,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
         <v>70</v>
@@ -14611,7 +14708,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
@@ -14646,7 +14743,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
         <v>70</v>
@@ -14681,7 +14778,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
         <v>70</v>
@@ -14716,7 +14813,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
@@ -14751,7 +14848,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
         <v>70</v>
@@ -14786,7 +14883,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
         <v>70</v>
@@ -14821,7 +14918,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
         <v>70</v>
@@ -14856,7 +14953,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
         <v>70</v>
@@ -14891,7 +14988,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
         <v>70</v>
@@ -14926,7 +15023,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
@@ -14961,7 +15058,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
@@ -14996,7 +15093,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
@@ -15031,7 +15128,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
         <v>29</v>
@@ -15066,7 +15163,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
@@ -15101,7 +15198,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
@@ -15136,7 +15233,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -15171,7 +15268,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
         <v>33</v>
@@ -15206,7 +15303,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
         <v>33</v>
@@ -15241,7 +15338,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
@@ -15276,7 +15373,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
         <v>33</v>
@@ -15311,7 +15408,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
         <v>33</v>
@@ -15346,7 +15443,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
@@ -15381,7 +15478,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
@@ -15416,7 +15513,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -15451,7 +15548,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
@@ -15486,7 +15583,7 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
         <v>35</v>
@@ -15521,7 +15618,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" t="s">
         <v>35</v>
@@ -15556,7 +15653,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -15591,7 +15688,7 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -15626,7 +15723,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
         <v>35</v>
@@ -15661,7 +15758,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
         <v>37</v>
@@ -15696,7 +15793,7 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
         <v>37</v>
@@ -15731,7 +15828,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
         <v>37</v>
@@ -15766,7 +15863,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
         <v>37</v>
@@ -15801,7 +15898,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
         <v>37</v>
@@ -15836,7 +15933,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D77" t="s">
         <v>37</v>
@@ -15871,7 +15968,7 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
         <v>37</v>
@@ -15906,7 +16003,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
         <v>48</v>
@@ -15941,7 +16038,7 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D80" t="s">
         <v>48</v>
@@ -15976,7 +16073,7 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D81" t="s">
         <v>48</v>
@@ -16011,7 +16108,7 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82" t="s">
         <v>48</v>
@@ -16046,7 +16143,7 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D83" t="s">
         <v>48</v>
@@ -16081,7 +16178,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
         <v>48</v>
@@ -16116,7 +16213,7 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D85" t="s">
         <v>48</v>
@@ -16151,7 +16248,7 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D86" t="s">
         <v>51</v>
@@ -16186,7 +16283,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D87" t="s">
         <v>51</v>
@@ -16221,7 +16318,7 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D88" t="s">
         <v>51</v>
@@ -16256,7 +16353,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D89" t="s">
         <v>51</v>
@@ -16291,7 +16388,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D90" t="s">
         <v>51</v>
@@ -16326,7 +16423,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D91" t="s">
         <v>51</v>
@@ -16361,7 +16458,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D92" t="s">
         <v>51</v>
@@ -16396,7 +16493,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D93" t="s">
         <v>45</v>
@@ -16428,7 +16525,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D94" t="s">
         <v>45</v>
@@ -16460,7 +16557,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D95" t="s">
         <v>45</v>
@@ -16492,7 +16589,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
@@ -16524,7 +16621,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
@@ -16556,7 +16653,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D98" t="s">
         <v>45</v>
@@ -16588,7 +16685,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D99" t="s">
         <v>45</v>
@@ -16620,7 +16717,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -16655,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -16690,7 +16787,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -16725,7 +16822,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -16760,7 +16857,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -16795,7 +16892,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -16830,7 +16927,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -16865,7 +16962,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D107" t="s">
         <v>28</v>
@@ -16900,7 +16997,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
@@ -16935,7 +17032,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D109" t="s">
         <v>28</v>
@@ -16970,7 +17067,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
@@ -17005,7 +17102,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D111" t="s">
         <v>28</v>
@@ -17040,7 +17137,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D112" t="s">
         <v>28</v>
@@ -17075,7 +17172,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D113" t="s">
         <v>28</v>
@@ -17110,7 +17207,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
@@ -17145,7 +17242,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
@@ -17180,7 +17277,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
@@ -17215,7 +17312,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D117" t="s">
         <v>27</v>
@@ -17250,7 +17347,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D118" t="s">
         <v>27</v>
@@ -17285,7 +17382,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
@@ -17320,7 +17417,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D120" t="s">
         <v>27</v>
@@ -17355,7 +17452,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D121" t="s">
         <v>70</v>
@@ -17390,7 +17487,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D122" t="s">
         <v>70</v>
@@ -17425,7 +17522,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D123" t="s">
         <v>70</v>
@@ -17460,7 +17557,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D124" t="s">
         <v>70</v>
@@ -17495,7 +17592,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D125" t="s">
         <v>70</v>
@@ -17530,7 +17627,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D126" t="s">
         <v>70</v>
@@ -17565,7 +17662,7 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D127" t="s">
         <v>70</v>
@@ -17600,7 +17697,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D128" t="s">
         <v>70</v>
@@ -17635,7 +17732,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D129" t="s">
         <v>70</v>
@@ -17670,7 +17767,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D130" t="s">
         <v>70</v>
@@ -17705,7 +17802,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D131" t="s">
         <v>70</v>
@@ -17740,7 +17837,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D132" t="s">
         <v>70</v>
@@ -17775,7 +17872,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D133" t="s">
         <v>70</v>
@@ -17810,7 +17907,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D134" t="s">
         <v>70</v>
@@ -17845,7 +17942,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D135" t="s">
         <v>70</v>
@@ -17880,7 +17977,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D136" t="s">
         <v>70</v>
@@ -17915,7 +18012,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D137" t="s">
         <v>70</v>
@@ -17950,7 +18047,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D138" t="s">
         <v>70</v>
@@ -17985,7 +18082,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D139" t="s">
         <v>70</v>
@@ -18020,7 +18117,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D140" t="s">
         <v>70</v>
@@ -18055,7 +18152,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D141" t="s">
         <v>70</v>
@@ -18090,7 +18187,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
@@ -18125,7 +18222,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
@@ -18160,7 +18257,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D144" t="s">
         <v>29</v>
@@ -18195,7 +18292,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
@@ -18230,7 +18327,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D146" t="s">
         <v>29</v>
@@ -18265,7 +18362,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
@@ -18300,7 +18397,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D148" t="s">
         <v>29</v>
@@ -18335,7 +18432,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D149" t="s">
         <v>33</v>
@@ -18370,7 +18467,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D150" t="s">
         <v>33</v>
@@ -18405,7 +18502,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D151" t="s">
         <v>33</v>
@@ -18440,7 +18537,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D152" t="s">
         <v>33</v>
@@ -18475,7 +18572,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D153" t="s">
         <v>33</v>
@@ -18510,7 +18607,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D154" t="s">
         <v>33</v>
@@ -18545,7 +18642,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D155" t="s">
         <v>33</v>
@@ -18580,7 +18677,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D156" t="s">
         <v>35</v>
@@ -18615,7 +18712,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D157" t="s">
         <v>35</v>
@@ -18650,7 +18747,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D158" t="s">
         <v>35</v>
@@ -18685,7 +18782,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D159" t="s">
         <v>35</v>
@@ -18720,7 +18817,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D160" t="s">
         <v>35</v>
@@ -18755,7 +18852,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D161" t="s">
         <v>35</v>
@@ -18790,7 +18887,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D162" t="s">
         <v>35</v>
@@ -18825,7 +18922,7 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D163" t="s">
         <v>37</v>
@@ -18860,7 +18957,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D164" t="s">
         <v>37</v>
@@ -18895,7 +18992,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D165" t="s">
         <v>37</v>
@@ -18930,7 +19027,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D166" t="s">
         <v>37</v>
@@ -18965,7 +19062,7 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D167" t="s">
         <v>37</v>
@@ -19000,7 +19097,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D168" t="s">
         <v>37</v>
@@ -19035,7 +19132,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D169" t="s">
         <v>37</v>
@@ -19070,7 +19167,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D170" t="s">
         <v>48</v>
@@ -19105,7 +19202,7 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D171" t="s">
         <v>48</v>
@@ -19140,7 +19237,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D172" t="s">
         <v>48</v>
@@ -19175,7 +19272,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D173" t="s">
         <v>48</v>
@@ -19210,7 +19307,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D174" t="s">
         <v>48</v>
@@ -19245,7 +19342,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D175" t="s">
         <v>48</v>
@@ -19280,7 +19377,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D176" t="s">
         <v>48</v>
@@ -19315,7 +19412,7 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D177" t="s">
         <v>51</v>
@@ -19350,7 +19447,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D178" t="s">
         <v>51</v>
@@ -19385,7 +19482,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D179" t="s">
         <v>51</v>
@@ -19420,7 +19517,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D180" t="s">
         <v>51</v>
@@ -19455,7 +19552,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D181" t="s">
         <v>51</v>
@@ -19490,7 +19587,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D182" t="s">
         <v>51</v>
@@ -19525,7 +19622,7 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D183" t="s">
         <v>51</v>
@@ -19560,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D184" t="s">
         <v>45</v>
@@ -19592,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D185" t="s">
         <v>45</v>
@@ -19624,7 +19721,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D186" t="s">
         <v>45</v>
@@ -19656,7 +19753,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D187" t="s">
         <v>45</v>
@@ -19688,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D188" t="s">
         <v>45</v>
@@ -19720,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D189" t="s">
         <v>45</v>
@@ -19752,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D190" t="s">
         <v>45</v>
@@ -19784,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D191" t="s">
         <v>24</v>
@@ -19819,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D192" t="s">
         <v>24</v>
@@ -19854,7 +19951,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D193" t="s">
         <v>24</v>
@@ -19889,7 +19986,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D194" t="s">
         <v>24</v>
@@ -19924,7 +20021,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D195" t="s">
         <v>24</v>
@@ -19959,7 +20056,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D196" t="s">
         <v>24</v>
@@ -19994,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D197" t="s">
         <v>24</v>
@@ -20029,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D198" t="s">
         <v>28</v>
@@ -20064,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D199" t="s">
         <v>28</v>
@@ -20099,7 +20196,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D200" t="s">
         <v>28</v>
@@ -20134,7 +20231,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D201" t="s">
         <v>28</v>
@@ -20169,7 +20266,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D202" t="s">
         <v>28</v>
@@ -20204,7 +20301,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D203" t="s">
         <v>28</v>
@@ -20239,7 +20336,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D204" t="s">
         <v>28</v>
@@ -20274,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D205" t="s">
         <v>27</v>
@@ -20309,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
@@ -20344,7 +20441,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D207" t="s">
         <v>27</v>
@@ -20379,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D208" t="s">
         <v>27</v>
@@ -20414,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D209" t="s">
         <v>27</v>
@@ -20449,7 +20546,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D210" t="s">
         <v>27</v>
@@ -20484,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D211" t="s">
         <v>27</v>
@@ -20519,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D212" t="s">
         <v>70</v>
@@ -20554,7 +20651,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D213" t="s">
         <v>70</v>
@@ -20589,7 +20686,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D214" t="s">
         <v>70</v>
@@ -20624,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D215" t="s">
         <v>70</v>
@@ -20659,7 +20756,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D216" t="s">
         <v>70</v>
@@ -20694,7 +20791,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D217" t="s">
         <v>70</v>
@@ -20729,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D218" t="s">
         <v>70</v>
@@ -20764,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D219" t="s">
         <v>70</v>
@@ -20799,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D220" t="s">
         <v>70</v>
@@ -20834,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D221" t="s">
         <v>70</v>
@@ -20869,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D222" t="s">
         <v>70</v>
@@ -20904,7 +21001,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D223" t="s">
         <v>70</v>
@@ -20939,7 +21036,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D224" t="s">
         <v>70</v>
@@ -20974,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D225" t="s">
         <v>70</v>
@@ -21009,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D226" t="s">
         <v>70</v>
@@ -21044,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D227" t="s">
         <v>70</v>
@@ -21079,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D228" t="s">
         <v>70</v>
@@ -21114,7 +21211,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D229" t="s">
         <v>70</v>
@@ -21149,7 +21246,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D230" t="s">
         <v>70</v>
@@ -21184,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D231" t="s">
         <v>70</v>
@@ -21219,7 +21316,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D232" t="s">
         <v>70</v>
@@ -21254,7 +21351,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D233" t="s">
         <v>29</v>
@@ -21289,7 +21386,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D234" t="s">
         <v>29</v>
@@ -21324,7 +21421,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D235" t="s">
         <v>29</v>
@@ -21359,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
@@ -21394,7 +21491,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
@@ -21429,7 +21526,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D238" t="s">
         <v>29</v>
@@ -21464,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D239" t="s">
         <v>29</v>
@@ -21499,7 +21596,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D240" t="s">
         <v>33</v>
@@ -21534,7 +21631,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D241" t="s">
         <v>33</v>
@@ -21569,7 +21666,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D242" t="s">
         <v>33</v>
@@ -21604,7 +21701,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D243" t="s">
         <v>33</v>
@@ -21639,7 +21736,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D244" t="s">
         <v>33</v>
@@ -21674,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D245" t="s">
         <v>33</v>
@@ -21709,7 +21806,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D246" t="s">
         <v>33</v>
@@ -21744,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D247" t="s">
         <v>35</v>
@@ -21779,7 +21876,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D248" t="s">
         <v>35</v>
@@ -21814,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D249" t="s">
         <v>35</v>
@@ -21849,7 +21946,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D250" t="s">
         <v>35</v>
@@ -21884,7 +21981,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D251" t="s">
         <v>35</v>
@@ -21919,7 +22016,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D252" t="s">
         <v>35</v>
@@ -21954,7 +22051,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D253" t="s">
         <v>35</v>
@@ -21989,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D254" t="s">
         <v>37</v>
@@ -22024,7 +22121,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D255" t="s">
         <v>37</v>
@@ -22059,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D256" t="s">
         <v>37</v>
@@ -22094,7 +22191,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D257" t="s">
         <v>37</v>
@@ -22129,7 +22226,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D258" t="s">
         <v>37</v>
@@ -22164,7 +22261,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D259" t="s">
         <v>37</v>
@@ -22199,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D260" t="s">
         <v>37</v>
@@ -22234,7 +22331,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D261" t="s">
         <v>48</v>
@@ -22269,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D262" t="s">
         <v>48</v>
@@ -22304,7 +22401,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D263" t="s">
         <v>48</v>
@@ -22339,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D264" t="s">
         <v>48</v>
@@ -22374,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D265" t="s">
         <v>48</v>
@@ -22409,7 +22506,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D266" t="s">
         <v>48</v>
@@ -22444,7 +22541,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D267" t="s">
         <v>48</v>
@@ -22479,7 +22576,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D268" t="s">
         <v>51</v>
@@ -22514,7 +22611,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D269" t="s">
         <v>51</v>
@@ -22549,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D270" t="s">
         <v>51</v>
@@ -22584,7 +22681,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D271" t="s">
         <v>51</v>
@@ -22619,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D272" t="s">
         <v>51</v>
@@ -22654,7 +22751,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D273" t="s">
         <v>51</v>
@@ -22689,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D274" t="s">
         <v>51</v>
@@ -22724,7 +22821,7 @@
         <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D275" t="s">
         <v>45</v>
@@ -22756,7 +22853,7 @@
         <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D276" t="s">
         <v>45</v>
@@ -22788,7 +22885,7 @@
         <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D277" t="s">
         <v>45</v>
@@ -22820,7 +22917,7 @@
         <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D278" t="s">
         <v>45</v>
@@ -22852,7 +22949,7 @@
         <v>6</v>
       </c>
       <c r="C279" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D279" t="s">
         <v>45</v>
@@ -22884,7 +22981,7 @@
         <v>6</v>
       </c>
       <c r="C280" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D280" t="s">
         <v>45</v>
@@ -22916,7 +23013,7 @@
         <v>6</v>
       </c>
       <c r="C281" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D281" t="s">
         <v>45</v>
@@ -22948,7 +23045,7 @@
         <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D282" t="s">
         <v>24</v>
@@ -22983,7 +23080,7 @@
         <v>6</v>
       </c>
       <c r="C283" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D283" t="s">
         <v>24</v>
@@ -23018,7 +23115,7 @@
         <v>6</v>
       </c>
       <c r="C284" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D284" t="s">
         <v>24</v>
@@ -23053,7 +23150,7 @@
         <v>6</v>
       </c>
       <c r="C285" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D285" t="s">
         <v>24</v>
@@ -23088,7 +23185,7 @@
         <v>6</v>
       </c>
       <c r="C286" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D286" t="s">
         <v>24</v>
@@ -23123,7 +23220,7 @@
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D287" t="s">
         <v>24</v>
@@ -23158,7 +23255,7 @@
         <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D288" t="s">
         <v>24</v>
@@ -23193,7 +23290,7 @@
         <v>6</v>
       </c>
       <c r="C289" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D289" t="s">
         <v>28</v>
@@ -23228,7 +23325,7 @@
         <v>6</v>
       </c>
       <c r="C290" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D290" t="s">
         <v>28</v>
@@ -23263,7 +23360,7 @@
         <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D291" t="s">
         <v>28</v>
@@ -23298,7 +23395,7 @@
         <v>6</v>
       </c>
       <c r="C292" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D292" t="s">
         <v>28</v>
@@ -23333,7 +23430,7 @@
         <v>6</v>
       </c>
       <c r="C293" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D293" t="s">
         <v>28</v>
@@ -23368,7 +23465,7 @@
         <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D294" t="s">
         <v>28</v>
@@ -23403,7 +23500,7 @@
         <v>6</v>
       </c>
       <c r="C295" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D295" t="s">
         <v>28</v>
@@ -23438,7 +23535,7 @@
         <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D296" t="s">
         <v>27</v>
@@ -23473,7 +23570,7 @@
         <v>6</v>
       </c>
       <c r="C297" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D297" t="s">
         <v>27</v>
@@ -23508,7 +23605,7 @@
         <v>6</v>
       </c>
       <c r="C298" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D298" t="s">
         <v>27</v>
@@ -23543,7 +23640,7 @@
         <v>6</v>
       </c>
       <c r="C299" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D299" t="s">
         <v>27</v>
@@ -23578,7 +23675,7 @@
         <v>6</v>
       </c>
       <c r="C300" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D300" t="s">
         <v>27</v>
@@ -23613,7 +23710,7 @@
         <v>6</v>
       </c>
       <c r="C301" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D301" t="s">
         <v>27</v>
@@ -23648,7 +23745,7 @@
         <v>6</v>
       </c>
       <c r="C302" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D302" t="s">
         <v>27</v>
@@ -23683,7 +23780,7 @@
         <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D303" t="s">
         <v>70</v>
@@ -23718,7 +23815,7 @@
         <v>6</v>
       </c>
       <c r="C304" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D304" t="s">
         <v>70</v>
@@ -23753,7 +23850,7 @@
         <v>6</v>
       </c>
       <c r="C305" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D305" t="s">
         <v>70</v>
@@ -23788,7 +23885,7 @@
         <v>6</v>
       </c>
       <c r="C306" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D306" t="s">
         <v>70</v>
@@ -23823,7 +23920,7 @@
         <v>6</v>
       </c>
       <c r="C307" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D307" t="s">
         <v>70</v>
@@ -23858,7 +23955,7 @@
         <v>6</v>
       </c>
       <c r="C308" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D308" t="s">
         <v>70</v>
@@ -23893,7 +23990,7 @@
         <v>6</v>
       </c>
       <c r="C309" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D309" t="s">
         <v>70</v>
@@ -23928,7 +24025,7 @@
         <v>6</v>
       </c>
       <c r="C310" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D310" t="s">
         <v>70</v>
@@ -23963,7 +24060,7 @@
         <v>6</v>
       </c>
       <c r="C311" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D311" t="s">
         <v>70</v>
@@ -23998,7 +24095,7 @@
         <v>6</v>
       </c>
       <c r="C312" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D312" t="s">
         <v>70</v>
@@ -24033,7 +24130,7 @@
         <v>6</v>
       </c>
       <c r="C313" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D313" t="s">
         <v>70</v>
@@ -24068,7 +24165,7 @@
         <v>6</v>
       </c>
       <c r="C314" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D314" t="s">
         <v>70</v>
@@ -24103,7 +24200,7 @@
         <v>6</v>
       </c>
       <c r="C315" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D315" t="s">
         <v>70</v>
@@ -24138,7 +24235,7 @@
         <v>6</v>
       </c>
       <c r="C316" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D316" t="s">
         <v>70</v>
@@ -24173,7 +24270,7 @@
         <v>6</v>
       </c>
       <c r="C317" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D317" t="s">
         <v>70</v>
@@ -24208,7 +24305,7 @@
         <v>6</v>
       </c>
       <c r="C318" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D318" t="s">
         <v>70</v>
@@ -24243,7 +24340,7 @@
         <v>6</v>
       </c>
       <c r="C319" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D319" t="s">
         <v>70</v>
@@ -24278,7 +24375,7 @@
         <v>6</v>
       </c>
       <c r="C320" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D320" t="s">
         <v>70</v>
@@ -24313,7 +24410,7 @@
         <v>6</v>
       </c>
       <c r="C321" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D321" t="s">
         <v>70</v>
@@ -24348,7 +24445,7 @@
         <v>6</v>
       </c>
       <c r="C322" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D322" t="s">
         <v>70</v>
@@ -24383,7 +24480,7 @@
         <v>6</v>
       </c>
       <c r="C323" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D323" t="s">
         <v>70</v>
@@ -24418,7 +24515,7 @@
         <v>6</v>
       </c>
       <c r="C324" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D324" t="s">
         <v>29</v>
@@ -24453,7 +24550,7 @@
         <v>6</v>
       </c>
       <c r="C325" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D325" t="s">
         <v>29</v>
@@ -24488,7 +24585,7 @@
         <v>6</v>
       </c>
       <c r="C326" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D326" t="s">
         <v>29</v>
@@ -24523,7 +24620,7 @@
         <v>6</v>
       </c>
       <c r="C327" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D327" t="s">
         <v>29</v>
@@ -24558,7 +24655,7 @@
         <v>6</v>
       </c>
       <c r="C328" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D328" t="s">
         <v>29</v>
@@ -24593,7 +24690,7 @@
         <v>6</v>
       </c>
       <c r="C329" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D329" t="s">
         <v>29</v>
@@ -24628,7 +24725,7 @@
         <v>6</v>
       </c>
       <c r="C330" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D330" t="s">
         <v>29</v>
@@ -24663,7 +24760,7 @@
         <v>6</v>
       </c>
       <c r="C331" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D331" t="s">
         <v>33</v>
@@ -24698,7 +24795,7 @@
         <v>6</v>
       </c>
       <c r="C332" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D332" t="s">
         <v>33</v>
@@ -24733,7 +24830,7 @@
         <v>6</v>
       </c>
       <c r="C333" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D333" t="s">
         <v>33</v>
@@ -24768,7 +24865,7 @@
         <v>6</v>
       </c>
       <c r="C334" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D334" t="s">
         <v>33</v>
@@ -24803,7 +24900,7 @@
         <v>6</v>
       </c>
       <c r="C335" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D335" t="s">
         <v>33</v>
@@ -24838,7 +24935,7 @@
         <v>6</v>
       </c>
       <c r="C336" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D336" t="s">
         <v>33</v>
@@ -24873,7 +24970,7 @@
         <v>6</v>
       </c>
       <c r="C337" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D337" t="s">
         <v>33</v>
@@ -24908,7 +25005,7 @@
         <v>6</v>
       </c>
       <c r="C338" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D338" t="s">
         <v>35</v>
@@ -24943,7 +25040,7 @@
         <v>6</v>
       </c>
       <c r="C339" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D339" t="s">
         <v>35</v>
@@ -24978,7 +25075,7 @@
         <v>6</v>
       </c>
       <c r="C340" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D340" t="s">
         <v>35</v>
@@ -25013,7 +25110,7 @@
         <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D341" t="s">
         <v>35</v>
@@ -25048,7 +25145,7 @@
         <v>6</v>
       </c>
       <c r="C342" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D342" t="s">
         <v>35</v>
@@ -25083,7 +25180,7 @@
         <v>6</v>
       </c>
       <c r="C343" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D343" t="s">
         <v>35</v>
@@ -25118,7 +25215,7 @@
         <v>6</v>
       </c>
       <c r="C344" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D344" t="s">
         <v>35</v>
@@ -25153,7 +25250,7 @@
         <v>6</v>
       </c>
       <c r="C345" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D345" t="s">
         <v>37</v>
@@ -25188,7 +25285,7 @@
         <v>6</v>
       </c>
       <c r="C346" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D346" t="s">
         <v>37</v>
@@ -25223,7 +25320,7 @@
         <v>6</v>
       </c>
       <c r="C347" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D347" t="s">
         <v>37</v>
@@ -25258,7 +25355,7 @@
         <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D348" t="s">
         <v>37</v>
@@ -25293,7 +25390,7 @@
         <v>6</v>
       </c>
       <c r="C349" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D349" t="s">
         <v>37</v>
@@ -25328,7 +25425,7 @@
         <v>6</v>
       </c>
       <c r="C350" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D350" t="s">
         <v>37</v>
@@ -25363,7 +25460,7 @@
         <v>6</v>
       </c>
       <c r="C351" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D351" t="s">
         <v>37</v>
@@ -25398,7 +25495,7 @@
         <v>6</v>
       </c>
       <c r="C352" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D352" t="s">
         <v>48</v>
@@ -25433,7 +25530,7 @@
         <v>6</v>
       </c>
       <c r="C353" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D353" t="s">
         <v>48</v>
@@ -25468,7 +25565,7 @@
         <v>6</v>
       </c>
       <c r="C354" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D354" t="s">
         <v>48</v>
@@ -25503,7 +25600,7 @@
         <v>6</v>
       </c>
       <c r="C355" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D355" t="s">
         <v>48</v>
@@ -25538,7 +25635,7 @@
         <v>6</v>
       </c>
       <c r="C356" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D356" t="s">
         <v>48</v>
@@ -25573,7 +25670,7 @@
         <v>6</v>
       </c>
       <c r="C357" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D357" t="s">
         <v>48</v>
@@ -25608,7 +25705,7 @@
         <v>6</v>
       </c>
       <c r="C358" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D358" t="s">
         <v>48</v>
@@ -25643,7 +25740,7 @@
         <v>6</v>
       </c>
       <c r="C359" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D359" t="s">
         <v>51</v>
@@ -25678,7 +25775,7 @@
         <v>6</v>
       </c>
       <c r="C360" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D360" t="s">
         <v>51</v>
@@ -25713,7 +25810,7 @@
         <v>6</v>
       </c>
       <c r="C361" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D361" t="s">
         <v>51</v>
@@ -25748,7 +25845,7 @@
         <v>6</v>
       </c>
       <c r="C362" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D362" t="s">
         <v>51</v>
@@ -25783,7 +25880,7 @@
         <v>6</v>
       </c>
       <c r="C363" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D363" t="s">
         <v>51</v>
@@ -25818,7 +25915,7 @@
         <v>6</v>
       </c>
       <c r="C364" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D364" t="s">
         <v>51</v>
@@ -25853,7 +25950,7 @@
         <v>6</v>
       </c>
       <c r="C365" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D365" t="s">
         <v>51</v>
@@ -25888,7 +25985,7 @@
         <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D366" t="s">
         <v>45</v>
@@ -25920,7 +26017,7 @@
         <v>5</v>
       </c>
       <c r="C367" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D367" t="s">
         <v>45</v>
@@ -25952,7 +26049,7 @@
         <v>5</v>
       </c>
       <c r="C368" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D368" t="s">
         <v>45</v>
@@ -25984,7 +26081,7 @@
         <v>5</v>
       </c>
       <c r="C369" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D369" t="s">
         <v>45</v>
@@ -26016,7 +26113,7 @@
         <v>5</v>
       </c>
       <c r="C370" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D370" t="s">
         <v>45</v>
@@ -26048,7 +26145,7 @@
         <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D371" t="s">
         <v>45</v>
@@ -26080,7 +26177,7 @@
         <v>5</v>
       </c>
       <c r="C372" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D372" t="s">
         <v>45</v>
@@ -26112,7 +26209,7 @@
         <v>5</v>
       </c>
       <c r="C373" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D373" t="s">
         <v>24</v>
@@ -26147,7 +26244,7 @@
         <v>5</v>
       </c>
       <c r="C374" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D374" t="s">
         <v>24</v>
@@ -26182,7 +26279,7 @@
         <v>5</v>
       </c>
       <c r="C375" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D375" t="s">
         <v>24</v>
@@ -26217,7 +26314,7 @@
         <v>5</v>
       </c>
       <c r="C376" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D376" t="s">
         <v>24</v>
@@ -26252,7 +26349,7 @@
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D377" t="s">
         <v>24</v>
@@ -26287,7 +26384,7 @@
         <v>5</v>
       </c>
       <c r="C378" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D378" t="s">
         <v>24</v>
@@ -26322,7 +26419,7 @@
         <v>5</v>
       </c>
       <c r="C379" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D379" t="s">
         <v>24</v>
@@ -26357,7 +26454,7 @@
         <v>5</v>
       </c>
       <c r="C380" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D380" t="s">
         <v>28</v>
@@ -26392,7 +26489,7 @@
         <v>5</v>
       </c>
       <c r="C381" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D381" t="s">
         <v>28</v>
@@ -26427,7 +26524,7 @@
         <v>5</v>
       </c>
       <c r="C382" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D382" t="s">
         <v>28</v>
@@ -26462,7 +26559,7 @@
         <v>5</v>
       </c>
       <c r="C383" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D383" t="s">
         <v>28</v>
@@ -26497,7 +26594,7 @@
         <v>5</v>
       </c>
       <c r="C384" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D384" t="s">
         <v>28</v>
@@ -26532,7 +26629,7 @@
         <v>5</v>
       </c>
       <c r="C385" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D385" t="s">
         <v>28</v>
@@ -26567,7 +26664,7 @@
         <v>5</v>
       </c>
       <c r="C386" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D386" t="s">
         <v>28</v>
@@ -26602,7 +26699,7 @@
         <v>5</v>
       </c>
       <c r="C387" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -26637,7 +26734,7 @@
         <v>5</v>
       </c>
       <c r="C388" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -26672,7 +26769,7 @@
         <v>5</v>
       </c>
       <c r="C389" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -26707,7 +26804,7 @@
         <v>5</v>
       </c>
       <c r="C390" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -26742,7 +26839,7 @@
         <v>5</v>
       </c>
       <c r="C391" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -26777,7 +26874,7 @@
         <v>5</v>
       </c>
       <c r="C392" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -26812,7 +26909,7 @@
         <v>5</v>
       </c>
       <c r="C393" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -26847,7 +26944,7 @@
         <v>5</v>
       </c>
       <c r="C394" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D394" t="s">
         <v>70</v>
@@ -26882,7 +26979,7 @@
         <v>5</v>
       </c>
       <c r="C395" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D395" t="s">
         <v>70</v>
@@ -26917,7 +27014,7 @@
         <v>5</v>
       </c>
       <c r="C396" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D396" t="s">
         <v>70</v>
@@ -26952,7 +27049,7 @@
         <v>5</v>
       </c>
       <c r="C397" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D397" t="s">
         <v>70</v>
@@ -26987,7 +27084,7 @@
         <v>5</v>
       </c>
       <c r="C398" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D398" t="s">
         <v>70</v>
@@ -27022,7 +27119,7 @@
         <v>5</v>
       </c>
       <c r="C399" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D399" t="s">
         <v>70</v>
@@ -27057,7 +27154,7 @@
         <v>5</v>
       </c>
       <c r="C400" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D400" t="s">
         <v>70</v>
@@ -27092,7 +27189,7 @@
         <v>5</v>
       </c>
       <c r="C401" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D401" t="s">
         <v>70</v>
@@ -27127,7 +27224,7 @@
         <v>5</v>
       </c>
       <c r="C402" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D402" t="s">
         <v>70</v>
@@ -27162,7 +27259,7 @@
         <v>5</v>
       </c>
       <c r="C403" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D403" t="s">
         <v>70</v>
@@ -27197,7 +27294,7 @@
         <v>5</v>
       </c>
       <c r="C404" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D404" t="s">
         <v>70</v>
@@ -27232,7 +27329,7 @@
         <v>5</v>
       </c>
       <c r="C405" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D405" t="s">
         <v>70</v>
@@ -27267,7 +27364,7 @@
         <v>5</v>
       </c>
       <c r="C406" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D406" t="s">
         <v>70</v>
@@ -27302,7 +27399,7 @@
         <v>5</v>
       </c>
       <c r="C407" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D407" t="s">
         <v>70</v>
@@ -27337,7 +27434,7 @@
         <v>5</v>
       </c>
       <c r="C408" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D408" t="s">
         <v>70</v>
@@ -27372,7 +27469,7 @@
         <v>5</v>
       </c>
       <c r="C409" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D409" t="s">
         <v>70</v>
@@ -27407,7 +27504,7 @@
         <v>5</v>
       </c>
       <c r="C410" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D410" t="s">
         <v>70</v>
@@ -27442,7 +27539,7 @@
         <v>5</v>
       </c>
       <c r="C411" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D411" t="s">
         <v>70</v>
@@ -27477,7 +27574,7 @@
         <v>5</v>
       </c>
       <c r="C412" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D412" t="s">
         <v>70</v>
@@ -27512,7 +27609,7 @@
         <v>5</v>
       </c>
       <c r="C413" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D413" t="s">
         <v>70</v>
@@ -27547,7 +27644,7 @@
         <v>5</v>
       </c>
       <c r="C414" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D414" t="s">
         <v>70</v>
@@ -27582,7 +27679,7 @@
         <v>5</v>
       </c>
       <c r="C415" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D415" t="s">
         <v>29</v>
@@ -27617,7 +27714,7 @@
         <v>5</v>
       </c>
       <c r="C416" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D416" t="s">
         <v>29</v>
@@ -27652,7 +27749,7 @@
         <v>5</v>
       </c>
       <c r="C417" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D417" t="s">
         <v>29</v>
@@ -27687,7 +27784,7 @@
         <v>5</v>
       </c>
       <c r="C418" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D418" t="s">
         <v>29</v>
@@ -27722,7 +27819,7 @@
         <v>5</v>
       </c>
       <c r="C419" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D419" t="s">
         <v>29</v>
@@ -27757,7 +27854,7 @@
         <v>5</v>
       </c>
       <c r="C420" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D420" t="s">
         <v>29</v>
@@ -27792,7 +27889,7 @@
         <v>5</v>
       </c>
       <c r="C421" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D421" t="s">
         <v>29</v>
@@ -27827,7 +27924,7 @@
         <v>5</v>
       </c>
       <c r="C422" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D422" t="s">
         <v>33</v>
@@ -27862,7 +27959,7 @@
         <v>5</v>
       </c>
       <c r="C423" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D423" t="s">
         <v>33</v>
@@ -27897,7 +27994,7 @@
         <v>5</v>
       </c>
       <c r="C424" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D424" t="s">
         <v>33</v>
@@ -27932,7 +28029,7 @@
         <v>5</v>
       </c>
       <c r="C425" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D425" t="s">
         <v>33</v>
@@ -27967,7 +28064,7 @@
         <v>5</v>
       </c>
       <c r="C426" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D426" t="s">
         <v>33</v>
@@ -28002,7 +28099,7 @@
         <v>5</v>
       </c>
       <c r="C427" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D427" t="s">
         <v>33</v>
@@ -28037,7 +28134,7 @@
         <v>5</v>
       </c>
       <c r="C428" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D428" t="s">
         <v>33</v>
@@ -28072,7 +28169,7 @@
         <v>5</v>
       </c>
       <c r="C429" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D429" t="s">
         <v>35</v>
@@ -28107,7 +28204,7 @@
         <v>5</v>
       </c>
       <c r="C430" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D430" t="s">
         <v>35</v>
@@ -28142,7 +28239,7 @@
         <v>5</v>
       </c>
       <c r="C431" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D431" t="s">
         <v>35</v>
@@ -28177,7 +28274,7 @@
         <v>5</v>
       </c>
       <c r="C432" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D432" t="s">
         <v>35</v>
@@ -28212,7 +28309,7 @@
         <v>5</v>
       </c>
       <c r="C433" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D433" t="s">
         <v>35</v>
@@ -28247,7 +28344,7 @@
         <v>5</v>
       </c>
       <c r="C434" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D434" t="s">
         <v>35</v>
@@ -28282,7 +28379,7 @@
         <v>5</v>
       </c>
       <c r="C435" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D435" t="s">
         <v>35</v>
@@ -28317,7 +28414,7 @@
         <v>5</v>
       </c>
       <c r="C436" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D436" t="s">
         <v>37</v>
@@ -28352,7 +28449,7 @@
         <v>5</v>
       </c>
       <c r="C437" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D437" t="s">
         <v>37</v>
@@ -28387,7 +28484,7 @@
         <v>5</v>
       </c>
       <c r="C438" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D438" t="s">
         <v>37</v>
@@ -28422,7 +28519,7 @@
         <v>5</v>
       </c>
       <c r="C439" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D439" t="s">
         <v>37</v>
@@ -28457,7 +28554,7 @@
         <v>5</v>
       </c>
       <c r="C440" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D440" t="s">
         <v>37</v>
@@ -28492,7 +28589,7 @@
         <v>5</v>
       </c>
       <c r="C441" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D441" t="s">
         <v>37</v>
@@ -28527,7 +28624,7 @@
         <v>5</v>
       </c>
       <c r="C442" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D442" t="s">
         <v>37</v>
@@ -28562,7 +28659,7 @@
         <v>5</v>
       </c>
       <c r="C443" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D443" t="s">
         <v>48</v>
@@ -28597,7 +28694,7 @@
         <v>5</v>
       </c>
       <c r="C444" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D444" t="s">
         <v>48</v>
@@ -28632,7 +28729,7 @@
         <v>5</v>
       </c>
       <c r="C445" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D445" t="s">
         <v>48</v>
@@ -28667,7 +28764,7 @@
         <v>5</v>
       </c>
       <c r="C446" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D446" t="s">
         <v>48</v>
@@ -28702,7 +28799,7 @@
         <v>5</v>
       </c>
       <c r="C447" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D447" t="s">
         <v>48</v>
@@ -28737,7 +28834,7 @@
         <v>5</v>
       </c>
       <c r="C448" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D448" t="s">
         <v>48</v>
@@ -28772,7 +28869,7 @@
         <v>5</v>
       </c>
       <c r="C449" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D449" t="s">
         <v>48</v>
@@ -28807,7 +28904,7 @@
         <v>5</v>
       </c>
       <c r="C450" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D450" t="s">
         <v>51</v>
@@ -28842,7 +28939,7 @@
         <v>5</v>
       </c>
       <c r="C451" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D451" t="s">
         <v>51</v>
@@ -28877,7 +28974,7 @@
         <v>5</v>
       </c>
       <c r="C452" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D452" t="s">
         <v>51</v>
@@ -28912,7 +29009,7 @@
         <v>5</v>
       </c>
       <c r="C453" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D453" t="s">
         <v>51</v>
@@ -28947,7 +29044,7 @@
         <v>5</v>
       </c>
       <c r="C454" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D454" t="s">
         <v>51</v>
@@ -28982,7 +29079,7 @@
         <v>5</v>
       </c>
       <c r="C455" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D455" t="s">
         <v>51</v>
@@ -29017,7 +29114,7 @@
         <v>5</v>
       </c>
       <c r="C456" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D456" t="s">
         <v>51</v>
@@ -29052,7 +29149,7 @@
         <v>2</v>
       </c>
       <c r="C457" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D457" t="s">
         <v>45</v>
@@ -29084,7 +29181,7 @@
         <v>2</v>
       </c>
       <c r="C458" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D458" t="s">
         <v>45</v>
@@ -29116,7 +29213,7 @@
         <v>2</v>
       </c>
       <c r="C459" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D459" t="s">
         <v>45</v>
@@ -29148,7 +29245,7 @@
         <v>2</v>
       </c>
       <c r="C460" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D460" t="s">
         <v>45</v>
@@ -29180,7 +29277,7 @@
         <v>2</v>
       </c>
       <c r="C461" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D461" t="s">
         <v>45</v>
@@ -29212,7 +29309,7 @@
         <v>2</v>
       </c>
       <c r="C462" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D462" t="s">
         <v>45</v>
@@ -29244,7 +29341,7 @@
         <v>2</v>
       </c>
       <c r="C463" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D463" t="s">
         <v>45</v>
@@ -29276,7 +29373,7 @@
         <v>2</v>
       </c>
       <c r="C464" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D464" t="s">
         <v>24</v>
@@ -29311,7 +29408,7 @@
         <v>2</v>
       </c>
       <c r="C465" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D465" t="s">
         <v>24</v>
@@ -29346,7 +29443,7 @@
         <v>2</v>
       </c>
       <c r="C466" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D466" t="s">
         <v>24</v>
@@ -29381,7 +29478,7 @@
         <v>2</v>
       </c>
       <c r="C467" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D467" t="s">
         <v>24</v>
@@ -29416,7 +29513,7 @@
         <v>2</v>
       </c>
       <c r="C468" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D468" t="s">
         <v>24</v>
@@ -29451,7 +29548,7 @@
         <v>2</v>
       </c>
       <c r="C469" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D469" t="s">
         <v>24</v>
@@ -29486,7 +29583,7 @@
         <v>2</v>
       </c>
       <c r="C470" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D470" t="s">
         <v>24</v>
@@ -29521,7 +29618,7 @@
         <v>2</v>
       </c>
       <c r="C471" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D471" t="s">
         <v>28</v>
@@ -29556,7 +29653,7 @@
         <v>2</v>
       </c>
       <c r="C472" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D472" t="s">
         <v>28</v>
@@ -29591,7 +29688,7 @@
         <v>2</v>
       </c>
       <c r="C473" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D473" t="s">
         <v>28</v>
@@ -29626,7 +29723,7 @@
         <v>2</v>
       </c>
       <c r="C474" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D474" t="s">
         <v>28</v>
@@ -29661,7 +29758,7 @@
         <v>2</v>
       </c>
       <c r="C475" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D475" t="s">
         <v>28</v>
@@ -29696,7 +29793,7 @@
         <v>2</v>
       </c>
       <c r="C476" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D476" t="s">
         <v>28</v>
@@ -29731,7 +29828,7 @@
         <v>2</v>
       </c>
       <c r="C477" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D477" t="s">
         <v>28</v>
@@ -29766,7 +29863,7 @@
         <v>2</v>
       </c>
       <c r="C478" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D478" t="s">
         <v>27</v>
@@ -29801,7 +29898,7 @@
         <v>2</v>
       </c>
       <c r="C479" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D479" t="s">
         <v>27</v>
@@ -29836,7 +29933,7 @@
         <v>2</v>
       </c>
       <c r="C480" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D480" t="s">
         <v>27</v>
@@ -29871,7 +29968,7 @@
         <v>2</v>
       </c>
       <c r="C481" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D481" t="s">
         <v>27</v>
@@ -29906,7 +30003,7 @@
         <v>2</v>
       </c>
       <c r="C482" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D482" t="s">
         <v>27</v>
@@ -29941,7 +30038,7 @@
         <v>2</v>
       </c>
       <c r="C483" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D483" t="s">
         <v>27</v>
@@ -29976,7 +30073,7 @@
         <v>2</v>
       </c>
       <c r="C484" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D484" t="s">
         <v>27</v>
@@ -30011,7 +30108,7 @@
         <v>2</v>
       </c>
       <c r="C485" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D485" t="s">
         <v>70</v>
@@ -30046,7 +30143,7 @@
         <v>2</v>
       </c>
       <c r="C486" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D486" t="s">
         <v>70</v>
@@ -30081,7 +30178,7 @@
         <v>2</v>
       </c>
       <c r="C487" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D487" t="s">
         <v>70</v>
@@ -30116,7 +30213,7 @@
         <v>2</v>
       </c>
       <c r="C488" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D488" t="s">
         <v>70</v>
@@ -30151,7 +30248,7 @@
         <v>2</v>
       </c>
       <c r="C489" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D489" t="s">
         <v>70</v>
@@ -30186,7 +30283,7 @@
         <v>2</v>
       </c>
       <c r="C490" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D490" t="s">
         <v>70</v>
@@ -30221,7 +30318,7 @@
         <v>2</v>
       </c>
       <c r="C491" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D491" t="s">
         <v>70</v>
@@ -30256,7 +30353,7 @@
         <v>2</v>
       </c>
       <c r="C492" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D492" t="s">
         <v>70</v>
@@ -30291,7 +30388,7 @@
         <v>2</v>
       </c>
       <c r="C493" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D493" t="s">
         <v>70</v>
@@ -30326,7 +30423,7 @@
         <v>2</v>
       </c>
       <c r="C494" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D494" t="s">
         <v>70</v>
@@ -30361,7 +30458,7 @@
         <v>2</v>
       </c>
       <c r="C495" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D495" t="s">
         <v>70</v>
@@ -30396,7 +30493,7 @@
         <v>2</v>
       </c>
       <c r="C496" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D496" t="s">
         <v>70</v>
@@ -30431,7 +30528,7 @@
         <v>2</v>
       </c>
       <c r="C497" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D497" t="s">
         <v>70</v>
@@ -30466,7 +30563,7 @@
         <v>2</v>
       </c>
       <c r="C498" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D498" t="s">
         <v>70</v>
@@ -30501,7 +30598,7 @@
         <v>2</v>
       </c>
       <c r="C499" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D499" t="s">
         <v>70</v>
@@ -30536,7 +30633,7 @@
         <v>2</v>
       </c>
       <c r="C500" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D500" t="s">
         <v>70</v>
@@ -30571,7 +30668,7 @@
         <v>2</v>
       </c>
       <c r="C501" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D501" t="s">
         <v>70</v>
@@ -30606,7 +30703,7 @@
         <v>2</v>
       </c>
       <c r="C502" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D502" t="s">
         <v>70</v>
@@ -30641,7 +30738,7 @@
         <v>2</v>
       </c>
       <c r="C503" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D503" t="s">
         <v>70</v>
@@ -30676,7 +30773,7 @@
         <v>2</v>
       </c>
       <c r="C504" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D504" t="s">
         <v>70</v>
@@ -30711,7 +30808,7 @@
         <v>2</v>
       </c>
       <c r="C505" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D505" t="s">
         <v>70</v>
@@ -30746,7 +30843,7 @@
         <v>2</v>
       </c>
       <c r="C506" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D506" t="s">
         <v>29</v>
@@ -30781,7 +30878,7 @@
         <v>2</v>
       </c>
       <c r="C507" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D507" t="s">
         <v>29</v>
@@ -30816,7 +30913,7 @@
         <v>2</v>
       </c>
       <c r="C508" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D508" t="s">
         <v>29</v>
@@ -30851,7 +30948,7 @@
         <v>2</v>
       </c>
       <c r="C509" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D509" t="s">
         <v>29</v>
@@ -30886,7 +30983,7 @@
         <v>2</v>
       </c>
       <c r="C510" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D510" t="s">
         <v>29</v>
@@ -30921,7 +31018,7 @@
         <v>2</v>
       </c>
       <c r="C511" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D511" t="s">
         <v>29</v>
@@ -30956,7 +31053,7 @@
         <v>2</v>
       </c>
       <c r="C512" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D512" t="s">
         <v>29</v>
@@ -30991,7 +31088,7 @@
         <v>2</v>
       </c>
       <c r="C513" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D513" t="s">
         <v>33</v>
@@ -31026,7 +31123,7 @@
         <v>2</v>
       </c>
       <c r="C514" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D514" t="s">
         <v>33</v>
@@ -31061,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="C515" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D515" t="s">
         <v>33</v>
@@ -31096,7 +31193,7 @@
         <v>2</v>
       </c>
       <c r="C516" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D516" t="s">
         <v>33</v>
@@ -31131,7 +31228,7 @@
         <v>2</v>
       </c>
       <c r="C517" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D517" t="s">
         <v>33</v>
@@ -31166,7 +31263,7 @@
         <v>2</v>
       </c>
       <c r="C518" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D518" t="s">
         <v>33</v>
@@ -31201,7 +31298,7 @@
         <v>2</v>
       </c>
       <c r="C519" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D519" t="s">
         <v>33</v>
@@ -31236,7 +31333,7 @@
         <v>2</v>
       </c>
       <c r="C520" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D520" t="s">
         <v>35</v>
@@ -31271,7 +31368,7 @@
         <v>2</v>
       </c>
       <c r="C521" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D521" t="s">
         <v>35</v>
@@ -31306,7 +31403,7 @@
         <v>2</v>
       </c>
       <c r="C522" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D522" t="s">
         <v>35</v>
@@ -31341,7 +31438,7 @@
         <v>2</v>
       </c>
       <c r="C523" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D523" t="s">
         <v>35</v>
@@ -31376,7 +31473,7 @@
         <v>2</v>
       </c>
       <c r="C524" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D524" t="s">
         <v>35</v>
@@ -31411,7 +31508,7 @@
         <v>2</v>
       </c>
       <c r="C525" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D525" t="s">
         <v>35</v>
@@ -31446,7 +31543,7 @@
         <v>2</v>
       </c>
       <c r="C526" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D526" t="s">
         <v>35</v>
@@ -31481,7 +31578,7 @@
         <v>2</v>
       </c>
       <c r="C527" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D527" t="s">
         <v>37</v>
@@ -31516,7 +31613,7 @@
         <v>2</v>
       </c>
       <c r="C528" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D528" t="s">
         <v>37</v>
@@ -31551,7 +31648,7 @@
         <v>2</v>
       </c>
       <c r="C529" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D529" t="s">
         <v>37</v>
@@ -31586,7 +31683,7 @@
         <v>2</v>
       </c>
       <c r="C530" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D530" t="s">
         <v>37</v>
@@ -31621,7 +31718,7 @@
         <v>2</v>
       </c>
       <c r="C531" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D531" t="s">
         <v>37</v>
@@ -31656,7 +31753,7 @@
         <v>2</v>
       </c>
       <c r="C532" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D532" t="s">
         <v>37</v>
@@ -31691,7 +31788,7 @@
         <v>2</v>
       </c>
       <c r="C533" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D533" t="s">
         <v>37</v>
@@ -31726,7 +31823,7 @@
         <v>2</v>
       </c>
       <c r="C534" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D534" t="s">
         <v>48</v>
@@ -31761,7 +31858,7 @@
         <v>2</v>
       </c>
       <c r="C535" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D535" t="s">
         <v>48</v>
@@ -31796,7 +31893,7 @@
         <v>2</v>
       </c>
       <c r="C536" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D536" t="s">
         <v>48</v>
@@ -31831,7 +31928,7 @@
         <v>2</v>
       </c>
       <c r="C537" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D537" t="s">
         <v>48</v>
@@ -31866,7 +31963,7 @@
         <v>2</v>
       </c>
       <c r="C538" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D538" t="s">
         <v>48</v>
@@ -31901,7 +31998,7 @@
         <v>2</v>
       </c>
       <c r="C539" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D539" t="s">
         <v>48</v>
@@ -31936,7 +32033,7 @@
         <v>2</v>
       </c>
       <c r="C540" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D540" t="s">
         <v>48</v>
@@ -31971,7 +32068,7 @@
         <v>2</v>
       </c>
       <c r="C541" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D541" t="s">
         <v>51</v>
@@ -32006,7 +32103,7 @@
         <v>2</v>
       </c>
       <c r="C542" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D542" t="s">
         <v>51</v>
@@ -32041,7 +32138,7 @@
         <v>2</v>
       </c>
       <c r="C543" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D543" t="s">
         <v>51</v>
@@ -32076,7 +32173,7 @@
         <v>2</v>
       </c>
       <c r="C544" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D544" t="s">
         <v>51</v>
@@ -32111,7 +32208,7 @@
         <v>2</v>
       </c>
       <c r="C545" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D545" t="s">
         <v>51</v>
@@ -32146,7 +32243,7 @@
         <v>2</v>
       </c>
       <c r="C546" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D546" t="s">
         <v>51</v>
@@ -32181,7 +32278,7 @@
         <v>2</v>
       </c>
       <c r="C547" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D547" t="s">
         <v>51</v>
@@ -32216,7 +32313,7 @@
         <v>1</v>
       </c>
       <c r="C548" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D548" t="s">
         <v>45</v>
@@ -32248,7 +32345,7 @@
         <v>1</v>
       </c>
       <c r="C549" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D549" t="s">
         <v>45</v>
@@ -32280,7 +32377,7 @@
         <v>1</v>
       </c>
       <c r="C550" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D550" t="s">
         <v>45</v>
@@ -32312,7 +32409,7 @@
         <v>1</v>
       </c>
       <c r="C551" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D551" t="s">
         <v>45</v>
@@ -32344,7 +32441,7 @@
         <v>1</v>
       </c>
       <c r="C552" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D552" t="s">
         <v>45</v>
@@ -32376,7 +32473,7 @@
         <v>1</v>
       </c>
       <c r="C553" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D553" t="s">
         <v>45</v>
@@ -32408,7 +32505,7 @@
         <v>1</v>
       </c>
       <c r="C554" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D554" t="s">
         <v>45</v>
@@ -32440,7 +32537,7 @@
         <v>1</v>
       </c>
       <c r="C555" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D555" t="s">
         <v>24</v>
@@ -32475,7 +32572,7 @@
         <v>1</v>
       </c>
       <c r="C556" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D556" t="s">
         <v>24</v>
@@ -32510,7 +32607,7 @@
         <v>1</v>
       </c>
       <c r="C557" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D557" t="s">
         <v>24</v>
@@ -32545,7 +32642,7 @@
         <v>1</v>
       </c>
       <c r="C558" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D558" t="s">
         <v>24</v>
@@ -32580,7 +32677,7 @@
         <v>1</v>
       </c>
       <c r="C559" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D559" t="s">
         <v>24</v>
@@ -32615,7 +32712,7 @@
         <v>1</v>
       </c>
       <c r="C560" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D560" t="s">
         <v>24</v>
@@ -32650,7 +32747,7 @@
         <v>1</v>
       </c>
       <c r="C561" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D561" t="s">
         <v>24</v>
@@ -32685,7 +32782,7 @@
         <v>1</v>
       </c>
       <c r="C562" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D562" t="s">
         <v>28</v>
@@ -32720,7 +32817,7 @@
         <v>1</v>
       </c>
       <c r="C563" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D563" t="s">
         <v>28</v>
@@ -32755,7 +32852,7 @@
         <v>1</v>
       </c>
       <c r="C564" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D564" t="s">
         <v>28</v>
@@ -32790,7 +32887,7 @@
         <v>1</v>
       </c>
       <c r="C565" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D565" t="s">
         <v>28</v>
@@ -32825,7 +32922,7 @@
         <v>1</v>
       </c>
       <c r="C566" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D566" t="s">
         <v>28</v>
@@ -32860,7 +32957,7 @@
         <v>1</v>
       </c>
       <c r="C567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D567" t="s">
         <v>28</v>
@@ -32895,7 +32992,7 @@
         <v>1</v>
       </c>
       <c r="C568" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D568" t="s">
         <v>28</v>
@@ -32930,7 +33027,7 @@
         <v>1</v>
       </c>
       <c r="C569" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D569" t="s">
         <v>27</v>
@@ -32965,7 +33062,7 @@
         <v>1</v>
       </c>
       <c r="C570" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D570" t="s">
         <v>27</v>
@@ -33000,7 +33097,7 @@
         <v>1</v>
       </c>
       <c r="C571" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D571" t="s">
         <v>27</v>
@@ -33035,7 +33132,7 @@
         <v>1</v>
       </c>
       <c r="C572" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D572" t="s">
         <v>27</v>
@@ -33070,7 +33167,7 @@
         <v>1</v>
       </c>
       <c r="C573" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D573" t="s">
         <v>27</v>
@@ -33105,7 +33202,7 @@
         <v>1</v>
       </c>
       <c r="C574" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D574" t="s">
         <v>27</v>
@@ -33140,7 +33237,7 @@
         <v>1</v>
       </c>
       <c r="C575" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D575" t="s">
         <v>27</v>
@@ -33175,7 +33272,7 @@
         <v>1</v>
       </c>
       <c r="C576" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D576" t="s">
         <v>70</v>
@@ -33210,7 +33307,7 @@
         <v>1</v>
       </c>
       <c r="C577" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D577" t="s">
         <v>70</v>
@@ -33245,7 +33342,7 @@
         <v>1</v>
       </c>
       <c r="C578" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D578" t="s">
         <v>70</v>
@@ -33280,7 +33377,7 @@
         <v>1</v>
       </c>
       <c r="C579" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D579" t="s">
         <v>70</v>
@@ -33315,7 +33412,7 @@
         <v>1</v>
       </c>
       <c r="C580" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D580" t="s">
         <v>70</v>
@@ -33350,7 +33447,7 @@
         <v>1</v>
       </c>
       <c r="C581" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D581" t="s">
         <v>70</v>
@@ -33385,7 +33482,7 @@
         <v>1</v>
       </c>
       <c r="C582" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D582" t="s">
         <v>70</v>
@@ -33420,7 +33517,7 @@
         <v>1</v>
       </c>
       <c r="C583" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D583" t="s">
         <v>70</v>
@@ -33455,7 +33552,7 @@
         <v>1</v>
       </c>
       <c r="C584" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D584" t="s">
         <v>70</v>
@@ -33490,7 +33587,7 @@
         <v>1</v>
       </c>
       <c r="C585" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D585" t="s">
         <v>70</v>
@@ -33525,7 +33622,7 @@
         <v>1</v>
       </c>
       <c r="C586" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D586" t="s">
         <v>70</v>
@@ -33560,7 +33657,7 @@
         <v>1</v>
       </c>
       <c r="C587" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D587" t="s">
         <v>70</v>
@@ -33595,7 +33692,7 @@
         <v>1</v>
       </c>
       <c r="C588" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D588" t="s">
         <v>70</v>
@@ -33630,7 +33727,7 @@
         <v>1</v>
       </c>
       <c r="C589" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D589" t="s">
         <v>70</v>
@@ -33665,7 +33762,7 @@
         <v>1</v>
       </c>
       <c r="C590" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D590" t="s">
         <v>70</v>
@@ -33700,7 +33797,7 @@
         <v>1</v>
       </c>
       <c r="C591" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D591" t="s">
         <v>70</v>
@@ -33735,7 +33832,7 @@
         <v>1</v>
       </c>
       <c r="C592" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D592" t="s">
         <v>70</v>
@@ -33770,7 +33867,7 @@
         <v>1</v>
       </c>
       <c r="C593" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D593" t="s">
         <v>70</v>
@@ -33805,7 +33902,7 @@
         <v>1</v>
       </c>
       <c r="C594" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D594" t="s">
         <v>70</v>
@@ -33840,7 +33937,7 @@
         <v>1</v>
       </c>
       <c r="C595" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D595" t="s">
         <v>70</v>
@@ -33875,7 +33972,7 @@
         <v>1</v>
       </c>
       <c r="C596" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D596" t="s">
         <v>70</v>
@@ -33910,7 +34007,7 @@
         <v>1</v>
       </c>
       <c r="C597" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D597" t="s">
         <v>29</v>
@@ -33945,7 +34042,7 @@
         <v>1</v>
       </c>
       <c r="C598" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D598" t="s">
         <v>29</v>
@@ -33980,7 +34077,7 @@
         <v>1</v>
       </c>
       <c r="C599" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D599" t="s">
         <v>29</v>
@@ -34015,7 +34112,7 @@
         <v>1</v>
       </c>
       <c r="C600" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D600" t="s">
         <v>29</v>
@@ -34050,7 +34147,7 @@
         <v>1</v>
       </c>
       <c r="C601" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D601" t="s">
         <v>29</v>
@@ -34085,7 +34182,7 @@
         <v>1</v>
       </c>
       <c r="C602" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D602" t="s">
         <v>29</v>
@@ -34120,7 +34217,7 @@
         <v>1</v>
       </c>
       <c r="C603" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D603" t="s">
         <v>29</v>
@@ -34155,7 +34252,7 @@
         <v>1</v>
       </c>
       <c r="C604" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D604" t="s">
         <v>33</v>
@@ -34190,7 +34287,7 @@
         <v>1</v>
       </c>
       <c r="C605" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D605" t="s">
         <v>33</v>
@@ -34225,7 +34322,7 @@
         <v>1</v>
       </c>
       <c r="C606" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D606" t="s">
         <v>33</v>
@@ -34260,7 +34357,7 @@
         <v>1</v>
       </c>
       <c r="C607" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D607" t="s">
         <v>33</v>
@@ -34295,7 +34392,7 @@
         <v>1</v>
       </c>
       <c r="C608" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D608" t="s">
         <v>33</v>
@@ -34330,7 +34427,7 @@
         <v>1</v>
       </c>
       <c r="C609" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D609" t="s">
         <v>33</v>
@@ -34365,7 +34462,7 @@
         <v>1</v>
       </c>
       <c r="C610" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D610" t="s">
         <v>33</v>
@@ -34400,7 +34497,7 @@
         <v>1</v>
       </c>
       <c r="C611" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D611" t="s">
         <v>35</v>
@@ -34435,7 +34532,7 @@
         <v>1</v>
       </c>
       <c r="C612" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D612" t="s">
         <v>35</v>
@@ -34470,7 +34567,7 @@
         <v>1</v>
       </c>
       <c r="C613" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D613" t="s">
         <v>35</v>
@@ -34505,7 +34602,7 @@
         <v>1</v>
       </c>
       <c r="C614" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D614" t="s">
         <v>35</v>
@@ -34540,7 +34637,7 @@
         <v>1</v>
       </c>
       <c r="C615" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D615" t="s">
         <v>35</v>
@@ -34575,7 +34672,7 @@
         <v>1</v>
       </c>
       <c r="C616" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D616" t="s">
         <v>35</v>
@@ -34610,7 +34707,7 @@
         <v>1</v>
       </c>
       <c r="C617" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D617" t="s">
         <v>35</v>
@@ -34645,7 +34742,7 @@
         <v>1</v>
       </c>
       <c r="C618" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D618" t="s">
         <v>37</v>
@@ -34680,7 +34777,7 @@
         <v>1</v>
       </c>
       <c r="C619" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D619" t="s">
         <v>37</v>
@@ -34715,7 +34812,7 @@
         <v>1</v>
       </c>
       <c r="C620" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D620" t="s">
         <v>37</v>
@@ -34750,7 +34847,7 @@
         <v>1</v>
       </c>
       <c r="C621" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D621" t="s">
         <v>37</v>
@@ -34785,7 +34882,7 @@
         <v>1</v>
       </c>
       <c r="C622" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D622" t="s">
         <v>37</v>
@@ -34820,7 +34917,7 @@
         <v>1</v>
       </c>
       <c r="C623" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D623" t="s">
         <v>37</v>
@@ -34855,7 +34952,7 @@
         <v>1</v>
       </c>
       <c r="C624" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D624" t="s">
         <v>37</v>
@@ -34890,7 +34987,7 @@
         <v>1</v>
       </c>
       <c r="C625" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D625" t="s">
         <v>48</v>
@@ -34925,7 +35022,7 @@
         <v>1</v>
       </c>
       <c r="C626" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D626" t="s">
         <v>48</v>
@@ -34960,7 +35057,7 @@
         <v>1</v>
       </c>
       <c r="C627" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D627" t="s">
         <v>48</v>
@@ -34995,7 +35092,7 @@
         <v>1</v>
       </c>
       <c r="C628" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D628" t="s">
         <v>48</v>
@@ -35030,7 +35127,7 @@
         <v>1</v>
       </c>
       <c r="C629" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D629" t="s">
         <v>48</v>
@@ -35065,7 +35162,7 @@
         <v>1</v>
       </c>
       <c r="C630" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D630" t="s">
         <v>48</v>
@@ -35100,7 +35197,7 @@
         <v>1</v>
       </c>
       <c r="C631" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D631" t="s">
         <v>48</v>
@@ -35135,7 +35232,7 @@
         <v>1</v>
       </c>
       <c r="C632" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D632" t="s">
         <v>51</v>
@@ -35170,7 +35267,7 @@
         <v>1</v>
       </c>
       <c r="C633" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D633" t="s">
         <v>51</v>
@@ -35205,7 +35302,7 @@
         <v>1</v>
       </c>
       <c r="C634" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D634" t="s">
         <v>51</v>
@@ -35240,7 +35337,7 @@
         <v>1</v>
       </c>
       <c r="C635" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D635" t="s">
         <v>51</v>
@@ -35275,7 +35372,7 @@
         <v>1</v>
       </c>
       <c r="C636" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D636" t="s">
         <v>51</v>
@@ -35310,7 +35407,7 @@
         <v>1</v>
       </c>
       <c r="C637" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D637" t="s">
         <v>51</v>
@@ -35345,7 +35442,7 @@
         <v>1</v>
       </c>
       <c r="C638" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D638" t="s">
         <v>51</v>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCE0BC08-FB43-4994-AC98-B4D90CED9D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49674DB4-BEF4-4DF2-9C67-BB8DC599F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04B8FD6-A081-66F5-7632-2C057EBE9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45CB8FE-787E-59FE-C82F-9EADE0C5C796}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,11 +2877,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="12" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.53125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -3475,10 +3479,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="13" t="s">
-        <v>84</v>
-      </c>
+    <row r="34" spans="7:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>2.1286</v>
@@ -3507,64 +3508,67 @@
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
         <v>4.6910999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B35" s="20" t="s">
+      <c r="Q34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="20">
+      <c r="R35" s="20">
         <v>2024</v>
       </c>
-      <c r="D35" s="20">
+      <c r="S35" s="20">
         <v>2030</v>
       </c>
-      <c r="E35" s="20">
+      <c r="T35" s="20">
         <v>2040</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="U35" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="V35" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q36" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="22">
+      <c r="R36" s="22">
         <v>4.1820000000000004</v>
       </c>
-      <c r="D36" s="22">
+      <c r="S36" s="22">
         <v>5.57</v>
       </c>
-      <c r="E36" s="22">
+      <c r="T36" s="22">
         <v>6.06</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="U36" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="V36" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B37" s="23" t="s">
+    <row r="37" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="24">
+      <c r="R37" s="24">
         <v>0</v>
       </c>
-      <c r="D37" s="24">
+      <c r="S37" s="24">
         <v>0</v>
       </c>
-      <c r="E37" s="24">
+      <c r="T37" s="24">
         <v>0</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="U37" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="V37" s="23" t="s">
         <v>87</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49674DB4-BEF4-4DF2-9C67-BB8DC599F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70EEAE15-9B15-420A-9D62-D6A76CB5A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45CB8FE-787E-59FE-C82F-9EADE0C5C796}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354CAD7B-855A-B803-83C5-C8976ECD2B10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70EEAE15-9B15-420A-9D62-D6A76CB5A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45122A0-BFFA-483C-822D-7B8C0A183159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354CAD7B-855A-B803-83C5-C8976ECD2B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D70311-E148-D4EF-3A69-D551636C808B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45122A0-BFFA-483C-822D-7B8C0A183159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD988286-43C4-4C33-8AC7-B9768D29B73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D70311-E148-D4EF-3A69-D551636C808B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC789197-1773-41A2-272E-4483A093B716}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD988286-43C4-4C33-8AC7-B9768D29B73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC00E55C-FD31-4250-83B2-A7E143B0BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC789197-1773-41A2-272E-4483A093B716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C45BFA-78B3-5E0C-FCFC-54C55D35BD76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC00E55C-FD31-4250-83B2-A7E143B0BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD65508-2657-436A-A3DB-E45F4A046E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C45BFA-78B3-5E0C-FCFC-54C55D35BD76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B94DF9-E74D-38D8-D895-278AAF0D9E0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD65508-2657-436A-A3DB-E45F4A046E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2A49B5-1909-43C7-B4E4-2176D0F186E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B94DF9-E74D-38D8-D895-278AAF0D9E0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78C24A6-3EDC-9832-4938-A17EAA1FECEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2A49B5-1909-43C7-B4E4-2176D0F186E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8029C042-BFD7-48A4-93A7-87B51F09A3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78C24A6-3EDC-9832-4938-A17EAA1FECEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECA5831-539E-C98C-1FC2-93B2D0C2C167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8029C042-BFD7-48A4-93A7-87B51F09A3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0180F412-ED36-47A7-82BF-4C7115B47D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECA5831-539E-C98C-1FC2-93B2D0C2C167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4653CD56-B982-A6A4-7BF1-342E07FE6C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0180F412-ED36-47A7-82BF-4C7115B47D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF77990-9E06-4228-A326-A4D80A1EAFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4653CD56-B982-A6A4-7BF1-342E07FE6C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9357C11-210A-2C54-B644-20AC82A084AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F365CEFF-8B6F-422B-9168-691278B07427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C709DE9C-B17B-4790-9740-6D4861A3DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8BBFC3-8BE8-1CAB-E78B-8E7F466FD69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425CBD2C-DD2D-B02C-3435-2343A3720F24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C709DE9C-B17B-4790-9740-6D4861A3DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D26961B5-A955-433C-B1EB-3D64536B3FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425CBD2C-DD2D-B02C-3435-2343A3720F24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F00DFD-517C-E9BE-07D1-2140CC08251C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D26961B5-A955-433C-B1EB-3D64536B3FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1500B64D-51AA-4907-8B3C-284D8D8CD749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F00DFD-517C-E9BE-07D1-2140CC08251C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF75A51-73B5-C259-9589-C526FCA7176C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1500B64D-51AA-4907-8B3C-284D8D8CD749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B6EFF7-09D0-4547-8803-5BCE9B04B21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF75A51-73B5-C259-9589-C526FCA7176C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA4BFF7-46AB-1D10-6C54-9D85A42EDAF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B6EFF7-09D0-4547-8803-5BCE9B04B21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA9157F1-095E-4FE6-B260-A844EBC893AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA4BFF7-46AB-1D10-6C54-9D85A42EDAF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A406E67D-30B4-B55D-F227-FD955A2E50CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA9157F1-095E-4FE6-B260-A844EBC893AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4AB913-47A9-4FCC-AAB4-24AA9EE3A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A406E67D-30B4-B55D-F227-FD955A2E50CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5185C3-C578-3126-A4A9-C6879A738639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4AB913-47A9-4FCC-AAB4-24AA9EE3A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B4EE9E-6CAA-440D-8F82-8FD198505418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5185C3-C578-3126-A4A9-C6879A738639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C5895-FA13-E998-AF65-1D3ED3D7AEBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B4EE9E-6CAA-440D-8F82-8FD198505418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FE00FB-94E3-4EF7-9378-271D2DB90556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C5895-FA13-E998-AF65-1D3ED3D7AEBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7741D6CD-50AD-CEE2-EC8A-BAAC58F15341}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
